--- a/분석_설계/사내 커뮤니티 요구사항 정의서(Rotto).xlsx
+++ b/분석_설계/사내 커뮤니티 요구사항 정의서(Rotto).xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\team_project\02_lotto_board\gitFiles\lotto_board_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\09_Team_Project\02_산출물관리_게시판\gitFiles\lotto_board_project\분석_설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBD0138-4F0D-4E3C-8053-1136B264B0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4C8C0D-5368-489D-9272-DD4ACC514CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항 정의서 탬플릿_01" sheetId="1" r:id="rId1"/>
@@ -1035,7 +1035,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="65">
+  <borders count="68">
     <border>
       <left/>
       <right/>
@@ -1855,12 +1855,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1">
@@ -1868,7 +1903,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -2042,7 +2077,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2055,19 +2090,19 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="60" xfId="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2160,13 +2195,178 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2176,181 +2376,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="66" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2671,8 +2712,8 @@
   </sheetPr>
   <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B35" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B37" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2814,12 +2855,12 @@
       <c r="B13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="146" t="s">
+      <c r="C13" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="147"/>
-      <c r="E13" s="147"/>
-      <c r="F13" s="148"/>
+      <c r="D13" s="145"/>
+      <c r="E13" s="145"/>
+      <c r="F13" s="146"/>
     </row>
     <row r="14" spans="1:8" ht="21.75" customHeight="1">
       <c r="A14" s="115"/>
@@ -2831,15 +2872,15 @@
     </row>
     <row r="15" spans="1:8" ht="28.5" customHeight="1">
       <c r="A15" s="115"/>
-      <c r="B15" s="154" t="s">
+      <c r="B15" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="155"/>
-      <c r="D15" s="155"/>
-      <c r="E15" s="155"/>
-      <c r="F15" s="155"/>
-      <c r="G15" s="155"/>
-      <c r="H15" s="155"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
     </row>
     <row r="16" spans="1:8" ht="21.75" customHeight="1">
       <c r="A16" s="115"/>
@@ -2867,10 +2908,10 @@
     </row>
     <row r="17" spans="1:8" ht="32.25" customHeight="1">
       <c r="A17" s="115"/>
-      <c r="B17" s="138" t="s">
+      <c r="B17" s="111" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="149" t="s">
+      <c r="C17" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D17" s="81" t="s">
@@ -2885,14 +2926,14 @@
       <c r="G17" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="138" t="s">
+      <c r="H17" s="111" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="30" customHeight="1" thickBot="1">
       <c r="A18" s="115"/>
-      <c r="B18" s="139"/>
-      <c r="C18" s="150"/>
+      <c r="B18" s="138"/>
+      <c r="C18" s="103"/>
       <c r="D18" s="58" t="s">
         <v>69</v>
       </c>
@@ -2903,12 +2944,12 @@
       <c r="G18" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="H18" s="140"/>
+      <c r="H18" s="112"/>
     </row>
     <row r="19" spans="1:8" ht="30" customHeight="1">
       <c r="A19" s="115"/>
-      <c r="B19" s="139"/>
-      <c r="C19" s="111" t="s">
+      <c r="B19" s="138"/>
+      <c r="C19" s="107" t="s">
         <v>53</v>
       </c>
       <c r="D19" s="85" t="s">
@@ -2921,14 +2962,14 @@
       <c r="G19" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="H19" s="156" t="s">
+      <c r="H19" s="113" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" customHeight="1" thickBot="1">
       <c r="A20" s="115"/>
-      <c r="B20" s="139"/>
-      <c r="C20" s="106"/>
+      <c r="B20" s="138"/>
+      <c r="C20" s="108"/>
       <c r="D20" s="88" t="s">
         <v>16</v>
       </c>
@@ -2939,12 +2980,12 @@
       <c r="G20" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="H20" s="157"/>
+      <c r="H20" s="114"/>
     </row>
     <row r="21" spans="1:8" ht="97.5" customHeight="1">
       <c r="A21" s="115"/>
-      <c r="B21" s="139"/>
-      <c r="C21" s="151" t="s">
+      <c r="B21" s="138"/>
+      <c r="C21" s="104" t="s">
         <v>72</v>
       </c>
       <c r="D21" s="70" t="s">
@@ -2957,12 +2998,12 @@
       <c r="G21" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="108"/>
+      <c r="H21" s="149"/>
     </row>
     <row r="22" spans="1:8" ht="30" customHeight="1">
       <c r="A22" s="115"/>
-      <c r="B22" s="139"/>
-      <c r="C22" s="152"/>
+      <c r="B22" s="138"/>
+      <c r="C22" s="105"/>
       <c r="D22" s="71" t="s">
         <v>76</v>
       </c>
@@ -2973,12 +3014,12 @@
       <c r="G22" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="H22" s="109"/>
+      <c r="H22" s="150"/>
     </row>
     <row r="23" spans="1:8" ht="37.5" customHeight="1">
       <c r="A23" s="115"/>
-      <c r="B23" s="139"/>
-      <c r="C23" s="152"/>
+      <c r="B23" s="138"/>
+      <c r="C23" s="105"/>
       <c r="D23" s="72" t="s">
         <v>35</v>
       </c>
@@ -2991,12 +3032,12 @@
       <c r="G23" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="H23" s="109"/>
+      <c r="H23" s="150"/>
     </row>
     <row r="24" spans="1:8" ht="30" customHeight="1">
       <c r="A24" s="115"/>
-      <c r="B24" s="139"/>
-      <c r="C24" s="152"/>
+      <c r="B24" s="138"/>
+      <c r="C24" s="105"/>
       <c r="D24" s="71" t="s">
         <v>82</v>
       </c>
@@ -3009,12 +3050,12 @@
       <c r="G24" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="H24" s="109"/>
+      <c r="H24" s="150"/>
     </row>
     <row r="25" spans="1:8" ht="51.75" customHeight="1">
       <c r="A25" s="115"/>
-      <c r="B25" s="139"/>
-      <c r="C25" s="152"/>
+      <c r="B25" s="138"/>
+      <c r="C25" s="105"/>
       <c r="D25" s="71" t="s">
         <v>83</v>
       </c>
@@ -3027,12 +3068,12 @@
       <c r="G25" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="H25" s="109"/>
+      <c r="H25" s="150"/>
     </row>
     <row r="26" spans="1:8" ht="292.5" customHeight="1">
       <c r="A26" s="115"/>
-      <c r="B26" s="139"/>
-      <c r="C26" s="152"/>
+      <c r="B26" s="138"/>
+      <c r="C26" s="105"/>
       <c r="D26" s="73" t="s">
         <v>79</v>
       </c>
@@ -3045,12 +3086,12 @@
       <c r="G26" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="H26" s="109"/>
+      <c r="H26" s="150"/>
     </row>
     <row r="27" spans="1:8" ht="30" customHeight="1" thickBot="1">
       <c r="A27" s="115"/>
-      <c r="B27" s="139"/>
-      <c r="C27" s="153"/>
+      <c r="B27" s="138"/>
+      <c r="C27" s="106"/>
       <c r="D27" s="74" t="s">
         <v>85</v>
       </c>
@@ -3063,12 +3104,12 @@
       <c r="G27" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="H27" s="110"/>
+      <c r="H27" s="151"/>
     </row>
     <row r="28" spans="1:8" ht="35.25" customHeight="1">
       <c r="A28" s="115"/>
-      <c r="B28" s="139"/>
-      <c r="C28" s="111" t="s">
+      <c r="B28" s="138"/>
+      <c r="C28" s="107" t="s">
         <v>86</v>
       </c>
       <c r="D28" s="89" t="s">
@@ -3081,14 +3122,14 @@
       <c r="G28" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="H28" s="107" t="s">
+      <c r="H28" s="147" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="45" customHeight="1">
       <c r="A29" s="115"/>
-      <c r="B29" s="139"/>
-      <c r="C29" s="105"/>
+      <c r="B29" s="138"/>
+      <c r="C29" s="152"/>
       <c r="D29" s="92" t="s">
         <v>81</v>
       </c>
@@ -3101,12 +3142,12 @@
       <c r="G29" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="H29" s="100"/>
+      <c r="H29" s="148"/>
     </row>
     <row r="30" spans="1:8" ht="142.5" customHeight="1">
       <c r="A30" s="115"/>
-      <c r="B30" s="139"/>
-      <c r="C30" s="105"/>
+      <c r="B30" s="138"/>
+      <c r="C30" s="152"/>
       <c r="D30" s="75" t="s">
         <v>11</v>
       </c>
@@ -3125,8 +3166,8 @@
     </row>
     <row r="31" spans="1:8" ht="30" customHeight="1">
       <c r="A31" s="115"/>
-      <c r="B31" s="139"/>
-      <c r="C31" s="105"/>
+      <c r="B31" s="138"/>
+      <c r="C31" s="152"/>
       <c r="D31" s="75" t="s">
         <v>64</v>
       </c>
@@ -3143,8 +3184,8 @@
     </row>
     <row r="32" spans="1:8" ht="35.1" customHeight="1">
       <c r="A32" s="115"/>
-      <c r="B32" s="139"/>
-      <c r="C32" s="105"/>
+      <c r="B32" s="138"/>
+      <c r="C32" s="152"/>
       <c r="D32" s="75" t="s">
         <v>80</v>
       </c>
@@ -3161,8 +3202,8 @@
     </row>
     <row r="33" spans="1:8" ht="30" customHeight="1">
       <c r="A33" s="115"/>
-      <c r="B33" s="139"/>
-      <c r="C33" s="105"/>
+      <c r="B33" s="138"/>
+      <c r="C33" s="152"/>
       <c r="D33" s="97" t="s">
         <v>109</v>
       </c>
@@ -3179,8 +3220,8 @@
     </row>
     <row r="34" spans="1:8" ht="30" customHeight="1" thickBot="1">
       <c r="A34" s="115"/>
-      <c r="B34" s="139"/>
-      <c r="C34" s="106"/>
+      <c r="B34" s="138"/>
+      <c r="C34" s="108"/>
       <c r="D34" s="80" t="s">
         <v>119</v>
       </c>
@@ -3197,11 +3238,11 @@
     </row>
     <row r="35" spans="1:8" ht="182.25" customHeight="1">
       <c r="A35" s="115"/>
-      <c r="B35" s="139"/>
-      <c r="C35" s="111" t="s">
+      <c r="B35" s="138"/>
+      <c r="C35" s="107" t="s">
         <v>111</v>
       </c>
-      <c r="D35" s="112" t="s">
+      <c r="D35" s="153" t="s">
         <v>39</v>
       </c>
       <c r="E35" s="30" t="s">
@@ -3213,31 +3254,31 @@
       <c r="G35" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="H35" s="101" t="s">
+      <c r="H35" s="156" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="176.25" customHeight="1">
       <c r="A36" s="115"/>
-      <c r="B36" s="139"/>
-      <c r="C36" s="105"/>
-      <c r="D36" s="113"/>
+      <c r="B36" s="138"/>
+      <c r="C36" s="152"/>
+      <c r="D36" s="154"/>
       <c r="E36" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="F36" s="160" t="s">
+      <c r="F36" s="99" t="s">
         <v>124</v>
       </c>
       <c r="G36" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="H36" s="100"/>
+      <c r="H36" s="148"/>
     </row>
     <row r="37" spans="1:8" ht="30" customHeight="1">
       <c r="A37" s="115"/>
-      <c r="B37" s="139"/>
-      <c r="C37" s="105"/>
-      <c r="D37" s="113"/>
+      <c r="B37" s="138"/>
+      <c r="C37" s="152"/>
+      <c r="D37" s="154"/>
       <c r="E37" s="28" t="s">
         <v>18</v>
       </c>
@@ -3253,16 +3294,16 @@
     </row>
     <row r="38" spans="1:8" ht="30" customHeight="1">
       <c r="A38" s="115"/>
-      <c r="B38" s="139"/>
-      <c r="C38" s="105"/>
-      <c r="D38" s="113"/>
-      <c r="E38" s="161" t="s">
+      <c r="B38" s="138"/>
+      <c r="C38" s="152"/>
+      <c r="D38" s="154"/>
+      <c r="E38" s="100" t="s">
         <v>121</v>
       </c>
-      <c r="F38" s="162" t="s">
+      <c r="F38" s="101" t="s">
         <v>122</v>
       </c>
-      <c r="G38" s="163" t="s">
+      <c r="G38" s="102" t="s">
         <v>123</v>
       </c>
       <c r="H38" s="67" t="s">
@@ -3271,9 +3312,9 @@
     </row>
     <row r="39" spans="1:8" ht="48" customHeight="1" thickBot="1">
       <c r="A39" s="115"/>
-      <c r="B39" s="140"/>
-      <c r="C39" s="106"/>
-      <c r="D39" s="114"/>
+      <c r="B39" s="112"/>
+      <c r="C39" s="108"/>
+      <c r="D39" s="155"/>
       <c r="E39" s="38" t="s">
         <v>98</v>
       </c>
@@ -3287,7 +3328,7 @@
     </row>
     <row r="40" spans="1:8" ht="35.1" customHeight="1">
       <c r="A40" s="115"/>
-      <c r="B40" s="143" t="s">
+      <c r="B40" s="141" t="s">
         <v>110</v>
       </c>
       <c r="C40" s="76" t="s">
@@ -3309,8 +3350,8 @@
     </row>
     <row r="41" spans="1:8" ht="30" customHeight="1">
       <c r="A41" s="115"/>
-      <c r="B41" s="144"/>
-      <c r="C41" s="102" t="s">
+      <c r="B41" s="142"/>
+      <c r="C41" s="157" t="s">
         <v>117</v>
       </c>
       <c r="D41" s="78" t="s">
@@ -3323,14 +3364,14 @@
       <c r="G41" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="H41" s="101" t="s">
+      <c r="H41" s="156" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="30" customHeight="1">
       <c r="A42" s="115"/>
-      <c r="B42" s="144"/>
-      <c r="C42" s="103"/>
+      <c r="B42" s="142"/>
+      <c r="C42" s="158"/>
       <c r="D42" s="79" t="s">
         <v>40</v>
       </c>
@@ -3341,12 +3382,12 @@
       <c r="G42" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="H42" s="100"/>
+      <c r="H42" s="148"/>
     </row>
     <row r="43" spans="1:8" ht="30" customHeight="1">
       <c r="A43" s="115"/>
-      <c r="B43" s="144"/>
-      <c r="C43" s="103"/>
+      <c r="B43" s="142"/>
+      <c r="C43" s="158"/>
       <c r="D43" s="79" t="s">
         <v>113</v>
       </c>
@@ -3354,17 +3395,17 @@
         <v>114</v>
       </c>
       <c r="F43" s="31"/>
-      <c r="G43" s="34" t="s">
+      <c r="G43" s="162" t="s">
         <v>96</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="H43" s="163" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="30" customHeight="1">
       <c r="A44" s="115"/>
-      <c r="B44" s="144"/>
-      <c r="C44" s="103"/>
+      <c r="B44" s="142"/>
+      <c r="C44" s="158"/>
       <c r="D44" s="79" t="s">
         <v>115</v>
       </c>
@@ -3372,15 +3413,15 @@
         <v>116</v>
       </c>
       <c r="F44" s="31"/>
-      <c r="G44" s="34" t="s">
+      <c r="G44" s="162" t="s">
         <v>96</v>
       </c>
-      <c r="H44" s="99"/>
+      <c r="H44" s="164"/>
     </row>
     <row r="45" spans="1:8" ht="30" customHeight="1">
       <c r="A45" s="115"/>
-      <c r="B45" s="144"/>
-      <c r="C45" s="104"/>
+      <c r="B45" s="142"/>
+      <c r="C45" s="159"/>
       <c r="D45" s="79" t="s">
         <v>112</v>
       </c>
@@ -3388,18 +3429,18 @@
         <v>92</v>
       </c>
       <c r="F45" s="31"/>
-      <c r="G45" s="34" t="s">
+      <c r="G45" s="162" t="s">
         <v>55</v>
       </c>
-      <c r="H45" s="100"/>
+      <c r="H45" s="165"/>
     </row>
     <row r="46" spans="1:8" ht="30" customHeight="1">
       <c r="A46" s="115"/>
-      <c r="B46" s="144"/>
-      <c r="C46" s="105" t="s">
+      <c r="B46" s="142"/>
+      <c r="C46" s="152" t="s">
         <v>118</v>
       </c>
-      <c r="D46" s="141" t="s">
+      <c r="D46" s="139" t="s">
         <v>102</v>
       </c>
       <c r="E46" s="60" t="s">
@@ -3415,9 +3456,9 @@
     </row>
     <row r="47" spans="1:8" ht="39.950000000000003" customHeight="1" thickBot="1">
       <c r="A47" s="115"/>
-      <c r="B47" s="145"/>
-      <c r="C47" s="106"/>
-      <c r="D47" s="142"/>
+      <c r="B47" s="143"/>
+      <c r="C47" s="108"/>
+      <c r="D47" s="140"/>
       <c r="E47" s="66" t="s">
         <v>105</v>
       </c>
@@ -3910,12 +3951,16 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C21:C27"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H43:H45"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="C41:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="H21:H27"/>
+    <mergeCell ref="C28:C34"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="C35:C39"/>
     <mergeCell ref="A2:A106"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
@@ -3932,16 +3977,12 @@
     <mergeCell ref="B40:B47"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="H21:H27"/>
-    <mergeCell ref="C28:C34"/>
-    <mergeCell ref="D35:D39"/>
-    <mergeCell ref="C35:C39"/>
-    <mergeCell ref="H43:H45"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="C41:C45"/>
-    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C21:C27"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H19:H20"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <conditionalFormatting sqref="B17">
@@ -3987,14 +4028,14 @@
     <row r="1" spans="1:7" ht="21.75" customHeight="1">
       <c r="A1" s="7"/>
       <c r="B1" s="115"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A2" s="159"/>
+      <c r="A2" s="161"/>
       <c r="B2" s="8" t="s">
         <v>62</v>
       </c>
@@ -4010,10 +4051,10 @@
       <c r="F2" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="159"/>
+      <c r="G2" s="161"/>
     </row>
     <row r="3" spans="1:7" ht="176.25" customHeight="1">
-      <c r="A3" s="158"/>
+      <c r="A3" s="160"/>
       <c r="B3" s="9">
         <v>1</v>
       </c>
@@ -4027,10 +4068,10 @@
       <c r="F3" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="158"/>
+      <c r="G3" s="160"/>
     </row>
     <row r="4" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A4" s="158"/>
+      <c r="A4" s="160"/>
       <c r="B4" s="9">
         <v>2</v>
       </c>
@@ -4038,10 +4079,10 @@
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="158"/>
+      <c r="G4" s="160"/>
     </row>
     <row r="5" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A5" s="158"/>
+      <c r="A5" s="160"/>
       <c r="B5" s="9">
         <v>3</v>
       </c>
@@ -4049,10 +4090,10 @@
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="158"/>
+      <c r="G5" s="160"/>
     </row>
     <row r="6" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A6" s="158"/>
+      <c r="A6" s="160"/>
       <c r="B6" s="9">
         <v>4</v>
       </c>
@@ -4060,10 +4101,10 @@
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="158"/>
+      <c r="G6" s="160"/>
     </row>
     <row r="7" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A7" s="158"/>
+      <c r="A7" s="160"/>
       <c r="B7" s="9">
         <v>5</v>
       </c>
@@ -4071,10 +4112,10 @@
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
-      <c r="G7" s="158"/>
+      <c r="G7" s="160"/>
     </row>
     <row r="8" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A8" s="158"/>
+      <c r="A8" s="160"/>
       <c r="B8" s="9">
         <v>6</v>
       </c>
@@ -4082,10 +4123,10 @@
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
-      <c r="G8" s="158"/>
+      <c r="G8" s="160"/>
     </row>
     <row r="9" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A9" s="158"/>
+      <c r="A9" s="160"/>
       <c r="B9" s="9">
         <v>7</v>
       </c>
@@ -4093,10 +4134,10 @@
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
-      <c r="G9" s="158"/>
+      <c r="G9" s="160"/>
     </row>
     <row r="10" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A10" s="158"/>
+      <c r="A10" s="160"/>
       <c r="B10" s="9">
         <v>8</v>
       </c>
@@ -4104,10 +4145,10 @@
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
-      <c r="G10" s="158"/>
+      <c r="G10" s="160"/>
     </row>
     <row r="11" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A11" s="158"/>
+      <c r="A11" s="160"/>
       <c r="B11" s="9">
         <v>9</v>
       </c>
@@ -4115,10 +4156,10 @@
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
-      <c r="G11" s="158"/>
+      <c r="G11" s="160"/>
     </row>
     <row r="12" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A12" s="158"/>
+      <c r="A12" s="160"/>
       <c r="B12" s="9">
         <v>10</v>
       </c>
@@ -4126,10 +4167,10 @@
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
-      <c r="G12" s="158"/>
+      <c r="G12" s="160"/>
     </row>
     <row r="13" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A13" s="158"/>
+      <c r="A13" s="160"/>
       <c r="B13" s="9">
         <v>11</v>
       </c>
@@ -4137,10 +4178,10 @@
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
-      <c r="G13" s="158"/>
+      <c r="G13" s="160"/>
     </row>
     <row r="14" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A14" s="158"/>
+      <c r="A14" s="160"/>
       <c r="B14" s="9">
         <v>12</v>
       </c>
@@ -4148,10 +4189,10 @@
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
-      <c r="G14" s="158"/>
+      <c r="G14" s="160"/>
     </row>
     <row r="15" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A15" s="158"/>
+      <c r="A15" s="160"/>
       <c r="B15" s="9">
         <v>13</v>
       </c>
@@ -4159,10 +4200,10 @@
       <c r="D15" s="17"/>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="158"/>
+      <c r="G15" s="160"/>
     </row>
     <row r="16" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A16" s="158"/>
+      <c r="A16" s="160"/>
       <c r="B16" s="9">
         <v>14</v>
       </c>
@@ -4170,10 +4211,10 @@
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
       <c r="F16" s="18"/>
-      <c r="G16" s="158"/>
+      <c r="G16" s="160"/>
     </row>
     <row r="17" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A17" s="158"/>
+      <c r="A17" s="160"/>
       <c r="B17" s="9">
         <v>15</v>
       </c>
@@ -4181,10 +4222,10 @@
       <c r="D17" s="18"/>
       <c r="E17" s="15"/>
       <c r="F17" s="18"/>
-      <c r="G17" s="158"/>
+      <c r="G17" s="160"/>
     </row>
     <row r="18" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A18" s="158"/>
+      <c r="A18" s="160"/>
       <c r="B18" s="9">
         <v>16</v>
       </c>
@@ -4192,10 +4233,10 @@
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
-      <c r="G18" s="158"/>
+      <c r="G18" s="160"/>
     </row>
     <row r="19" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A19" s="158"/>
+      <c r="A19" s="160"/>
       <c r="B19" s="9">
         <v>17</v>
       </c>
@@ -4203,10 +4244,10 @@
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
-      <c r="G19" s="158"/>
+      <c r="G19" s="160"/>
     </row>
     <row r="20" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A20" s="158"/>
+      <c r="A20" s="160"/>
       <c r="B20" s="9">
         <v>18</v>
       </c>
@@ -4214,10 +4255,10 @@
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
-      <c r="G20" s="158"/>
+      <c r="G20" s="160"/>
     </row>
     <row r="21" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A21" s="158"/>
+      <c r="A21" s="160"/>
       <c r="B21" s="9">
         <v>19</v>
       </c>
@@ -4225,10 +4266,10 @@
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="18"/>
-      <c r="G21" s="158"/>
+      <c r="G21" s="160"/>
     </row>
     <row r="22" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A22" s="158"/>
+      <c r="A22" s="160"/>
       <c r="B22" s="9">
         <v>20</v>
       </c>
@@ -4236,4300 +4277,4300 @@
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
-      <c r="G22" s="158"/>
+      <c r="G22" s="160"/>
     </row>
     <row r="23" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A23" s="158"/>
+      <c r="A23" s="160"/>
       <c r="B23" s="9"/>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
-      <c r="G23" s="158"/>
+      <c r="G23" s="160"/>
     </row>
     <row r="24" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A24" s="158"/>
+      <c r="A24" s="160"/>
       <c r="B24" s="9"/>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
-      <c r="G24" s="158"/>
+      <c r="G24" s="160"/>
     </row>
     <row r="25" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A25" s="158"/>
+      <c r="A25" s="160"/>
       <c r="B25" s="9"/>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
-      <c r="G25" s="158"/>
+      <c r="G25" s="160"/>
     </row>
     <row r="26" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A26" s="158"/>
+      <c r="A26" s="160"/>
       <c r="B26" s="9"/>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
-      <c r="G26" s="158"/>
+      <c r="G26" s="160"/>
     </row>
     <row r="27" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A27" s="158"/>
+      <c r="A27" s="160"/>
       <c r="B27" s="9"/>
       <c r="C27" s="18"/>
       <c r="D27" s="15"/>
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
-      <c r="G27" s="158"/>
+      <c r="G27" s="160"/>
     </row>
     <row r="28" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A28" s="158"/>
+      <c r="A28" s="160"/>
       <c r="B28" s="9"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
       <c r="F28" s="18"/>
-      <c r="G28" s="158"/>
+      <c r="G28" s="160"/>
     </row>
     <row r="29" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A29" s="158"/>
+      <c r="A29" s="160"/>
       <c r="B29" s="9"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
-      <c r="G29" s="158"/>
+      <c r="G29" s="160"/>
     </row>
     <row r="30" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A30" s="158"/>
+      <c r="A30" s="160"/>
       <c r="B30" s="19"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="F30" s="13"/>
-      <c r="G30" s="158"/>
+      <c r="G30" s="160"/>
     </row>
     <row r="31" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A31" s="158"/>
+      <c r="A31" s="160"/>
       <c r="B31" s="19"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
       <c r="F31" s="13"/>
-      <c r="G31" s="158"/>
+      <c r="G31" s="160"/>
     </row>
     <row r="32" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A32" s="158"/>
+      <c r="A32" s="160"/>
       <c r="B32" s="19"/>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
       <c r="E32" s="18"/>
       <c r="F32" s="13"/>
-      <c r="G32" s="158"/>
+      <c r="G32" s="160"/>
     </row>
     <row r="33" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A33" s="158"/>
+      <c r="A33" s="160"/>
       <c r="B33" s="19"/>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
       <c r="F33" s="13"/>
-      <c r="G33" s="158"/>
+      <c r="G33" s="160"/>
     </row>
     <row r="34" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A34" s="158"/>
+      <c r="A34" s="160"/>
       <c r="B34" s="19"/>
       <c r="C34" s="18"/>
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
       <c r="F34" s="13"/>
-      <c r="G34" s="158"/>
+      <c r="G34" s="160"/>
     </row>
     <row r="35" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A35" s="158"/>
+      <c r="A35" s="160"/>
       <c r="B35" s="19"/>
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
       <c r="E35" s="18"/>
       <c r="F35" s="13"/>
-      <c r="G35" s="158"/>
+      <c r="G35" s="160"/>
     </row>
     <row r="36" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A36" s="158"/>
+      <c r="A36" s="160"/>
       <c r="B36" s="19"/>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
       <c r="E36" s="18"/>
       <c r="F36" s="13"/>
-      <c r="G36" s="158"/>
+      <c r="G36" s="160"/>
     </row>
     <row r="37" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A37" s="158"/>
+      <c r="A37" s="160"/>
       <c r="B37" s="19"/>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
-      <c r="G37" s="158"/>
+      <c r="G37" s="160"/>
     </row>
     <row r="38" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A38" s="158"/>
+      <c r="A38" s="160"/>
       <c r="B38" s="19"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
-      <c r="G38" s="158"/>
+      <c r="G38" s="160"/>
     </row>
     <row r="39" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A39" s="158"/>
+      <c r="A39" s="160"/>
       <c r="B39" s="19"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
-      <c r="G39" s="158"/>
+      <c r="G39" s="160"/>
     </row>
     <row r="40" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A40" s="158"/>
+      <c r="A40" s="160"/>
       <c r="B40" s="19"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
-      <c r="G40" s="158"/>
+      <c r="G40" s="160"/>
     </row>
     <row r="41" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A41" s="158"/>
+      <c r="A41" s="160"/>
       <c r="B41" s="19"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
-      <c r="G41" s="158"/>
+      <c r="G41" s="160"/>
     </row>
     <row r="42" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A42" s="158"/>
+      <c r="A42" s="160"/>
       <c r="B42" s="19"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
-      <c r="G42" s="158"/>
+      <c r="G42" s="160"/>
     </row>
     <row r="43" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A43" s="158"/>
+      <c r="A43" s="160"/>
       <c r="B43" s="19"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
-      <c r="G43" s="158"/>
+      <c r="G43" s="160"/>
     </row>
     <row r="44" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A44" s="158"/>
+      <c r="A44" s="160"/>
       <c r="B44" s="19"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
-      <c r="G44" s="158"/>
+      <c r="G44" s="160"/>
     </row>
     <row r="45" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A45" s="158"/>
+      <c r="A45" s="160"/>
       <c r="B45" s="19"/>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
-      <c r="G45" s="158"/>
+      <c r="G45" s="160"/>
     </row>
     <row r="46" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A46" s="158"/>
+      <c r="A46" s="160"/>
       <c r="B46" s="19"/>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
-      <c r="G46" s="158"/>
+      <c r="G46" s="160"/>
     </row>
     <row r="47" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A47" s="158"/>
+      <c r="A47" s="160"/>
       <c r="B47" s="19"/>
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
       <c r="E47" s="13"/>
       <c r="F47" s="13"/>
-      <c r="G47" s="158"/>
+      <c r="G47" s="160"/>
     </row>
     <row r="48" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A48" s="158"/>
+      <c r="A48" s="160"/>
       <c r="B48" s="19"/>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
       <c r="E48" s="13"/>
       <c r="F48" s="13"/>
-      <c r="G48" s="158"/>
+      <c r="G48" s="160"/>
     </row>
     <row r="49" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A49" s="158"/>
+      <c r="A49" s="160"/>
       <c r="B49" s="19"/>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
-      <c r="G49" s="158"/>
+      <c r="G49" s="160"/>
     </row>
     <row r="50" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A50" s="158"/>
+      <c r="A50" s="160"/>
       <c r="B50" s="19"/>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
-      <c r="G50" s="158"/>
+      <c r="G50" s="160"/>
     </row>
     <row r="51" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A51" s="158"/>
+      <c r="A51" s="160"/>
       <c r="B51" s="19"/>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="13"/>
       <c r="F51" s="13"/>
-      <c r="G51" s="158"/>
+      <c r="G51" s="160"/>
     </row>
     <row r="52" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A52" s="158"/>
+      <c r="A52" s="160"/>
       <c r="B52" s="19"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
       <c r="E52" s="13"/>
       <c r="F52" s="13"/>
-      <c r="G52" s="158"/>
+      <c r="G52" s="160"/>
     </row>
     <row r="53" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A53" s="158"/>
+      <c r="A53" s="160"/>
       <c r="B53" s="19"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
       <c r="F53" s="13"/>
-      <c r="G53" s="158"/>
+      <c r="G53" s="160"/>
     </row>
     <row r="54" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A54" s="158"/>
+      <c r="A54" s="160"/>
       <c r="B54" s="19"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
       <c r="F54" s="13"/>
-      <c r="G54" s="158"/>
+      <c r="G54" s="160"/>
     </row>
     <row r="55" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A55" s="158"/>
+      <c r="A55" s="160"/>
       <c r="B55" s="19"/>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
       <c r="E55" s="13"/>
       <c r="F55" s="13"/>
-      <c r="G55" s="158"/>
+      <c r="G55" s="160"/>
     </row>
     <row r="56" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A56" s="158"/>
+      <c r="A56" s="160"/>
       <c r="B56" s="19"/>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
       <c r="E56" s="13"/>
       <c r="F56" s="13"/>
-      <c r="G56" s="158"/>
+      <c r="G56" s="160"/>
     </row>
     <row r="57" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A57" s="158"/>
+      <c r="A57" s="160"/>
       <c r="B57" s="19"/>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
       <c r="E57" s="13"/>
       <c r="F57" s="13"/>
-      <c r="G57" s="158"/>
+      <c r="G57" s="160"/>
     </row>
     <row r="58" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A58" s="158"/>
+      <c r="A58" s="160"/>
       <c r="B58" s="19"/>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
       <c r="E58" s="13"/>
       <c r="F58" s="13"/>
-      <c r="G58" s="158"/>
+      <c r="G58" s="160"/>
     </row>
     <row r="59" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A59" s="158"/>
+      <c r="A59" s="160"/>
       <c r="B59" s="19"/>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
-      <c r="G59" s="158"/>
+      <c r="G59" s="160"/>
     </row>
     <row r="60" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A60" s="158"/>
+      <c r="A60" s="160"/>
       <c r="B60" s="19"/>
       <c r="C60" s="13"/>
       <c r="D60" s="13"/>
       <c r="E60" s="13"/>
       <c r="F60" s="13"/>
-      <c r="G60" s="158"/>
+      <c r="G60" s="160"/>
     </row>
     <row r="61" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A61" s="158"/>
+      <c r="A61" s="160"/>
       <c r="B61" s="19"/>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
       <c r="E61" s="13"/>
       <c r="F61" s="13"/>
-      <c r="G61" s="158"/>
+      <c r="G61" s="160"/>
     </row>
     <row r="62" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A62" s="158"/>
+      <c r="A62" s="160"/>
       <c r="B62" s="19"/>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
       <c r="E62" s="13"/>
       <c r="F62" s="13"/>
-      <c r="G62" s="158"/>
+      <c r="G62" s="160"/>
     </row>
     <row r="63" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A63" s="158"/>
+      <c r="A63" s="160"/>
       <c r="B63" s="19"/>
       <c r="C63" s="13"/>
       <c r="D63" s="13"/>
       <c r="E63" s="13"/>
       <c r="F63" s="13"/>
-      <c r="G63" s="158"/>
+      <c r="G63" s="160"/>
     </row>
     <row r="64" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A64" s="158"/>
+      <c r="A64" s="160"/>
       <c r="B64" s="19"/>
       <c r="C64" s="13"/>
       <c r="D64" s="13"/>
       <c r="E64" s="13"/>
       <c r="F64" s="13"/>
-      <c r="G64" s="158"/>
+      <c r="G64" s="160"/>
     </row>
     <row r="65" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A65" s="158"/>
+      <c r="A65" s="160"/>
       <c r="B65" s="19"/>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
       <c r="E65" s="13"/>
       <c r="F65" s="13"/>
-      <c r="G65" s="158"/>
+      <c r="G65" s="160"/>
     </row>
     <row r="66" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A66" s="158"/>
+      <c r="A66" s="160"/>
       <c r="B66" s="19"/>
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
       <c r="E66" s="13"/>
       <c r="F66" s="13"/>
-      <c r="G66" s="158"/>
+      <c r="G66" s="160"/>
     </row>
     <row r="67" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A67" s="158"/>
+      <c r="A67" s="160"/>
       <c r="B67" s="19"/>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
       <c r="E67" s="13"/>
       <c r="F67" s="13"/>
-      <c r="G67" s="158"/>
+      <c r="G67" s="160"/>
     </row>
     <row r="68" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A68" s="158"/>
+      <c r="A68" s="160"/>
       <c r="B68" s="19"/>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
       <c r="E68" s="13"/>
       <c r="F68" s="13"/>
-      <c r="G68" s="158"/>
+      <c r="G68" s="160"/>
     </row>
     <row r="69" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A69" s="158"/>
+      <c r="A69" s="160"/>
       <c r="B69" s="19"/>
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
       <c r="E69" s="13"/>
       <c r="F69" s="13"/>
-      <c r="G69" s="158"/>
+      <c r="G69" s="160"/>
     </row>
     <row r="70" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A70" s="158"/>
+      <c r="A70" s="160"/>
       <c r="B70" s="19"/>
       <c r="C70" s="13"/>
       <c r="D70" s="13"/>
       <c r="E70" s="13"/>
       <c r="F70" s="13"/>
-      <c r="G70" s="158"/>
+      <c r="G70" s="160"/>
     </row>
     <row r="71" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A71" s="158"/>
+      <c r="A71" s="160"/>
       <c r="B71" s="19"/>
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
       <c r="E71" s="13"/>
       <c r="F71" s="13"/>
-      <c r="G71" s="158"/>
+      <c r="G71" s="160"/>
     </row>
     <row r="72" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A72" s="158"/>
+      <c r="A72" s="160"/>
       <c r="B72" s="19"/>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
       <c r="E72" s="13"/>
       <c r="F72" s="13"/>
-      <c r="G72" s="158"/>
+      <c r="G72" s="160"/>
     </row>
     <row r="73" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A73" s="158"/>
+      <c r="A73" s="160"/>
       <c r="B73" s="19"/>
       <c r="C73" s="13"/>
       <c r="D73" s="13"/>
       <c r="E73" s="13"/>
       <c r="F73" s="13"/>
-      <c r="G73" s="158"/>
+      <c r="G73" s="160"/>
     </row>
     <row r="74" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A74" s="158"/>
+      <c r="A74" s="160"/>
       <c r="B74" s="19"/>
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
       <c r="E74" s="13"/>
       <c r="F74" s="13"/>
-      <c r="G74" s="158"/>
+      <c r="G74" s="160"/>
     </row>
     <row r="75" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A75" s="158"/>
+      <c r="A75" s="160"/>
       <c r="B75" s="19"/>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
       <c r="E75" s="13"/>
       <c r="F75" s="13"/>
-      <c r="G75" s="158"/>
+      <c r="G75" s="160"/>
     </row>
     <row r="76" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A76" s="158"/>
+      <c r="A76" s="160"/>
       <c r="B76" s="19"/>
       <c r="C76" s="13"/>
       <c r="D76" s="13"/>
       <c r="E76" s="13"/>
       <c r="F76" s="13"/>
-      <c r="G76" s="158"/>
+      <c r="G76" s="160"/>
     </row>
     <row r="77" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A77" s="158"/>
+      <c r="A77" s="160"/>
       <c r="B77" s="19"/>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
       <c r="E77" s="13"/>
       <c r="F77" s="13"/>
-      <c r="G77" s="158"/>
+      <c r="G77" s="160"/>
     </row>
     <row r="78" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A78" s="158"/>
+      <c r="A78" s="160"/>
       <c r="B78" s="19"/>
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
       <c r="E78" s="13"/>
       <c r="F78" s="13"/>
-      <c r="G78" s="158"/>
+      <c r="G78" s="160"/>
     </row>
     <row r="79" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A79" s="158"/>
+      <c r="A79" s="160"/>
       <c r="B79" s="19"/>
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13"/>
       <c r="F79" s="13"/>
-      <c r="G79" s="158"/>
+      <c r="G79" s="160"/>
     </row>
     <row r="80" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A80" s="158"/>
+      <c r="A80" s="160"/>
       <c r="B80" s="19"/>
       <c r="C80" s="13"/>
       <c r="D80" s="13"/>
       <c r="E80" s="13"/>
       <c r="F80" s="13"/>
-      <c r="G80" s="158"/>
+      <c r="G80" s="160"/>
     </row>
     <row r="81" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A81" s="158"/>
+      <c r="A81" s="160"/>
       <c r="B81" s="19"/>
       <c r="C81" s="13"/>
       <c r="D81" s="13"/>
       <c r="E81" s="13"/>
       <c r="F81" s="13"/>
-      <c r="G81" s="158"/>
+      <c r="G81" s="160"/>
     </row>
     <row r="82" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A82" s="158"/>
+      <c r="A82" s="160"/>
       <c r="B82" s="19"/>
       <c r="C82" s="13"/>
       <c r="D82" s="13"/>
       <c r="E82" s="13"/>
       <c r="F82" s="13"/>
-      <c r="G82" s="158"/>
+      <c r="G82" s="160"/>
     </row>
     <row r="83" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A83" s="158"/>
+      <c r="A83" s="160"/>
       <c r="B83" s="19"/>
       <c r="C83" s="13"/>
       <c r="D83" s="13"/>
       <c r="E83" s="13"/>
       <c r="F83" s="13"/>
-      <c r="G83" s="158"/>
+      <c r="G83" s="160"/>
     </row>
     <row r="84" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A84" s="158"/>
+      <c r="A84" s="160"/>
       <c r="B84" s="19"/>
       <c r="C84" s="13"/>
       <c r="D84" s="13"/>
       <c r="E84" s="13"/>
       <c r="F84" s="13"/>
-      <c r="G84" s="158"/>
+      <c r="G84" s="160"/>
     </row>
     <row r="85" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A85" s="158"/>
+      <c r="A85" s="160"/>
       <c r="B85" s="19"/>
       <c r="C85" s="13"/>
       <c r="D85" s="13"/>
       <c r="E85" s="13"/>
       <c r="F85" s="13"/>
-      <c r="G85" s="158"/>
+      <c r="G85" s="160"/>
     </row>
     <row r="86" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A86" s="158"/>
+      <c r="A86" s="160"/>
       <c r="B86" s="19"/>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
       <c r="E86" s="13"/>
       <c r="F86" s="13"/>
-      <c r="G86" s="158"/>
+      <c r="G86" s="160"/>
     </row>
     <row r="87" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A87" s="158"/>
+      <c r="A87" s="160"/>
       <c r="B87" s="19"/>
       <c r="C87" s="13"/>
       <c r="D87" s="13"/>
       <c r="E87" s="13"/>
       <c r="F87" s="13"/>
-      <c r="G87" s="158"/>
+      <c r="G87" s="160"/>
     </row>
     <row r="88" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A88" s="158"/>
+      <c r="A88" s="160"/>
       <c r="B88" s="19"/>
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
       <c r="E88" s="13"/>
       <c r="F88" s="13"/>
-      <c r="G88" s="158"/>
+      <c r="G88" s="160"/>
     </row>
     <row r="89" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A89" s="158"/>
+      <c r="A89" s="160"/>
       <c r="B89" s="19"/>
       <c r="C89" s="13"/>
       <c r="D89" s="13"/>
       <c r="E89" s="13"/>
       <c r="F89" s="13"/>
-      <c r="G89" s="158"/>
+      <c r="G89" s="160"/>
     </row>
     <row r="90" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A90" s="158"/>
+      <c r="A90" s="160"/>
       <c r="B90" s="19"/>
       <c r="C90" s="13"/>
       <c r="D90" s="13"/>
       <c r="E90" s="13"/>
       <c r="F90" s="13"/>
-      <c r="G90" s="158"/>
+      <c r="G90" s="160"/>
     </row>
     <row r="91" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A91" s="158"/>
+      <c r="A91" s="160"/>
       <c r="B91" s="19"/>
       <c r="C91" s="13"/>
       <c r="D91" s="13"/>
       <c r="E91" s="13"/>
       <c r="F91" s="13"/>
-      <c r="G91" s="158"/>
+      <c r="G91" s="160"/>
     </row>
     <row r="92" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A92" s="158"/>
+      <c r="A92" s="160"/>
       <c r="B92" s="19"/>
       <c r="C92" s="13"/>
       <c r="D92" s="13"/>
       <c r="E92" s="13"/>
       <c r="F92" s="13"/>
-      <c r="G92" s="158"/>
+      <c r="G92" s="160"/>
     </row>
     <row r="93" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A93" s="158"/>
+      <c r="A93" s="160"/>
       <c r="B93" s="19"/>
       <c r="C93" s="13"/>
       <c r="D93" s="13"/>
       <c r="E93" s="13"/>
       <c r="F93" s="13"/>
-      <c r="G93" s="158"/>
+      <c r="G93" s="160"/>
     </row>
     <row r="94" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A94" s="158"/>
+      <c r="A94" s="160"/>
       <c r="B94" s="19"/>
       <c r="C94" s="13"/>
       <c r="D94" s="13"/>
       <c r="E94" s="13"/>
       <c r="F94" s="13"/>
-      <c r="G94" s="158"/>
+      <c r="G94" s="160"/>
     </row>
     <row r="95" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A95" s="158"/>
+      <c r="A95" s="160"/>
       <c r="B95" s="19"/>
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
       <c r="E95" s="13"/>
       <c r="F95" s="13"/>
-      <c r="G95" s="158"/>
+      <c r="G95" s="160"/>
     </row>
     <row r="96" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A96" s="158"/>
+      <c r="A96" s="160"/>
       <c r="B96" s="19"/>
       <c r="C96" s="13"/>
       <c r="D96" s="13"/>
       <c r="E96" s="13"/>
       <c r="F96" s="13"/>
-      <c r="G96" s="158"/>
+      <c r="G96" s="160"/>
     </row>
     <row r="97" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A97" s="158"/>
+      <c r="A97" s="160"/>
       <c r="B97" s="19"/>
       <c r="C97" s="13"/>
       <c r="D97" s="13"/>
       <c r="E97" s="13"/>
       <c r="F97" s="13"/>
-      <c r="G97" s="158"/>
+      <c r="G97" s="160"/>
     </row>
     <row r="98" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A98" s="158"/>
+      <c r="A98" s="160"/>
       <c r="B98" s="19"/>
       <c r="C98" s="13"/>
       <c r="D98" s="13"/>
       <c r="E98" s="13"/>
       <c r="F98" s="13"/>
-      <c r="G98" s="158"/>
+      <c r="G98" s="160"/>
     </row>
     <row r="99" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A99" s="158"/>
+      <c r="A99" s="160"/>
       <c r="B99" s="19"/>
       <c r="C99" s="13"/>
       <c r="D99" s="13"/>
       <c r="E99" s="13"/>
       <c r="F99" s="13"/>
-      <c r="G99" s="158"/>
+      <c r="G99" s="160"/>
     </row>
     <row r="100" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A100" s="158"/>
+      <c r="A100" s="160"/>
       <c r="B100" s="19"/>
       <c r="C100" s="13"/>
       <c r="D100" s="13"/>
       <c r="E100" s="13"/>
       <c r="F100" s="13"/>
-      <c r="G100" s="158"/>
+      <c r="G100" s="160"/>
     </row>
     <row r="101" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A101" s="158"/>
+      <c r="A101" s="160"/>
       <c r="B101" s="19"/>
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
       <c r="E101" s="13"/>
       <c r="F101" s="13"/>
-      <c r="G101" s="158"/>
+      <c r="G101" s="160"/>
     </row>
     <row r="102" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A102" s="158"/>
+      <c r="A102" s="160"/>
       <c r="B102" s="19"/>
       <c r="C102" s="13"/>
       <c r="D102" s="13"/>
       <c r="E102" s="13"/>
       <c r="F102" s="13"/>
-      <c r="G102" s="158"/>
+      <c r="G102" s="160"/>
     </row>
     <row r="103" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A103" s="158"/>
+      <c r="A103" s="160"/>
       <c r="B103" s="19"/>
       <c r="C103" s="13"/>
       <c r="D103" s="13"/>
       <c r="E103" s="13"/>
       <c r="F103" s="13"/>
-      <c r="G103" s="158"/>
+      <c r="G103" s="160"/>
     </row>
     <row r="104" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A104" s="158"/>
+      <c r="A104" s="160"/>
       <c r="B104" s="19"/>
       <c r="C104" s="13"/>
       <c r="D104" s="13"/>
       <c r="E104" s="13"/>
       <c r="F104" s="13"/>
-      <c r="G104" s="158"/>
+      <c r="G104" s="160"/>
     </row>
     <row r="105" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A105" s="158"/>
+      <c r="A105" s="160"/>
       <c r="B105" s="19"/>
       <c r="C105" s="13"/>
       <c r="D105" s="13"/>
       <c r="E105" s="13"/>
       <c r="F105" s="13"/>
-      <c r="G105" s="158"/>
+      <c r="G105" s="160"/>
     </row>
     <row r="106" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A106" s="158"/>
+      <c r="A106" s="160"/>
       <c r="B106" s="19"/>
       <c r="C106" s="13"/>
       <c r="D106" s="13"/>
       <c r="E106" s="13"/>
       <c r="F106" s="13"/>
-      <c r="G106" s="158"/>
+      <c r="G106" s="160"/>
     </row>
     <row r="107" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A107" s="158"/>
+      <c r="A107" s="160"/>
       <c r="B107" s="19"/>
       <c r="C107" s="13"/>
       <c r="D107" s="13"/>
       <c r="E107" s="13"/>
       <c r="F107" s="13"/>
-      <c r="G107" s="158"/>
+      <c r="G107" s="160"/>
     </row>
     <row r="108" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A108" s="158"/>
+      <c r="A108" s="160"/>
       <c r="B108" s="19"/>
       <c r="C108" s="13"/>
       <c r="D108" s="13"/>
       <c r="E108" s="13"/>
       <c r="F108" s="13"/>
-      <c r="G108" s="158"/>
+      <c r="G108" s="160"/>
     </row>
     <row r="109" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A109" s="158"/>
+      <c r="A109" s="160"/>
       <c r="B109" s="19"/>
       <c r="C109" s="13"/>
       <c r="D109" s="13"/>
       <c r="E109" s="13"/>
       <c r="F109" s="13"/>
-      <c r="G109" s="158"/>
+      <c r="G109" s="160"/>
     </row>
     <row r="110" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A110" s="158"/>
+      <c r="A110" s="160"/>
       <c r="B110" s="19"/>
       <c r="C110" s="13"/>
       <c r="D110" s="13"/>
       <c r="E110" s="13"/>
       <c r="F110" s="13"/>
-      <c r="G110" s="158"/>
+      <c r="G110" s="160"/>
     </row>
     <row r="111" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A111" s="158"/>
+      <c r="A111" s="160"/>
       <c r="B111" s="19"/>
       <c r="C111" s="13"/>
       <c r="D111" s="13"/>
       <c r="E111" s="13"/>
       <c r="F111" s="13"/>
-      <c r="G111" s="158"/>
+      <c r="G111" s="160"/>
     </row>
     <row r="112" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A112" s="158"/>
+      <c r="A112" s="160"/>
       <c r="B112" s="19"/>
       <c r="C112" s="13"/>
       <c r="D112" s="13"/>
       <c r="E112" s="13"/>
       <c r="F112" s="13"/>
-      <c r="G112" s="158"/>
+      <c r="G112" s="160"/>
     </row>
     <row r="113" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A113" s="158"/>
+      <c r="A113" s="160"/>
       <c r="B113" s="19"/>
       <c r="C113" s="13"/>
       <c r="D113" s="13"/>
       <c r="E113" s="13"/>
       <c r="F113" s="13"/>
-      <c r="G113" s="158"/>
+      <c r="G113" s="160"/>
     </row>
     <row r="114" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A114" s="158"/>
+      <c r="A114" s="160"/>
       <c r="B114" s="19"/>
       <c r="C114" s="13"/>
       <c r="D114" s="13"/>
       <c r="E114" s="13"/>
       <c r="F114" s="13"/>
-      <c r="G114" s="158"/>
+      <c r="G114" s="160"/>
     </row>
     <row r="115" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A115" s="158"/>
+      <c r="A115" s="160"/>
       <c r="B115" s="19"/>
       <c r="C115" s="13"/>
       <c r="D115" s="13"/>
       <c r="E115" s="13"/>
       <c r="F115" s="13"/>
-      <c r="G115" s="158"/>
+      <c r="G115" s="160"/>
     </row>
     <row r="116" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A116" s="158"/>
+      <c r="A116" s="160"/>
       <c r="B116" s="19"/>
       <c r="C116" s="13"/>
       <c r="D116" s="13"/>
       <c r="E116" s="13"/>
       <c r="F116" s="13"/>
-      <c r="G116" s="158"/>
+      <c r="G116" s="160"/>
     </row>
     <row r="117" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A117" s="158"/>
+      <c r="A117" s="160"/>
       <c r="B117" s="19"/>
       <c r="C117" s="13"/>
       <c r="D117" s="13"/>
       <c r="E117" s="13"/>
       <c r="F117" s="13"/>
-      <c r="G117" s="158"/>
+      <c r="G117" s="160"/>
     </row>
     <row r="118" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A118" s="158"/>
+      <c r="A118" s="160"/>
       <c r="B118" s="19"/>
       <c r="C118" s="13"/>
       <c r="D118" s="13"/>
       <c r="E118" s="13"/>
       <c r="F118" s="13"/>
-      <c r="G118" s="158"/>
+      <c r="G118" s="160"/>
     </row>
     <row r="119" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A119" s="158"/>
+      <c r="A119" s="160"/>
       <c r="B119" s="19"/>
       <c r="C119" s="13"/>
       <c r="D119" s="13"/>
       <c r="E119" s="13"/>
       <c r="F119" s="13"/>
-      <c r="G119" s="158"/>
+      <c r="G119" s="160"/>
     </row>
     <row r="120" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A120" s="158"/>
+      <c r="A120" s="160"/>
       <c r="B120" s="19"/>
       <c r="C120" s="13"/>
       <c r="D120" s="13"/>
       <c r="E120" s="13"/>
       <c r="F120" s="13"/>
-      <c r="G120" s="158"/>
+      <c r="G120" s="160"/>
     </row>
     <row r="121" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A121" s="158"/>
+      <c r="A121" s="160"/>
       <c r="B121" s="19"/>
       <c r="C121" s="13"/>
       <c r="D121" s="13"/>
       <c r="E121" s="13"/>
       <c r="F121" s="13"/>
-      <c r="G121" s="158"/>
+      <c r="G121" s="160"/>
     </row>
     <row r="122" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A122" s="158"/>
+      <c r="A122" s="160"/>
       <c r="B122" s="19"/>
       <c r="C122" s="13"/>
       <c r="D122" s="13"/>
       <c r="E122" s="13"/>
       <c r="F122" s="13"/>
-      <c r="G122" s="158"/>
+      <c r="G122" s="160"/>
     </row>
     <row r="123" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A123" s="158"/>
+      <c r="A123" s="160"/>
       <c r="B123" s="19"/>
       <c r="C123" s="13"/>
       <c r="D123" s="13"/>
       <c r="E123" s="13"/>
       <c r="F123" s="13"/>
-      <c r="G123" s="158"/>
+      <c r="G123" s="160"/>
     </row>
     <row r="124" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A124" s="158"/>
+      <c r="A124" s="160"/>
       <c r="B124" s="19"/>
       <c r="C124" s="13"/>
       <c r="D124" s="13"/>
       <c r="E124" s="13"/>
       <c r="F124" s="13"/>
-      <c r="G124" s="158"/>
+      <c r="G124" s="160"/>
     </row>
     <row r="125" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A125" s="158"/>
+      <c r="A125" s="160"/>
       <c r="B125" s="19"/>
       <c r="C125" s="13"/>
       <c r="D125" s="13"/>
       <c r="E125" s="13"/>
       <c r="F125" s="13"/>
-      <c r="G125" s="158"/>
+      <c r="G125" s="160"/>
     </row>
     <row r="126" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A126" s="158"/>
+      <c r="A126" s="160"/>
       <c r="B126" s="19"/>
       <c r="C126" s="13"/>
       <c r="D126" s="13"/>
       <c r="E126" s="13"/>
       <c r="F126" s="13"/>
-      <c r="G126" s="158"/>
+      <c r="G126" s="160"/>
     </row>
     <row r="127" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A127" s="158"/>
+      <c r="A127" s="160"/>
       <c r="B127" s="19"/>
       <c r="C127" s="13"/>
       <c r="D127" s="13"/>
       <c r="E127" s="13"/>
       <c r="F127" s="13"/>
-      <c r="G127" s="158"/>
+      <c r="G127" s="160"/>
     </row>
     <row r="128" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A128" s="158"/>
+      <c r="A128" s="160"/>
       <c r="B128" s="19"/>
       <c r="C128" s="13"/>
       <c r="D128" s="13"/>
       <c r="E128" s="13"/>
       <c r="F128" s="13"/>
-      <c r="G128" s="158"/>
+      <c r="G128" s="160"/>
     </row>
     <row r="129" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A129" s="158"/>
+      <c r="A129" s="160"/>
       <c r="B129" s="19"/>
       <c r="C129" s="13"/>
       <c r="D129" s="13"/>
       <c r="E129" s="13"/>
       <c r="F129" s="13"/>
-      <c r="G129" s="158"/>
+      <c r="G129" s="160"/>
     </row>
     <row r="130" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A130" s="158"/>
+      <c r="A130" s="160"/>
       <c r="B130" s="19"/>
       <c r="C130" s="13"/>
       <c r="D130" s="13"/>
       <c r="E130" s="13"/>
       <c r="F130" s="13"/>
-      <c r="G130" s="158"/>
+      <c r="G130" s="160"/>
     </row>
     <row r="131" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A131" s="158"/>
+      <c r="A131" s="160"/>
       <c r="B131" s="19"/>
       <c r="C131" s="13"/>
       <c r="D131" s="13"/>
       <c r="E131" s="13"/>
       <c r="F131" s="13"/>
-      <c r="G131" s="158"/>
+      <c r="G131" s="160"/>
     </row>
     <row r="132" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A132" s="158"/>
+      <c r="A132" s="160"/>
       <c r="B132" s="19"/>
       <c r="C132" s="13"/>
       <c r="D132" s="13"/>
       <c r="E132" s="13"/>
       <c r="F132" s="13"/>
-      <c r="G132" s="158"/>
+      <c r="G132" s="160"/>
     </row>
     <row r="133" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A133" s="158"/>
+      <c r="A133" s="160"/>
       <c r="B133" s="19"/>
       <c r="C133" s="13"/>
       <c r="D133" s="13"/>
       <c r="E133" s="13"/>
       <c r="F133" s="13"/>
-      <c r="G133" s="158"/>
+      <c r="G133" s="160"/>
     </row>
     <row r="134" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A134" s="158"/>
+      <c r="A134" s="160"/>
       <c r="B134" s="19"/>
       <c r="C134" s="13"/>
       <c r="D134" s="13"/>
       <c r="E134" s="13"/>
       <c r="F134" s="13"/>
-      <c r="G134" s="158"/>
+      <c r="G134" s="160"/>
     </row>
     <row r="135" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A135" s="158"/>
+      <c r="A135" s="160"/>
       <c r="B135" s="19"/>
       <c r="C135" s="13"/>
       <c r="D135" s="13"/>
       <c r="E135" s="13"/>
       <c r="F135" s="13"/>
-      <c r="G135" s="158"/>
+      <c r="G135" s="160"/>
     </row>
     <row r="136" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A136" s="158"/>
+      <c r="A136" s="160"/>
       <c r="B136" s="19"/>
       <c r="C136" s="13"/>
       <c r="D136" s="13"/>
       <c r="E136" s="13"/>
       <c r="F136" s="13"/>
-      <c r="G136" s="158"/>
+      <c r="G136" s="160"/>
     </row>
     <row r="137" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A137" s="158"/>
+      <c r="A137" s="160"/>
       <c r="B137" s="19"/>
       <c r="C137" s="13"/>
       <c r="D137" s="13"/>
       <c r="E137" s="13"/>
       <c r="F137" s="13"/>
-      <c r="G137" s="158"/>
+      <c r="G137" s="160"/>
     </row>
     <row r="138" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A138" s="158"/>
+      <c r="A138" s="160"/>
       <c r="B138" s="19"/>
       <c r="C138" s="13"/>
       <c r="D138" s="13"/>
       <c r="E138" s="13"/>
       <c r="F138" s="13"/>
-      <c r="G138" s="158"/>
+      <c r="G138" s="160"/>
     </row>
     <row r="139" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A139" s="158"/>
+      <c r="A139" s="160"/>
       <c r="B139" s="19"/>
       <c r="C139" s="13"/>
       <c r="D139" s="13"/>
       <c r="E139" s="13"/>
       <c r="F139" s="13"/>
-      <c r="G139" s="158"/>
+      <c r="G139" s="160"/>
     </row>
     <row r="140" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A140" s="158"/>
+      <c r="A140" s="160"/>
       <c r="B140" s="19"/>
       <c r="C140" s="13"/>
       <c r="D140" s="13"/>
       <c r="E140" s="13"/>
       <c r="F140" s="13"/>
-      <c r="G140" s="158"/>
+      <c r="G140" s="160"/>
     </row>
     <row r="141" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A141" s="158"/>
+      <c r="A141" s="160"/>
       <c r="B141" s="19"/>
       <c r="C141" s="13"/>
       <c r="D141" s="13"/>
       <c r="E141" s="13"/>
       <c r="F141" s="13"/>
-      <c r="G141" s="158"/>
+      <c r="G141" s="160"/>
     </row>
     <row r="142" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A142" s="158"/>
+      <c r="A142" s="160"/>
       <c r="B142" s="19"/>
       <c r="C142" s="13"/>
       <c r="D142" s="13"/>
       <c r="E142" s="13"/>
       <c r="F142" s="13"/>
-      <c r="G142" s="158"/>
+      <c r="G142" s="160"/>
     </row>
     <row r="143" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A143" s="158"/>
+      <c r="A143" s="160"/>
       <c r="B143" s="19"/>
       <c r="C143" s="13"/>
       <c r="D143" s="13"/>
       <c r="E143" s="13"/>
       <c r="F143" s="13"/>
-      <c r="G143" s="158"/>
+      <c r="G143" s="160"/>
     </row>
     <row r="144" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A144" s="158"/>
+      <c r="A144" s="160"/>
       <c r="B144" s="19"/>
       <c r="C144" s="13"/>
       <c r="D144" s="13"/>
       <c r="E144" s="13"/>
       <c r="F144" s="13"/>
-      <c r="G144" s="158"/>
+      <c r="G144" s="160"/>
     </row>
     <row r="145" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A145" s="158"/>
+      <c r="A145" s="160"/>
       <c r="B145" s="19"/>
       <c r="C145" s="13"/>
       <c r="D145" s="13"/>
       <c r="E145" s="13"/>
       <c r="F145" s="13"/>
-      <c r="G145" s="158"/>
+      <c r="G145" s="160"/>
     </row>
     <row r="146" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A146" s="158"/>
+      <c r="A146" s="160"/>
       <c r="B146" s="19"/>
       <c r="C146" s="13"/>
       <c r="D146" s="13"/>
       <c r="E146" s="13"/>
       <c r="F146" s="13"/>
-      <c r="G146" s="158"/>
+      <c r="G146" s="160"/>
     </row>
     <row r="147" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A147" s="158"/>
+      <c r="A147" s="160"/>
       <c r="B147" s="19"/>
       <c r="C147" s="13"/>
       <c r="D147" s="13"/>
       <c r="E147" s="13"/>
       <c r="F147" s="13"/>
-      <c r="G147" s="158"/>
+      <c r="G147" s="160"/>
     </row>
     <row r="148" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A148" s="158"/>
+      <c r="A148" s="160"/>
       <c r="B148" s="19"/>
       <c r="C148" s="13"/>
       <c r="D148" s="13"/>
       <c r="E148" s="13"/>
       <c r="F148" s="13"/>
-      <c r="G148" s="158"/>
+      <c r="G148" s="160"/>
     </row>
     <row r="149" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A149" s="158"/>
+      <c r="A149" s="160"/>
       <c r="B149" s="19"/>
       <c r="C149" s="13"/>
       <c r="D149" s="13"/>
       <c r="E149" s="13"/>
       <c r="F149" s="13"/>
-      <c r="G149" s="158"/>
+      <c r="G149" s="160"/>
     </row>
     <row r="150" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A150" s="158"/>
+      <c r="A150" s="160"/>
       <c r="B150" s="19"/>
       <c r="C150" s="13"/>
       <c r="D150" s="13"/>
       <c r="E150" s="13"/>
       <c r="F150" s="13"/>
-      <c r="G150" s="158"/>
+      <c r="G150" s="160"/>
     </row>
     <row r="151" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A151" s="158"/>
+      <c r="A151" s="160"/>
       <c r="B151" s="19"/>
       <c r="C151" s="13"/>
       <c r="D151" s="13"/>
       <c r="E151" s="13"/>
       <c r="F151" s="13"/>
-      <c r="G151" s="158"/>
+      <c r="G151" s="160"/>
     </row>
     <row r="152" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A152" s="158"/>
+      <c r="A152" s="160"/>
       <c r="B152" s="19"/>
       <c r="C152" s="13"/>
       <c r="D152" s="13"/>
       <c r="E152" s="13"/>
       <c r="F152" s="13"/>
-      <c r="G152" s="158"/>
+      <c r="G152" s="160"/>
     </row>
     <row r="153" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A153" s="158"/>
+      <c r="A153" s="160"/>
       <c r="B153" s="19"/>
       <c r="C153" s="13"/>
       <c r="D153" s="13"/>
       <c r="E153" s="13"/>
       <c r="F153" s="13"/>
-      <c r="G153" s="158"/>
+      <c r="G153" s="160"/>
     </row>
     <row r="154" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A154" s="158"/>
+      <c r="A154" s="160"/>
       <c r="B154" s="19"/>
       <c r="C154" s="13"/>
       <c r="D154" s="13"/>
       <c r="E154" s="13"/>
       <c r="F154" s="13"/>
-      <c r="G154" s="158"/>
+      <c r="G154" s="160"/>
     </row>
     <row r="155" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A155" s="158"/>
+      <c r="A155" s="160"/>
       <c r="B155" s="19"/>
       <c r="C155" s="13"/>
       <c r="D155" s="13"/>
       <c r="E155" s="13"/>
       <c r="F155" s="13"/>
-      <c r="G155" s="158"/>
+      <c r="G155" s="160"/>
     </row>
     <row r="156" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A156" s="158"/>
+      <c r="A156" s="160"/>
       <c r="B156" s="19"/>
       <c r="C156" s="13"/>
       <c r="D156" s="13"/>
       <c r="E156" s="13"/>
       <c r="F156" s="13"/>
-      <c r="G156" s="158"/>
+      <c r="G156" s="160"/>
     </row>
     <row r="157" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A157" s="158"/>
+      <c r="A157" s="160"/>
       <c r="B157" s="19"/>
       <c r="C157" s="13"/>
       <c r="D157" s="13"/>
       <c r="E157" s="13"/>
       <c r="F157" s="13"/>
-      <c r="G157" s="158"/>
+      <c r="G157" s="160"/>
     </row>
     <row r="158" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A158" s="158"/>
+      <c r="A158" s="160"/>
       <c r="B158" s="19"/>
       <c r="C158" s="13"/>
       <c r="D158" s="13"/>
       <c r="E158" s="13"/>
       <c r="F158" s="13"/>
-      <c r="G158" s="158"/>
+      <c r="G158" s="160"/>
     </row>
     <row r="159" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A159" s="158"/>
+      <c r="A159" s="160"/>
       <c r="B159" s="19"/>
       <c r="C159" s="13"/>
       <c r="D159" s="13"/>
       <c r="E159" s="13"/>
       <c r="F159" s="13"/>
-      <c r="G159" s="158"/>
+      <c r="G159" s="160"/>
     </row>
     <row r="160" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A160" s="158"/>
+      <c r="A160" s="160"/>
       <c r="B160" s="19"/>
       <c r="C160" s="13"/>
       <c r="D160" s="13"/>
       <c r="E160" s="13"/>
       <c r="F160" s="13"/>
-      <c r="G160" s="158"/>
+      <c r="G160" s="160"/>
     </row>
     <row r="161" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A161" s="158"/>
+      <c r="A161" s="160"/>
       <c r="B161" s="19"/>
       <c r="C161" s="13"/>
       <c r="D161" s="13"/>
       <c r="E161" s="13"/>
       <c r="F161" s="13"/>
-      <c r="G161" s="158"/>
+      <c r="G161" s="160"/>
     </row>
     <row r="162" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A162" s="158"/>
+      <c r="A162" s="160"/>
       <c r="B162" s="19"/>
       <c r="C162" s="13"/>
       <c r="D162" s="13"/>
       <c r="E162" s="13"/>
       <c r="F162" s="13"/>
-      <c r="G162" s="158"/>
+      <c r="G162" s="160"/>
     </row>
     <row r="163" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A163" s="158"/>
+      <c r="A163" s="160"/>
       <c r="B163" s="19"/>
       <c r="C163" s="13"/>
       <c r="D163" s="13"/>
       <c r="E163" s="13"/>
       <c r="F163" s="13"/>
-      <c r="G163" s="158"/>
+      <c r="G163" s="160"/>
     </row>
     <row r="164" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A164" s="158"/>
+      <c r="A164" s="160"/>
       <c r="B164" s="19"/>
       <c r="C164" s="13"/>
       <c r="D164" s="13"/>
       <c r="E164" s="13"/>
       <c r="F164" s="13"/>
-      <c r="G164" s="158"/>
+      <c r="G164" s="160"/>
     </row>
     <row r="165" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A165" s="158"/>
+      <c r="A165" s="160"/>
       <c r="B165" s="19"/>
       <c r="C165" s="13"/>
       <c r="D165" s="13"/>
       <c r="E165" s="13"/>
       <c r="F165" s="13"/>
-      <c r="G165" s="158"/>
+      <c r="G165" s="160"/>
     </row>
     <row r="166" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A166" s="158"/>
+      <c r="A166" s="160"/>
       <c r="B166" s="19"/>
       <c r="C166" s="13"/>
       <c r="D166" s="13"/>
       <c r="E166" s="13"/>
       <c r="F166" s="13"/>
-      <c r="G166" s="158"/>
+      <c r="G166" s="160"/>
     </row>
     <row r="167" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A167" s="158"/>
+      <c r="A167" s="160"/>
       <c r="B167" s="19"/>
       <c r="C167" s="13"/>
       <c r="D167" s="13"/>
       <c r="E167" s="13"/>
       <c r="F167" s="13"/>
-      <c r="G167" s="158"/>
+      <c r="G167" s="160"/>
     </row>
     <row r="168" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A168" s="158"/>
+      <c r="A168" s="160"/>
       <c r="B168" s="19"/>
       <c r="C168" s="13"/>
       <c r="D168" s="13"/>
       <c r="E168" s="13"/>
       <c r="F168" s="13"/>
-      <c r="G168" s="158"/>
+      <c r="G168" s="160"/>
     </row>
     <row r="169" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A169" s="158"/>
+      <c r="A169" s="160"/>
       <c r="B169" s="19"/>
       <c r="C169" s="13"/>
       <c r="D169" s="13"/>
       <c r="E169" s="13"/>
       <c r="F169" s="13"/>
-      <c r="G169" s="158"/>
+      <c r="G169" s="160"/>
     </row>
     <row r="170" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A170" s="158"/>
+      <c r="A170" s="160"/>
       <c r="B170" s="19"/>
       <c r="C170" s="13"/>
       <c r="D170" s="13"/>
       <c r="E170" s="13"/>
       <c r="F170" s="13"/>
-      <c r="G170" s="158"/>
+      <c r="G170" s="160"/>
     </row>
     <row r="171" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A171" s="158"/>
+      <c r="A171" s="160"/>
       <c r="B171" s="19"/>
       <c r="C171" s="13"/>
       <c r="D171" s="13"/>
       <c r="E171" s="13"/>
       <c r="F171" s="13"/>
-      <c r="G171" s="158"/>
+      <c r="G171" s="160"/>
     </row>
     <row r="172" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A172" s="158"/>
+      <c r="A172" s="160"/>
       <c r="B172" s="19"/>
       <c r="C172" s="13"/>
       <c r="D172" s="13"/>
       <c r="E172" s="13"/>
       <c r="F172" s="13"/>
-      <c r="G172" s="158"/>
+      <c r="G172" s="160"/>
     </row>
     <row r="173" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A173" s="158"/>
+      <c r="A173" s="160"/>
       <c r="B173" s="19"/>
       <c r="C173" s="13"/>
       <c r="D173" s="13"/>
       <c r="E173" s="13"/>
       <c r="F173" s="13"/>
-      <c r="G173" s="158"/>
+      <c r="G173" s="160"/>
     </row>
     <row r="174" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A174" s="158"/>
+      <c r="A174" s="160"/>
       <c r="B174" s="19"/>
       <c r="C174" s="13"/>
       <c r="D174" s="13"/>
       <c r="E174" s="13"/>
       <c r="F174" s="13"/>
-      <c r="G174" s="158"/>
+      <c r="G174" s="160"/>
     </row>
     <row r="175" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A175" s="158"/>
+      <c r="A175" s="160"/>
       <c r="B175" s="19"/>
       <c r="C175" s="13"/>
       <c r="D175" s="13"/>
       <c r="E175" s="13"/>
       <c r="F175" s="13"/>
-      <c r="G175" s="158"/>
+      <c r="G175" s="160"/>
     </row>
     <row r="176" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A176" s="158"/>
+      <c r="A176" s="160"/>
       <c r="B176" s="19"/>
       <c r="C176" s="13"/>
       <c r="D176" s="13"/>
       <c r="E176" s="13"/>
       <c r="F176" s="13"/>
-      <c r="G176" s="158"/>
+      <c r="G176" s="160"/>
     </row>
     <row r="177" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A177" s="158"/>
+      <c r="A177" s="160"/>
       <c r="B177" s="19"/>
       <c r="C177" s="13"/>
       <c r="D177" s="13"/>
       <c r="E177" s="13"/>
       <c r="F177" s="13"/>
-      <c r="G177" s="158"/>
+      <c r="G177" s="160"/>
     </row>
     <row r="178" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A178" s="158"/>
+      <c r="A178" s="160"/>
       <c r="B178" s="19"/>
       <c r="C178" s="13"/>
       <c r="D178" s="13"/>
       <c r="E178" s="13"/>
       <c r="F178" s="13"/>
-      <c r="G178" s="158"/>
+      <c r="G178" s="160"/>
     </row>
     <row r="179" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A179" s="158"/>
+      <c r="A179" s="160"/>
       <c r="B179" s="19"/>
       <c r="C179" s="13"/>
       <c r="D179" s="13"/>
       <c r="E179" s="13"/>
       <c r="F179" s="13"/>
-      <c r="G179" s="158"/>
+      <c r="G179" s="160"/>
     </row>
     <row r="180" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A180" s="158"/>
+      <c r="A180" s="160"/>
       <c r="B180" s="19"/>
       <c r="C180" s="13"/>
       <c r="D180" s="13"/>
       <c r="E180" s="13"/>
       <c r="F180" s="13"/>
-      <c r="G180" s="158"/>
+      <c r="G180" s="160"/>
     </row>
     <row r="181" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A181" s="158"/>
+      <c r="A181" s="160"/>
       <c r="B181" s="19"/>
       <c r="C181" s="13"/>
       <c r="D181" s="13"/>
       <c r="E181" s="13"/>
       <c r="F181" s="13"/>
-      <c r="G181" s="158"/>
+      <c r="G181" s="160"/>
     </row>
     <row r="182" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A182" s="158"/>
+      <c r="A182" s="160"/>
       <c r="B182" s="19"/>
       <c r="C182" s="13"/>
       <c r="D182" s="13"/>
       <c r="E182" s="13"/>
       <c r="F182" s="13"/>
-      <c r="G182" s="158"/>
+      <c r="G182" s="160"/>
     </row>
     <row r="183" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A183" s="158"/>
+      <c r="A183" s="160"/>
       <c r="B183" s="19"/>
       <c r="C183" s="13"/>
       <c r="D183" s="13"/>
       <c r="E183" s="13"/>
       <c r="F183" s="13"/>
-      <c r="G183" s="158"/>
+      <c r="G183" s="160"/>
     </row>
     <row r="184" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A184" s="158"/>
+      <c r="A184" s="160"/>
       <c r="B184" s="19"/>
       <c r="C184" s="13"/>
       <c r="D184" s="13"/>
       <c r="E184" s="13"/>
       <c r="F184" s="13"/>
-      <c r="G184" s="158"/>
+      <c r="G184" s="160"/>
     </row>
     <row r="185" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A185" s="158"/>
+      <c r="A185" s="160"/>
       <c r="B185" s="19"/>
       <c r="C185" s="13"/>
       <c r="D185" s="13"/>
       <c r="E185" s="13"/>
       <c r="F185" s="13"/>
-      <c r="G185" s="158"/>
+      <c r="G185" s="160"/>
     </row>
     <row r="186" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A186" s="158"/>
+      <c r="A186" s="160"/>
       <c r="B186" s="19"/>
       <c r="C186" s="13"/>
       <c r="D186" s="13"/>
       <c r="E186" s="13"/>
       <c r="F186" s="13"/>
-      <c r="G186" s="158"/>
+      <c r="G186" s="160"/>
     </row>
     <row r="187" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A187" s="158"/>
+      <c r="A187" s="160"/>
       <c r="B187" s="19"/>
       <c r="C187" s="13"/>
       <c r="D187" s="13"/>
       <c r="E187" s="13"/>
       <c r="F187" s="13"/>
-      <c r="G187" s="158"/>
+      <c r="G187" s="160"/>
     </row>
     <row r="188" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A188" s="158"/>
+      <c r="A188" s="160"/>
       <c r="B188" s="19"/>
       <c r="C188" s="13"/>
       <c r="D188" s="13"/>
       <c r="E188" s="13"/>
       <c r="F188" s="13"/>
-      <c r="G188" s="158"/>
+      <c r="G188" s="160"/>
     </row>
     <row r="189" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A189" s="158"/>
+      <c r="A189" s="160"/>
       <c r="B189" s="19"/>
       <c r="C189" s="13"/>
       <c r="D189" s="13"/>
       <c r="E189" s="13"/>
       <c r="F189" s="13"/>
-      <c r="G189" s="158"/>
+      <c r="G189" s="160"/>
     </row>
     <row r="190" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A190" s="158"/>
+      <c r="A190" s="160"/>
       <c r="B190" s="19"/>
       <c r="C190" s="13"/>
       <c r="D190" s="13"/>
       <c r="E190" s="13"/>
       <c r="F190" s="13"/>
-      <c r="G190" s="158"/>
+      <c r="G190" s="160"/>
     </row>
     <row r="191" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A191" s="158"/>
+      <c r="A191" s="160"/>
       <c r="B191" s="19"/>
       <c r="C191" s="13"/>
       <c r="D191" s="13"/>
       <c r="E191" s="13"/>
       <c r="F191" s="13"/>
-      <c r="G191" s="158"/>
+      <c r="G191" s="160"/>
     </row>
     <row r="192" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A192" s="158"/>
+      <c r="A192" s="160"/>
       <c r="B192" s="19"/>
       <c r="C192" s="13"/>
       <c r="D192" s="13"/>
       <c r="E192" s="13"/>
       <c r="F192" s="13"/>
-      <c r="G192" s="158"/>
+      <c r="G192" s="160"/>
     </row>
     <row r="193" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A193" s="158"/>
+      <c r="A193" s="160"/>
       <c r="B193" s="19"/>
       <c r="C193" s="13"/>
       <c r="D193" s="13"/>
       <c r="E193" s="13"/>
       <c r="F193" s="13"/>
-      <c r="G193" s="158"/>
+      <c r="G193" s="160"/>
     </row>
     <row r="194" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A194" s="158"/>
+      <c r="A194" s="160"/>
       <c r="B194" s="19"/>
       <c r="C194" s="13"/>
       <c r="D194" s="13"/>
       <c r="E194" s="13"/>
       <c r="F194" s="13"/>
-      <c r="G194" s="158"/>
+      <c r="G194" s="160"/>
     </row>
     <row r="195" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A195" s="158"/>
+      <c r="A195" s="160"/>
       <c r="B195" s="19"/>
       <c r="C195" s="13"/>
       <c r="D195" s="13"/>
       <c r="E195" s="13"/>
       <c r="F195" s="13"/>
-      <c r="G195" s="158"/>
+      <c r="G195" s="160"/>
     </row>
     <row r="196" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A196" s="158"/>
+      <c r="A196" s="160"/>
       <c r="B196" s="19"/>
       <c r="C196" s="13"/>
       <c r="D196" s="13"/>
       <c r="E196" s="13"/>
       <c r="F196" s="13"/>
-      <c r="G196" s="158"/>
+      <c r="G196" s="160"/>
     </row>
     <row r="197" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A197" s="158"/>
+      <c r="A197" s="160"/>
       <c r="B197" s="19"/>
       <c r="C197" s="13"/>
       <c r="D197" s="13"/>
       <c r="E197" s="13"/>
       <c r="F197" s="13"/>
-      <c r="G197" s="158"/>
+      <c r="G197" s="160"/>
     </row>
     <row r="198" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A198" s="158"/>
+      <c r="A198" s="160"/>
       <c r="B198" s="19"/>
       <c r="C198" s="13"/>
       <c r="D198" s="13"/>
       <c r="E198" s="13"/>
       <c r="F198" s="13"/>
-      <c r="G198" s="158"/>
+      <c r="G198" s="160"/>
     </row>
     <row r="199" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A199" s="158"/>
+      <c r="A199" s="160"/>
       <c r="B199" s="19"/>
       <c r="C199" s="13"/>
       <c r="D199" s="13"/>
       <c r="E199" s="13"/>
       <c r="F199" s="13"/>
-      <c r="G199" s="158"/>
+      <c r="G199" s="160"/>
     </row>
     <row r="200" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A200" s="158"/>
+      <c r="A200" s="160"/>
       <c r="B200" s="19"/>
       <c r="C200" s="13"/>
       <c r="D200" s="13"/>
       <c r="E200" s="13"/>
       <c r="F200" s="13"/>
-      <c r="G200" s="158"/>
+      <c r="G200" s="160"/>
     </row>
     <row r="201" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A201" s="158"/>
+      <c r="A201" s="160"/>
       <c r="B201" s="19"/>
       <c r="C201" s="13"/>
       <c r="D201" s="13"/>
       <c r="E201" s="13"/>
       <c r="F201" s="13"/>
-      <c r="G201" s="158"/>
+      <c r="G201" s="160"/>
     </row>
     <row r="202" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A202" s="158"/>
+      <c r="A202" s="160"/>
       <c r="B202" s="19"/>
       <c r="C202" s="20"/>
       <c r="D202" s="20"/>
       <c r="E202" s="20"/>
       <c r="F202" s="20"/>
-      <c r="G202" s="158"/>
+      <c r="G202" s="160"/>
     </row>
     <row r="203" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A203" s="158"/>
+      <c r="A203" s="160"/>
       <c r="B203" s="19"/>
       <c r="C203" s="20"/>
       <c r="D203" s="20"/>
       <c r="E203" s="20"/>
       <c r="F203" s="20"/>
-      <c r="G203" s="158"/>
+      <c r="G203" s="160"/>
     </row>
     <row r="204" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A204" s="158"/>
+      <c r="A204" s="160"/>
       <c r="B204" s="19"/>
       <c r="C204" s="20"/>
       <c r="D204" s="20"/>
       <c r="E204" s="20"/>
       <c r="F204" s="20"/>
-      <c r="G204" s="158"/>
+      <c r="G204" s="160"/>
     </row>
     <row r="205" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A205" s="158"/>
+      <c r="A205" s="160"/>
       <c r="B205" s="19"/>
       <c r="C205" s="20"/>
       <c r="D205" s="20"/>
       <c r="E205" s="20"/>
       <c r="F205" s="20"/>
-      <c r="G205" s="158"/>
+      <c r="G205" s="160"/>
     </row>
     <row r="206" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A206" s="158"/>
+      <c r="A206" s="160"/>
       <c r="B206" s="19"/>
       <c r="C206" s="20"/>
       <c r="D206" s="20"/>
       <c r="E206" s="20"/>
       <c r="F206" s="20"/>
-      <c r="G206" s="158"/>
+      <c r="G206" s="160"/>
     </row>
     <row r="207" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A207" s="158"/>
+      <c r="A207" s="160"/>
       <c r="B207" s="19"/>
       <c r="C207" s="20"/>
       <c r="D207" s="20"/>
       <c r="E207" s="20"/>
       <c r="F207" s="20"/>
-      <c r="G207" s="158"/>
+      <c r="G207" s="160"/>
     </row>
     <row r="208" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A208" s="158"/>
+      <c r="A208" s="160"/>
       <c r="B208" s="19"/>
       <c r="C208" s="20"/>
       <c r="D208" s="20"/>
       <c r="E208" s="20"/>
       <c r="F208" s="20"/>
-      <c r="G208" s="158"/>
+      <c r="G208" s="160"/>
     </row>
     <row r="209" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A209" s="158"/>
+      <c r="A209" s="160"/>
       <c r="B209" s="19"/>
       <c r="C209" s="20"/>
       <c r="D209" s="20"/>
       <c r="E209" s="20"/>
       <c r="F209" s="20"/>
-      <c r="G209" s="158"/>
+      <c r="G209" s="160"/>
     </row>
     <row r="210" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A210" s="158"/>
+      <c r="A210" s="160"/>
       <c r="B210" s="19"/>
       <c r="C210" s="20"/>
       <c r="D210" s="20"/>
       <c r="E210" s="20"/>
       <c r="F210" s="20"/>
-      <c r="G210" s="158"/>
+      <c r="G210" s="160"/>
     </row>
     <row r="211" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A211" s="158"/>
+      <c r="A211" s="160"/>
       <c r="B211" s="19"/>
       <c r="C211" s="20"/>
       <c r="D211" s="20"/>
       <c r="E211" s="20"/>
       <c r="F211" s="20"/>
-      <c r="G211" s="158"/>
+      <c r="G211" s="160"/>
     </row>
     <row r="212" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A212" s="158"/>
+      <c r="A212" s="160"/>
       <c r="B212" s="19"/>
       <c r="C212" s="20"/>
       <c r="D212" s="20"/>
       <c r="E212" s="20"/>
       <c r="F212" s="20"/>
-      <c r="G212" s="158"/>
+      <c r="G212" s="160"/>
     </row>
     <row r="213" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A213" s="158"/>
+      <c r="A213" s="160"/>
       <c r="B213" s="19"/>
       <c r="C213" s="20"/>
       <c r="D213" s="20"/>
       <c r="E213" s="20"/>
       <c r="F213" s="20"/>
-      <c r="G213" s="158"/>
+      <c r="G213" s="160"/>
     </row>
     <row r="214" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A214" s="158"/>
+      <c r="A214" s="160"/>
       <c r="B214" s="19"/>
       <c r="C214" s="20"/>
       <c r="D214" s="20"/>
       <c r="E214" s="20"/>
       <c r="F214" s="20"/>
-      <c r="G214" s="158"/>
+      <c r="G214" s="160"/>
     </row>
     <row r="215" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A215" s="158"/>
+      <c r="A215" s="160"/>
       <c r="B215" s="19"/>
       <c r="C215" s="20"/>
       <c r="D215" s="20"/>
       <c r="E215" s="20"/>
       <c r="F215" s="20"/>
-      <c r="G215" s="158"/>
+      <c r="G215" s="160"/>
     </row>
     <row r="216" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A216" s="158"/>
+      <c r="A216" s="160"/>
       <c r="B216" s="19"/>
       <c r="C216" s="20"/>
       <c r="D216" s="20"/>
       <c r="E216" s="20"/>
       <c r="F216" s="20"/>
-      <c r="G216" s="158"/>
+      <c r="G216" s="160"/>
     </row>
     <row r="217" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A217" s="158"/>
+      <c r="A217" s="160"/>
       <c r="B217" s="19"/>
       <c r="C217" s="20"/>
       <c r="D217" s="20"/>
       <c r="E217" s="20"/>
       <c r="F217" s="20"/>
-      <c r="G217" s="158"/>
+      <c r="G217" s="160"/>
     </row>
     <row r="218" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A218" s="158"/>
+      <c r="A218" s="160"/>
       <c r="B218" s="19"/>
       <c r="C218" s="20"/>
       <c r="D218" s="20"/>
       <c r="E218" s="20"/>
       <c r="F218" s="20"/>
-      <c r="G218" s="158"/>
+      <c r="G218" s="160"/>
     </row>
     <row r="219" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A219" s="158"/>
+      <c r="A219" s="160"/>
       <c r="B219" s="19"/>
       <c r="C219" s="20"/>
       <c r="D219" s="20"/>
       <c r="E219" s="20"/>
       <c r="F219" s="20"/>
-      <c r="G219" s="158"/>
+      <c r="G219" s="160"/>
     </row>
     <row r="220" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A220" s="158"/>
+      <c r="A220" s="160"/>
       <c r="B220" s="19"/>
       <c r="C220" s="20"/>
       <c r="D220" s="20"/>
       <c r="E220" s="20"/>
       <c r="F220" s="20"/>
-      <c r="G220" s="158"/>
+      <c r="G220" s="160"/>
     </row>
     <row r="221" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A221" s="158"/>
+      <c r="A221" s="160"/>
       <c r="B221" s="19"/>
       <c r="C221" s="20"/>
       <c r="D221" s="20"/>
       <c r="E221" s="20"/>
       <c r="F221" s="20"/>
-      <c r="G221" s="158"/>
+      <c r="G221" s="160"/>
     </row>
     <row r="222" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A222" s="158"/>
+      <c r="A222" s="160"/>
       <c r="B222" s="19"/>
       <c r="C222" s="20"/>
       <c r="D222" s="20"/>
       <c r="E222" s="20"/>
       <c r="F222" s="20"/>
-      <c r="G222" s="158"/>
+      <c r="G222" s="160"/>
     </row>
     <row r="223" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A223" s="158"/>
+      <c r="A223" s="160"/>
       <c r="B223" s="19"/>
       <c r="C223" s="20"/>
       <c r="D223" s="20"/>
       <c r="E223" s="20"/>
       <c r="F223" s="20"/>
-      <c r="G223" s="158"/>
+      <c r="G223" s="160"/>
     </row>
     <row r="224" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A224" s="158"/>
+      <c r="A224" s="160"/>
       <c r="B224" s="19"/>
       <c r="C224" s="20"/>
       <c r="D224" s="20"/>
       <c r="E224" s="20"/>
       <c r="F224" s="20"/>
-      <c r="G224" s="158"/>
+      <c r="G224" s="160"/>
     </row>
     <row r="225" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A225" s="158"/>
+      <c r="A225" s="160"/>
       <c r="B225" s="19"/>
       <c r="C225" s="20"/>
       <c r="D225" s="20"/>
       <c r="E225" s="20"/>
       <c r="F225" s="20"/>
-      <c r="G225" s="158"/>
+      <c r="G225" s="160"/>
     </row>
     <row r="226" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A226" s="158"/>
+      <c r="A226" s="160"/>
       <c r="B226" s="19"/>
       <c r="C226" s="20"/>
       <c r="D226" s="20"/>
       <c r="E226" s="20"/>
       <c r="F226" s="20"/>
-      <c r="G226" s="158"/>
+      <c r="G226" s="160"/>
     </row>
     <row r="227" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A227" s="158"/>
+      <c r="A227" s="160"/>
       <c r="B227" s="19"/>
       <c r="C227" s="20"/>
       <c r="D227" s="20"/>
       <c r="E227" s="20"/>
       <c r="F227" s="20"/>
-      <c r="G227" s="158"/>
+      <c r="G227" s="160"/>
     </row>
     <row r="228" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A228" s="158"/>
+      <c r="A228" s="160"/>
       <c r="B228" s="19"/>
       <c r="C228" s="20"/>
       <c r="D228" s="20"/>
       <c r="E228" s="20"/>
       <c r="F228" s="20"/>
-      <c r="G228" s="158"/>
+      <c r="G228" s="160"/>
     </row>
     <row r="229" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A229" s="158"/>
+      <c r="A229" s="160"/>
       <c r="B229" s="19"/>
       <c r="C229" s="20"/>
       <c r="D229" s="20"/>
       <c r="E229" s="20"/>
       <c r="F229" s="20"/>
-      <c r="G229" s="158"/>
+      <c r="G229" s="160"/>
     </row>
     <row r="230" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A230" s="158"/>
+      <c r="A230" s="160"/>
       <c r="B230" s="19"/>
       <c r="C230" s="20"/>
       <c r="D230" s="20"/>
       <c r="E230" s="20"/>
       <c r="F230" s="20"/>
-      <c r="G230" s="158"/>
+      <c r="G230" s="160"/>
     </row>
     <row r="231" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A231" s="158"/>
+      <c r="A231" s="160"/>
       <c r="B231" s="19"/>
       <c r="C231" s="20"/>
       <c r="D231" s="20"/>
       <c r="E231" s="20"/>
       <c r="F231" s="20"/>
-      <c r="G231" s="158"/>
+      <c r="G231" s="160"/>
     </row>
     <row r="232" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A232" s="158"/>
+      <c r="A232" s="160"/>
       <c r="B232" s="19"/>
       <c r="C232" s="20"/>
       <c r="D232" s="20"/>
       <c r="E232" s="20"/>
       <c r="F232" s="20"/>
-      <c r="G232" s="158"/>
+      <c r="G232" s="160"/>
     </row>
     <row r="233" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A233" s="158"/>
+      <c r="A233" s="160"/>
       <c r="B233" s="19"/>
       <c r="C233" s="20"/>
       <c r="D233" s="20"/>
       <c r="E233" s="20"/>
       <c r="F233" s="20"/>
-      <c r="G233" s="158"/>
+      <c r="G233" s="160"/>
     </row>
     <row r="234" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A234" s="158"/>
+      <c r="A234" s="160"/>
       <c r="B234" s="19"/>
       <c r="C234" s="20"/>
       <c r="D234" s="20"/>
       <c r="E234" s="20"/>
       <c r="F234" s="20"/>
-      <c r="G234" s="158"/>
+      <c r="G234" s="160"/>
     </row>
     <row r="235" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A235" s="158"/>
+      <c r="A235" s="160"/>
       <c r="B235" s="19"/>
       <c r="C235" s="20"/>
       <c r="D235" s="20"/>
       <c r="E235" s="20"/>
       <c r="F235" s="20"/>
-      <c r="G235" s="158"/>
+      <c r="G235" s="160"/>
     </row>
     <row r="236" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A236" s="158"/>
+      <c r="A236" s="160"/>
       <c r="B236" s="19"/>
       <c r="C236" s="20"/>
       <c r="D236" s="20"/>
       <c r="E236" s="20"/>
       <c r="F236" s="20"/>
-      <c r="G236" s="158"/>
+      <c r="G236" s="160"/>
     </row>
     <row r="237" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A237" s="158"/>
+      <c r="A237" s="160"/>
       <c r="B237" s="19"/>
       <c r="C237" s="20"/>
       <c r="D237" s="20"/>
       <c r="E237" s="20"/>
       <c r="F237" s="20"/>
-      <c r="G237" s="158"/>
+      <c r="G237" s="160"/>
     </row>
     <row r="238" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A238" s="158"/>
+      <c r="A238" s="160"/>
       <c r="B238" s="19"/>
       <c r="C238" s="20"/>
       <c r="D238" s="20"/>
       <c r="E238" s="20"/>
       <c r="F238" s="20"/>
-      <c r="G238" s="158"/>
+      <c r="G238" s="160"/>
     </row>
     <row r="239" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A239" s="158"/>
+      <c r="A239" s="160"/>
       <c r="B239" s="19"/>
       <c r="C239" s="20"/>
       <c r="D239" s="20"/>
       <c r="E239" s="20"/>
       <c r="F239" s="20"/>
-      <c r="G239" s="158"/>
+      <c r="G239" s="160"/>
     </row>
     <row r="240" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A240" s="158"/>
+      <c r="A240" s="160"/>
       <c r="B240" s="19"/>
       <c r="C240" s="20"/>
       <c r="D240" s="20"/>
       <c r="E240" s="20"/>
       <c r="F240" s="20"/>
-      <c r="G240" s="158"/>
+      <c r="G240" s="160"/>
     </row>
     <row r="241" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A241" s="158"/>
+      <c r="A241" s="160"/>
       <c r="B241" s="19"/>
       <c r="C241" s="20"/>
       <c r="D241" s="20"/>
       <c r="E241" s="20"/>
       <c r="F241" s="20"/>
-      <c r="G241" s="158"/>
+      <c r="G241" s="160"/>
     </row>
     <row r="242" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A242" s="158"/>
+      <c r="A242" s="160"/>
       <c r="B242" s="19"/>
       <c r="C242" s="20"/>
       <c r="D242" s="20"/>
       <c r="E242" s="20"/>
       <c r="F242" s="20"/>
-      <c r="G242" s="158"/>
+      <c r="G242" s="160"/>
     </row>
     <row r="243" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A243" s="158"/>
+      <c r="A243" s="160"/>
       <c r="B243" s="19"/>
       <c r="C243" s="20"/>
       <c r="D243" s="20"/>
       <c r="E243" s="20"/>
       <c r="F243" s="20"/>
-      <c r="G243" s="158"/>
+      <c r="G243" s="160"/>
     </row>
     <row r="244" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A244" s="158"/>
+      <c r="A244" s="160"/>
       <c r="B244" s="19"/>
       <c r="C244" s="20"/>
       <c r="D244" s="20"/>
       <c r="E244" s="20"/>
       <c r="F244" s="20"/>
-      <c r="G244" s="158"/>
+      <c r="G244" s="160"/>
     </row>
     <row r="245" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A245" s="158"/>
+      <c r="A245" s="160"/>
       <c r="B245" s="19"/>
       <c r="C245" s="20"/>
       <c r="D245" s="20"/>
       <c r="E245" s="20"/>
       <c r="F245" s="20"/>
-      <c r="G245" s="158"/>
+      <c r="G245" s="160"/>
     </row>
     <row r="246" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A246" s="158"/>
+      <c r="A246" s="160"/>
       <c r="B246" s="19"/>
       <c r="C246" s="20"/>
       <c r="D246" s="20"/>
       <c r="E246" s="20"/>
       <c r="F246" s="20"/>
-      <c r="G246" s="158"/>
+      <c r="G246" s="160"/>
     </row>
     <row r="247" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A247" s="158"/>
+      <c r="A247" s="160"/>
       <c r="B247" s="19"/>
       <c r="C247" s="20"/>
       <c r="D247" s="20"/>
       <c r="E247" s="20"/>
       <c r="F247" s="20"/>
-      <c r="G247" s="158"/>
+      <c r="G247" s="160"/>
     </row>
     <row r="248" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A248" s="158"/>
+      <c r="A248" s="160"/>
       <c r="B248" s="19"/>
       <c r="C248" s="20"/>
       <c r="D248" s="20"/>
       <c r="E248" s="20"/>
       <c r="F248" s="20"/>
-      <c r="G248" s="158"/>
+      <c r="G248" s="160"/>
     </row>
     <row r="249" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A249" s="158"/>
+      <c r="A249" s="160"/>
       <c r="B249" s="19"/>
       <c r="C249" s="20"/>
       <c r="D249" s="20"/>
       <c r="E249" s="20"/>
       <c r="F249" s="20"/>
-      <c r="G249" s="158"/>
+      <c r="G249" s="160"/>
     </row>
     <row r="250" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A250" s="158"/>
+      <c r="A250" s="160"/>
       <c r="B250" s="19"/>
       <c r="C250" s="20"/>
       <c r="D250" s="20"/>
       <c r="E250" s="20"/>
       <c r="F250" s="20"/>
-      <c r="G250" s="158"/>
+      <c r="G250" s="160"/>
     </row>
     <row r="251" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A251" s="158"/>
+      <c r="A251" s="160"/>
       <c r="B251" s="19"/>
       <c r="C251" s="20"/>
       <c r="D251" s="20"/>
       <c r="E251" s="20"/>
       <c r="F251" s="20"/>
-      <c r="G251" s="158"/>
+      <c r="G251" s="160"/>
     </row>
     <row r="252" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A252" s="158"/>
+      <c r="A252" s="160"/>
       <c r="B252" s="19"/>
       <c r="C252" s="20"/>
       <c r="D252" s="20"/>
       <c r="E252" s="20"/>
       <c r="F252" s="20"/>
-      <c r="G252" s="158"/>
+      <c r="G252" s="160"/>
     </row>
     <row r="253" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A253" s="158"/>
+      <c r="A253" s="160"/>
       <c r="B253" s="19"/>
       <c r="C253" s="20"/>
       <c r="D253" s="20"/>
       <c r="E253" s="20"/>
       <c r="F253" s="20"/>
-      <c r="G253" s="158"/>
+      <c r="G253" s="160"/>
     </row>
     <row r="254" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A254" s="158"/>
+      <c r="A254" s="160"/>
       <c r="B254" s="19"/>
       <c r="C254" s="20"/>
       <c r="D254" s="20"/>
       <c r="E254" s="20"/>
       <c r="F254" s="20"/>
-      <c r="G254" s="158"/>
+      <c r="G254" s="160"/>
     </row>
     <row r="255" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A255" s="158"/>
+      <c r="A255" s="160"/>
       <c r="B255" s="19"/>
       <c r="C255" s="20"/>
       <c r="D255" s="20"/>
       <c r="E255" s="20"/>
       <c r="F255" s="20"/>
-      <c r="G255" s="158"/>
+      <c r="G255" s="160"/>
     </row>
     <row r="256" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A256" s="158"/>
+      <c r="A256" s="160"/>
       <c r="B256" s="19"/>
       <c r="C256" s="20"/>
       <c r="D256" s="20"/>
       <c r="E256" s="20"/>
       <c r="F256" s="20"/>
-      <c r="G256" s="158"/>
+      <c r="G256" s="160"/>
     </row>
     <row r="257" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A257" s="158"/>
+      <c r="A257" s="160"/>
       <c r="B257" s="19"/>
       <c r="C257" s="20"/>
       <c r="D257" s="20"/>
       <c r="E257" s="20"/>
       <c r="F257" s="20"/>
-      <c r="G257" s="158"/>
+      <c r="G257" s="160"/>
     </row>
     <row r="258" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A258" s="158"/>
+      <c r="A258" s="160"/>
       <c r="B258" s="19"/>
       <c r="C258" s="20"/>
       <c r="D258" s="20"/>
       <c r="E258" s="20"/>
       <c r="F258" s="20"/>
-      <c r="G258" s="158"/>
+      <c r="G258" s="160"/>
     </row>
     <row r="259" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A259" s="158"/>
+      <c r="A259" s="160"/>
       <c r="B259" s="19"/>
       <c r="C259" s="20"/>
       <c r="D259" s="20"/>
       <c r="E259" s="20"/>
       <c r="F259" s="20"/>
-      <c r="G259" s="158"/>
+      <c r="G259" s="160"/>
     </row>
     <row r="260" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A260" s="158"/>
+      <c r="A260" s="160"/>
       <c r="B260" s="19"/>
       <c r="C260" s="20"/>
       <c r="D260" s="20"/>
       <c r="E260" s="20"/>
       <c r="F260" s="20"/>
-      <c r="G260" s="158"/>
+      <c r="G260" s="160"/>
     </row>
     <row r="261" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A261" s="158"/>
+      <c r="A261" s="160"/>
       <c r="B261" s="19"/>
       <c r="C261" s="20"/>
       <c r="D261" s="20"/>
       <c r="E261" s="20"/>
       <c r="F261" s="20"/>
-      <c r="G261" s="158"/>
+      <c r="G261" s="160"/>
     </row>
     <row r="262" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A262" s="158"/>
+      <c r="A262" s="160"/>
       <c r="B262" s="19"/>
       <c r="C262" s="20"/>
       <c r="D262" s="20"/>
       <c r="E262" s="20"/>
       <c r="F262" s="20"/>
-      <c r="G262" s="158"/>
+      <c r="G262" s="160"/>
     </row>
     <row r="263" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A263" s="158"/>
+      <c r="A263" s="160"/>
       <c r="B263" s="19"/>
       <c r="C263" s="20"/>
       <c r="D263" s="20"/>
       <c r="E263" s="20"/>
       <c r="F263" s="20"/>
-      <c r="G263" s="158"/>
+      <c r="G263" s="160"/>
     </row>
     <row r="264" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A264" s="158"/>
+      <c r="A264" s="160"/>
       <c r="B264" s="19"/>
       <c r="C264" s="20"/>
       <c r="D264" s="20"/>
       <c r="E264" s="20"/>
       <c r="F264" s="20"/>
-      <c r="G264" s="158"/>
+      <c r="G264" s="160"/>
     </row>
     <row r="265" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A265" s="158"/>
+      <c r="A265" s="160"/>
       <c r="B265" s="19"/>
       <c r="C265" s="20"/>
       <c r="D265" s="20"/>
       <c r="E265" s="20"/>
       <c r="F265" s="20"/>
-      <c r="G265" s="158"/>
+      <c r="G265" s="160"/>
     </row>
     <row r="266" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A266" s="158"/>
+      <c r="A266" s="160"/>
       <c r="B266" s="19"/>
       <c r="C266" s="20"/>
       <c r="D266" s="20"/>
       <c r="E266" s="20"/>
       <c r="F266" s="20"/>
-      <c r="G266" s="158"/>
+      <c r="G266" s="160"/>
     </row>
     <row r="267" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A267" s="158"/>
+      <c r="A267" s="160"/>
       <c r="B267" s="19"/>
       <c r="C267" s="20"/>
       <c r="D267" s="20"/>
       <c r="E267" s="20"/>
       <c r="F267" s="20"/>
-      <c r="G267" s="158"/>
+      <c r="G267" s="160"/>
     </row>
     <row r="268" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A268" s="158"/>
+      <c r="A268" s="160"/>
       <c r="B268" s="19"/>
       <c r="C268" s="20"/>
       <c r="D268" s="20"/>
       <c r="E268" s="20"/>
       <c r="F268" s="20"/>
-      <c r="G268" s="158"/>
+      <c r="G268" s="160"/>
     </row>
     <row r="269" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A269" s="158"/>
+      <c r="A269" s="160"/>
       <c r="B269" s="19"/>
       <c r="C269" s="20"/>
       <c r="D269" s="20"/>
       <c r="E269" s="20"/>
       <c r="F269" s="20"/>
-      <c r="G269" s="158"/>
+      <c r="G269" s="160"/>
     </row>
     <row r="270" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A270" s="158"/>
+      <c r="A270" s="160"/>
       <c r="B270" s="19"/>
       <c r="C270" s="20"/>
       <c r="D270" s="20"/>
       <c r="E270" s="20"/>
       <c r="F270" s="20"/>
-      <c r="G270" s="158"/>
+      <c r="G270" s="160"/>
     </row>
     <row r="271" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A271" s="158"/>
+      <c r="A271" s="160"/>
       <c r="B271" s="19"/>
       <c r="C271" s="20"/>
       <c r="D271" s="20"/>
       <c r="E271" s="20"/>
       <c r="F271" s="20"/>
-      <c r="G271" s="158"/>
+      <c r="G271" s="160"/>
     </row>
     <row r="272" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A272" s="158"/>
+      <c r="A272" s="160"/>
       <c r="B272" s="19"/>
       <c r="C272" s="20"/>
       <c r="D272" s="20"/>
       <c r="E272" s="20"/>
       <c r="F272" s="20"/>
-      <c r="G272" s="158"/>
+      <c r="G272" s="160"/>
     </row>
     <row r="273" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A273" s="158"/>
+      <c r="A273" s="160"/>
       <c r="B273" s="19"/>
       <c r="C273" s="20"/>
       <c r="D273" s="20"/>
       <c r="E273" s="20"/>
       <c r="F273" s="20"/>
-      <c r="G273" s="158"/>
+      <c r="G273" s="160"/>
     </row>
     <row r="274" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A274" s="158"/>
+      <c r="A274" s="160"/>
       <c r="B274" s="19"/>
       <c r="C274" s="20"/>
       <c r="D274" s="20"/>
       <c r="E274" s="20"/>
       <c r="F274" s="20"/>
-      <c r="G274" s="158"/>
+      <c r="G274" s="160"/>
     </row>
     <row r="275" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A275" s="158"/>
+      <c r="A275" s="160"/>
       <c r="B275" s="19"/>
       <c r="C275" s="20"/>
       <c r="D275" s="20"/>
       <c r="E275" s="20"/>
       <c r="F275" s="20"/>
-      <c r="G275" s="158"/>
+      <c r="G275" s="160"/>
     </row>
     <row r="276" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A276" s="158"/>
+      <c r="A276" s="160"/>
       <c r="B276" s="19"/>
       <c r="C276" s="20"/>
       <c r="D276" s="20"/>
       <c r="E276" s="20"/>
       <c r="F276" s="20"/>
-      <c r="G276" s="158"/>
+      <c r="G276" s="160"/>
     </row>
     <row r="277" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A277" s="158"/>
+      <c r="A277" s="160"/>
       <c r="B277" s="19"/>
       <c r="C277" s="20"/>
       <c r="D277" s="20"/>
       <c r="E277" s="20"/>
       <c r="F277" s="20"/>
-      <c r="G277" s="158"/>
+      <c r="G277" s="160"/>
     </row>
     <row r="278" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A278" s="158"/>
+      <c r="A278" s="160"/>
       <c r="B278" s="19"/>
       <c r="C278" s="20"/>
       <c r="D278" s="20"/>
       <c r="E278" s="20"/>
       <c r="F278" s="20"/>
-      <c r="G278" s="158"/>
+      <c r="G278" s="160"/>
     </row>
     <row r="279" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A279" s="158"/>
+      <c r="A279" s="160"/>
       <c r="B279" s="19"/>
       <c r="C279" s="20"/>
       <c r="D279" s="20"/>
       <c r="E279" s="20"/>
       <c r="F279" s="20"/>
-      <c r="G279" s="158"/>
+      <c r="G279" s="160"/>
     </row>
     <row r="280" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A280" s="158"/>
+      <c r="A280" s="160"/>
       <c r="B280" s="19"/>
       <c r="C280" s="20"/>
       <c r="D280" s="20"/>
       <c r="E280" s="20"/>
       <c r="F280" s="20"/>
-      <c r="G280" s="158"/>
+      <c r="G280" s="160"/>
     </row>
     <row r="281" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A281" s="158"/>
+      <c r="A281" s="160"/>
       <c r="B281" s="19"/>
       <c r="C281" s="20"/>
       <c r="D281" s="20"/>
       <c r="E281" s="20"/>
       <c r="F281" s="20"/>
-      <c r="G281" s="158"/>
+      <c r="G281" s="160"/>
     </row>
     <row r="282" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A282" s="158"/>
+      <c r="A282" s="160"/>
       <c r="B282" s="19"/>
       <c r="C282" s="20"/>
       <c r="D282" s="20"/>
       <c r="E282" s="20"/>
       <c r="F282" s="20"/>
-      <c r="G282" s="158"/>
+      <c r="G282" s="160"/>
     </row>
     <row r="283" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A283" s="158"/>
+      <c r="A283" s="160"/>
       <c r="B283" s="19"/>
       <c r="C283" s="20"/>
       <c r="D283" s="20"/>
       <c r="E283" s="20"/>
       <c r="F283" s="20"/>
-      <c r="G283" s="158"/>
+      <c r="G283" s="160"/>
     </row>
     <row r="284" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A284" s="158"/>
+      <c r="A284" s="160"/>
       <c r="B284" s="19"/>
       <c r="C284" s="20"/>
       <c r="D284" s="20"/>
       <c r="E284" s="20"/>
       <c r="F284" s="20"/>
-      <c r="G284" s="158"/>
+      <c r="G284" s="160"/>
     </row>
     <row r="285" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A285" s="158"/>
+      <c r="A285" s="160"/>
       <c r="B285" s="19"/>
       <c r="C285" s="20"/>
       <c r="D285" s="20"/>
       <c r="E285" s="20"/>
       <c r="F285" s="20"/>
-      <c r="G285" s="158"/>
+      <c r="G285" s="160"/>
     </row>
     <row r="286" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A286" s="158"/>
+      <c r="A286" s="160"/>
       <c r="B286" s="19"/>
       <c r="C286" s="20"/>
       <c r="D286" s="20"/>
       <c r="E286" s="20"/>
       <c r="F286" s="20"/>
-      <c r="G286" s="158"/>
+      <c r="G286" s="160"/>
     </row>
     <row r="287" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A287" s="158"/>
+      <c r="A287" s="160"/>
       <c r="B287" s="19"/>
       <c r="C287" s="20"/>
       <c r="D287" s="20"/>
       <c r="E287" s="20"/>
       <c r="F287" s="20"/>
-      <c r="G287" s="158"/>
+      <c r="G287" s="160"/>
     </row>
     <row r="288" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A288" s="158"/>
+      <c r="A288" s="160"/>
       <c r="B288" s="19"/>
       <c r="C288" s="20"/>
       <c r="D288" s="20"/>
       <c r="E288" s="20"/>
       <c r="F288" s="20"/>
-      <c r="G288" s="158"/>
+      <c r="G288" s="160"/>
     </row>
     <row r="289" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A289" s="158"/>
+      <c r="A289" s="160"/>
       <c r="B289" s="19"/>
       <c r="C289" s="20"/>
       <c r="D289" s="20"/>
       <c r="E289" s="20"/>
       <c r="F289" s="20"/>
-      <c r="G289" s="158"/>
+      <c r="G289" s="160"/>
     </row>
     <row r="290" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A290" s="158"/>
+      <c r="A290" s="160"/>
       <c r="B290" s="19"/>
       <c r="C290" s="20"/>
       <c r="D290" s="20"/>
       <c r="E290" s="20"/>
       <c r="F290" s="20"/>
-      <c r="G290" s="158"/>
+      <c r="G290" s="160"/>
     </row>
     <row r="291" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A291" s="158"/>
+      <c r="A291" s="160"/>
       <c r="B291" s="19"/>
       <c r="C291" s="20"/>
       <c r="D291" s="20"/>
       <c r="E291" s="20"/>
       <c r="F291" s="20"/>
-      <c r="G291" s="158"/>
+      <c r="G291" s="160"/>
     </row>
     <row r="292" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A292" s="158"/>
+      <c r="A292" s="160"/>
       <c r="B292" s="19"/>
       <c r="C292" s="20"/>
       <c r="D292" s="20"/>
       <c r="E292" s="20"/>
       <c r="F292" s="20"/>
-      <c r="G292" s="158"/>
+      <c r="G292" s="160"/>
     </row>
     <row r="293" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A293" s="158"/>
+      <c r="A293" s="160"/>
       <c r="B293" s="19"/>
       <c r="C293" s="20"/>
       <c r="D293" s="20"/>
       <c r="E293" s="20"/>
       <c r="F293" s="20"/>
-      <c r="G293" s="158"/>
+      <c r="G293" s="160"/>
     </row>
     <row r="294" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A294" s="158"/>
+      <c r="A294" s="160"/>
       <c r="B294" s="19"/>
       <c r="C294" s="20"/>
       <c r="D294" s="20"/>
       <c r="E294" s="20"/>
       <c r="F294" s="20"/>
-      <c r="G294" s="158"/>
+      <c r="G294" s="160"/>
     </row>
     <row r="295" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A295" s="158"/>
+      <c r="A295" s="160"/>
       <c r="B295" s="19"/>
       <c r="C295" s="20"/>
       <c r="D295" s="20"/>
       <c r="E295" s="20"/>
       <c r="F295" s="20"/>
-      <c r="G295" s="158"/>
+      <c r="G295" s="160"/>
     </row>
     <row r="296" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A296" s="158"/>
+      <c r="A296" s="160"/>
       <c r="B296" s="19"/>
       <c r="C296" s="20"/>
       <c r="D296" s="20"/>
       <c r="E296" s="20"/>
       <c r="F296" s="20"/>
-      <c r="G296" s="158"/>
+      <c r="G296" s="160"/>
     </row>
     <row r="297" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A297" s="158"/>
+      <c r="A297" s="160"/>
       <c r="B297" s="19"/>
       <c r="C297" s="20"/>
       <c r="D297" s="20"/>
       <c r="E297" s="20"/>
       <c r="F297" s="20"/>
-      <c r="G297" s="158"/>
+      <c r="G297" s="160"/>
     </row>
     <row r="298" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A298" s="158"/>
+      <c r="A298" s="160"/>
       <c r="B298" s="19"/>
       <c r="C298" s="20"/>
       <c r="D298" s="20"/>
       <c r="E298" s="20"/>
       <c r="F298" s="20"/>
-      <c r="G298" s="158"/>
+      <c r="G298" s="160"/>
     </row>
     <row r="299" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A299" s="158"/>
+      <c r="A299" s="160"/>
       <c r="B299" s="19"/>
       <c r="C299" s="20"/>
       <c r="D299" s="20"/>
       <c r="E299" s="20"/>
       <c r="F299" s="20"/>
-      <c r="G299" s="158"/>
+      <c r="G299" s="160"/>
     </row>
     <row r="300" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A300" s="158"/>
+      <c r="A300" s="160"/>
       <c r="B300" s="19"/>
       <c r="C300" s="20"/>
       <c r="D300" s="20"/>
       <c r="E300" s="20"/>
       <c r="F300" s="20"/>
-      <c r="G300" s="158"/>
+      <c r="G300" s="160"/>
     </row>
     <row r="301" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A301" s="158"/>
+      <c r="A301" s="160"/>
       <c r="B301" s="19"/>
       <c r="C301" s="20"/>
       <c r="D301" s="20"/>
       <c r="E301" s="20"/>
       <c r="F301" s="20"/>
-      <c r="G301" s="158"/>
+      <c r="G301" s="160"/>
     </row>
     <row r="302" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A302" s="158"/>
+      <c r="A302" s="160"/>
       <c r="B302" s="19"/>
       <c r="C302" s="20"/>
       <c r="D302" s="20"/>
       <c r="E302" s="20"/>
       <c r="F302" s="20"/>
-      <c r="G302" s="158"/>
+      <c r="G302" s="160"/>
     </row>
     <row r="303" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A303" s="158"/>
+      <c r="A303" s="160"/>
       <c r="B303" s="19"/>
       <c r="C303" s="20"/>
       <c r="D303" s="20"/>
       <c r="E303" s="20"/>
       <c r="F303" s="20"/>
-      <c r="G303" s="158"/>
+      <c r="G303" s="160"/>
     </row>
     <row r="304" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A304" s="158"/>
+      <c r="A304" s="160"/>
       <c r="B304" s="19"/>
       <c r="C304" s="20"/>
       <c r="D304" s="20"/>
       <c r="E304" s="20"/>
       <c r="F304" s="20"/>
-      <c r="G304" s="158"/>
+      <c r="G304" s="160"/>
     </row>
     <row r="305" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A305" s="158"/>
+      <c r="A305" s="160"/>
       <c r="B305" s="19"/>
       <c r="C305" s="20"/>
       <c r="D305" s="20"/>
       <c r="E305" s="20"/>
       <c r="F305" s="20"/>
-      <c r="G305" s="158"/>
+      <c r="G305" s="160"/>
     </row>
     <row r="306" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A306" s="158"/>
+      <c r="A306" s="160"/>
       <c r="B306" s="19"/>
       <c r="C306" s="20"/>
       <c r="D306" s="20"/>
       <c r="E306" s="20"/>
       <c r="F306" s="20"/>
-      <c r="G306" s="158"/>
+      <c r="G306" s="160"/>
     </row>
     <row r="307" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A307" s="158"/>
+      <c r="A307" s="160"/>
       <c r="B307" s="19"/>
       <c r="C307" s="20"/>
       <c r="D307" s="20"/>
       <c r="E307" s="20"/>
       <c r="F307" s="20"/>
-      <c r="G307" s="158"/>
+      <c r="G307" s="160"/>
     </row>
     <row r="308" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A308" s="158"/>
+      <c r="A308" s="160"/>
       <c r="B308" s="19"/>
       <c r="C308" s="20"/>
       <c r="D308" s="20"/>
       <c r="E308" s="20"/>
       <c r="F308" s="20"/>
-      <c r="G308" s="158"/>
+      <c r="G308" s="160"/>
     </row>
     <row r="309" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A309" s="158"/>
+      <c r="A309" s="160"/>
       <c r="B309" s="19"/>
       <c r="C309" s="20"/>
       <c r="D309" s="20"/>
       <c r="E309" s="20"/>
       <c r="F309" s="20"/>
-      <c r="G309" s="158"/>
+      <c r="G309" s="160"/>
     </row>
     <row r="310" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A310" s="158"/>
+      <c r="A310" s="160"/>
       <c r="B310" s="19"/>
       <c r="C310" s="20"/>
       <c r="D310" s="20"/>
       <c r="E310" s="20"/>
       <c r="F310" s="20"/>
-      <c r="G310" s="158"/>
+      <c r="G310" s="160"/>
     </row>
     <row r="311" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A311" s="158"/>
+      <c r="A311" s="160"/>
       <c r="B311" s="19"/>
       <c r="C311" s="20"/>
       <c r="D311" s="20"/>
       <c r="E311" s="20"/>
       <c r="F311" s="20"/>
-      <c r="G311" s="158"/>
+      <c r="G311" s="160"/>
     </row>
     <row r="312" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A312" s="158"/>
+      <c r="A312" s="160"/>
       <c r="B312" s="19"/>
       <c r="C312" s="20"/>
       <c r="D312" s="20"/>
       <c r="E312" s="20"/>
       <c r="F312" s="20"/>
-      <c r="G312" s="158"/>
+      <c r="G312" s="160"/>
     </row>
     <row r="313" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A313" s="158"/>
+      <c r="A313" s="160"/>
       <c r="B313" s="19"/>
       <c r="C313" s="20"/>
       <c r="D313" s="20"/>
       <c r="E313" s="20"/>
       <c r="F313" s="20"/>
-      <c r="G313" s="158"/>
+      <c r="G313" s="160"/>
     </row>
     <row r="314" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A314" s="158"/>
+      <c r="A314" s="160"/>
       <c r="B314" s="19"/>
       <c r="C314" s="20"/>
       <c r="D314" s="20"/>
       <c r="E314" s="20"/>
       <c r="F314" s="20"/>
-      <c r="G314" s="158"/>
+      <c r="G314" s="160"/>
     </row>
     <row r="315" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A315" s="158"/>
+      <c r="A315" s="160"/>
       <c r="B315" s="19"/>
       <c r="C315" s="20"/>
       <c r="D315" s="20"/>
       <c r="E315" s="20"/>
       <c r="F315" s="20"/>
-      <c r="G315" s="158"/>
+      <c r="G315" s="160"/>
     </row>
     <row r="316" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A316" s="158"/>
+      <c r="A316" s="160"/>
       <c r="B316" s="19"/>
       <c r="C316" s="20"/>
       <c r="D316" s="20"/>
       <c r="E316" s="20"/>
       <c r="F316" s="20"/>
-      <c r="G316" s="158"/>
+      <c r="G316" s="160"/>
     </row>
     <row r="317" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A317" s="158"/>
+      <c r="A317" s="160"/>
       <c r="B317" s="19"/>
       <c r="C317" s="20"/>
       <c r="D317" s="20"/>
       <c r="E317" s="20"/>
       <c r="F317" s="20"/>
-      <c r="G317" s="158"/>
+      <c r="G317" s="160"/>
     </row>
     <row r="318" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A318" s="158"/>
+      <c r="A318" s="160"/>
       <c r="B318" s="19"/>
       <c r="C318" s="20"/>
       <c r="D318" s="20"/>
       <c r="E318" s="20"/>
       <c r="F318" s="20"/>
-      <c r="G318" s="158"/>
+      <c r="G318" s="160"/>
     </row>
     <row r="319" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A319" s="158"/>
+      <c r="A319" s="160"/>
       <c r="B319" s="19"/>
       <c r="C319" s="20"/>
       <c r="D319" s="20"/>
       <c r="E319" s="20"/>
       <c r="F319" s="20"/>
-      <c r="G319" s="158"/>
+      <c r="G319" s="160"/>
     </row>
     <row r="320" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A320" s="158"/>
+      <c r="A320" s="160"/>
       <c r="B320" s="19"/>
       <c r="C320" s="20"/>
       <c r="D320" s="20"/>
       <c r="E320" s="20"/>
       <c r="F320" s="20"/>
-      <c r="G320" s="158"/>
+      <c r="G320" s="160"/>
     </row>
     <row r="321" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A321" s="158"/>
+      <c r="A321" s="160"/>
       <c r="B321" s="19"/>
       <c r="C321" s="20"/>
       <c r="D321" s="20"/>
       <c r="E321" s="20"/>
       <c r="F321" s="20"/>
-      <c r="G321" s="158"/>
+      <c r="G321" s="160"/>
     </row>
     <row r="322" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A322" s="158"/>
+      <c r="A322" s="160"/>
       <c r="B322" s="19"/>
       <c r="C322" s="20"/>
       <c r="D322" s="20"/>
       <c r="E322" s="20"/>
       <c r="F322" s="20"/>
-      <c r="G322" s="158"/>
+      <c r="G322" s="160"/>
     </row>
     <row r="323" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A323" s="158"/>
+      <c r="A323" s="160"/>
       <c r="B323" s="19"/>
       <c r="C323" s="20"/>
       <c r="D323" s="20"/>
       <c r="E323" s="20"/>
       <c r="F323" s="20"/>
-      <c r="G323" s="158"/>
+      <c r="G323" s="160"/>
     </row>
     <row r="324" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A324" s="158"/>
+      <c r="A324" s="160"/>
       <c r="B324" s="19"/>
       <c r="C324" s="20"/>
       <c r="D324" s="20"/>
       <c r="E324" s="20"/>
       <c r="F324" s="20"/>
-      <c r="G324" s="158"/>
+      <c r="G324" s="160"/>
     </row>
     <row r="325" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A325" s="158"/>
+      <c r="A325" s="160"/>
       <c r="B325" s="19"/>
       <c r="C325" s="20"/>
       <c r="D325" s="20"/>
       <c r="E325" s="20"/>
       <c r="F325" s="20"/>
-      <c r="G325" s="158"/>
+      <c r="G325" s="160"/>
     </row>
     <row r="326" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A326" s="158"/>
+      <c r="A326" s="160"/>
       <c r="B326" s="19"/>
       <c r="C326" s="20"/>
       <c r="D326" s="20"/>
       <c r="E326" s="20"/>
       <c r="F326" s="20"/>
-      <c r="G326" s="158"/>
+      <c r="G326" s="160"/>
     </row>
     <row r="327" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A327" s="158"/>
+      <c r="A327" s="160"/>
       <c r="B327" s="19"/>
       <c r="C327" s="20"/>
       <c r="D327" s="20"/>
       <c r="E327" s="20"/>
       <c r="F327" s="20"/>
-      <c r="G327" s="158"/>
+      <c r="G327" s="160"/>
     </row>
     <row r="328" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A328" s="158"/>
+      <c r="A328" s="160"/>
       <c r="B328" s="19"/>
       <c r="C328" s="20"/>
       <c r="D328" s="20"/>
       <c r="E328" s="20"/>
       <c r="F328" s="20"/>
-      <c r="G328" s="158"/>
+      <c r="G328" s="160"/>
     </row>
     <row r="329" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A329" s="158"/>
+      <c r="A329" s="160"/>
       <c r="B329" s="19"/>
       <c r="C329" s="20"/>
       <c r="D329" s="20"/>
       <c r="E329" s="20"/>
       <c r="F329" s="20"/>
-      <c r="G329" s="158"/>
+      <c r="G329" s="160"/>
     </row>
     <row r="330" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A330" s="158"/>
+      <c r="A330" s="160"/>
       <c r="B330" s="19"/>
       <c r="C330" s="20"/>
       <c r="D330" s="20"/>
       <c r="E330" s="20"/>
       <c r="F330" s="20"/>
-      <c r="G330" s="158"/>
+      <c r="G330" s="160"/>
     </row>
     <row r="331" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A331" s="158"/>
+      <c r="A331" s="160"/>
       <c r="B331" s="19"/>
       <c r="C331" s="20"/>
       <c r="D331" s="20"/>
       <c r="E331" s="20"/>
       <c r="F331" s="20"/>
-      <c r="G331" s="158"/>
+      <c r="G331" s="160"/>
     </row>
     <row r="332" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A332" s="158"/>
+      <c r="A332" s="160"/>
       <c r="B332" s="19"/>
       <c r="C332" s="20"/>
       <c r="D332" s="20"/>
       <c r="E332" s="20"/>
       <c r="F332" s="20"/>
-      <c r="G332" s="158"/>
+      <c r="G332" s="160"/>
     </row>
     <row r="333" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A333" s="158"/>
+      <c r="A333" s="160"/>
       <c r="B333" s="19"/>
       <c r="C333" s="20"/>
       <c r="D333" s="20"/>
       <c r="E333" s="20"/>
       <c r="F333" s="20"/>
-      <c r="G333" s="158"/>
+      <c r="G333" s="160"/>
     </row>
     <row r="334" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A334" s="158"/>
+      <c r="A334" s="160"/>
       <c r="B334" s="19"/>
       <c r="C334" s="20"/>
       <c r="D334" s="20"/>
       <c r="E334" s="20"/>
       <c r="F334" s="20"/>
-      <c r="G334" s="158"/>
+      <c r="G334" s="160"/>
     </row>
     <row r="335" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A335" s="158"/>
+      <c r="A335" s="160"/>
       <c r="B335" s="19"/>
       <c r="C335" s="20"/>
       <c r="D335" s="20"/>
       <c r="E335" s="20"/>
       <c r="F335" s="20"/>
-      <c r="G335" s="158"/>
+      <c r="G335" s="160"/>
     </row>
     <row r="336" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A336" s="158"/>
+      <c r="A336" s="160"/>
       <c r="B336" s="19"/>
       <c r="C336" s="20"/>
       <c r="D336" s="20"/>
       <c r="E336" s="20"/>
       <c r="F336" s="20"/>
-      <c r="G336" s="158"/>
+      <c r="G336" s="160"/>
     </row>
     <row r="337" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A337" s="158"/>
+      <c r="A337" s="160"/>
       <c r="B337" s="19"/>
       <c r="C337" s="20"/>
       <c r="D337" s="20"/>
       <c r="E337" s="20"/>
       <c r="F337" s="20"/>
-      <c r="G337" s="158"/>
+      <c r="G337" s="160"/>
     </row>
     <row r="338" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A338" s="158"/>
+      <c r="A338" s="160"/>
       <c r="B338" s="19"/>
       <c r="C338" s="20"/>
       <c r="D338" s="20"/>
       <c r="E338" s="20"/>
       <c r="F338" s="20"/>
-      <c r="G338" s="158"/>
+      <c r="G338" s="160"/>
     </row>
     <row r="339" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A339" s="158"/>
+      <c r="A339" s="160"/>
       <c r="B339" s="19"/>
       <c r="C339" s="20"/>
       <c r="D339" s="20"/>
       <c r="E339" s="20"/>
       <c r="F339" s="20"/>
-      <c r="G339" s="158"/>
+      <c r="G339" s="160"/>
     </row>
     <row r="340" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A340" s="158"/>
+      <c r="A340" s="160"/>
       <c r="B340" s="19"/>
       <c r="C340" s="20"/>
       <c r="D340" s="20"/>
       <c r="E340" s="20"/>
       <c r="F340" s="20"/>
-      <c r="G340" s="158"/>
+      <c r="G340" s="160"/>
     </row>
     <row r="341" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A341" s="158"/>
+      <c r="A341" s="160"/>
       <c r="B341" s="19"/>
       <c r="C341" s="20"/>
       <c r="D341" s="20"/>
       <c r="E341" s="20"/>
       <c r="F341" s="20"/>
-      <c r="G341" s="158"/>
+      <c r="G341" s="160"/>
     </row>
     <row r="342" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A342" s="158"/>
+      <c r="A342" s="160"/>
       <c r="B342" s="19"/>
       <c r="C342" s="20"/>
       <c r="D342" s="20"/>
       <c r="E342" s="20"/>
       <c r="F342" s="20"/>
-      <c r="G342" s="158"/>
+      <c r="G342" s="160"/>
     </row>
     <row r="343" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A343" s="158"/>
+      <c r="A343" s="160"/>
       <c r="B343" s="19"/>
       <c r="C343" s="20"/>
       <c r="D343" s="20"/>
       <c r="E343" s="20"/>
       <c r="F343" s="20"/>
-      <c r="G343" s="158"/>
+      <c r="G343" s="160"/>
     </row>
     <row r="344" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A344" s="158"/>
+      <c r="A344" s="160"/>
       <c r="B344" s="19"/>
       <c r="C344" s="20"/>
       <c r="D344" s="20"/>
       <c r="E344" s="20"/>
       <c r="F344" s="20"/>
-      <c r="G344" s="158"/>
+      <c r="G344" s="160"/>
     </row>
     <row r="345" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A345" s="158"/>
+      <c r="A345" s="160"/>
       <c r="B345" s="19"/>
       <c r="C345" s="20"/>
       <c r="D345" s="20"/>
       <c r="E345" s="20"/>
       <c r="F345" s="20"/>
-      <c r="G345" s="158"/>
+      <c r="G345" s="160"/>
     </row>
     <row r="346" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A346" s="158"/>
+      <c r="A346" s="160"/>
       <c r="B346" s="19"/>
       <c r="C346" s="20"/>
       <c r="D346" s="20"/>
       <c r="E346" s="20"/>
       <c r="F346" s="20"/>
-      <c r="G346" s="158"/>
+      <c r="G346" s="160"/>
     </row>
     <row r="347" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A347" s="158"/>
+      <c r="A347" s="160"/>
       <c r="B347" s="19"/>
       <c r="C347" s="20"/>
       <c r="D347" s="20"/>
       <c r="E347" s="20"/>
       <c r="F347" s="20"/>
-      <c r="G347" s="158"/>
+      <c r="G347" s="160"/>
     </row>
     <row r="348" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A348" s="158"/>
+      <c r="A348" s="160"/>
       <c r="B348" s="19"/>
       <c r="C348" s="20"/>
       <c r="D348" s="20"/>
       <c r="E348" s="20"/>
       <c r="F348" s="20"/>
-      <c r="G348" s="158"/>
+      <c r="G348" s="160"/>
     </row>
     <row r="349" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A349" s="158"/>
+      <c r="A349" s="160"/>
       <c r="B349" s="19"/>
       <c r="C349" s="20"/>
       <c r="D349" s="20"/>
       <c r="E349" s="20"/>
       <c r="F349" s="20"/>
-      <c r="G349" s="158"/>
+      <c r="G349" s="160"/>
     </row>
     <row r="350" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A350" s="158"/>
+      <c r="A350" s="160"/>
       <c r="B350" s="19"/>
       <c r="C350" s="20"/>
       <c r="D350" s="20"/>
       <c r="E350" s="20"/>
       <c r="F350" s="20"/>
-      <c r="G350" s="158"/>
+      <c r="G350" s="160"/>
     </row>
     <row r="351" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A351" s="158"/>
+      <c r="A351" s="160"/>
       <c r="B351" s="19"/>
       <c r="C351" s="20"/>
       <c r="D351" s="20"/>
       <c r="E351" s="20"/>
       <c r="F351" s="20"/>
-      <c r="G351" s="158"/>
+      <c r="G351" s="160"/>
     </row>
     <row r="352" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A352" s="158"/>
+      <c r="A352" s="160"/>
       <c r="B352" s="19"/>
       <c r="C352" s="20"/>
       <c r="D352" s="20"/>
       <c r="E352" s="20"/>
       <c r="F352" s="20"/>
-      <c r="G352" s="158"/>
+      <c r="G352" s="160"/>
     </row>
     <row r="353" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A353" s="158"/>
+      <c r="A353" s="160"/>
       <c r="B353" s="19"/>
       <c r="C353" s="20"/>
       <c r="D353" s="20"/>
       <c r="E353" s="20"/>
       <c r="F353" s="20"/>
-      <c r="G353" s="158"/>
+      <c r="G353" s="160"/>
     </row>
     <row r="354" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A354" s="158"/>
+      <c r="A354" s="160"/>
       <c r="B354" s="19"/>
       <c r="C354" s="20"/>
       <c r="D354" s="20"/>
       <c r="E354" s="20"/>
       <c r="F354" s="20"/>
-      <c r="G354" s="158"/>
+      <c r="G354" s="160"/>
     </row>
     <row r="355" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A355" s="158"/>
+      <c r="A355" s="160"/>
       <c r="B355" s="19"/>
       <c r="C355" s="20"/>
       <c r="D355" s="20"/>
       <c r="E355" s="20"/>
       <c r="F355" s="20"/>
-      <c r="G355" s="158"/>
+      <c r="G355" s="160"/>
     </row>
     <row r="356" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A356" s="158"/>
+      <c r="A356" s="160"/>
       <c r="B356" s="19"/>
       <c r="C356" s="20"/>
       <c r="D356" s="20"/>
       <c r="E356" s="20"/>
       <c r="F356" s="20"/>
-      <c r="G356" s="158"/>
+      <c r="G356" s="160"/>
     </row>
     <row r="357" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A357" s="158"/>
+      <c r="A357" s="160"/>
       <c r="B357" s="19"/>
       <c r="C357" s="20"/>
       <c r="D357" s="20"/>
       <c r="E357" s="20"/>
       <c r="F357" s="20"/>
-      <c r="G357" s="158"/>
+      <c r="G357" s="160"/>
     </row>
     <row r="358" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A358" s="158"/>
+      <c r="A358" s="160"/>
       <c r="B358" s="19"/>
       <c r="C358" s="20"/>
       <c r="D358" s="20"/>
       <c r="E358" s="20"/>
       <c r="F358" s="20"/>
-      <c r="G358" s="158"/>
+      <c r="G358" s="160"/>
     </row>
     <row r="359" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A359" s="158"/>
+      <c r="A359" s="160"/>
       <c r="B359" s="19"/>
       <c r="C359" s="20"/>
       <c r="D359" s="20"/>
       <c r="E359" s="20"/>
       <c r="F359" s="20"/>
-      <c r="G359" s="158"/>
+      <c r="G359" s="160"/>
     </row>
     <row r="360" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A360" s="158"/>
+      <c r="A360" s="160"/>
       <c r="B360" s="19"/>
       <c r="C360" s="20"/>
       <c r="D360" s="20"/>
       <c r="E360" s="20"/>
       <c r="F360" s="20"/>
-      <c r="G360" s="158"/>
+      <c r="G360" s="160"/>
     </row>
     <row r="361" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A361" s="158"/>
+      <c r="A361" s="160"/>
       <c r="B361" s="19"/>
       <c r="C361" s="20"/>
       <c r="D361" s="20"/>
       <c r="E361" s="20"/>
       <c r="F361" s="20"/>
-      <c r="G361" s="158"/>
+      <c r="G361" s="160"/>
     </row>
     <row r="362" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A362" s="158"/>
+      <c r="A362" s="160"/>
       <c r="B362" s="19"/>
       <c r="C362" s="20"/>
       <c r="D362" s="20"/>
       <c r="E362" s="20"/>
       <c r="F362" s="20"/>
-      <c r="G362" s="158"/>
+      <c r="G362" s="160"/>
     </row>
     <row r="363" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A363" s="158"/>
+      <c r="A363" s="160"/>
       <c r="B363" s="19"/>
       <c r="C363" s="20"/>
       <c r="D363" s="20"/>
       <c r="E363" s="20"/>
       <c r="F363" s="20"/>
-      <c r="G363" s="158"/>
+      <c r="G363" s="160"/>
     </row>
     <row r="364" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A364" s="158"/>
+      <c r="A364" s="160"/>
       <c r="B364" s="19"/>
       <c r="C364" s="20"/>
       <c r="D364" s="20"/>
       <c r="E364" s="20"/>
       <c r="F364" s="20"/>
-      <c r="G364" s="158"/>
+      <c r="G364" s="160"/>
     </row>
     <row r="365" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A365" s="158"/>
+      <c r="A365" s="160"/>
       <c r="B365" s="19"/>
       <c r="C365" s="20"/>
       <c r="D365" s="20"/>
       <c r="E365" s="20"/>
       <c r="F365" s="20"/>
-      <c r="G365" s="158"/>
+      <c r="G365" s="160"/>
     </row>
     <row r="366" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A366" s="158"/>
+      <c r="A366" s="160"/>
       <c r="B366" s="19"/>
       <c r="C366" s="20"/>
       <c r="D366" s="20"/>
       <c r="E366" s="20"/>
       <c r="F366" s="20"/>
-      <c r="G366" s="158"/>
+      <c r="G366" s="160"/>
     </row>
     <row r="367" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A367" s="158"/>
+      <c r="A367" s="160"/>
       <c r="B367" s="19"/>
       <c r="C367" s="20"/>
       <c r="D367" s="20"/>
       <c r="E367" s="20"/>
       <c r="F367" s="20"/>
-      <c r="G367" s="158"/>
+      <c r="G367" s="160"/>
     </row>
     <row r="368" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A368" s="158"/>
+      <c r="A368" s="160"/>
       <c r="B368" s="19"/>
       <c r="C368" s="20"/>
       <c r="D368" s="20"/>
       <c r="E368" s="20"/>
       <c r="F368" s="20"/>
-      <c r="G368" s="158"/>
+      <c r="G368" s="160"/>
     </row>
     <row r="369" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A369" s="158"/>
+      <c r="A369" s="160"/>
       <c r="B369" s="19"/>
       <c r="C369" s="20"/>
       <c r="D369" s="20"/>
       <c r="E369" s="20"/>
       <c r="F369" s="20"/>
-      <c r="G369" s="158"/>
+      <c r="G369" s="160"/>
     </row>
     <row r="370" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A370" s="158"/>
+      <c r="A370" s="160"/>
       <c r="B370" s="19"/>
       <c r="C370" s="20"/>
       <c r="D370" s="20"/>
       <c r="E370" s="20"/>
       <c r="F370" s="20"/>
-      <c r="G370" s="158"/>
+      <c r="G370" s="160"/>
     </row>
     <row r="371" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A371" s="158"/>
+      <c r="A371" s="160"/>
       <c r="B371" s="19"/>
       <c r="C371" s="20"/>
       <c r="D371" s="20"/>
       <c r="E371" s="20"/>
       <c r="F371" s="20"/>
-      <c r="G371" s="158"/>
+      <c r="G371" s="160"/>
     </row>
     <row r="372" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A372" s="158"/>
+      <c r="A372" s="160"/>
       <c r="B372" s="19"/>
       <c r="C372" s="20"/>
       <c r="D372" s="20"/>
       <c r="E372" s="20"/>
       <c r="F372" s="20"/>
-      <c r="G372" s="158"/>
+      <c r="G372" s="160"/>
     </row>
     <row r="373" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A373" s="158"/>
+      <c r="A373" s="160"/>
       <c r="B373" s="19"/>
       <c r="C373" s="20"/>
       <c r="D373" s="20"/>
       <c r="E373" s="20"/>
       <c r="F373" s="20"/>
-      <c r="G373" s="158"/>
+      <c r="G373" s="160"/>
     </row>
     <row r="374" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A374" s="158"/>
+      <c r="A374" s="160"/>
       <c r="B374" s="19"/>
       <c r="C374" s="20"/>
       <c r="D374" s="20"/>
       <c r="E374" s="20"/>
       <c r="F374" s="20"/>
-      <c r="G374" s="158"/>
+      <c r="G374" s="160"/>
     </row>
     <row r="375" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A375" s="158"/>
+      <c r="A375" s="160"/>
       <c r="B375" s="19"/>
       <c r="C375" s="20"/>
       <c r="D375" s="20"/>
       <c r="E375" s="20"/>
       <c r="F375" s="20"/>
-      <c r="G375" s="158"/>
+      <c r="G375" s="160"/>
     </row>
     <row r="376" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A376" s="158"/>
+      <c r="A376" s="160"/>
       <c r="B376" s="19"/>
       <c r="C376" s="20"/>
       <c r="D376" s="20"/>
       <c r="E376" s="20"/>
       <c r="F376" s="20"/>
-      <c r="G376" s="158"/>
+      <c r="G376" s="160"/>
     </row>
     <row r="377" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A377" s="158"/>
+      <c r="A377" s="160"/>
       <c r="B377" s="19"/>
       <c r="C377" s="20"/>
       <c r="D377" s="20"/>
       <c r="E377" s="20"/>
       <c r="F377" s="20"/>
-      <c r="G377" s="158"/>
+      <c r="G377" s="160"/>
     </row>
     <row r="378" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A378" s="158"/>
+      <c r="A378" s="160"/>
       <c r="B378" s="19"/>
       <c r="C378" s="20"/>
       <c r="D378" s="20"/>
       <c r="E378" s="20"/>
       <c r="F378" s="20"/>
-      <c r="G378" s="158"/>
+      <c r="G378" s="160"/>
     </row>
     <row r="379" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A379" s="158"/>
+      <c r="A379" s="160"/>
       <c r="B379" s="19"/>
       <c r="C379" s="20"/>
       <c r="D379" s="20"/>
       <c r="E379" s="20"/>
       <c r="F379" s="20"/>
-      <c r="G379" s="158"/>
+      <c r="G379" s="160"/>
     </row>
     <row r="380" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A380" s="158"/>
+      <c r="A380" s="160"/>
       <c r="B380" s="19"/>
       <c r="C380" s="20"/>
       <c r="D380" s="20"/>
       <c r="E380" s="20"/>
       <c r="F380" s="20"/>
-      <c r="G380" s="158"/>
+      <c r="G380" s="160"/>
     </row>
     <row r="381" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A381" s="158"/>
+      <c r="A381" s="160"/>
       <c r="B381" s="19"/>
       <c r="C381" s="20"/>
       <c r="D381" s="20"/>
       <c r="E381" s="20"/>
       <c r="F381" s="20"/>
-      <c r="G381" s="158"/>
+      <c r="G381" s="160"/>
     </row>
     <row r="382" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A382" s="158"/>
+      <c r="A382" s="160"/>
       <c r="B382" s="19"/>
       <c r="C382" s="20"/>
       <c r="D382" s="20"/>
       <c r="E382" s="20"/>
       <c r="F382" s="20"/>
-      <c r="G382" s="158"/>
+      <c r="G382" s="160"/>
     </row>
     <row r="383" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A383" s="158"/>
+      <c r="A383" s="160"/>
       <c r="B383" s="19"/>
       <c r="C383" s="20"/>
       <c r="D383" s="20"/>
       <c r="E383" s="20"/>
       <c r="F383" s="20"/>
-      <c r="G383" s="158"/>
+      <c r="G383" s="160"/>
     </row>
     <row r="384" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A384" s="158"/>
+      <c r="A384" s="160"/>
       <c r="B384" s="19"/>
       <c r="C384" s="20"/>
       <c r="D384" s="20"/>
       <c r="E384" s="20"/>
       <c r="F384" s="20"/>
-      <c r="G384" s="158"/>
+      <c r="G384" s="160"/>
     </row>
     <row r="385" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A385" s="158"/>
+      <c r="A385" s="160"/>
       <c r="B385" s="19"/>
       <c r="C385" s="20"/>
       <c r="D385" s="20"/>
       <c r="E385" s="20"/>
       <c r="F385" s="20"/>
-      <c r="G385" s="158"/>
+      <c r="G385" s="160"/>
     </row>
     <row r="386" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A386" s="158"/>
+      <c r="A386" s="160"/>
       <c r="B386" s="19"/>
       <c r="C386" s="20"/>
       <c r="D386" s="20"/>
       <c r="E386" s="20"/>
       <c r="F386" s="20"/>
-      <c r="G386" s="158"/>
+      <c r="G386" s="160"/>
     </row>
     <row r="387" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A387" s="158"/>
+      <c r="A387" s="160"/>
       <c r="B387" s="19"/>
       <c r="C387" s="20"/>
       <c r="D387" s="20"/>
       <c r="E387" s="20"/>
       <c r="F387" s="20"/>
-      <c r="G387" s="158"/>
+      <c r="G387" s="160"/>
     </row>
     <row r="388" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A388" s="158"/>
+      <c r="A388" s="160"/>
       <c r="B388" s="19"/>
       <c r="C388" s="20"/>
       <c r="D388" s="20"/>
       <c r="E388" s="20"/>
       <c r="F388" s="20"/>
-      <c r="G388" s="158"/>
+      <c r="G388" s="160"/>
     </row>
     <row r="389" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A389" s="158"/>
+      <c r="A389" s="160"/>
       <c r="B389" s="19"/>
       <c r="C389" s="20"/>
       <c r="D389" s="20"/>
       <c r="E389" s="20"/>
       <c r="F389" s="20"/>
-      <c r="G389" s="158"/>
+      <c r="G389" s="160"/>
     </row>
     <row r="390" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A390" s="158"/>
+      <c r="A390" s="160"/>
       <c r="B390" s="19"/>
       <c r="C390" s="20"/>
       <c r="D390" s="20"/>
       <c r="E390" s="20"/>
       <c r="F390" s="20"/>
-      <c r="G390" s="158"/>
+      <c r="G390" s="160"/>
     </row>
     <row r="391" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A391" s="158"/>
+      <c r="A391" s="160"/>
       <c r="B391" s="19"/>
       <c r="C391" s="20"/>
       <c r="D391" s="20"/>
       <c r="E391" s="20"/>
       <c r="F391" s="20"/>
-      <c r="G391" s="158"/>
+      <c r="G391" s="160"/>
     </row>
     <row r="392" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A392" s="158"/>
+      <c r="A392" s="160"/>
       <c r="B392" s="19"/>
       <c r="C392" s="20"/>
       <c r="D392" s="20"/>
       <c r="E392" s="20"/>
       <c r="F392" s="20"/>
-      <c r="G392" s="158"/>
+      <c r="G392" s="160"/>
     </row>
     <row r="393" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A393" s="158"/>
+      <c r="A393" s="160"/>
       <c r="B393" s="19"/>
       <c r="C393" s="20"/>
       <c r="D393" s="20"/>
       <c r="E393" s="20"/>
       <c r="F393" s="20"/>
-      <c r="G393" s="158"/>
+      <c r="G393" s="160"/>
     </row>
     <row r="394" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A394" s="158"/>
+      <c r="A394" s="160"/>
       <c r="B394" s="19"/>
       <c r="C394" s="20"/>
       <c r="D394" s="20"/>
       <c r="E394" s="20"/>
       <c r="F394" s="20"/>
-      <c r="G394" s="158"/>
+      <c r="G394" s="160"/>
     </row>
     <row r="395" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A395" s="158"/>
+      <c r="A395" s="160"/>
       <c r="B395" s="19"/>
       <c r="C395" s="20"/>
       <c r="D395" s="20"/>
       <c r="E395" s="20"/>
       <c r="F395" s="20"/>
-      <c r="G395" s="158"/>
+      <c r="G395" s="160"/>
     </row>
     <row r="396" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A396" s="158"/>
+      <c r="A396" s="160"/>
       <c r="B396" s="19"/>
       <c r="C396" s="20"/>
       <c r="D396" s="20"/>
       <c r="E396" s="20"/>
       <c r="F396" s="20"/>
-      <c r="G396" s="158"/>
+      <c r="G396" s="160"/>
     </row>
     <row r="397" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A397" s="158"/>
+      <c r="A397" s="160"/>
       <c r="B397" s="19"/>
       <c r="C397" s="20"/>
       <c r="D397" s="20"/>
       <c r="E397" s="20"/>
       <c r="F397" s="20"/>
-      <c r="G397" s="158"/>
+      <c r="G397" s="160"/>
     </row>
     <row r="398" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A398" s="158"/>
+      <c r="A398" s="160"/>
       <c r="B398" s="19"/>
       <c r="C398" s="20"/>
       <c r="D398" s="20"/>
       <c r="E398" s="20"/>
       <c r="F398" s="20"/>
-      <c r="G398" s="158"/>
+      <c r="G398" s="160"/>
     </row>
     <row r="399" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A399" s="158"/>
+      <c r="A399" s="160"/>
       <c r="B399" s="19"/>
       <c r="C399" s="20"/>
       <c r="D399" s="20"/>
       <c r="E399" s="20"/>
       <c r="F399" s="20"/>
-      <c r="G399" s="158"/>
+      <c r="G399" s="160"/>
     </row>
     <row r="400" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A400" s="158"/>
+      <c r="A400" s="160"/>
       <c r="B400" s="19"/>
       <c r="C400" s="20"/>
       <c r="D400" s="20"/>
       <c r="E400" s="20"/>
       <c r="F400" s="20"/>
-      <c r="G400" s="158"/>
+      <c r="G400" s="160"/>
     </row>
     <row r="401" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A401" s="158"/>
+      <c r="A401" s="160"/>
       <c r="B401" s="19"/>
       <c r="C401" s="20"/>
       <c r="D401" s="20"/>
       <c r="E401" s="20"/>
       <c r="F401" s="20"/>
-      <c r="G401" s="158"/>
+      <c r="G401" s="160"/>
     </row>
     <row r="402" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A402" s="158"/>
+      <c r="A402" s="160"/>
       <c r="B402" s="19"/>
       <c r="C402" s="20"/>
       <c r="D402" s="20"/>
       <c r="E402" s="20"/>
       <c r="F402" s="20"/>
-      <c r="G402" s="158"/>
+      <c r="G402" s="160"/>
     </row>
     <row r="403" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A403" s="158"/>
+      <c r="A403" s="160"/>
       <c r="B403" s="19"/>
       <c r="C403" s="20"/>
       <c r="D403" s="20"/>
       <c r="E403" s="20"/>
       <c r="F403" s="20"/>
-      <c r="G403" s="158"/>
+      <c r="G403" s="160"/>
     </row>
     <row r="404" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A404" s="158"/>
+      <c r="A404" s="160"/>
       <c r="B404" s="19"/>
       <c r="C404" s="20"/>
       <c r="D404" s="20"/>
       <c r="E404" s="20"/>
       <c r="F404" s="20"/>
-      <c r="G404" s="158"/>
+      <c r="G404" s="160"/>
     </row>
     <row r="405" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A405" s="158"/>
+      <c r="A405" s="160"/>
       <c r="B405" s="19"/>
       <c r="C405" s="20"/>
       <c r="D405" s="20"/>
       <c r="E405" s="20"/>
       <c r="F405" s="20"/>
-      <c r="G405" s="158"/>
+      <c r="G405" s="160"/>
     </row>
     <row r="406" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A406" s="158"/>
+      <c r="A406" s="160"/>
       <c r="B406" s="19"/>
       <c r="C406" s="20"/>
       <c r="D406" s="20"/>
       <c r="E406" s="20"/>
       <c r="F406" s="20"/>
-      <c r="G406" s="158"/>
+      <c r="G406" s="160"/>
     </row>
     <row r="407" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A407" s="158"/>
+      <c r="A407" s="160"/>
       <c r="B407" s="19"/>
       <c r="C407" s="20"/>
       <c r="D407" s="20"/>
       <c r="E407" s="20"/>
       <c r="F407" s="20"/>
-      <c r="G407" s="158"/>
+      <c r="G407" s="160"/>
     </row>
     <row r="408" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A408" s="158"/>
+      <c r="A408" s="160"/>
       <c r="B408" s="19"/>
       <c r="C408" s="20"/>
       <c r="D408" s="20"/>
       <c r="E408" s="20"/>
       <c r="F408" s="20"/>
-      <c r="G408" s="158"/>
+      <c r="G408" s="160"/>
     </row>
     <row r="409" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A409" s="158"/>
+      <c r="A409" s="160"/>
       <c r="B409" s="19"/>
       <c r="C409" s="20"/>
       <c r="D409" s="20"/>
       <c r="E409" s="20"/>
       <c r="F409" s="20"/>
-      <c r="G409" s="158"/>
+      <c r="G409" s="160"/>
     </row>
     <row r="410" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A410" s="158"/>
+      <c r="A410" s="160"/>
       <c r="B410" s="19"/>
       <c r="C410" s="20"/>
       <c r="D410" s="20"/>
       <c r="E410" s="20"/>
       <c r="F410" s="20"/>
-      <c r="G410" s="158"/>
+      <c r="G410" s="160"/>
     </row>
     <row r="411" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A411" s="158"/>
+      <c r="A411" s="160"/>
       <c r="B411" s="19"/>
       <c r="C411" s="20"/>
       <c r="D411" s="20"/>
       <c r="E411" s="20"/>
       <c r="F411" s="20"/>
-      <c r="G411" s="158"/>
+      <c r="G411" s="160"/>
     </row>
     <row r="412" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A412" s="158"/>
+      <c r="A412" s="160"/>
       <c r="B412" s="19"/>
       <c r="C412" s="20"/>
       <c r="D412" s="20"/>
       <c r="E412" s="20"/>
       <c r="F412" s="20"/>
-      <c r="G412" s="158"/>
+      <c r="G412" s="160"/>
     </row>
     <row r="413" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A413" s="158"/>
+      <c r="A413" s="160"/>
       <c r="B413" s="19"/>
       <c r="C413" s="20"/>
       <c r="D413" s="20"/>
       <c r="E413" s="20"/>
       <c r="F413" s="20"/>
-      <c r="G413" s="158"/>
+      <c r="G413" s="160"/>
     </row>
     <row r="414" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A414" s="158"/>
+      <c r="A414" s="160"/>
       <c r="B414" s="19"/>
       <c r="C414" s="20"/>
       <c r="D414" s="20"/>
       <c r="E414" s="20"/>
       <c r="F414" s="20"/>
-      <c r="G414" s="158"/>
+      <c r="G414" s="160"/>
     </row>
     <row r="415" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A415" s="158"/>
+      <c r="A415" s="160"/>
       <c r="B415" s="19"/>
       <c r="C415" s="20"/>
       <c r="D415" s="20"/>
       <c r="E415" s="20"/>
       <c r="F415" s="20"/>
-      <c r="G415" s="158"/>
+      <c r="G415" s="160"/>
     </row>
     <row r="416" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A416" s="158"/>
+      <c r="A416" s="160"/>
       <c r="B416" s="19"/>
       <c r="C416" s="20"/>
       <c r="D416" s="20"/>
       <c r="E416" s="20"/>
       <c r="F416" s="20"/>
-      <c r="G416" s="158"/>
+      <c r="G416" s="160"/>
     </row>
     <row r="417" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A417" s="158"/>
+      <c r="A417" s="160"/>
       <c r="B417" s="19"/>
       <c r="C417" s="20"/>
       <c r="D417" s="20"/>
       <c r="E417" s="20"/>
       <c r="F417" s="20"/>
-      <c r="G417" s="158"/>
+      <c r="G417" s="160"/>
     </row>
     <row r="418" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A418" s="158"/>
+      <c r="A418" s="160"/>
       <c r="B418" s="19"/>
       <c r="C418" s="20"/>
       <c r="D418" s="20"/>
       <c r="E418" s="20"/>
       <c r="F418" s="20"/>
-      <c r="G418" s="158"/>
+      <c r="G418" s="160"/>
     </row>
     <row r="419" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A419" s="158"/>
+      <c r="A419" s="160"/>
       <c r="B419" s="19"/>
       <c r="C419" s="20"/>
       <c r="D419" s="20"/>
       <c r="E419" s="20"/>
       <c r="F419" s="20"/>
-      <c r="G419" s="158"/>
+      <c r="G419" s="160"/>
     </row>
     <row r="420" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A420" s="158"/>
+      <c r="A420" s="160"/>
       <c r="B420" s="19"/>
       <c r="C420" s="20"/>
       <c r="D420" s="20"/>
       <c r="E420" s="20"/>
       <c r="F420" s="20"/>
-      <c r="G420" s="158"/>
+      <c r="G420" s="160"/>
     </row>
     <row r="421" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A421" s="158"/>
+      <c r="A421" s="160"/>
       <c r="B421" s="19"/>
       <c r="C421" s="20"/>
       <c r="D421" s="20"/>
       <c r="E421" s="20"/>
       <c r="F421" s="20"/>
-      <c r="G421" s="158"/>
+      <c r="G421" s="160"/>
     </row>
     <row r="422" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A422" s="158"/>
+      <c r="A422" s="160"/>
       <c r="B422" s="19"/>
       <c r="C422" s="20"/>
       <c r="D422" s="20"/>
       <c r="E422" s="20"/>
       <c r="F422" s="20"/>
-      <c r="G422" s="158"/>
+      <c r="G422" s="160"/>
     </row>
     <row r="423" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A423" s="158"/>
+      <c r="A423" s="160"/>
       <c r="B423" s="19"/>
       <c r="C423" s="20"/>
       <c r="D423" s="20"/>
       <c r="E423" s="20"/>
       <c r="F423" s="20"/>
-      <c r="G423" s="158"/>
+      <c r="G423" s="160"/>
     </row>
     <row r="424" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A424" s="158"/>
+      <c r="A424" s="160"/>
       <c r="B424" s="19"/>
       <c r="C424" s="20"/>
       <c r="D424" s="20"/>
       <c r="E424" s="20"/>
       <c r="F424" s="20"/>
-      <c r="G424" s="158"/>
+      <c r="G424" s="160"/>
     </row>
     <row r="425" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A425" s="158"/>
+      <c r="A425" s="160"/>
       <c r="B425" s="19"/>
       <c r="C425" s="20"/>
       <c r="D425" s="20"/>
       <c r="E425" s="20"/>
       <c r="F425" s="20"/>
-      <c r="G425" s="158"/>
+      <c r="G425" s="160"/>
     </row>
     <row r="426" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A426" s="158"/>
+      <c r="A426" s="160"/>
       <c r="B426" s="19"/>
       <c r="C426" s="20"/>
       <c r="D426" s="20"/>
       <c r="E426" s="20"/>
       <c r="F426" s="20"/>
-      <c r="G426" s="158"/>
+      <c r="G426" s="160"/>
     </row>
     <row r="427" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A427" s="158"/>
+      <c r="A427" s="160"/>
       <c r="B427" s="19"/>
       <c r="C427" s="20"/>
       <c r="D427" s="20"/>
       <c r="E427" s="20"/>
       <c r="F427" s="20"/>
-      <c r="G427" s="158"/>
+      <c r="G427" s="160"/>
     </row>
     <row r="428" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A428" s="158"/>
+      <c r="A428" s="160"/>
       <c r="B428" s="19"/>
       <c r="C428" s="20"/>
       <c r="D428" s="20"/>
       <c r="E428" s="20"/>
       <c r="F428" s="20"/>
-      <c r="G428" s="158"/>
+      <c r="G428" s="160"/>
     </row>
     <row r="429" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A429" s="158"/>
+      <c r="A429" s="160"/>
       <c r="B429" s="19"/>
       <c r="C429" s="20"/>
       <c r="D429" s="20"/>
       <c r="E429" s="20"/>
       <c r="F429" s="20"/>
-      <c r="G429" s="158"/>
+      <c r="G429" s="160"/>
     </row>
     <row r="430" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A430" s="158"/>
+      <c r="A430" s="160"/>
       <c r="B430" s="19"/>
       <c r="C430" s="20"/>
       <c r="D430" s="20"/>
       <c r="E430" s="20"/>
       <c r="F430" s="20"/>
-      <c r="G430" s="158"/>
+      <c r="G430" s="160"/>
     </row>
     <row r="431" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A431" s="158"/>
+      <c r="A431" s="160"/>
       <c r="B431" s="19"/>
       <c r="C431" s="20"/>
       <c r="D431" s="20"/>
       <c r="E431" s="20"/>
       <c r="F431" s="20"/>
-      <c r="G431" s="158"/>
+      <c r="G431" s="160"/>
     </row>
     <row r="432" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A432" s="158"/>
+      <c r="A432" s="160"/>
       <c r="B432" s="19"/>
       <c r="C432" s="20"/>
       <c r="D432" s="20"/>
       <c r="E432" s="20"/>
       <c r="F432" s="20"/>
-      <c r="G432" s="158"/>
+      <c r="G432" s="160"/>
     </row>
     <row r="433" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A433" s="158"/>
+      <c r="A433" s="160"/>
       <c r="B433" s="19"/>
       <c r="C433" s="20"/>
       <c r="D433" s="20"/>
       <c r="E433" s="20"/>
       <c r="F433" s="20"/>
-      <c r="G433" s="158"/>
+      <c r="G433" s="160"/>
     </row>
     <row r="434" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A434" s="158"/>
+      <c r="A434" s="160"/>
       <c r="B434" s="19"/>
       <c r="C434" s="20"/>
       <c r="D434" s="20"/>
       <c r="E434" s="20"/>
       <c r="F434" s="20"/>
-      <c r="G434" s="158"/>
+      <c r="G434" s="160"/>
     </row>
     <row r="435" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A435" s="158"/>
+      <c r="A435" s="160"/>
       <c r="B435" s="19"/>
       <c r="C435" s="20"/>
       <c r="D435" s="20"/>
       <c r="E435" s="20"/>
       <c r="F435" s="20"/>
-      <c r="G435" s="158"/>
+      <c r="G435" s="160"/>
     </row>
     <row r="436" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A436" s="158"/>
+      <c r="A436" s="160"/>
       <c r="B436" s="19"/>
       <c r="C436" s="20"/>
       <c r="D436" s="20"/>
       <c r="E436" s="20"/>
       <c r="F436" s="20"/>
-      <c r="G436" s="158"/>
+      <c r="G436" s="160"/>
     </row>
     <row r="437" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A437" s="158"/>
+      <c r="A437" s="160"/>
       <c r="B437" s="19"/>
       <c r="C437" s="20"/>
       <c r="D437" s="20"/>
       <c r="E437" s="20"/>
       <c r="F437" s="20"/>
-      <c r="G437" s="158"/>
+      <c r="G437" s="160"/>
     </row>
     <row r="438" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A438" s="158"/>
+      <c r="A438" s="160"/>
       <c r="B438" s="19"/>
       <c r="C438" s="20"/>
       <c r="D438" s="20"/>
       <c r="E438" s="20"/>
       <c r="F438" s="20"/>
-      <c r="G438" s="158"/>
+      <c r="G438" s="160"/>
     </row>
     <row r="439" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A439" s="158"/>
+      <c r="A439" s="160"/>
       <c r="B439" s="19"/>
       <c r="C439" s="20"/>
       <c r="D439" s="20"/>
       <c r="E439" s="20"/>
       <c r="F439" s="20"/>
-      <c r="G439" s="158"/>
+      <c r="G439" s="160"/>
     </row>
     <row r="440" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A440" s="158"/>
+      <c r="A440" s="160"/>
       <c r="B440" s="19"/>
       <c r="C440" s="20"/>
       <c r="D440" s="20"/>
       <c r="E440" s="20"/>
       <c r="F440" s="20"/>
-      <c r="G440" s="158"/>
+      <c r="G440" s="160"/>
     </row>
     <row r="441" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A441" s="158"/>
+      <c r="A441" s="160"/>
       <c r="B441" s="19"/>
       <c r="C441" s="20"/>
       <c r="D441" s="20"/>
       <c r="E441" s="20"/>
       <c r="F441" s="20"/>
-      <c r="G441" s="158"/>
+      <c r="G441" s="160"/>
     </row>
     <row r="442" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A442" s="158"/>
+      <c r="A442" s="160"/>
       <c r="B442" s="19"/>
       <c r="C442" s="20"/>
       <c r="D442" s="20"/>
       <c r="E442" s="20"/>
       <c r="F442" s="20"/>
-      <c r="G442" s="158"/>
+      <c r="G442" s="160"/>
     </row>
     <row r="443" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A443" s="158"/>
+      <c r="A443" s="160"/>
       <c r="B443" s="19"/>
       <c r="C443" s="20"/>
       <c r="D443" s="20"/>
       <c r="E443" s="20"/>
       <c r="F443" s="20"/>
-      <c r="G443" s="158"/>
+      <c r="G443" s="160"/>
     </row>
     <row r="444" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A444" s="158"/>
+      <c r="A444" s="160"/>
       <c r="B444" s="19"/>
       <c r="C444" s="20"/>
       <c r="D444" s="20"/>
       <c r="E444" s="20"/>
       <c r="F444" s="20"/>
-      <c r="G444" s="158"/>
+      <c r="G444" s="160"/>
     </row>
     <row r="445" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A445" s="158"/>
+      <c r="A445" s="160"/>
       <c r="B445" s="19"/>
       <c r="C445" s="20"/>
       <c r="D445" s="20"/>
       <c r="E445" s="20"/>
       <c r="F445" s="20"/>
-      <c r="G445" s="158"/>
+      <c r="G445" s="160"/>
     </row>
     <row r="446" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A446" s="158"/>
+      <c r="A446" s="160"/>
       <c r="B446" s="19"/>
       <c r="C446" s="20"/>
       <c r="D446" s="20"/>
       <c r="E446" s="20"/>
       <c r="F446" s="20"/>
-      <c r="G446" s="158"/>
+      <c r="G446" s="160"/>
     </row>
     <row r="447" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A447" s="158"/>
+      <c r="A447" s="160"/>
       <c r="B447" s="19"/>
       <c r="C447" s="20"/>
       <c r="D447" s="20"/>
       <c r="E447" s="20"/>
       <c r="F447" s="20"/>
-      <c r="G447" s="158"/>
+      <c r="G447" s="160"/>
     </row>
     <row r="448" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A448" s="158"/>
+      <c r="A448" s="160"/>
       <c r="B448" s="19"/>
       <c r="C448" s="20"/>
       <c r="D448" s="20"/>
       <c r="E448" s="20"/>
       <c r="F448" s="20"/>
-      <c r="G448" s="158"/>
+      <c r="G448" s="160"/>
     </row>
     <row r="449" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A449" s="158"/>
+      <c r="A449" s="160"/>
       <c r="B449" s="19"/>
       <c r="C449" s="20"/>
       <c r="D449" s="20"/>
       <c r="E449" s="20"/>
       <c r="F449" s="20"/>
-      <c r="G449" s="158"/>
+      <c r="G449" s="160"/>
     </row>
     <row r="450" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A450" s="158"/>
+      <c r="A450" s="160"/>
       <c r="B450" s="19"/>
       <c r="C450" s="20"/>
       <c r="D450" s="20"/>
       <c r="E450" s="20"/>
       <c r="F450" s="20"/>
-      <c r="G450" s="158"/>
+      <c r="G450" s="160"/>
     </row>
     <row r="451" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A451" s="158"/>
+      <c r="A451" s="160"/>
       <c r="B451" s="19"/>
       <c r="C451" s="20"/>
       <c r="D451" s="20"/>
       <c r="E451" s="20"/>
       <c r="F451" s="20"/>
-      <c r="G451" s="158"/>
+      <c r="G451" s="160"/>
     </row>
     <row r="452" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A452" s="158"/>
+      <c r="A452" s="160"/>
       <c r="B452" s="19"/>
       <c r="C452" s="20"/>
       <c r="D452" s="20"/>
       <c r="E452" s="20"/>
       <c r="F452" s="20"/>
-      <c r="G452" s="158"/>
+      <c r="G452" s="160"/>
     </row>
     <row r="453" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A453" s="158"/>
+      <c r="A453" s="160"/>
       <c r="B453" s="19"/>
       <c r="C453" s="20"/>
       <c r="D453" s="20"/>
       <c r="E453" s="20"/>
       <c r="F453" s="20"/>
-      <c r="G453" s="158"/>
+      <c r="G453" s="160"/>
     </row>
     <row r="454" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A454" s="158"/>
+      <c r="A454" s="160"/>
       <c r="B454" s="19"/>
       <c r="C454" s="20"/>
       <c r="D454" s="20"/>
       <c r="E454" s="20"/>
       <c r="F454" s="20"/>
-      <c r="G454" s="158"/>
+      <c r="G454" s="160"/>
     </row>
     <row r="455" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A455" s="158"/>
+      <c r="A455" s="160"/>
       <c r="B455" s="19"/>
       <c r="C455" s="20"/>
       <c r="D455" s="20"/>
       <c r="E455" s="20"/>
       <c r="F455" s="20"/>
-      <c r="G455" s="158"/>
+      <c r="G455" s="160"/>
     </row>
     <row r="456" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A456" s="158"/>
+      <c r="A456" s="160"/>
       <c r="B456" s="19"/>
       <c r="C456" s="20"/>
       <c r="D456" s="20"/>
       <c r="E456" s="20"/>
       <c r="F456" s="20"/>
-      <c r="G456" s="158"/>
+      <c r="G456" s="160"/>
     </row>
     <row r="457" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A457" s="158"/>
+      <c r="A457" s="160"/>
       <c r="B457" s="19"/>
       <c r="C457" s="20"/>
       <c r="D457" s="20"/>
       <c r="E457" s="20"/>
       <c r="F457" s="20"/>
-      <c r="G457" s="158"/>
+      <c r="G457" s="160"/>
     </row>
     <row r="458" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A458" s="158"/>
+      <c r="A458" s="160"/>
       <c r="B458" s="19"/>
       <c r="C458" s="20"/>
       <c r="D458" s="20"/>
       <c r="E458" s="20"/>
       <c r="F458" s="20"/>
-      <c r="G458" s="158"/>
+      <c r="G458" s="160"/>
     </row>
     <row r="459" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A459" s="158"/>
+      <c r="A459" s="160"/>
       <c r="B459" s="19"/>
       <c r="C459" s="20"/>
       <c r="D459" s="20"/>
       <c r="E459" s="20"/>
       <c r="F459" s="20"/>
-      <c r="G459" s="158"/>
+      <c r="G459" s="160"/>
     </row>
     <row r="460" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A460" s="158"/>
+      <c r="A460" s="160"/>
       <c r="B460" s="19"/>
       <c r="C460" s="20"/>
       <c r="D460" s="20"/>
       <c r="E460" s="20"/>
       <c r="F460" s="20"/>
-      <c r="G460" s="158"/>
+      <c r="G460" s="160"/>
     </row>
     <row r="461" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A461" s="158"/>
+      <c r="A461" s="160"/>
       <c r="B461" s="19"/>
       <c r="C461" s="20"/>
       <c r="D461" s="20"/>
       <c r="E461" s="20"/>
       <c r="F461" s="20"/>
-      <c r="G461" s="158"/>
+      <c r="G461" s="160"/>
     </row>
     <row r="462" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A462" s="158"/>
+      <c r="A462" s="160"/>
       <c r="B462" s="19"/>
       <c r="C462" s="20"/>
       <c r="D462" s="20"/>
       <c r="E462" s="20"/>
       <c r="F462" s="20"/>
-      <c r="G462" s="158"/>
+      <c r="G462" s="160"/>
     </row>
     <row r="463" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A463" s="158"/>
+      <c r="A463" s="160"/>
       <c r="B463" s="19"/>
       <c r="C463" s="20"/>
       <c r="D463" s="20"/>
       <c r="E463" s="20"/>
       <c r="F463" s="20"/>
-      <c r="G463" s="158"/>
+      <c r="G463" s="160"/>
     </row>
     <row r="464" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A464" s="158"/>
+      <c r="A464" s="160"/>
       <c r="B464" s="19"/>
       <c r="C464" s="20"/>
       <c r="D464" s="20"/>
       <c r="E464" s="20"/>
       <c r="F464" s="20"/>
-      <c r="G464" s="158"/>
+      <c r="G464" s="160"/>
     </row>
     <row r="465" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A465" s="158"/>
+      <c r="A465" s="160"/>
       <c r="B465" s="19"/>
       <c r="C465" s="20"/>
       <c r="D465" s="20"/>
       <c r="E465" s="20"/>
       <c r="F465" s="20"/>
-      <c r="G465" s="158"/>
+      <c r="G465" s="160"/>
     </row>
     <row r="466" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A466" s="158"/>
+      <c r="A466" s="160"/>
       <c r="B466" s="19"/>
       <c r="C466" s="20"/>
       <c r="D466" s="20"/>
       <c r="E466" s="20"/>
       <c r="F466" s="20"/>
-      <c r="G466" s="158"/>
+      <c r="G466" s="160"/>
     </row>
     <row r="467" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A467" s="158"/>
+      <c r="A467" s="160"/>
       <c r="B467" s="19"/>
       <c r="C467" s="20"/>
       <c r="D467" s="20"/>
       <c r="E467" s="20"/>
       <c r="F467" s="20"/>
-      <c r="G467" s="158"/>
+      <c r="G467" s="160"/>
     </row>
     <row r="468" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A468" s="158"/>
+      <c r="A468" s="160"/>
       <c r="B468" s="19"/>
       <c r="C468" s="20"/>
       <c r="D468" s="20"/>
       <c r="E468" s="20"/>
       <c r="F468" s="20"/>
-      <c r="G468" s="158"/>
+      <c r="G468" s="160"/>
     </row>
     <row r="469" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A469" s="158"/>
+      <c r="A469" s="160"/>
       <c r="B469" s="19"/>
       <c r="C469" s="20"/>
       <c r="D469" s="20"/>
       <c r="E469" s="20"/>
       <c r="F469" s="20"/>
-      <c r="G469" s="158"/>
+      <c r="G469" s="160"/>
     </row>
     <row r="470" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A470" s="158"/>
+      <c r="A470" s="160"/>
       <c r="B470" s="19"/>
       <c r="C470" s="20"/>
       <c r="D470" s="20"/>
       <c r="E470" s="20"/>
       <c r="F470" s="20"/>
-      <c r="G470" s="158"/>
+      <c r="G470" s="160"/>
     </row>
     <row r="471" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A471" s="158"/>
+      <c r="A471" s="160"/>
       <c r="B471" s="19"/>
       <c r="C471" s="20"/>
       <c r="D471" s="20"/>
       <c r="E471" s="20"/>
       <c r="F471" s="20"/>
-      <c r="G471" s="158"/>
+      <c r="G471" s="160"/>
     </row>
     <row r="472" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A472" s="158"/>
+      <c r="A472" s="160"/>
       <c r="B472" s="19"/>
       <c r="C472" s="20"/>
       <c r="D472" s="20"/>
       <c r="E472" s="20"/>
       <c r="F472" s="20"/>
-      <c r="G472" s="158"/>
+      <c r="G472" s="160"/>
     </row>
     <row r="473" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A473" s="158"/>
+      <c r="A473" s="160"/>
       <c r="B473" s="19"/>
       <c r="C473" s="20"/>
       <c r="D473" s="20"/>
       <c r="E473" s="20"/>
       <c r="F473" s="20"/>
-      <c r="G473" s="158"/>
+      <c r="G473" s="160"/>
     </row>
     <row r="474" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A474" s="158"/>
+      <c r="A474" s="160"/>
       <c r="B474" s="19"/>
       <c r="C474" s="20"/>
       <c r="D474" s="20"/>
       <c r="E474" s="20"/>
       <c r="F474" s="20"/>
-      <c r="G474" s="158"/>
+      <c r="G474" s="160"/>
     </row>
     <row r="475" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A475" s="158"/>
+      <c r="A475" s="160"/>
       <c r="B475" s="19"/>
       <c r="C475" s="20"/>
       <c r="D475" s="20"/>
       <c r="E475" s="20"/>
       <c r="F475" s="20"/>
-      <c r="G475" s="158"/>
+      <c r="G475" s="160"/>
     </row>
     <row r="476" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A476" s="158"/>
+      <c r="A476" s="160"/>
       <c r="B476" s="19"/>
       <c r="C476" s="20"/>
       <c r="D476" s="20"/>
       <c r="E476" s="20"/>
       <c r="F476" s="20"/>
-      <c r="G476" s="158"/>
+      <c r="G476" s="160"/>
     </row>
     <row r="477" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A477" s="158"/>
+      <c r="A477" s="160"/>
       <c r="B477" s="19"/>
       <c r="C477" s="20"/>
       <c r="D477" s="20"/>
       <c r="E477" s="20"/>
       <c r="F477" s="20"/>
-      <c r="G477" s="158"/>
+      <c r="G477" s="160"/>
     </row>
     <row r="478" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A478" s="158"/>
+      <c r="A478" s="160"/>
       <c r="B478" s="19"/>
       <c r="C478" s="20"/>
       <c r="D478" s="20"/>
       <c r="E478" s="20"/>
       <c r="F478" s="20"/>
-      <c r="G478" s="158"/>
+      <c r="G478" s="160"/>
     </row>
     <row r="479" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A479" s="158"/>
+      <c r="A479" s="160"/>
       <c r="B479" s="19"/>
       <c r="C479" s="20"/>
       <c r="D479" s="20"/>
       <c r="E479" s="20"/>
       <c r="F479" s="20"/>
-      <c r="G479" s="158"/>
+      <c r="G479" s="160"/>
     </row>
     <row r="480" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A480" s="158"/>
+      <c r="A480" s="160"/>
       <c r="B480" s="19"/>
       <c r="C480" s="20"/>
       <c r="D480" s="20"/>
       <c r="E480" s="20"/>
       <c r="F480" s="20"/>
-      <c r="G480" s="158"/>
+      <c r="G480" s="160"/>
     </row>
     <row r="481" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A481" s="158"/>
+      <c r="A481" s="160"/>
       <c r="B481" s="19"/>
       <c r="C481" s="20"/>
       <c r="D481" s="20"/>
       <c r="E481" s="20"/>
       <c r="F481" s="20"/>
-      <c r="G481" s="158"/>
+      <c r="G481" s="160"/>
     </row>
     <row r="482" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A482" s="158"/>
+      <c r="A482" s="160"/>
       <c r="B482" s="19"/>
       <c r="C482" s="20"/>
       <c r="D482" s="20"/>
       <c r="E482" s="20"/>
       <c r="F482" s="20"/>
-      <c r="G482" s="158"/>
+      <c r="G482" s="160"/>
     </row>
     <row r="483" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A483" s="158"/>
+      <c r="A483" s="160"/>
       <c r="B483" s="19"/>
       <c r="C483" s="20"/>
       <c r="D483" s="20"/>
       <c r="E483" s="20"/>
       <c r="F483" s="20"/>
-      <c r="G483" s="158"/>
+      <c r="G483" s="160"/>
     </row>
     <row r="484" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A484" s="158"/>
+      <c r="A484" s="160"/>
       <c r="B484" s="19"/>
       <c r="C484" s="20"/>
       <c r="D484" s="20"/>
       <c r="E484" s="20"/>
       <c r="F484" s="20"/>
-      <c r="G484" s="158"/>
+      <c r="G484" s="160"/>
     </row>
     <row r="485" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A485" s="158"/>
+      <c r="A485" s="160"/>
       <c r="B485" s="19"/>
       <c r="C485" s="20"/>
       <c r="D485" s="20"/>
       <c r="E485" s="20"/>
       <c r="F485" s="20"/>
-      <c r="G485" s="158"/>
+      <c r="G485" s="160"/>
     </row>
     <row r="486" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A486" s="158"/>
+      <c r="A486" s="160"/>
       <c r="B486" s="19"/>
       <c r="C486" s="20"/>
       <c r="D486" s="20"/>
       <c r="E486" s="20"/>
       <c r="F486" s="20"/>
-      <c r="G486" s="158"/>
+      <c r="G486" s="160"/>
     </row>
     <row r="487" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A487" s="158"/>
+      <c r="A487" s="160"/>
       <c r="B487" s="19"/>
       <c r="C487" s="20"/>
       <c r="D487" s="20"/>
       <c r="E487" s="20"/>
       <c r="F487" s="20"/>
-      <c r="G487" s="158"/>
+      <c r="G487" s="160"/>
     </row>
     <row r="488" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A488" s="158"/>
+      <c r="A488" s="160"/>
       <c r="B488" s="19"/>
       <c r="C488" s="20"/>
       <c r="D488" s="20"/>
       <c r="E488" s="20"/>
       <c r="F488" s="20"/>
-      <c r="G488" s="158"/>
+      <c r="G488" s="160"/>
     </row>
     <row r="489" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A489" s="158"/>
+      <c r="A489" s="160"/>
       <c r="B489" s="19"/>
       <c r="C489" s="20"/>
       <c r="D489" s="20"/>
       <c r="E489" s="20"/>
       <c r="F489" s="20"/>
-      <c r="G489" s="158"/>
+      <c r="G489" s="160"/>
     </row>
     <row r="490" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A490" s="158"/>
+      <c r="A490" s="160"/>
       <c r="B490" s="19"/>
       <c r="C490" s="20"/>
       <c r="D490" s="20"/>
       <c r="E490" s="20"/>
       <c r="F490" s="20"/>
-      <c r="G490" s="158"/>
+      <c r="G490" s="160"/>
     </row>
     <row r="491" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A491" s="158"/>
+      <c r="A491" s="160"/>
       <c r="B491" s="19"/>
       <c r="C491" s="20"/>
       <c r="D491" s="20"/>
       <c r="E491" s="20"/>
       <c r="F491" s="20"/>
-      <c r="G491" s="158"/>
+      <c r="G491" s="160"/>
     </row>
     <row r="492" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A492" s="158"/>
+      <c r="A492" s="160"/>
       <c r="B492" s="19"/>
       <c r="C492" s="20"/>
       <c r="D492" s="20"/>
       <c r="E492" s="20"/>
       <c r="F492" s="20"/>
-      <c r="G492" s="158"/>
+      <c r="G492" s="160"/>
     </row>
     <row r="493" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A493" s="158"/>
+      <c r="A493" s="160"/>
       <c r="B493" s="19"/>
       <c r="C493" s="20"/>
       <c r="D493" s="20"/>
       <c r="E493" s="20"/>
       <c r="F493" s="20"/>
-      <c r="G493" s="158"/>
+      <c r="G493" s="160"/>
     </row>
     <row r="494" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A494" s="158"/>
+      <c r="A494" s="160"/>
       <c r="B494" s="19"/>
       <c r="C494" s="20"/>
       <c r="D494" s="20"/>
       <c r="E494" s="20"/>
       <c r="F494" s="20"/>
-      <c r="G494" s="158"/>
+      <c r="G494" s="160"/>
     </row>
     <row r="495" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A495" s="158"/>
+      <c r="A495" s="160"/>
       <c r="B495" s="19"/>
       <c r="C495" s="20"/>
       <c r="D495" s="20"/>
       <c r="E495" s="20"/>
       <c r="F495" s="20"/>
-      <c r="G495" s="158"/>
+      <c r="G495" s="160"/>
     </row>
     <row r="496" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A496" s="158"/>
+      <c r="A496" s="160"/>
       <c r="B496" s="19"/>
       <c r="C496" s="20"/>
       <c r="D496" s="20"/>
       <c r="E496" s="20"/>
       <c r="F496" s="20"/>
-      <c r="G496" s="158"/>
+      <c r="G496" s="160"/>
     </row>
     <row r="497" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A497" s="158"/>
+      <c r="A497" s="160"/>
       <c r="B497" s="19"/>
       <c r="C497" s="20"/>
       <c r="D497" s="20"/>
       <c r="E497" s="20"/>
       <c r="F497" s="20"/>
-      <c r="G497" s="158"/>
+      <c r="G497" s="160"/>
     </row>
     <row r="498" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A498" s="158"/>
+      <c r="A498" s="160"/>
       <c r="B498" s="19"/>
       <c r="C498" s="20"/>
       <c r="D498" s="20"/>
       <c r="E498" s="20"/>
       <c r="F498" s="20"/>
-      <c r="G498" s="158"/>
+      <c r="G498" s="160"/>
     </row>
     <row r="499" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A499" s="158"/>
+      <c r="A499" s="160"/>
       <c r="B499" s="19"/>
       <c r="C499" s="20"/>
       <c r="D499" s="20"/>
       <c r="E499" s="20"/>
       <c r="F499" s="20"/>
-      <c r="G499" s="158"/>
+      <c r="G499" s="160"/>
     </row>
     <row r="500" spans="1:7" ht="21.75" customHeight="1">
       <c r="A500" s="21"/>

--- a/분석_설계/사내 커뮤니티 요구사항 정의서(Rotto).xlsx
+++ b/분석_설계/사내 커뮤니티 요구사항 정의서(Rotto).xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\09_Team_Project\02_산출물관리_게시판\gitFiles\lotto_board_project\분석_설계\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BALLBAT\Documents\lotto_board_project\분석_설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4C8C0D-5368-489D-9272-DD4ACC514CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25A278D-D2B1-4B5F-8B5F-03D6CE16FC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항 정의서 탬플릿_01" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="126">
   <si>
     <t>ex) 번개장터 홈화면 카테고리
 https://m.bunjang.co.kr/</t>
@@ -574,62 +574,62 @@
   </si>
   <si>
     <t>익명성이 보장되어 있는 건의사항 게시판 제작</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>필수</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>하유정</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>모집글 작성자의 방장 기능
 - 해당 모집 건에 신청한 유저를 승인</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>이벤트 관리</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>선착순 쿠폰 제공</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>김의현
 김동주</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>건의 사항 게시글 상태 관리</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>접수 전, 접수 완료 등의 상태 변경</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>공민식</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>유저가 건의사항을 게시하면 관리자에게 알림이 발생하도록 만드는 기능
 - ex) 종 모양 아이콘에 알림 개수 표기</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>김의현</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>김동주</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>건의 사항 게시판 내의 댓글 기능</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -680,63 +680,63 @@
       </rPr>
       <t>게시판</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>관리자</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>매칭 기능</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>커뮤니티 전체 공지사항 관리</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>게시판별 공지사항 관리</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>게시판별 공지사항 작성 및 수정, 삭제</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>유저가 작성한 게시글 조회</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>게시판별 유저가 작성한 게시글을 조회하는 기능</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>게시판 관리</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>건의사항 관리</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>건의 사항 게시글의 댓글 기능</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>날짜별, 시간별, 지역별로 정해서 조회하는 기능</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>회비 정산 기능</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>카카오 정산하기 : https://developers.kakaopay.com/docs/moneytransfer/splitbills.link/splitbills-link-common</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>옵션</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -788,14 +788,18 @@
       </rPr>
       <t>api : https://developers.naver.com/docs/login/calendar-api/calendar-api.md</t>
     </r>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>김의현
+김동주</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="32">
+  <fonts count="31">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -805,12 +809,14 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -952,12 +958,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="돋움"/>
       <family val="3"/>
@@ -997,7 +997,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1031,6 +1031,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1895,7 +1901,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1">
@@ -1903,7 +1909,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -2077,7 +2083,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2090,122 +2096,275 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="60" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="55" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="66" xfId="1" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="55" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="64" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2219,179 +2378,29 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="66" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2712,8 +2721,8 @@
   </sheetPr>
   <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B37" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2734,7 +2743,7 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A2" s="115"/>
+      <c r="A2" s="120"/>
       <c r="B2" s="2" t="s">
         <v>41</v>
       </c>
@@ -2745,145 +2754,145 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A3" s="115"/>
-      <c r="B3" s="116" t="s">
+      <c r="A3" s="120"/>
+      <c r="B3" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="118"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="123"/>
     </row>
     <row r="4" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A4" s="115"/>
-      <c r="B4" s="119" t="s">
+      <c r="A4" s="120"/>
+      <c r="B4" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="121"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="126"/>
     </row>
     <row r="5" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A5" s="115"/>
-      <c r="B5" s="122" t="s">
+      <c r="A5" s="120"/>
+      <c r="B5" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="124"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="129"/>
     </row>
     <row r="6" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A6" s="115"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
+      <c r="A6" s="120"/>
+      <c r="B6" s="130"/>
+      <c r="C6" s="130"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="130"/>
+      <c r="F6" s="130"/>
     </row>
     <row r="7" spans="1:8" ht="28.5" customHeight="1">
-      <c r="A7" s="115"/>
-      <c r="B7" s="126" t="s">
+      <c r="A7" s="120"/>
+      <c r="B7" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="128"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="133"/>
     </row>
     <row r="8" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A8" s="115"/>
+      <c r="A8" s="120"/>
       <c r="B8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="130" t="s">
+      <c r="C8" s="135" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="132"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="137"/>
     </row>
     <row r="9" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A9" s="115"/>
+      <c r="A9" s="120"/>
       <c r="B9" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="133" t="s">
+      <c r="C9" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="134"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="135"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="140"/>
     </row>
     <row r="10" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A10" s="115"/>
+      <c r="A10" s="120"/>
       <c r="B10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="115" t="s">
+      <c r="C10" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="136"/>
-      <c r="E10" s="136"/>
-      <c r="F10" s="137"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="142"/>
     </row>
     <row r="11" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A11" s="115"/>
+      <c r="A11" s="120"/>
       <c r="B11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="115"/>
-      <c r="D11" s="136"/>
-      <c r="E11" s="136"/>
-      <c r="F11" s="137"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="142"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A12" s="115"/>
+      <c r="A12" s="120"/>
       <c r="B12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="115" t="s">
+      <c r="C12" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="136"/>
-      <c r="E12" s="136"/>
-      <c r="F12" s="137"/>
+      <c r="D12" s="141"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="142"/>
     </row>
     <row r="13" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A13" s="115"/>
+      <c r="A13" s="120"/>
       <c r="B13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="144" t="s">
+      <c r="C13" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="145"/>
-      <c r="E13" s="145"/>
-      <c r="F13" s="146"/>
+      <c r="D13" s="152"/>
+      <c r="E13" s="152"/>
+      <c r="F13" s="153"/>
     </row>
     <row r="14" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A14" s="115"/>
-      <c r="B14" s="129"/>
-      <c r="C14" s="129"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="129"/>
-      <c r="F14" s="129"/>
+      <c r="A14" s="120"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="134"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="134"/>
     </row>
     <row r="15" spans="1:8" ht="28.5" customHeight="1">
-      <c r="A15" s="115"/>
-      <c r="B15" s="109" t="s">
+      <c r="A15" s="120"/>
+      <c r="B15" s="158" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="110"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="110"/>
+      <c r="C15" s="159"/>
+      <c r="D15" s="159"/>
+      <c r="E15" s="159"/>
+      <c r="F15" s="159"/>
+      <c r="G15" s="159"/>
+      <c r="H15" s="159"/>
     </row>
     <row r="16" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A16" s="115"/>
+      <c r="A16" s="120"/>
       <c r="B16" s="24" t="s">
         <v>32</v>
       </c>
@@ -2907,8 +2916,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="32.25" customHeight="1">
-      <c r="A17" s="115"/>
-      <c r="B17" s="111" t="s">
+      <c r="A17" s="120"/>
+      <c r="B17" s="143" t="s">
         <v>78</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -2926,14 +2935,14 @@
       <c r="G17" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="111" t="s">
+      <c r="H17" s="143" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="30" customHeight="1" thickBot="1">
-      <c r="A18" s="115"/>
-      <c r="B18" s="138"/>
-      <c r="C18" s="103"/>
+      <c r="A18" s="120"/>
+      <c r="B18" s="144"/>
+      <c r="C18" s="154"/>
       <c r="D18" s="58" t="s">
         <v>69</v>
       </c>
@@ -2944,12 +2953,12 @@
       <c r="G18" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="H18" s="112"/>
+      <c r="H18" s="145"/>
     </row>
     <row r="19" spans="1:8" ht="30" customHeight="1">
-      <c r="A19" s="115"/>
-      <c r="B19" s="138"/>
-      <c r="C19" s="107" t="s">
+      <c r="A19" s="120"/>
+      <c r="B19" s="144"/>
+      <c r="C19" s="116" t="s">
         <v>53</v>
       </c>
       <c r="D19" s="85" t="s">
@@ -2962,30 +2971,30 @@
       <c r="G19" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="H19" s="113" t="s">
+      <c r="H19" s="160" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" customHeight="1" thickBot="1">
-      <c r="A20" s="115"/>
-      <c r="B20" s="138"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="88" t="s">
+      <c r="A20" s="120"/>
+      <c r="B20" s="144"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="164" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="165" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="44" t="s">
+      <c r="F20" s="165"/>
+      <c r="G20" s="166" t="s">
         <v>55</v>
       </c>
-      <c r="H20" s="114"/>
+      <c r="H20" s="161"/>
     </row>
     <row r="21" spans="1:8" ht="97.5" customHeight="1">
-      <c r="A21" s="115"/>
-      <c r="B21" s="138"/>
-      <c r="C21" s="104" t="s">
+      <c r="A21" s="120"/>
+      <c r="B21" s="144"/>
+      <c r="C21" s="155" t="s">
         <v>72</v>
       </c>
       <c r="D21" s="70" t="s">
@@ -2998,12 +3007,12 @@
       <c r="G21" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="149"/>
+      <c r="H21" s="113"/>
     </row>
     <row r="22" spans="1:8" ht="30" customHeight="1">
-      <c r="A22" s="115"/>
-      <c r="B22" s="138"/>
-      <c r="C22" s="105"/>
+      <c r="A22" s="120"/>
+      <c r="B22" s="144"/>
+      <c r="C22" s="156"/>
       <c r="D22" s="71" t="s">
         <v>76</v>
       </c>
@@ -3014,12 +3023,12 @@
       <c r="G22" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="H22" s="150"/>
+      <c r="H22" s="114"/>
     </row>
     <row r="23" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A23" s="115"/>
-      <c r="B23" s="138"/>
-      <c r="C23" s="105"/>
+      <c r="A23" s="120"/>
+      <c r="B23" s="144"/>
+      <c r="C23" s="156"/>
       <c r="D23" s="72" t="s">
         <v>35</v>
       </c>
@@ -3032,12 +3041,12 @@
       <c r="G23" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="H23" s="150"/>
+      <c r="H23" s="114"/>
     </row>
     <row r="24" spans="1:8" ht="30" customHeight="1">
-      <c r="A24" s="115"/>
-      <c r="B24" s="138"/>
-      <c r="C24" s="105"/>
+      <c r="A24" s="120"/>
+      <c r="B24" s="144"/>
+      <c r="C24" s="156"/>
       <c r="D24" s="71" t="s">
         <v>82</v>
       </c>
@@ -3050,12 +3059,12 @@
       <c r="G24" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="H24" s="150"/>
+      <c r="H24" s="114"/>
     </row>
     <row r="25" spans="1:8" ht="51.75" customHeight="1">
-      <c r="A25" s="115"/>
-      <c r="B25" s="138"/>
-      <c r="C25" s="105"/>
+      <c r="A25" s="120"/>
+      <c r="B25" s="144"/>
+      <c r="C25" s="156"/>
       <c r="D25" s="71" t="s">
         <v>83</v>
       </c>
@@ -3068,12 +3077,12 @@
       <c r="G25" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="H25" s="150"/>
+      <c r="H25" s="114"/>
     </row>
     <row r="26" spans="1:8" ht="292.5" customHeight="1">
-      <c r="A26" s="115"/>
-      <c r="B26" s="138"/>
-      <c r="C26" s="105"/>
+      <c r="A26" s="120"/>
+      <c r="B26" s="144"/>
+      <c r="C26" s="156"/>
       <c r="D26" s="73" t="s">
         <v>79</v>
       </c>
@@ -3086,12 +3095,12 @@
       <c r="G26" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="H26" s="150"/>
+      <c r="H26" s="114"/>
     </row>
     <row r="27" spans="1:8" ht="30" customHeight="1" thickBot="1">
-      <c r="A27" s="115"/>
-      <c r="B27" s="138"/>
-      <c r="C27" s="106"/>
+      <c r="A27" s="120"/>
+      <c r="B27" s="144"/>
+      <c r="C27" s="157"/>
       <c r="D27" s="74" t="s">
         <v>85</v>
       </c>
@@ -3104,50 +3113,50 @@
       <c r="G27" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="H27" s="151"/>
+      <c r="H27" s="115"/>
     </row>
     <row r="28" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A28" s="115"/>
-      <c r="B28" s="138"/>
-      <c r="C28" s="107" t="s">
+      <c r="A28" s="120"/>
+      <c r="B28" s="144"/>
+      <c r="C28" s="116" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="89" t="s">
+      <c r="D28" s="88" t="s">
         <v>84</v>
       </c>
-      <c r="E28" s="90" t="s">
+      <c r="E28" s="89" t="s">
         <v>19</v>
       </c>
       <c r="F28" s="86"/>
-      <c r="G28" s="91" t="s">
+      <c r="G28" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="H28" s="147" t="s">
+      <c r="H28" s="112" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="45" customHeight="1">
-      <c r="A29" s="115"/>
-      <c r="B29" s="138"/>
-      <c r="C29" s="152"/>
-      <c r="D29" s="92" t="s">
+      <c r="A29" s="120"/>
+      <c r="B29" s="144"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="91" t="s">
         <v>81</v>
       </c>
-      <c r="E29" s="93" t="s">
+      <c r="E29" s="92" t="s">
         <v>89</v>
       </c>
-      <c r="F29" s="93" t="s">
+      <c r="F29" s="92" t="s">
         <v>21</v>
       </c>
       <c r="G29" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="H29" s="148"/>
+      <c r="H29" s="106"/>
     </row>
     <row r="30" spans="1:8" ht="142.5" customHeight="1">
-      <c r="A30" s="115"/>
-      <c r="B30" s="138"/>
-      <c r="C30" s="152"/>
+      <c r="A30" s="120"/>
+      <c r="B30" s="144"/>
+      <c r="C30" s="110"/>
       <c r="D30" s="75" t="s">
         <v>11</v>
       </c>
@@ -3161,13 +3170,13 @@
         <v>27</v>
       </c>
       <c r="H30" s="65" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="30" customHeight="1">
-      <c r="A31" s="115"/>
-      <c r="B31" s="138"/>
-      <c r="C31" s="152"/>
+      <c r="A31" s="120"/>
+      <c r="B31" s="144"/>
+      <c r="C31" s="110"/>
       <c r="D31" s="75" t="s">
         <v>64</v>
       </c>
@@ -3175,7 +3184,7 @@
         <v>93</v>
       </c>
       <c r="F31" s="28"/>
-      <c r="G31" s="94" t="s">
+      <c r="G31" s="93" t="s">
         <v>55</v>
       </c>
       <c r="H31" s="67" t="s">
@@ -3183,17 +3192,17 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A32" s="115"/>
-      <c r="B32" s="138"/>
-      <c r="C32" s="152"/>
+      <c r="A32" s="120"/>
+      <c r="B32" s="144"/>
+      <c r="C32" s="110"/>
       <c r="D32" s="75" t="s">
         <v>80</v>
       </c>
       <c r="E32" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="95"/>
-      <c r="G32" s="96" t="s">
+      <c r="F32" s="94"/>
+      <c r="G32" s="95" t="s">
         <v>61</v>
       </c>
       <c r="H32" s="65" t="s">
@@ -3201,17 +3210,17 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="30" customHeight="1">
-      <c r="A33" s="115"/>
-      <c r="B33" s="138"/>
-      <c r="C33" s="152"/>
-      <c r="D33" s="97" t="s">
+      <c r="A33" s="120"/>
+      <c r="B33" s="144"/>
+      <c r="C33" s="110"/>
+      <c r="D33" s="96" t="s">
         <v>109</v>
       </c>
       <c r="E33" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="F33" s="95"/>
-      <c r="G33" s="98" t="s">
+      <c r="F33" s="94"/>
+      <c r="G33" s="97" t="s">
         <v>96</v>
       </c>
       <c r="H33" s="65" t="s">
@@ -3219,9 +3228,9 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="30" customHeight="1" thickBot="1">
-      <c r="A34" s="115"/>
-      <c r="B34" s="138"/>
-      <c r="C34" s="108"/>
+      <c r="A34" s="120"/>
+      <c r="B34" s="144"/>
+      <c r="C34" s="111"/>
       <c r="D34" s="80" t="s">
         <v>119</v>
       </c>
@@ -3237,12 +3246,12 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="182.25" customHeight="1">
-      <c r="A35" s="115"/>
-      <c r="B35" s="138"/>
-      <c r="C35" s="107" t="s">
+      <c r="A35" s="120"/>
+      <c r="B35" s="144"/>
+      <c r="C35" s="116" t="s">
         <v>111</v>
       </c>
-      <c r="D35" s="153" t="s">
+      <c r="D35" s="117" t="s">
         <v>39</v>
       </c>
       <c r="E35" s="30" t="s">
@@ -3254,31 +3263,31 @@
       <c r="G35" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="H35" s="156" t="s">
+      <c r="H35" s="105" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="176.25" customHeight="1">
-      <c r="A36" s="115"/>
-      <c r="B36" s="138"/>
-      <c r="C36" s="152"/>
-      <c r="D36" s="154"/>
+      <c r="A36" s="120"/>
+      <c r="B36" s="144"/>
+      <c r="C36" s="110"/>
+      <c r="D36" s="118"/>
       <c r="E36" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="F36" s="99" t="s">
+      <c r="F36" s="98" t="s">
         <v>124</v>
       </c>
       <c r="G36" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="H36" s="148"/>
+      <c r="H36" s="106"/>
     </row>
     <row r="37" spans="1:8" ht="30" customHeight="1">
-      <c r="A37" s="115"/>
-      <c r="B37" s="138"/>
-      <c r="C37" s="152"/>
-      <c r="D37" s="154"/>
+      <c r="A37" s="120"/>
+      <c r="B37" s="144"/>
+      <c r="C37" s="110"/>
+      <c r="D37" s="118"/>
       <c r="E37" s="28" t="s">
         <v>18</v>
       </c>
@@ -3293,17 +3302,17 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="30" customHeight="1">
-      <c r="A38" s="115"/>
-      <c r="B38" s="138"/>
-      <c r="C38" s="152"/>
-      <c r="D38" s="154"/>
-      <c r="E38" s="100" t="s">
+      <c r="A38" s="120"/>
+      <c r="B38" s="144"/>
+      <c r="C38" s="110"/>
+      <c r="D38" s="118"/>
+      <c r="E38" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="F38" s="101" t="s">
+      <c r="F38" s="100" t="s">
         <v>122</v>
       </c>
-      <c r="G38" s="102" t="s">
+      <c r="G38" s="101" t="s">
         <v>123</v>
       </c>
       <c r="H38" s="67" t="s">
@@ -3311,10 +3320,10 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="48" customHeight="1" thickBot="1">
-      <c r="A39" s="115"/>
-      <c r="B39" s="112"/>
-      <c r="C39" s="108"/>
-      <c r="D39" s="155"/>
+      <c r="A39" s="120"/>
+      <c r="B39" s="145"/>
+      <c r="C39" s="111"/>
+      <c r="D39" s="119"/>
       <c r="E39" s="38" t="s">
         <v>98</v>
       </c>
@@ -3327,8 +3336,8 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A40" s="115"/>
-      <c r="B40" s="141" t="s">
+      <c r="A40" s="120"/>
+      <c r="B40" s="148" t="s">
         <v>110</v>
       </c>
       <c r="C40" s="76" t="s">
@@ -3349,9 +3358,9 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="30" customHeight="1">
-      <c r="A41" s="115"/>
-      <c r="B41" s="142"/>
-      <c r="C41" s="157" t="s">
+      <c r="A41" s="120"/>
+      <c r="B41" s="149"/>
+      <c r="C41" s="107" t="s">
         <v>117</v>
       </c>
       <c r="D41" s="78" t="s">
@@ -3364,14 +3373,14 @@
       <c r="G41" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="H41" s="156" t="s">
+      <c r="H41" s="105" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="30" customHeight="1">
-      <c r="A42" s="115"/>
-      <c r="B42" s="142"/>
-      <c r="C42" s="158"/>
+      <c r="A42" s="120"/>
+      <c r="B42" s="149"/>
+      <c r="C42" s="108"/>
       <c r="D42" s="79" t="s">
         <v>40</v>
       </c>
@@ -3382,12 +3391,12 @@
       <c r="G42" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="H42" s="148"/>
+      <c r="H42" s="106"/>
     </row>
     <row r="43" spans="1:8" ht="30" customHeight="1">
-      <c r="A43" s="115"/>
-      <c r="B43" s="142"/>
-      <c r="C43" s="158"/>
+      <c r="A43" s="120"/>
+      <c r="B43" s="149"/>
+      <c r="C43" s="108"/>
       <c r="D43" s="79" t="s">
         <v>113</v>
       </c>
@@ -3395,17 +3404,17 @@
         <v>114</v>
       </c>
       <c r="F43" s="31"/>
-      <c r="G43" s="162" t="s">
+      <c r="G43" s="102" t="s">
         <v>96</v>
       </c>
-      <c r="H43" s="163" t="s">
+      <c r="H43" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="30" customHeight="1">
-      <c r="A44" s="115"/>
-      <c r="B44" s="142"/>
-      <c r="C44" s="158"/>
+      <c r="A44" s="120"/>
+      <c r="B44" s="149"/>
+      <c r="C44" s="108"/>
       <c r="D44" s="79" t="s">
         <v>115</v>
       </c>
@@ -3413,15 +3422,15 @@
         <v>116</v>
       </c>
       <c r="F44" s="31"/>
-      <c r="G44" s="162" t="s">
+      <c r="G44" s="102" t="s">
         <v>96</v>
       </c>
-      <c r="H44" s="164"/>
+      <c r="H44" s="103"/>
     </row>
     <row r="45" spans="1:8" ht="30" customHeight="1">
-      <c r="A45" s="115"/>
-      <c r="B45" s="142"/>
-      <c r="C45" s="159"/>
+      <c r="A45" s="120"/>
+      <c r="B45" s="149"/>
+      <c r="C45" s="109"/>
       <c r="D45" s="79" t="s">
         <v>112</v>
       </c>
@@ -3429,18 +3438,18 @@
         <v>92</v>
       </c>
       <c r="F45" s="31"/>
-      <c r="G45" s="162" t="s">
+      <c r="G45" s="102" t="s">
         <v>55</v>
       </c>
-      <c r="H45" s="165"/>
+      <c r="H45" s="104"/>
     </row>
     <row r="46" spans="1:8" ht="30" customHeight="1">
-      <c r="A46" s="115"/>
-      <c r="B46" s="142"/>
-      <c r="C46" s="152" t="s">
+      <c r="A46" s="120"/>
+      <c r="B46" s="149"/>
+      <c r="C46" s="110" t="s">
         <v>118</v>
       </c>
-      <c r="D46" s="139" t="s">
+      <c r="D46" s="146" t="s">
         <v>102</v>
       </c>
       <c r="E46" s="60" t="s">
@@ -3455,10 +3464,10 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="A47" s="115"/>
-      <c r="B47" s="143"/>
-      <c r="C47" s="108"/>
-      <c r="D47" s="140"/>
+      <c r="A47" s="120"/>
+      <c r="B47" s="150"/>
+      <c r="C47" s="111"/>
+      <c r="D47" s="147"/>
       <c r="E47" s="66" t="s">
         <v>105</v>
       </c>
@@ -3467,11 +3476,11 @@
         <v>96</v>
       </c>
       <c r="H47" s="69" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A48" s="115"/>
+      <c r="A48" s="120"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -3479,7 +3488,7 @@
       <c r="F48" s="1"/>
     </row>
     <row r="49" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A49" s="115"/>
+      <c r="A49" s="120"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -3487,7 +3496,7 @@
       <c r="F49" s="1"/>
     </row>
     <row r="50" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A50" s="115"/>
+      <c r="A50" s="120"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -3495,7 +3504,7 @@
       <c r="F50" s="1"/>
     </row>
     <row r="51" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A51" s="115"/>
+      <c r="A51" s="120"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -3503,7 +3512,7 @@
       <c r="F51" s="1"/>
     </row>
     <row r="52" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A52" s="115"/>
+      <c r="A52" s="120"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -3511,7 +3520,7 @@
       <c r="F52" s="1"/>
     </row>
     <row r="53" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A53" s="115"/>
+      <c r="A53" s="120"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -3519,7 +3528,7 @@
       <c r="F53" s="1"/>
     </row>
     <row r="54" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A54" s="115"/>
+      <c r="A54" s="120"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -3527,7 +3536,7 @@
       <c r="F54" s="1"/>
     </row>
     <row r="55" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A55" s="115"/>
+      <c r="A55" s="120"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -3535,7 +3544,7 @@
       <c r="F55" s="1"/>
     </row>
     <row r="56" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A56" s="115"/>
+      <c r="A56" s="120"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -3543,7 +3552,7 @@
       <c r="F56" s="1"/>
     </row>
     <row r="57" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A57" s="115"/>
+      <c r="A57" s="120"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -3551,7 +3560,7 @@
       <c r="F57" s="1"/>
     </row>
     <row r="58" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A58" s="115"/>
+      <c r="A58" s="120"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -3559,7 +3568,7 @@
       <c r="F58" s="1"/>
     </row>
     <row r="59" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A59" s="115"/>
+      <c r="A59" s="120"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -3567,7 +3576,7 @@
       <c r="F59" s="1"/>
     </row>
     <row r="60" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A60" s="115"/>
+      <c r="A60" s="120"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -3575,7 +3584,7 @@
       <c r="F60" s="1"/>
     </row>
     <row r="61" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A61" s="115"/>
+      <c r="A61" s="120"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -3583,7 +3592,7 @@
       <c r="F61" s="1"/>
     </row>
     <row r="62" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A62" s="115"/>
+      <c r="A62" s="120"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -3591,7 +3600,7 @@
       <c r="F62" s="1"/>
     </row>
     <row r="63" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A63" s="115"/>
+      <c r="A63" s="120"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -3599,7 +3608,7 @@
       <c r="F63" s="1"/>
     </row>
     <row r="64" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A64" s="115"/>
+      <c r="A64" s="120"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -3607,7 +3616,7 @@
       <c r="F64" s="1"/>
     </row>
     <row r="65" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A65" s="115"/>
+      <c r="A65" s="120"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -3615,7 +3624,7 @@
       <c r="F65" s="1"/>
     </row>
     <row r="66" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A66" s="115"/>
+      <c r="A66" s="120"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -3623,7 +3632,7 @@
       <c r="F66" s="1"/>
     </row>
     <row r="67" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A67" s="115"/>
+      <c r="A67" s="120"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -3631,7 +3640,7 @@
       <c r="F67" s="1"/>
     </row>
     <row r="68" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A68" s="115"/>
+      <c r="A68" s="120"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -3639,7 +3648,7 @@
       <c r="F68" s="1"/>
     </row>
     <row r="69" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A69" s="115"/>
+      <c r="A69" s="120"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -3647,7 +3656,7 @@
       <c r="F69" s="1"/>
     </row>
     <row r="70" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A70" s="115"/>
+      <c r="A70" s="120"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -3655,7 +3664,7 @@
       <c r="F70" s="1"/>
     </row>
     <row r="71" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A71" s="115"/>
+      <c r="A71" s="120"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -3663,7 +3672,7 @@
       <c r="F71" s="1"/>
     </row>
     <row r="72" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A72" s="115"/>
+      <c r="A72" s="120"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -3671,7 +3680,7 @@
       <c r="F72" s="1"/>
     </row>
     <row r="73" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A73" s="115"/>
+      <c r="A73" s="120"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -3679,7 +3688,7 @@
       <c r="F73" s="1"/>
     </row>
     <row r="74" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A74" s="115"/>
+      <c r="A74" s="120"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -3687,7 +3696,7 @@
       <c r="F74" s="1"/>
     </row>
     <row r="75" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A75" s="115"/>
+      <c r="A75" s="120"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -3695,7 +3704,7 @@
       <c r="F75" s="1"/>
     </row>
     <row r="76" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A76" s="115"/>
+      <c r="A76" s="120"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -3703,7 +3712,7 @@
       <c r="F76" s="1"/>
     </row>
     <row r="77" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A77" s="115"/>
+      <c r="A77" s="120"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -3711,7 +3720,7 @@
       <c r="F77" s="1"/>
     </row>
     <row r="78" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A78" s="115"/>
+      <c r="A78" s="120"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -3719,7 +3728,7 @@
       <c r="F78" s="1"/>
     </row>
     <row r="79" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A79" s="115"/>
+      <c r="A79" s="120"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -3727,7 +3736,7 @@
       <c r="F79" s="1"/>
     </row>
     <row r="80" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A80" s="115"/>
+      <c r="A80" s="120"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -3735,7 +3744,7 @@
       <c r="F80" s="1"/>
     </row>
     <row r="81" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A81" s="115"/>
+      <c r="A81" s="120"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -3743,7 +3752,7 @@
       <c r="F81" s="1"/>
     </row>
     <row r="82" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A82" s="115"/>
+      <c r="A82" s="120"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -3751,7 +3760,7 @@
       <c r="F82" s="1"/>
     </row>
     <row r="83" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A83" s="115"/>
+      <c r="A83" s="120"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -3759,7 +3768,7 @@
       <c r="F83" s="1"/>
     </row>
     <row r="84" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A84" s="115"/>
+      <c r="A84" s="120"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -3767,7 +3776,7 @@
       <c r="F84" s="1"/>
     </row>
     <row r="85" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A85" s="115"/>
+      <c r="A85" s="120"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -3775,7 +3784,7 @@
       <c r="F85" s="1"/>
     </row>
     <row r="86" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A86" s="115"/>
+      <c r="A86" s="120"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -3783,7 +3792,7 @@
       <c r="F86" s="1"/>
     </row>
     <row r="87" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A87" s="115"/>
+      <c r="A87" s="120"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -3791,7 +3800,7 @@
       <c r="F87" s="1"/>
     </row>
     <row r="88" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A88" s="115"/>
+      <c r="A88" s="120"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3799,7 +3808,7 @@
       <c r="F88" s="1"/>
     </row>
     <row r="89" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A89" s="115"/>
+      <c r="A89" s="120"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3807,7 +3816,7 @@
       <c r="F89" s="1"/>
     </row>
     <row r="90" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A90" s="115"/>
+      <c r="A90" s="120"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3815,7 +3824,7 @@
       <c r="F90" s="1"/>
     </row>
     <row r="91" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A91" s="115"/>
+      <c r="A91" s="120"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3823,7 +3832,7 @@
       <c r="F91" s="1"/>
     </row>
     <row r="92" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A92" s="115"/>
+      <c r="A92" s="120"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3831,7 +3840,7 @@
       <c r="F92" s="1"/>
     </row>
     <row r="93" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A93" s="115"/>
+      <c r="A93" s="120"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -3839,7 +3848,7 @@
       <c r="F93" s="1"/>
     </row>
     <row r="94" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A94" s="115"/>
+      <c r="A94" s="120"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3847,7 +3856,7 @@
       <c r="F94" s="1"/>
     </row>
     <row r="95" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A95" s="115"/>
+      <c r="A95" s="120"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -3855,7 +3864,7 @@
       <c r="F95" s="1"/>
     </row>
     <row r="96" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A96" s="115"/>
+      <c r="A96" s="120"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3863,7 +3872,7 @@
       <c r="F96" s="1"/>
     </row>
     <row r="97" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A97" s="115"/>
+      <c r="A97" s="120"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -3871,7 +3880,7 @@
       <c r="F97" s="1"/>
     </row>
     <row r="98" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A98" s="115"/>
+      <c r="A98" s="120"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -3879,7 +3888,7 @@
       <c r="F98" s="1"/>
     </row>
     <row r="99" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A99" s="115"/>
+      <c r="A99" s="120"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -3887,7 +3896,7 @@
       <c r="F99" s="1"/>
     </row>
     <row r="100" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A100" s="115"/>
+      <c r="A100" s="120"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -3895,7 +3904,7 @@
       <c r="F100" s="1"/>
     </row>
     <row r="101" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A101" s="115"/>
+      <c r="A101" s="120"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -3903,7 +3912,7 @@
       <c r="F101" s="1"/>
     </row>
     <row r="102" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A102" s="115"/>
+      <c r="A102" s="120"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -3911,7 +3920,7 @@
       <c r="F102" s="1"/>
     </row>
     <row r="103" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A103" s="115"/>
+      <c r="A103" s="120"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -3919,7 +3928,7 @@
       <c r="F103" s="1"/>
     </row>
     <row r="104" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A104" s="115"/>
+      <c r="A104" s="120"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -3927,7 +3936,7 @@
       <c r="F104" s="1"/>
     </row>
     <row r="105" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A105" s="115"/>
+      <c r="A105" s="120"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -3935,7 +3944,7 @@
       <c r="F105" s="1"/>
     </row>
     <row r="106" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A106" s="115"/>
+      <c r="A106" s="120"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -3951,16 +3960,12 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="H43:H45"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="C41:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="H21:H27"/>
-    <mergeCell ref="C28:C34"/>
-    <mergeCell ref="D35:D39"/>
-    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C21:C27"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H19:H20"/>
     <mergeCell ref="A2:A106"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
@@ -3977,14 +3982,18 @@
     <mergeCell ref="B40:B47"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C21:C27"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="H21:H27"/>
+    <mergeCell ref="C28:C34"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="H43:H45"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="C41:C45"/>
+    <mergeCell ref="C46:C47"/>
   </mergeCells>
-  <phoneticPr fontId="26" type="noConversion"/>
+  <phoneticPr fontId="25" type="noConversion"/>
   <conditionalFormatting sqref="B17">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -4027,15 +4036,15 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1">
       <c r="A1" s="7"/>
-      <c r="B1" s="115"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A2" s="161"/>
+      <c r="A2" s="163"/>
       <c r="B2" s="8" t="s">
         <v>62</v>
       </c>
@@ -4051,10 +4060,10 @@
       <c r="F2" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="161"/>
+      <c r="G2" s="163"/>
     </row>
     <row r="3" spans="1:7" ht="176.25" customHeight="1">
-      <c r="A3" s="160"/>
+      <c r="A3" s="162"/>
       <c r="B3" s="9">
         <v>1</v>
       </c>
@@ -4068,10 +4077,10 @@
       <c r="F3" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="160"/>
+      <c r="G3" s="162"/>
     </row>
     <row r="4" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A4" s="160"/>
+      <c r="A4" s="162"/>
       <c r="B4" s="9">
         <v>2</v>
       </c>
@@ -4079,10 +4088,10 @@
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="160"/>
+      <c r="G4" s="162"/>
     </row>
     <row r="5" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A5" s="160"/>
+      <c r="A5" s="162"/>
       <c r="B5" s="9">
         <v>3</v>
       </c>
@@ -4090,10 +4099,10 @@
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="160"/>
+      <c r="G5" s="162"/>
     </row>
     <row r="6" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A6" s="160"/>
+      <c r="A6" s="162"/>
       <c r="B6" s="9">
         <v>4</v>
       </c>
@@ -4101,10 +4110,10 @@
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="160"/>
+      <c r="G6" s="162"/>
     </row>
     <row r="7" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A7" s="160"/>
+      <c r="A7" s="162"/>
       <c r="B7" s="9">
         <v>5</v>
       </c>
@@ -4112,10 +4121,10 @@
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
-      <c r="G7" s="160"/>
+      <c r="G7" s="162"/>
     </row>
     <row r="8" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A8" s="160"/>
+      <c r="A8" s="162"/>
       <c r="B8" s="9">
         <v>6</v>
       </c>
@@ -4123,10 +4132,10 @@
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
-      <c r="G8" s="160"/>
+      <c r="G8" s="162"/>
     </row>
     <row r="9" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A9" s="160"/>
+      <c r="A9" s="162"/>
       <c r="B9" s="9">
         <v>7</v>
       </c>
@@ -4134,10 +4143,10 @@
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
-      <c r="G9" s="160"/>
+      <c r="G9" s="162"/>
     </row>
     <row r="10" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A10" s="160"/>
+      <c r="A10" s="162"/>
       <c r="B10" s="9">
         <v>8</v>
       </c>
@@ -4145,10 +4154,10 @@
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
-      <c r="G10" s="160"/>
+      <c r="G10" s="162"/>
     </row>
     <row r="11" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A11" s="160"/>
+      <c r="A11" s="162"/>
       <c r="B11" s="9">
         <v>9</v>
       </c>
@@ -4156,10 +4165,10 @@
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
-      <c r="G11" s="160"/>
+      <c r="G11" s="162"/>
     </row>
     <row r="12" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A12" s="160"/>
+      <c r="A12" s="162"/>
       <c r="B12" s="9">
         <v>10</v>
       </c>
@@ -4167,10 +4176,10 @@
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
-      <c r="G12" s="160"/>
+      <c r="G12" s="162"/>
     </row>
     <row r="13" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A13" s="160"/>
+      <c r="A13" s="162"/>
       <c r="B13" s="9">
         <v>11</v>
       </c>
@@ -4178,10 +4187,10 @@
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
-      <c r="G13" s="160"/>
+      <c r="G13" s="162"/>
     </row>
     <row r="14" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A14" s="160"/>
+      <c r="A14" s="162"/>
       <c r="B14" s="9">
         <v>12</v>
       </c>
@@ -4189,10 +4198,10 @@
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
-      <c r="G14" s="160"/>
+      <c r="G14" s="162"/>
     </row>
     <row r="15" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A15" s="160"/>
+      <c r="A15" s="162"/>
       <c r="B15" s="9">
         <v>13</v>
       </c>
@@ -4200,10 +4209,10 @@
       <c r="D15" s="17"/>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="160"/>
+      <c r="G15" s="162"/>
     </row>
     <row r="16" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A16" s="160"/>
+      <c r="A16" s="162"/>
       <c r="B16" s="9">
         <v>14</v>
       </c>
@@ -4211,10 +4220,10 @@
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
       <c r="F16" s="18"/>
-      <c r="G16" s="160"/>
+      <c r="G16" s="162"/>
     </row>
     <row r="17" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A17" s="160"/>
+      <c r="A17" s="162"/>
       <c r="B17" s="9">
         <v>15</v>
       </c>
@@ -4222,10 +4231,10 @@
       <c r="D17" s="18"/>
       <c r="E17" s="15"/>
       <c r="F17" s="18"/>
-      <c r="G17" s="160"/>
+      <c r="G17" s="162"/>
     </row>
     <row r="18" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A18" s="160"/>
+      <c r="A18" s="162"/>
       <c r="B18" s="9">
         <v>16</v>
       </c>
@@ -4233,10 +4242,10 @@
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
-      <c r="G18" s="160"/>
+      <c r="G18" s="162"/>
     </row>
     <row r="19" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A19" s="160"/>
+      <c r="A19" s="162"/>
       <c r="B19" s="9">
         <v>17</v>
       </c>
@@ -4244,10 +4253,10 @@
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
-      <c r="G19" s="160"/>
+      <c r="G19" s="162"/>
     </row>
     <row r="20" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A20" s="160"/>
+      <c r="A20" s="162"/>
       <c r="B20" s="9">
         <v>18</v>
       </c>
@@ -4255,10 +4264,10 @@
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
-      <c r="G20" s="160"/>
+      <c r="G20" s="162"/>
     </row>
     <row r="21" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A21" s="160"/>
+      <c r="A21" s="162"/>
       <c r="B21" s="9">
         <v>19</v>
       </c>
@@ -4266,10 +4275,10 @@
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="18"/>
-      <c r="G21" s="160"/>
+      <c r="G21" s="162"/>
     </row>
     <row r="22" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A22" s="160"/>
+      <c r="A22" s="162"/>
       <c r="B22" s="9">
         <v>20</v>
       </c>
@@ -4277,4300 +4286,4300 @@
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
-      <c r="G22" s="160"/>
+      <c r="G22" s="162"/>
     </row>
     <row r="23" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A23" s="160"/>
+      <c r="A23" s="162"/>
       <c r="B23" s="9"/>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
-      <c r="G23" s="160"/>
+      <c r="G23" s="162"/>
     </row>
     <row r="24" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A24" s="160"/>
+      <c r="A24" s="162"/>
       <c r="B24" s="9"/>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
-      <c r="G24" s="160"/>
+      <c r="G24" s="162"/>
     </row>
     <row r="25" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A25" s="160"/>
+      <c r="A25" s="162"/>
       <c r="B25" s="9"/>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
-      <c r="G25" s="160"/>
+      <c r="G25" s="162"/>
     </row>
     <row r="26" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A26" s="160"/>
+      <c r="A26" s="162"/>
       <c r="B26" s="9"/>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
-      <c r="G26" s="160"/>
+      <c r="G26" s="162"/>
     </row>
     <row r="27" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A27" s="160"/>
+      <c r="A27" s="162"/>
       <c r="B27" s="9"/>
       <c r="C27" s="18"/>
       <c r="D27" s="15"/>
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
-      <c r="G27" s="160"/>
+      <c r="G27" s="162"/>
     </row>
     <row r="28" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A28" s="160"/>
+      <c r="A28" s="162"/>
       <c r="B28" s="9"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
       <c r="F28" s="18"/>
-      <c r="G28" s="160"/>
+      <c r="G28" s="162"/>
     </row>
     <row r="29" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A29" s="160"/>
+      <c r="A29" s="162"/>
       <c r="B29" s="9"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
-      <c r="G29" s="160"/>
+      <c r="G29" s="162"/>
     </row>
     <row r="30" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A30" s="160"/>
+      <c r="A30" s="162"/>
       <c r="B30" s="19"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="F30" s="13"/>
-      <c r="G30" s="160"/>
+      <c r="G30" s="162"/>
     </row>
     <row r="31" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A31" s="160"/>
+      <c r="A31" s="162"/>
       <c r="B31" s="19"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
       <c r="F31" s="13"/>
-      <c r="G31" s="160"/>
+      <c r="G31" s="162"/>
     </row>
     <row r="32" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A32" s="160"/>
+      <c r="A32" s="162"/>
       <c r="B32" s="19"/>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
       <c r="E32" s="18"/>
       <c r="F32" s="13"/>
-      <c r="G32" s="160"/>
+      <c r="G32" s="162"/>
     </row>
     <row r="33" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A33" s="160"/>
+      <c r="A33" s="162"/>
       <c r="B33" s="19"/>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
       <c r="F33" s="13"/>
-      <c r="G33" s="160"/>
+      <c r="G33" s="162"/>
     </row>
     <row r="34" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A34" s="160"/>
+      <c r="A34" s="162"/>
       <c r="B34" s="19"/>
       <c r="C34" s="18"/>
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
       <c r="F34" s="13"/>
-      <c r="G34" s="160"/>
+      <c r="G34" s="162"/>
     </row>
     <row r="35" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A35" s="160"/>
+      <c r="A35" s="162"/>
       <c r="B35" s="19"/>
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
       <c r="E35" s="18"/>
       <c r="F35" s="13"/>
-      <c r="G35" s="160"/>
+      <c r="G35" s="162"/>
     </row>
     <row r="36" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A36" s="160"/>
+      <c r="A36" s="162"/>
       <c r="B36" s="19"/>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
       <c r="E36" s="18"/>
       <c r="F36" s="13"/>
-      <c r="G36" s="160"/>
+      <c r="G36" s="162"/>
     </row>
     <row r="37" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A37" s="160"/>
+      <c r="A37" s="162"/>
       <c r="B37" s="19"/>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
-      <c r="G37" s="160"/>
+      <c r="G37" s="162"/>
     </row>
     <row r="38" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A38" s="160"/>
+      <c r="A38" s="162"/>
       <c r="B38" s="19"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
-      <c r="G38" s="160"/>
+      <c r="G38" s="162"/>
     </row>
     <row r="39" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A39" s="160"/>
+      <c r="A39" s="162"/>
       <c r="B39" s="19"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
-      <c r="G39" s="160"/>
+      <c r="G39" s="162"/>
     </row>
     <row r="40" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A40" s="160"/>
+      <c r="A40" s="162"/>
       <c r="B40" s="19"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
-      <c r="G40" s="160"/>
+      <c r="G40" s="162"/>
     </row>
     <row r="41" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A41" s="160"/>
+      <c r="A41" s="162"/>
       <c r="B41" s="19"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
-      <c r="G41" s="160"/>
+      <c r="G41" s="162"/>
     </row>
     <row r="42" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A42" s="160"/>
+      <c r="A42" s="162"/>
       <c r="B42" s="19"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
-      <c r="G42" s="160"/>
+      <c r="G42" s="162"/>
     </row>
     <row r="43" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A43" s="160"/>
+      <c r="A43" s="162"/>
       <c r="B43" s="19"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
-      <c r="G43" s="160"/>
+      <c r="G43" s="162"/>
     </row>
     <row r="44" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A44" s="160"/>
+      <c r="A44" s="162"/>
       <c r="B44" s="19"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
-      <c r="G44" s="160"/>
+      <c r="G44" s="162"/>
     </row>
     <row r="45" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A45" s="160"/>
+      <c r="A45" s="162"/>
       <c r="B45" s="19"/>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
-      <c r="G45" s="160"/>
+      <c r="G45" s="162"/>
     </row>
     <row r="46" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A46" s="160"/>
+      <c r="A46" s="162"/>
       <c r="B46" s="19"/>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
-      <c r="G46" s="160"/>
+      <c r="G46" s="162"/>
     </row>
     <row r="47" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A47" s="160"/>
+      <c r="A47" s="162"/>
       <c r="B47" s="19"/>
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
       <c r="E47" s="13"/>
       <c r="F47" s="13"/>
-      <c r="G47" s="160"/>
+      <c r="G47" s="162"/>
     </row>
     <row r="48" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A48" s="160"/>
+      <c r="A48" s="162"/>
       <c r="B48" s="19"/>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
       <c r="E48" s="13"/>
       <c r="F48" s="13"/>
-      <c r="G48" s="160"/>
+      <c r="G48" s="162"/>
     </row>
     <row r="49" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A49" s="160"/>
+      <c r="A49" s="162"/>
       <c r="B49" s="19"/>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
-      <c r="G49" s="160"/>
+      <c r="G49" s="162"/>
     </row>
     <row r="50" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A50" s="160"/>
+      <c r="A50" s="162"/>
       <c r="B50" s="19"/>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
-      <c r="G50" s="160"/>
+      <c r="G50" s="162"/>
     </row>
     <row r="51" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A51" s="160"/>
+      <c r="A51" s="162"/>
       <c r="B51" s="19"/>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="13"/>
       <c r="F51" s="13"/>
-      <c r="G51" s="160"/>
+      <c r="G51" s="162"/>
     </row>
     <row r="52" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A52" s="160"/>
+      <c r="A52" s="162"/>
       <c r="B52" s="19"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
       <c r="E52" s="13"/>
       <c r="F52" s="13"/>
-      <c r="G52" s="160"/>
+      <c r="G52" s="162"/>
     </row>
     <row r="53" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A53" s="160"/>
+      <c r="A53" s="162"/>
       <c r="B53" s="19"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
       <c r="F53" s="13"/>
-      <c r="G53" s="160"/>
+      <c r="G53" s="162"/>
     </row>
     <row r="54" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A54" s="160"/>
+      <c r="A54" s="162"/>
       <c r="B54" s="19"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
       <c r="F54" s="13"/>
-      <c r="G54" s="160"/>
+      <c r="G54" s="162"/>
     </row>
     <row r="55" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A55" s="160"/>
+      <c r="A55" s="162"/>
       <c r="B55" s="19"/>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
       <c r="E55" s="13"/>
       <c r="F55" s="13"/>
-      <c r="G55" s="160"/>
+      <c r="G55" s="162"/>
     </row>
     <row r="56" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A56" s="160"/>
+      <c r="A56" s="162"/>
       <c r="B56" s="19"/>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
       <c r="E56" s="13"/>
       <c r="F56" s="13"/>
-      <c r="G56" s="160"/>
+      <c r="G56" s="162"/>
     </row>
     <row r="57" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A57" s="160"/>
+      <c r="A57" s="162"/>
       <c r="B57" s="19"/>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
       <c r="E57" s="13"/>
       <c r="F57" s="13"/>
-      <c r="G57" s="160"/>
+      <c r="G57" s="162"/>
     </row>
     <row r="58" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A58" s="160"/>
+      <c r="A58" s="162"/>
       <c r="B58" s="19"/>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
       <c r="E58" s="13"/>
       <c r="F58" s="13"/>
-      <c r="G58" s="160"/>
+      <c r="G58" s="162"/>
     </row>
     <row r="59" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A59" s="160"/>
+      <c r="A59" s="162"/>
       <c r="B59" s="19"/>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
-      <c r="G59" s="160"/>
+      <c r="G59" s="162"/>
     </row>
     <row r="60" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A60" s="160"/>
+      <c r="A60" s="162"/>
       <c r="B60" s="19"/>
       <c r="C60" s="13"/>
       <c r="D60" s="13"/>
       <c r="E60" s="13"/>
       <c r="F60" s="13"/>
-      <c r="G60" s="160"/>
+      <c r="G60" s="162"/>
     </row>
     <row r="61" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A61" s="160"/>
+      <c r="A61" s="162"/>
       <c r="B61" s="19"/>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
       <c r="E61" s="13"/>
       <c r="F61" s="13"/>
-      <c r="G61" s="160"/>
+      <c r="G61" s="162"/>
     </row>
     <row r="62" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A62" s="160"/>
+      <c r="A62" s="162"/>
       <c r="B62" s="19"/>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
       <c r="E62" s="13"/>
       <c r="F62" s="13"/>
-      <c r="G62" s="160"/>
+      <c r="G62" s="162"/>
     </row>
     <row r="63" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A63" s="160"/>
+      <c r="A63" s="162"/>
       <c r="B63" s="19"/>
       <c r="C63" s="13"/>
       <c r="D63" s="13"/>
       <c r="E63" s="13"/>
       <c r="F63" s="13"/>
-      <c r="G63" s="160"/>
+      <c r="G63" s="162"/>
     </row>
     <row r="64" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A64" s="160"/>
+      <c r="A64" s="162"/>
       <c r="B64" s="19"/>
       <c r="C64" s="13"/>
       <c r="D64" s="13"/>
       <c r="E64" s="13"/>
       <c r="F64" s="13"/>
-      <c r="G64" s="160"/>
+      <c r="G64" s="162"/>
     </row>
     <row r="65" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A65" s="160"/>
+      <c r="A65" s="162"/>
       <c r="B65" s="19"/>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
       <c r="E65" s="13"/>
       <c r="F65" s="13"/>
-      <c r="G65" s="160"/>
+      <c r="G65" s="162"/>
     </row>
     <row r="66" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A66" s="160"/>
+      <c r="A66" s="162"/>
       <c r="B66" s="19"/>
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
       <c r="E66" s="13"/>
       <c r="F66" s="13"/>
-      <c r="G66" s="160"/>
+      <c r="G66" s="162"/>
     </row>
     <row r="67" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A67" s="160"/>
+      <c r="A67" s="162"/>
       <c r="B67" s="19"/>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
       <c r="E67" s="13"/>
       <c r="F67" s="13"/>
-      <c r="G67" s="160"/>
+      <c r="G67" s="162"/>
     </row>
     <row r="68" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A68" s="160"/>
+      <c r="A68" s="162"/>
       <c r="B68" s="19"/>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
       <c r="E68" s="13"/>
       <c r="F68" s="13"/>
-      <c r="G68" s="160"/>
+      <c r="G68" s="162"/>
     </row>
     <row r="69" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A69" s="160"/>
+      <c r="A69" s="162"/>
       <c r="B69" s="19"/>
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
       <c r="E69" s="13"/>
       <c r="F69" s="13"/>
-      <c r="G69" s="160"/>
+      <c r="G69" s="162"/>
     </row>
     <row r="70" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A70" s="160"/>
+      <c r="A70" s="162"/>
       <c r="B70" s="19"/>
       <c r="C70" s="13"/>
       <c r="D70" s="13"/>
       <c r="E70" s="13"/>
       <c r="F70" s="13"/>
-      <c r="G70" s="160"/>
+      <c r="G70" s="162"/>
     </row>
     <row r="71" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A71" s="160"/>
+      <c r="A71" s="162"/>
       <c r="B71" s="19"/>
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
       <c r="E71" s="13"/>
       <c r="F71" s="13"/>
-      <c r="G71" s="160"/>
+      <c r="G71" s="162"/>
     </row>
     <row r="72" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A72" s="160"/>
+      <c r="A72" s="162"/>
       <c r="B72" s="19"/>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
       <c r="E72" s="13"/>
       <c r="F72" s="13"/>
-      <c r="G72" s="160"/>
+      <c r="G72" s="162"/>
     </row>
     <row r="73" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A73" s="160"/>
+      <c r="A73" s="162"/>
       <c r="B73" s="19"/>
       <c r="C73" s="13"/>
       <c r="D73" s="13"/>
       <c r="E73" s="13"/>
       <c r="F73" s="13"/>
-      <c r="G73" s="160"/>
+      <c r="G73" s="162"/>
     </row>
     <row r="74" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A74" s="160"/>
+      <c r="A74" s="162"/>
       <c r="B74" s="19"/>
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
       <c r="E74" s="13"/>
       <c r="F74" s="13"/>
-      <c r="G74" s="160"/>
+      <c r="G74" s="162"/>
     </row>
     <row r="75" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A75" s="160"/>
+      <c r="A75" s="162"/>
       <c r="B75" s="19"/>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
       <c r="E75" s="13"/>
       <c r="F75" s="13"/>
-      <c r="G75" s="160"/>
+      <c r="G75" s="162"/>
     </row>
     <row r="76" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A76" s="160"/>
+      <c r="A76" s="162"/>
       <c r="B76" s="19"/>
       <c r="C76" s="13"/>
       <c r="D76" s="13"/>
       <c r="E76" s="13"/>
       <c r="F76" s="13"/>
-      <c r="G76" s="160"/>
+      <c r="G76" s="162"/>
     </row>
     <row r="77" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A77" s="160"/>
+      <c r="A77" s="162"/>
       <c r="B77" s="19"/>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
       <c r="E77" s="13"/>
       <c r="F77" s="13"/>
-      <c r="G77" s="160"/>
+      <c r="G77" s="162"/>
     </row>
     <row r="78" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A78" s="160"/>
+      <c r="A78" s="162"/>
       <c r="B78" s="19"/>
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
       <c r="E78" s="13"/>
       <c r="F78" s="13"/>
-      <c r="G78" s="160"/>
+      <c r="G78" s="162"/>
     </row>
     <row r="79" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A79" s="160"/>
+      <c r="A79" s="162"/>
       <c r="B79" s="19"/>
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13"/>
       <c r="F79" s="13"/>
-      <c r="G79" s="160"/>
+      <c r="G79" s="162"/>
     </row>
     <row r="80" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A80" s="160"/>
+      <c r="A80" s="162"/>
       <c r="B80" s="19"/>
       <c r="C80" s="13"/>
       <c r="D80" s="13"/>
       <c r="E80" s="13"/>
       <c r="F80" s="13"/>
-      <c r="G80" s="160"/>
+      <c r="G80" s="162"/>
     </row>
     <row r="81" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A81" s="160"/>
+      <c r="A81" s="162"/>
       <c r="B81" s="19"/>
       <c r="C81" s="13"/>
       <c r="D81" s="13"/>
       <c r="E81" s="13"/>
       <c r="F81" s="13"/>
-      <c r="G81" s="160"/>
+      <c r="G81" s="162"/>
     </row>
     <row r="82" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A82" s="160"/>
+      <c r="A82" s="162"/>
       <c r="B82" s="19"/>
       <c r="C82" s="13"/>
       <c r="D82" s="13"/>
       <c r="E82" s="13"/>
       <c r="F82" s="13"/>
-      <c r="G82" s="160"/>
+      <c r="G82" s="162"/>
     </row>
     <row r="83" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A83" s="160"/>
+      <c r="A83" s="162"/>
       <c r="B83" s="19"/>
       <c r="C83" s="13"/>
       <c r="D83" s="13"/>
       <c r="E83" s="13"/>
       <c r="F83" s="13"/>
-      <c r="G83" s="160"/>
+      <c r="G83" s="162"/>
     </row>
     <row r="84" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A84" s="160"/>
+      <c r="A84" s="162"/>
       <c r="B84" s="19"/>
       <c r="C84" s="13"/>
       <c r="D84" s="13"/>
       <c r="E84" s="13"/>
       <c r="F84" s="13"/>
-      <c r="G84" s="160"/>
+      <c r="G84" s="162"/>
     </row>
     <row r="85" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A85" s="160"/>
+      <c r="A85" s="162"/>
       <c r="B85" s="19"/>
       <c r="C85" s="13"/>
       <c r="D85" s="13"/>
       <c r="E85" s="13"/>
       <c r="F85" s="13"/>
-      <c r="G85" s="160"/>
+      <c r="G85" s="162"/>
     </row>
     <row r="86" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A86" s="160"/>
+      <c r="A86" s="162"/>
       <c r="B86" s="19"/>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
       <c r="E86" s="13"/>
       <c r="F86" s="13"/>
-      <c r="G86" s="160"/>
+      <c r="G86" s="162"/>
     </row>
     <row r="87" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A87" s="160"/>
+      <c r="A87" s="162"/>
       <c r="B87" s="19"/>
       <c r="C87" s="13"/>
       <c r="D87" s="13"/>
       <c r="E87" s="13"/>
       <c r="F87" s="13"/>
-      <c r="G87" s="160"/>
+      <c r="G87" s="162"/>
     </row>
     <row r="88" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A88" s="160"/>
+      <c r="A88" s="162"/>
       <c r="B88" s="19"/>
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
       <c r="E88" s="13"/>
       <c r="F88" s="13"/>
-      <c r="G88" s="160"/>
+      <c r="G88" s="162"/>
     </row>
     <row r="89" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A89" s="160"/>
+      <c r="A89" s="162"/>
       <c r="B89" s="19"/>
       <c r="C89" s="13"/>
       <c r="D89" s="13"/>
       <c r="E89" s="13"/>
       <c r="F89" s="13"/>
-      <c r="G89" s="160"/>
+      <c r="G89" s="162"/>
     </row>
     <row r="90" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A90" s="160"/>
+      <c r="A90" s="162"/>
       <c r="B90" s="19"/>
       <c r="C90" s="13"/>
       <c r="D90" s="13"/>
       <c r="E90" s="13"/>
       <c r="F90" s="13"/>
-      <c r="G90" s="160"/>
+      <c r="G90" s="162"/>
     </row>
     <row r="91" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A91" s="160"/>
+      <c r="A91" s="162"/>
       <c r="B91" s="19"/>
       <c r="C91" s="13"/>
       <c r="D91" s="13"/>
       <c r="E91" s="13"/>
       <c r="F91" s="13"/>
-      <c r="G91" s="160"/>
+      <c r="G91" s="162"/>
     </row>
     <row r="92" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A92" s="160"/>
+      <c r="A92" s="162"/>
       <c r="B92" s="19"/>
       <c r="C92" s="13"/>
       <c r="D92" s="13"/>
       <c r="E92" s="13"/>
       <c r="F92" s="13"/>
-      <c r="G92" s="160"/>
+      <c r="G92" s="162"/>
     </row>
     <row r="93" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A93" s="160"/>
+      <c r="A93" s="162"/>
       <c r="B93" s="19"/>
       <c r="C93" s="13"/>
       <c r="D93" s="13"/>
       <c r="E93" s="13"/>
       <c r="F93" s="13"/>
-      <c r="G93" s="160"/>
+      <c r="G93" s="162"/>
     </row>
     <row r="94" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A94" s="160"/>
+      <c r="A94" s="162"/>
       <c r="B94" s="19"/>
       <c r="C94" s="13"/>
       <c r="D94" s="13"/>
       <c r="E94" s="13"/>
       <c r="F94" s="13"/>
-      <c r="G94" s="160"/>
+      <c r="G94" s="162"/>
     </row>
     <row r="95" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A95" s="160"/>
+      <c r="A95" s="162"/>
       <c r="B95" s="19"/>
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
       <c r="E95" s="13"/>
       <c r="F95" s="13"/>
-      <c r="G95" s="160"/>
+      <c r="G95" s="162"/>
     </row>
     <row r="96" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A96" s="160"/>
+      <c r="A96" s="162"/>
       <c r="B96" s="19"/>
       <c r="C96" s="13"/>
       <c r="D96" s="13"/>
       <c r="E96" s="13"/>
       <c r="F96" s="13"/>
-      <c r="G96" s="160"/>
+      <c r="G96" s="162"/>
     </row>
     <row r="97" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A97" s="160"/>
+      <c r="A97" s="162"/>
       <c r="B97" s="19"/>
       <c r="C97" s="13"/>
       <c r="D97" s="13"/>
       <c r="E97" s="13"/>
       <c r="F97" s="13"/>
-      <c r="G97" s="160"/>
+      <c r="G97" s="162"/>
     </row>
     <row r="98" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A98" s="160"/>
+      <c r="A98" s="162"/>
       <c r="B98" s="19"/>
       <c r="C98" s="13"/>
       <c r="D98" s="13"/>
       <c r="E98" s="13"/>
       <c r="F98" s="13"/>
-      <c r="G98" s="160"/>
+      <c r="G98" s="162"/>
     </row>
     <row r="99" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A99" s="160"/>
+      <c r="A99" s="162"/>
       <c r="B99" s="19"/>
       <c r="C99" s="13"/>
       <c r="D99" s="13"/>
       <c r="E99" s="13"/>
       <c r="F99" s="13"/>
-      <c r="G99" s="160"/>
+      <c r="G99" s="162"/>
     </row>
     <row r="100" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A100" s="160"/>
+      <c r="A100" s="162"/>
       <c r="B100" s="19"/>
       <c r="C100" s="13"/>
       <c r="D100" s="13"/>
       <c r="E100" s="13"/>
       <c r="F100" s="13"/>
-      <c r="G100" s="160"/>
+      <c r="G100" s="162"/>
     </row>
     <row r="101" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A101" s="160"/>
+      <c r="A101" s="162"/>
       <c r="B101" s="19"/>
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
       <c r="E101" s="13"/>
       <c r="F101" s="13"/>
-      <c r="G101" s="160"/>
+      <c r="G101" s="162"/>
     </row>
     <row r="102" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A102" s="160"/>
+      <c r="A102" s="162"/>
       <c r="B102" s="19"/>
       <c r="C102" s="13"/>
       <c r="D102" s="13"/>
       <c r="E102" s="13"/>
       <c r="F102" s="13"/>
-      <c r="G102" s="160"/>
+      <c r="G102" s="162"/>
     </row>
     <row r="103" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A103" s="160"/>
+      <c r="A103" s="162"/>
       <c r="B103" s="19"/>
       <c r="C103" s="13"/>
       <c r="D103" s="13"/>
       <c r="E103" s="13"/>
       <c r="F103" s="13"/>
-      <c r="G103" s="160"/>
+      <c r="G103" s="162"/>
     </row>
     <row r="104" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A104" s="160"/>
+      <c r="A104" s="162"/>
       <c r="B104" s="19"/>
       <c r="C104" s="13"/>
       <c r="D104" s="13"/>
       <c r="E104" s="13"/>
       <c r="F104" s="13"/>
-      <c r="G104" s="160"/>
+      <c r="G104" s="162"/>
     </row>
     <row r="105" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A105" s="160"/>
+      <c r="A105" s="162"/>
       <c r="B105" s="19"/>
       <c r="C105" s="13"/>
       <c r="D105" s="13"/>
       <c r="E105" s="13"/>
       <c r="F105" s="13"/>
-      <c r="G105" s="160"/>
+      <c r="G105" s="162"/>
     </row>
     <row r="106" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A106" s="160"/>
+      <c r="A106" s="162"/>
       <c r="B106" s="19"/>
       <c r="C106" s="13"/>
       <c r="D106" s="13"/>
       <c r="E106" s="13"/>
       <c r="F106" s="13"/>
-      <c r="G106" s="160"/>
+      <c r="G106" s="162"/>
     </row>
     <row r="107" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A107" s="160"/>
+      <c r="A107" s="162"/>
       <c r="B107" s="19"/>
       <c r="C107" s="13"/>
       <c r="D107" s="13"/>
       <c r="E107" s="13"/>
       <c r="F107" s="13"/>
-      <c r="G107" s="160"/>
+      <c r="G107" s="162"/>
     </row>
     <row r="108" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A108" s="160"/>
+      <c r="A108" s="162"/>
       <c r="B108" s="19"/>
       <c r="C108" s="13"/>
       <c r="D108" s="13"/>
       <c r="E108" s="13"/>
       <c r="F108" s="13"/>
-      <c r="G108" s="160"/>
+      <c r="G108" s="162"/>
     </row>
     <row r="109" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A109" s="160"/>
+      <c r="A109" s="162"/>
       <c r="B109" s="19"/>
       <c r="C109" s="13"/>
       <c r="D109" s="13"/>
       <c r="E109" s="13"/>
       <c r="F109" s="13"/>
-      <c r="G109" s="160"/>
+      <c r="G109" s="162"/>
     </row>
     <row r="110" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A110" s="160"/>
+      <c r="A110" s="162"/>
       <c r="B110" s="19"/>
       <c r="C110" s="13"/>
       <c r="D110" s="13"/>
       <c r="E110" s="13"/>
       <c r="F110" s="13"/>
-      <c r="G110" s="160"/>
+      <c r="G110" s="162"/>
     </row>
     <row r="111" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A111" s="160"/>
+      <c r="A111" s="162"/>
       <c r="B111" s="19"/>
       <c r="C111" s="13"/>
       <c r="D111" s="13"/>
       <c r="E111" s="13"/>
       <c r="F111" s="13"/>
-      <c r="G111" s="160"/>
+      <c r="G111" s="162"/>
     </row>
     <row r="112" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A112" s="160"/>
+      <c r="A112" s="162"/>
       <c r="B112" s="19"/>
       <c r="C112" s="13"/>
       <c r="D112" s="13"/>
       <c r="E112" s="13"/>
       <c r="F112" s="13"/>
-      <c r="G112" s="160"/>
+      <c r="G112" s="162"/>
     </row>
     <row r="113" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A113" s="160"/>
+      <c r="A113" s="162"/>
       <c r="B113" s="19"/>
       <c r="C113" s="13"/>
       <c r="D113" s="13"/>
       <c r="E113" s="13"/>
       <c r="F113" s="13"/>
-      <c r="G113" s="160"/>
+      <c r="G113" s="162"/>
     </row>
     <row r="114" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A114" s="160"/>
+      <c r="A114" s="162"/>
       <c r="B114" s="19"/>
       <c r="C114" s="13"/>
       <c r="D114" s="13"/>
       <c r="E114" s="13"/>
       <c r="F114" s="13"/>
-      <c r="G114" s="160"/>
+      <c r="G114" s="162"/>
     </row>
     <row r="115" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A115" s="160"/>
+      <c r="A115" s="162"/>
       <c r="B115" s="19"/>
       <c r="C115" s="13"/>
       <c r="D115" s="13"/>
       <c r="E115" s="13"/>
       <c r="F115" s="13"/>
-      <c r="G115" s="160"/>
+      <c r="G115" s="162"/>
     </row>
     <row r="116" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A116" s="160"/>
+      <c r="A116" s="162"/>
       <c r="B116" s="19"/>
       <c r="C116" s="13"/>
       <c r="D116" s="13"/>
       <c r="E116" s="13"/>
       <c r="F116" s="13"/>
-      <c r="G116" s="160"/>
+      <c r="G116" s="162"/>
     </row>
     <row r="117" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A117" s="160"/>
+      <c r="A117" s="162"/>
       <c r="B117" s="19"/>
       <c r="C117" s="13"/>
       <c r="D117" s="13"/>
       <c r="E117" s="13"/>
       <c r="F117" s="13"/>
-      <c r="G117" s="160"/>
+      <c r="G117" s="162"/>
     </row>
     <row r="118" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A118" s="160"/>
+      <c r="A118" s="162"/>
       <c r="B118" s="19"/>
       <c r="C118" s="13"/>
       <c r="D118" s="13"/>
       <c r="E118" s="13"/>
       <c r="F118" s="13"/>
-      <c r="G118" s="160"/>
+      <c r="G118" s="162"/>
     </row>
     <row r="119" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A119" s="160"/>
+      <c r="A119" s="162"/>
       <c r="B119" s="19"/>
       <c r="C119" s="13"/>
       <c r="D119" s="13"/>
       <c r="E119" s="13"/>
       <c r="F119" s="13"/>
-      <c r="G119" s="160"/>
+      <c r="G119" s="162"/>
     </row>
     <row r="120" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A120" s="160"/>
+      <c r="A120" s="162"/>
       <c r="B120" s="19"/>
       <c r="C120" s="13"/>
       <c r="D120" s="13"/>
       <c r="E120" s="13"/>
       <c r="F120" s="13"/>
-      <c r="G120" s="160"/>
+      <c r="G120" s="162"/>
     </row>
     <row r="121" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A121" s="160"/>
+      <c r="A121" s="162"/>
       <c r="B121" s="19"/>
       <c r="C121" s="13"/>
       <c r="D121" s="13"/>
       <c r="E121" s="13"/>
       <c r="F121" s="13"/>
-      <c r="G121" s="160"/>
+      <c r="G121" s="162"/>
     </row>
     <row r="122" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A122" s="160"/>
+      <c r="A122" s="162"/>
       <c r="B122" s="19"/>
       <c r="C122" s="13"/>
       <c r="D122" s="13"/>
       <c r="E122" s="13"/>
       <c r="F122" s="13"/>
-      <c r="G122" s="160"/>
+      <c r="G122" s="162"/>
     </row>
     <row r="123" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A123" s="160"/>
+      <c r="A123" s="162"/>
       <c r="B123" s="19"/>
       <c r="C123" s="13"/>
       <c r="D123" s="13"/>
       <c r="E123" s="13"/>
       <c r="F123" s="13"/>
-      <c r="G123" s="160"/>
+      <c r="G123" s="162"/>
     </row>
     <row r="124" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A124" s="160"/>
+      <c r="A124" s="162"/>
       <c r="B124" s="19"/>
       <c r="C124" s="13"/>
       <c r="D124" s="13"/>
       <c r="E124" s="13"/>
       <c r="F124" s="13"/>
-      <c r="G124" s="160"/>
+      <c r="G124" s="162"/>
     </row>
     <row r="125" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A125" s="160"/>
+      <c r="A125" s="162"/>
       <c r="B125" s="19"/>
       <c r="C125" s="13"/>
       <c r="D125" s="13"/>
       <c r="E125" s="13"/>
       <c r="F125" s="13"/>
-      <c r="G125" s="160"/>
+      <c r="G125" s="162"/>
     </row>
     <row r="126" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A126" s="160"/>
+      <c r="A126" s="162"/>
       <c r="B126" s="19"/>
       <c r="C126" s="13"/>
       <c r="D126" s="13"/>
       <c r="E126" s="13"/>
       <c r="F126" s="13"/>
-      <c r="G126" s="160"/>
+      <c r="G126" s="162"/>
     </row>
     <row r="127" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A127" s="160"/>
+      <c r="A127" s="162"/>
       <c r="B127" s="19"/>
       <c r="C127" s="13"/>
       <c r="D127" s="13"/>
       <c r="E127" s="13"/>
       <c r="F127" s="13"/>
-      <c r="G127" s="160"/>
+      <c r="G127" s="162"/>
     </row>
     <row r="128" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A128" s="160"/>
+      <c r="A128" s="162"/>
       <c r="B128" s="19"/>
       <c r="C128" s="13"/>
       <c r="D128" s="13"/>
       <c r="E128" s="13"/>
       <c r="F128" s="13"/>
-      <c r="G128" s="160"/>
+      <c r="G128" s="162"/>
     </row>
     <row r="129" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A129" s="160"/>
+      <c r="A129" s="162"/>
       <c r="B129" s="19"/>
       <c r="C129" s="13"/>
       <c r="D129" s="13"/>
       <c r="E129" s="13"/>
       <c r="F129" s="13"/>
-      <c r="G129" s="160"/>
+      <c r="G129" s="162"/>
     </row>
     <row r="130" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A130" s="160"/>
+      <c r="A130" s="162"/>
       <c r="B130" s="19"/>
       <c r="C130" s="13"/>
       <c r="D130" s="13"/>
       <c r="E130" s="13"/>
       <c r="F130" s="13"/>
-      <c r="G130" s="160"/>
+      <c r="G130" s="162"/>
     </row>
     <row r="131" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A131" s="160"/>
+      <c r="A131" s="162"/>
       <c r="B131" s="19"/>
       <c r="C131" s="13"/>
       <c r="D131" s="13"/>
       <c r="E131" s="13"/>
       <c r="F131" s="13"/>
-      <c r="G131" s="160"/>
+      <c r="G131" s="162"/>
     </row>
     <row r="132" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A132" s="160"/>
+      <c r="A132" s="162"/>
       <c r="B132" s="19"/>
       <c r="C132" s="13"/>
       <c r="D132" s="13"/>
       <c r="E132" s="13"/>
       <c r="F132" s="13"/>
-      <c r="G132" s="160"/>
+      <c r="G132" s="162"/>
     </row>
     <row r="133" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A133" s="160"/>
+      <c r="A133" s="162"/>
       <c r="B133" s="19"/>
       <c r="C133" s="13"/>
       <c r="D133" s="13"/>
       <c r="E133" s="13"/>
       <c r="F133" s="13"/>
-      <c r="G133" s="160"/>
+      <c r="G133" s="162"/>
     </row>
     <row r="134" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A134" s="160"/>
+      <c r="A134" s="162"/>
       <c r="B134" s="19"/>
       <c r="C134" s="13"/>
       <c r="D134" s="13"/>
       <c r="E134" s="13"/>
       <c r="F134" s="13"/>
-      <c r="G134" s="160"/>
+      <c r="G134" s="162"/>
     </row>
     <row r="135" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A135" s="160"/>
+      <c r="A135" s="162"/>
       <c r="B135" s="19"/>
       <c r="C135" s="13"/>
       <c r="D135" s="13"/>
       <c r="E135" s="13"/>
       <c r="F135" s="13"/>
-      <c r="G135" s="160"/>
+      <c r="G135" s="162"/>
     </row>
     <row r="136" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A136" s="160"/>
+      <c r="A136" s="162"/>
       <c r="B136" s="19"/>
       <c r="C136" s="13"/>
       <c r="D136" s="13"/>
       <c r="E136" s="13"/>
       <c r="F136" s="13"/>
-      <c r="G136" s="160"/>
+      <c r="G136" s="162"/>
     </row>
     <row r="137" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A137" s="160"/>
+      <c r="A137" s="162"/>
       <c r="B137" s="19"/>
       <c r="C137" s="13"/>
       <c r="D137" s="13"/>
       <c r="E137" s="13"/>
       <c r="F137" s="13"/>
-      <c r="G137" s="160"/>
+      <c r="G137" s="162"/>
     </row>
     <row r="138" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A138" s="160"/>
+      <c r="A138" s="162"/>
       <c r="B138" s="19"/>
       <c r="C138" s="13"/>
       <c r="D138" s="13"/>
       <c r="E138" s="13"/>
       <c r="F138" s="13"/>
-      <c r="G138" s="160"/>
+      <c r="G138" s="162"/>
     </row>
     <row r="139" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A139" s="160"/>
+      <c r="A139" s="162"/>
       <c r="B139" s="19"/>
       <c r="C139" s="13"/>
       <c r="D139" s="13"/>
       <c r="E139" s="13"/>
       <c r="F139" s="13"/>
-      <c r="G139" s="160"/>
+      <c r="G139" s="162"/>
     </row>
     <row r="140" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A140" s="160"/>
+      <c r="A140" s="162"/>
       <c r="B140" s="19"/>
       <c r="C140" s="13"/>
       <c r="D140" s="13"/>
       <c r="E140" s="13"/>
       <c r="F140" s="13"/>
-      <c r="G140" s="160"/>
+      <c r="G140" s="162"/>
     </row>
     <row r="141" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A141" s="160"/>
+      <c r="A141" s="162"/>
       <c r="B141" s="19"/>
       <c r="C141" s="13"/>
       <c r="D141" s="13"/>
       <c r="E141" s="13"/>
       <c r="F141" s="13"/>
-      <c r="G141" s="160"/>
+      <c r="G141" s="162"/>
     </row>
     <row r="142" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A142" s="160"/>
+      <c r="A142" s="162"/>
       <c r="B142" s="19"/>
       <c r="C142" s="13"/>
       <c r="D142" s="13"/>
       <c r="E142" s="13"/>
       <c r="F142" s="13"/>
-      <c r="G142" s="160"/>
+      <c r="G142" s="162"/>
     </row>
     <row r="143" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A143" s="160"/>
+      <c r="A143" s="162"/>
       <c r="B143" s="19"/>
       <c r="C143" s="13"/>
       <c r="D143" s="13"/>
       <c r="E143" s="13"/>
       <c r="F143" s="13"/>
-      <c r="G143" s="160"/>
+      <c r="G143" s="162"/>
     </row>
     <row r="144" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A144" s="160"/>
+      <c r="A144" s="162"/>
       <c r="B144" s="19"/>
       <c r="C144" s="13"/>
       <c r="D144" s="13"/>
       <c r="E144" s="13"/>
       <c r="F144" s="13"/>
-      <c r="G144" s="160"/>
+      <c r="G144" s="162"/>
     </row>
     <row r="145" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A145" s="160"/>
+      <c r="A145" s="162"/>
       <c r="B145" s="19"/>
       <c r="C145" s="13"/>
       <c r="D145" s="13"/>
       <c r="E145" s="13"/>
       <c r="F145" s="13"/>
-      <c r="G145" s="160"/>
+      <c r="G145" s="162"/>
     </row>
     <row r="146" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A146" s="160"/>
+      <c r="A146" s="162"/>
       <c r="B146" s="19"/>
       <c r="C146" s="13"/>
       <c r="D146" s="13"/>
       <c r="E146" s="13"/>
       <c r="F146" s="13"/>
-      <c r="G146" s="160"/>
+      <c r="G146" s="162"/>
     </row>
     <row r="147" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A147" s="160"/>
+      <c r="A147" s="162"/>
       <c r="B147" s="19"/>
       <c r="C147" s="13"/>
       <c r="D147" s="13"/>
       <c r="E147" s="13"/>
       <c r="F147" s="13"/>
-      <c r="G147" s="160"/>
+      <c r="G147" s="162"/>
     </row>
     <row r="148" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A148" s="160"/>
+      <c r="A148" s="162"/>
       <c r="B148" s="19"/>
       <c r="C148" s="13"/>
       <c r="D148" s="13"/>
       <c r="E148" s="13"/>
       <c r="F148" s="13"/>
-      <c r="G148" s="160"/>
+      <c r="G148" s="162"/>
     </row>
     <row r="149" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A149" s="160"/>
+      <c r="A149" s="162"/>
       <c r="B149" s="19"/>
       <c r="C149" s="13"/>
       <c r="D149" s="13"/>
       <c r="E149" s="13"/>
       <c r="F149" s="13"/>
-      <c r="G149" s="160"/>
+      <c r="G149" s="162"/>
     </row>
     <row r="150" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A150" s="160"/>
+      <c r="A150" s="162"/>
       <c r="B150" s="19"/>
       <c r="C150" s="13"/>
       <c r="D150" s="13"/>
       <c r="E150" s="13"/>
       <c r="F150" s="13"/>
-      <c r="G150" s="160"/>
+      <c r="G150" s="162"/>
     </row>
     <row r="151" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A151" s="160"/>
+      <c r="A151" s="162"/>
       <c r="B151" s="19"/>
       <c r="C151" s="13"/>
       <c r="D151" s="13"/>
       <c r="E151" s="13"/>
       <c r="F151" s="13"/>
-      <c r="G151" s="160"/>
+      <c r="G151" s="162"/>
     </row>
     <row r="152" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A152" s="160"/>
+      <c r="A152" s="162"/>
       <c r="B152" s="19"/>
       <c r="C152" s="13"/>
       <c r="D152" s="13"/>
       <c r="E152" s="13"/>
       <c r="F152" s="13"/>
-      <c r="G152" s="160"/>
+      <c r="G152" s="162"/>
     </row>
     <row r="153" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A153" s="160"/>
+      <c r="A153" s="162"/>
       <c r="B153" s="19"/>
       <c r="C153" s="13"/>
       <c r="D153" s="13"/>
       <c r="E153" s="13"/>
       <c r="F153" s="13"/>
-      <c r="G153" s="160"/>
+      <c r="G153" s="162"/>
     </row>
     <row r="154" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A154" s="160"/>
+      <c r="A154" s="162"/>
       <c r="B154" s="19"/>
       <c r="C154" s="13"/>
       <c r="D154" s="13"/>
       <c r="E154" s="13"/>
       <c r="F154" s="13"/>
-      <c r="G154" s="160"/>
+      <c r="G154" s="162"/>
     </row>
     <row r="155" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A155" s="160"/>
+      <c r="A155" s="162"/>
       <c r="B155" s="19"/>
       <c r="C155" s="13"/>
       <c r="D155" s="13"/>
       <c r="E155" s="13"/>
       <c r="F155" s="13"/>
-      <c r="G155" s="160"/>
+      <c r="G155" s="162"/>
     </row>
     <row r="156" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A156" s="160"/>
+      <c r="A156" s="162"/>
       <c r="B156" s="19"/>
       <c r="C156" s="13"/>
       <c r="D156" s="13"/>
       <c r="E156" s="13"/>
       <c r="F156" s="13"/>
-      <c r="G156" s="160"/>
+      <c r="G156" s="162"/>
     </row>
     <row r="157" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A157" s="160"/>
+      <c r="A157" s="162"/>
       <c r="B157" s="19"/>
       <c r="C157" s="13"/>
       <c r="D157" s="13"/>
       <c r="E157" s="13"/>
       <c r="F157" s="13"/>
-      <c r="G157" s="160"/>
+      <c r="G157" s="162"/>
     </row>
     <row r="158" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A158" s="160"/>
+      <c r="A158" s="162"/>
       <c r="B158" s="19"/>
       <c r="C158" s="13"/>
       <c r="D158" s="13"/>
       <c r="E158" s="13"/>
       <c r="F158" s="13"/>
-      <c r="G158" s="160"/>
+      <c r="G158" s="162"/>
     </row>
     <row r="159" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A159" s="160"/>
+      <c r="A159" s="162"/>
       <c r="B159" s="19"/>
       <c r="C159" s="13"/>
       <c r="D159" s="13"/>
       <c r="E159" s="13"/>
       <c r="F159" s="13"/>
-      <c r="G159" s="160"/>
+      <c r="G159" s="162"/>
     </row>
     <row r="160" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A160" s="160"/>
+      <c r="A160" s="162"/>
       <c r="B160" s="19"/>
       <c r="C160" s="13"/>
       <c r="D160" s="13"/>
       <c r="E160" s="13"/>
       <c r="F160" s="13"/>
-      <c r="G160" s="160"/>
+      <c r="G160" s="162"/>
     </row>
     <row r="161" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A161" s="160"/>
+      <c r="A161" s="162"/>
       <c r="B161" s="19"/>
       <c r="C161" s="13"/>
       <c r="D161" s="13"/>
       <c r="E161" s="13"/>
       <c r="F161" s="13"/>
-      <c r="G161" s="160"/>
+      <c r="G161" s="162"/>
     </row>
     <row r="162" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A162" s="160"/>
+      <c r="A162" s="162"/>
       <c r="B162" s="19"/>
       <c r="C162" s="13"/>
       <c r="D162" s="13"/>
       <c r="E162" s="13"/>
       <c r="F162" s="13"/>
-      <c r="G162" s="160"/>
+      <c r="G162" s="162"/>
     </row>
     <row r="163" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A163" s="160"/>
+      <c r="A163" s="162"/>
       <c r="B163" s="19"/>
       <c r="C163" s="13"/>
       <c r="D163" s="13"/>
       <c r="E163" s="13"/>
       <c r="F163" s="13"/>
-      <c r="G163" s="160"/>
+      <c r="G163" s="162"/>
     </row>
     <row r="164" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A164" s="160"/>
+      <c r="A164" s="162"/>
       <c r="B164" s="19"/>
       <c r="C164" s="13"/>
       <c r="D164" s="13"/>
       <c r="E164" s="13"/>
       <c r="F164" s="13"/>
-      <c r="G164" s="160"/>
+      <c r="G164" s="162"/>
     </row>
     <row r="165" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A165" s="160"/>
+      <c r="A165" s="162"/>
       <c r="B165" s="19"/>
       <c r="C165" s="13"/>
       <c r="D165" s="13"/>
       <c r="E165" s="13"/>
       <c r="F165" s="13"/>
-      <c r="G165" s="160"/>
+      <c r="G165" s="162"/>
     </row>
     <row r="166" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A166" s="160"/>
+      <c r="A166" s="162"/>
       <c r="B166" s="19"/>
       <c r="C166" s="13"/>
       <c r="D166" s="13"/>
       <c r="E166" s="13"/>
       <c r="F166" s="13"/>
-      <c r="G166" s="160"/>
+      <c r="G166" s="162"/>
     </row>
     <row r="167" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A167" s="160"/>
+      <c r="A167" s="162"/>
       <c r="B167" s="19"/>
       <c r="C167" s="13"/>
       <c r="D167" s="13"/>
       <c r="E167" s="13"/>
       <c r="F167" s="13"/>
-      <c r="G167" s="160"/>
+      <c r="G167" s="162"/>
     </row>
     <row r="168" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A168" s="160"/>
+      <c r="A168" s="162"/>
       <c r="B168" s="19"/>
       <c r="C168" s="13"/>
       <c r="D168" s="13"/>
       <c r="E168" s="13"/>
       <c r="F168" s="13"/>
-      <c r="G168" s="160"/>
+      <c r="G168" s="162"/>
     </row>
     <row r="169" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A169" s="160"/>
+      <c r="A169" s="162"/>
       <c r="B169" s="19"/>
       <c r="C169" s="13"/>
       <c r="D169" s="13"/>
       <c r="E169" s="13"/>
       <c r="F169" s="13"/>
-      <c r="G169" s="160"/>
+      <c r="G169" s="162"/>
     </row>
     <row r="170" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A170" s="160"/>
+      <c r="A170" s="162"/>
       <c r="B170" s="19"/>
       <c r="C170" s="13"/>
       <c r="D170" s="13"/>
       <c r="E170" s="13"/>
       <c r="F170" s="13"/>
-      <c r="G170" s="160"/>
+      <c r="G170" s="162"/>
     </row>
     <row r="171" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A171" s="160"/>
+      <c r="A171" s="162"/>
       <c r="B171" s="19"/>
       <c r="C171" s="13"/>
       <c r="D171" s="13"/>
       <c r="E171" s="13"/>
       <c r="F171" s="13"/>
-      <c r="G171" s="160"/>
+      <c r="G171" s="162"/>
     </row>
     <row r="172" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A172" s="160"/>
+      <c r="A172" s="162"/>
       <c r="B172" s="19"/>
       <c r="C172" s="13"/>
       <c r="D172" s="13"/>
       <c r="E172" s="13"/>
       <c r="F172" s="13"/>
-      <c r="G172" s="160"/>
+      <c r="G172" s="162"/>
     </row>
     <row r="173" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A173" s="160"/>
+      <c r="A173" s="162"/>
       <c r="B173" s="19"/>
       <c r="C173" s="13"/>
       <c r="D173" s="13"/>
       <c r="E173" s="13"/>
       <c r="F173" s="13"/>
-      <c r="G173" s="160"/>
+      <c r="G173" s="162"/>
     </row>
     <row r="174" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A174" s="160"/>
+      <c r="A174" s="162"/>
       <c r="B174" s="19"/>
       <c r="C174" s="13"/>
       <c r="D174" s="13"/>
       <c r="E174" s="13"/>
       <c r="F174" s="13"/>
-      <c r="G174" s="160"/>
+      <c r="G174" s="162"/>
     </row>
     <row r="175" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A175" s="160"/>
+      <c r="A175" s="162"/>
       <c r="B175" s="19"/>
       <c r="C175" s="13"/>
       <c r="D175" s="13"/>
       <c r="E175" s="13"/>
       <c r="F175" s="13"/>
-      <c r="G175" s="160"/>
+      <c r="G175" s="162"/>
     </row>
     <row r="176" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A176" s="160"/>
+      <c r="A176" s="162"/>
       <c r="B176" s="19"/>
       <c r="C176" s="13"/>
       <c r="D176" s="13"/>
       <c r="E176" s="13"/>
       <c r="F176" s="13"/>
-      <c r="G176" s="160"/>
+      <c r="G176" s="162"/>
     </row>
     <row r="177" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A177" s="160"/>
+      <c r="A177" s="162"/>
       <c r="B177" s="19"/>
       <c r="C177" s="13"/>
       <c r="D177" s="13"/>
       <c r="E177" s="13"/>
       <c r="F177" s="13"/>
-      <c r="G177" s="160"/>
+      <c r="G177" s="162"/>
     </row>
     <row r="178" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A178" s="160"/>
+      <c r="A178" s="162"/>
       <c r="B178" s="19"/>
       <c r="C178" s="13"/>
       <c r="D178" s="13"/>
       <c r="E178" s="13"/>
       <c r="F178" s="13"/>
-      <c r="G178" s="160"/>
+      <c r="G178" s="162"/>
     </row>
     <row r="179" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A179" s="160"/>
+      <c r="A179" s="162"/>
       <c r="B179" s="19"/>
       <c r="C179" s="13"/>
       <c r="D179" s="13"/>
       <c r="E179" s="13"/>
       <c r="F179" s="13"/>
-      <c r="G179" s="160"/>
+      <c r="G179" s="162"/>
     </row>
     <row r="180" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A180" s="160"/>
+      <c r="A180" s="162"/>
       <c r="B180" s="19"/>
       <c r="C180" s="13"/>
       <c r="D180" s="13"/>
       <c r="E180" s="13"/>
       <c r="F180" s="13"/>
-      <c r="G180" s="160"/>
+      <c r="G180" s="162"/>
     </row>
     <row r="181" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A181" s="160"/>
+      <c r="A181" s="162"/>
       <c r="B181" s="19"/>
       <c r="C181" s="13"/>
       <c r="D181" s="13"/>
       <c r="E181" s="13"/>
       <c r="F181" s="13"/>
-      <c r="G181" s="160"/>
+      <c r="G181" s="162"/>
     </row>
     <row r="182" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A182" s="160"/>
+      <c r="A182" s="162"/>
       <c r="B182" s="19"/>
       <c r="C182" s="13"/>
       <c r="D182" s="13"/>
       <c r="E182" s="13"/>
       <c r="F182" s="13"/>
-      <c r="G182" s="160"/>
+      <c r="G182" s="162"/>
     </row>
     <row r="183" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A183" s="160"/>
+      <c r="A183" s="162"/>
       <c r="B183" s="19"/>
       <c r="C183" s="13"/>
       <c r="D183" s="13"/>
       <c r="E183" s="13"/>
       <c r="F183" s="13"/>
-      <c r="G183" s="160"/>
+      <c r="G183" s="162"/>
     </row>
     <row r="184" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A184" s="160"/>
+      <c r="A184" s="162"/>
       <c r="B184" s="19"/>
       <c r="C184" s="13"/>
       <c r="D184" s="13"/>
       <c r="E184" s="13"/>
       <c r="F184" s="13"/>
-      <c r="G184" s="160"/>
+      <c r="G184" s="162"/>
     </row>
     <row r="185" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A185" s="160"/>
+      <c r="A185" s="162"/>
       <c r="B185" s="19"/>
       <c r="C185" s="13"/>
       <c r="D185" s="13"/>
       <c r="E185" s="13"/>
       <c r="F185" s="13"/>
-      <c r="G185" s="160"/>
+      <c r="G185" s="162"/>
     </row>
     <row r="186" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A186" s="160"/>
+      <c r="A186" s="162"/>
       <c r="B186" s="19"/>
       <c r="C186" s="13"/>
       <c r="D186" s="13"/>
       <c r="E186" s="13"/>
       <c r="F186" s="13"/>
-      <c r="G186" s="160"/>
+      <c r="G186" s="162"/>
     </row>
     <row r="187" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A187" s="160"/>
+      <c r="A187" s="162"/>
       <c r="B187" s="19"/>
       <c r="C187" s="13"/>
       <c r="D187" s="13"/>
       <c r="E187" s="13"/>
       <c r="F187" s="13"/>
-      <c r="G187" s="160"/>
+      <c r="G187" s="162"/>
     </row>
     <row r="188" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A188" s="160"/>
+      <c r="A188" s="162"/>
       <c r="B188" s="19"/>
       <c r="C188" s="13"/>
       <c r="D188" s="13"/>
       <c r="E188" s="13"/>
       <c r="F188" s="13"/>
-      <c r="G188" s="160"/>
+      <c r="G188" s="162"/>
     </row>
     <row r="189" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A189" s="160"/>
+      <c r="A189" s="162"/>
       <c r="B189" s="19"/>
       <c r="C189" s="13"/>
       <c r="D189" s="13"/>
       <c r="E189" s="13"/>
       <c r="F189" s="13"/>
-      <c r="G189" s="160"/>
+      <c r="G189" s="162"/>
     </row>
     <row r="190" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A190" s="160"/>
+      <c r="A190" s="162"/>
       <c r="B190" s="19"/>
       <c r="C190" s="13"/>
       <c r="D190" s="13"/>
       <c r="E190" s="13"/>
       <c r="F190" s="13"/>
-      <c r="G190" s="160"/>
+      <c r="G190" s="162"/>
     </row>
     <row r="191" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A191" s="160"/>
+      <c r="A191" s="162"/>
       <c r="B191" s="19"/>
       <c r="C191" s="13"/>
       <c r="D191" s="13"/>
       <c r="E191" s="13"/>
       <c r="F191" s="13"/>
-      <c r="G191" s="160"/>
+      <c r="G191" s="162"/>
     </row>
     <row r="192" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A192" s="160"/>
+      <c r="A192" s="162"/>
       <c r="B192" s="19"/>
       <c r="C192" s="13"/>
       <c r="D192" s="13"/>
       <c r="E192" s="13"/>
       <c r="F192" s="13"/>
-      <c r="G192" s="160"/>
+      <c r="G192" s="162"/>
     </row>
     <row r="193" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A193" s="160"/>
+      <c r="A193" s="162"/>
       <c r="B193" s="19"/>
       <c r="C193" s="13"/>
       <c r="D193" s="13"/>
       <c r="E193" s="13"/>
       <c r="F193" s="13"/>
-      <c r="G193" s="160"/>
+      <c r="G193" s="162"/>
     </row>
     <row r="194" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A194" s="160"/>
+      <c r="A194" s="162"/>
       <c r="B194" s="19"/>
       <c r="C194" s="13"/>
       <c r="D194" s="13"/>
       <c r="E194" s="13"/>
       <c r="F194" s="13"/>
-      <c r="G194" s="160"/>
+      <c r="G194" s="162"/>
     </row>
     <row r="195" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A195" s="160"/>
+      <c r="A195" s="162"/>
       <c r="B195" s="19"/>
       <c r="C195" s="13"/>
       <c r="D195" s="13"/>
       <c r="E195" s="13"/>
       <c r="F195" s="13"/>
-      <c r="G195" s="160"/>
+      <c r="G195" s="162"/>
     </row>
     <row r="196" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A196" s="160"/>
+      <c r="A196" s="162"/>
       <c r="B196" s="19"/>
       <c r="C196" s="13"/>
       <c r="D196" s="13"/>
       <c r="E196" s="13"/>
       <c r="F196" s="13"/>
-      <c r="G196" s="160"/>
+      <c r="G196" s="162"/>
     </row>
     <row r="197" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A197" s="160"/>
+      <c r="A197" s="162"/>
       <c r="B197" s="19"/>
       <c r="C197" s="13"/>
       <c r="D197" s="13"/>
       <c r="E197" s="13"/>
       <c r="F197" s="13"/>
-      <c r="G197" s="160"/>
+      <c r="G197" s="162"/>
     </row>
     <row r="198" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A198" s="160"/>
+      <c r="A198" s="162"/>
       <c r="B198" s="19"/>
       <c r="C198" s="13"/>
       <c r="D198" s="13"/>
       <c r="E198" s="13"/>
       <c r="F198" s="13"/>
-      <c r="G198" s="160"/>
+      <c r="G198" s="162"/>
     </row>
     <row r="199" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A199" s="160"/>
+      <c r="A199" s="162"/>
       <c r="B199" s="19"/>
       <c r="C199" s="13"/>
       <c r="D199" s="13"/>
       <c r="E199" s="13"/>
       <c r="F199" s="13"/>
-      <c r="G199" s="160"/>
+      <c r="G199" s="162"/>
     </row>
     <row r="200" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A200" s="160"/>
+      <c r="A200" s="162"/>
       <c r="B200" s="19"/>
       <c r="C200" s="13"/>
       <c r="D200" s="13"/>
       <c r="E200" s="13"/>
       <c r="F200" s="13"/>
-      <c r="G200" s="160"/>
+      <c r="G200" s="162"/>
     </row>
     <row r="201" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A201" s="160"/>
+      <c r="A201" s="162"/>
       <c r="B201" s="19"/>
       <c r="C201" s="13"/>
       <c r="D201" s="13"/>
       <c r="E201" s="13"/>
       <c r="F201" s="13"/>
-      <c r="G201" s="160"/>
+      <c r="G201" s="162"/>
     </row>
     <row r="202" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A202" s="160"/>
+      <c r="A202" s="162"/>
       <c r="B202" s="19"/>
       <c r="C202" s="20"/>
       <c r="D202" s="20"/>
       <c r="E202" s="20"/>
       <c r="F202" s="20"/>
-      <c r="G202" s="160"/>
+      <c r="G202" s="162"/>
     </row>
     <row r="203" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A203" s="160"/>
+      <c r="A203" s="162"/>
       <c r="B203" s="19"/>
       <c r="C203" s="20"/>
       <c r="D203" s="20"/>
       <c r="E203" s="20"/>
       <c r="F203" s="20"/>
-      <c r="G203" s="160"/>
+      <c r="G203" s="162"/>
     </row>
     <row r="204" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A204" s="160"/>
+      <c r="A204" s="162"/>
       <c r="B204" s="19"/>
       <c r="C204" s="20"/>
       <c r="D204" s="20"/>
       <c r="E204" s="20"/>
       <c r="F204" s="20"/>
-      <c r="G204" s="160"/>
+      <c r="G204" s="162"/>
     </row>
     <row r="205" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A205" s="160"/>
+      <c r="A205" s="162"/>
       <c r="B205" s="19"/>
       <c r="C205" s="20"/>
       <c r="D205" s="20"/>
       <c r="E205" s="20"/>
       <c r="F205" s="20"/>
-      <c r="G205" s="160"/>
+      <c r="G205" s="162"/>
     </row>
     <row r="206" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A206" s="160"/>
+      <c r="A206" s="162"/>
       <c r="B206" s="19"/>
       <c r="C206" s="20"/>
       <c r="D206" s="20"/>
       <c r="E206" s="20"/>
       <c r="F206" s="20"/>
-      <c r="G206" s="160"/>
+      <c r="G206" s="162"/>
     </row>
     <row r="207" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A207" s="160"/>
+      <c r="A207" s="162"/>
       <c r="B207" s="19"/>
       <c r="C207" s="20"/>
       <c r="D207" s="20"/>
       <c r="E207" s="20"/>
       <c r="F207" s="20"/>
-      <c r="G207" s="160"/>
+      <c r="G207" s="162"/>
     </row>
     <row r="208" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A208" s="160"/>
+      <c r="A208" s="162"/>
       <c r="B208" s="19"/>
       <c r="C208" s="20"/>
       <c r="D208" s="20"/>
       <c r="E208" s="20"/>
       <c r="F208" s="20"/>
-      <c r="G208" s="160"/>
+      <c r="G208" s="162"/>
     </row>
     <row r="209" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A209" s="160"/>
+      <c r="A209" s="162"/>
       <c r="B209" s="19"/>
       <c r="C209" s="20"/>
       <c r="D209" s="20"/>
       <c r="E209" s="20"/>
       <c r="F209" s="20"/>
-      <c r="G209" s="160"/>
+      <c r="G209" s="162"/>
     </row>
     <row r="210" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A210" s="160"/>
+      <c r="A210" s="162"/>
       <c r="B210" s="19"/>
       <c r="C210" s="20"/>
       <c r="D210" s="20"/>
       <c r="E210" s="20"/>
       <c r="F210" s="20"/>
-      <c r="G210" s="160"/>
+      <c r="G210" s="162"/>
     </row>
     <row r="211" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A211" s="160"/>
+      <c r="A211" s="162"/>
       <c r="B211" s="19"/>
       <c r="C211" s="20"/>
       <c r="D211" s="20"/>
       <c r="E211" s="20"/>
       <c r="F211" s="20"/>
-      <c r="G211" s="160"/>
+      <c r="G211" s="162"/>
     </row>
     <row r="212" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A212" s="160"/>
+      <c r="A212" s="162"/>
       <c r="B212" s="19"/>
       <c r="C212" s="20"/>
       <c r="D212" s="20"/>
       <c r="E212" s="20"/>
       <c r="F212" s="20"/>
-      <c r="G212" s="160"/>
+      <c r="G212" s="162"/>
     </row>
     <row r="213" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A213" s="160"/>
+      <c r="A213" s="162"/>
       <c r="B213" s="19"/>
       <c r="C213" s="20"/>
       <c r="D213" s="20"/>
       <c r="E213" s="20"/>
       <c r="F213" s="20"/>
-      <c r="G213" s="160"/>
+      <c r="G213" s="162"/>
     </row>
     <row r="214" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A214" s="160"/>
+      <c r="A214" s="162"/>
       <c r="B214" s="19"/>
       <c r="C214" s="20"/>
       <c r="D214" s="20"/>
       <c r="E214" s="20"/>
       <c r="F214" s="20"/>
-      <c r="G214" s="160"/>
+      <c r="G214" s="162"/>
     </row>
     <row r="215" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A215" s="160"/>
+      <c r="A215" s="162"/>
       <c r="B215" s="19"/>
       <c r="C215" s="20"/>
       <c r="D215" s="20"/>
       <c r="E215" s="20"/>
       <c r="F215" s="20"/>
-      <c r="G215" s="160"/>
+      <c r="G215" s="162"/>
     </row>
     <row r="216" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A216" s="160"/>
+      <c r="A216" s="162"/>
       <c r="B216" s="19"/>
       <c r="C216" s="20"/>
       <c r="D216" s="20"/>
       <c r="E216" s="20"/>
       <c r="F216" s="20"/>
-      <c r="G216" s="160"/>
+      <c r="G216" s="162"/>
     </row>
     <row r="217" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A217" s="160"/>
+      <c r="A217" s="162"/>
       <c r="B217" s="19"/>
       <c r="C217" s="20"/>
       <c r="D217" s="20"/>
       <c r="E217" s="20"/>
       <c r="F217" s="20"/>
-      <c r="G217" s="160"/>
+      <c r="G217" s="162"/>
     </row>
     <row r="218" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A218" s="160"/>
+      <c r="A218" s="162"/>
       <c r="B218" s="19"/>
       <c r="C218" s="20"/>
       <c r="D218" s="20"/>
       <c r="E218" s="20"/>
       <c r="F218" s="20"/>
-      <c r="G218" s="160"/>
+      <c r="G218" s="162"/>
     </row>
     <row r="219" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A219" s="160"/>
+      <c r="A219" s="162"/>
       <c r="B219" s="19"/>
       <c r="C219" s="20"/>
       <c r="D219" s="20"/>
       <c r="E219" s="20"/>
       <c r="F219" s="20"/>
-      <c r="G219" s="160"/>
+      <c r="G219" s="162"/>
     </row>
     <row r="220" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A220" s="160"/>
+      <c r="A220" s="162"/>
       <c r="B220" s="19"/>
       <c r="C220" s="20"/>
       <c r="D220" s="20"/>
       <c r="E220" s="20"/>
       <c r="F220" s="20"/>
-      <c r="G220" s="160"/>
+      <c r="G220" s="162"/>
     </row>
     <row r="221" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A221" s="160"/>
+      <c r="A221" s="162"/>
       <c r="B221" s="19"/>
       <c r="C221" s="20"/>
       <c r="D221" s="20"/>
       <c r="E221" s="20"/>
       <c r="F221" s="20"/>
-      <c r="G221" s="160"/>
+      <c r="G221" s="162"/>
     </row>
     <row r="222" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A222" s="160"/>
+      <c r="A222" s="162"/>
       <c r="B222" s="19"/>
       <c r="C222" s="20"/>
       <c r="D222" s="20"/>
       <c r="E222" s="20"/>
       <c r="F222" s="20"/>
-      <c r="G222" s="160"/>
+      <c r="G222" s="162"/>
     </row>
     <row r="223" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A223" s="160"/>
+      <c r="A223" s="162"/>
       <c r="B223" s="19"/>
       <c r="C223" s="20"/>
       <c r="D223" s="20"/>
       <c r="E223" s="20"/>
       <c r="F223" s="20"/>
-      <c r="G223" s="160"/>
+      <c r="G223" s="162"/>
     </row>
     <row r="224" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A224" s="160"/>
+      <c r="A224" s="162"/>
       <c r="B224" s="19"/>
       <c r="C224" s="20"/>
       <c r="D224" s="20"/>
       <c r="E224" s="20"/>
       <c r="F224" s="20"/>
-      <c r="G224" s="160"/>
+      <c r="G224" s="162"/>
     </row>
     <row r="225" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A225" s="160"/>
+      <c r="A225" s="162"/>
       <c r="B225" s="19"/>
       <c r="C225" s="20"/>
       <c r="D225" s="20"/>
       <c r="E225" s="20"/>
       <c r="F225" s="20"/>
-      <c r="G225" s="160"/>
+      <c r="G225" s="162"/>
     </row>
     <row r="226" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A226" s="160"/>
+      <c r="A226" s="162"/>
       <c r="B226" s="19"/>
       <c r="C226" s="20"/>
       <c r="D226" s="20"/>
       <c r="E226" s="20"/>
       <c r="F226" s="20"/>
-      <c r="G226" s="160"/>
+      <c r="G226" s="162"/>
     </row>
     <row r="227" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A227" s="160"/>
+      <c r="A227" s="162"/>
       <c r="B227" s="19"/>
       <c r="C227" s="20"/>
       <c r="D227" s="20"/>
       <c r="E227" s="20"/>
       <c r="F227" s="20"/>
-      <c r="G227" s="160"/>
+      <c r="G227" s="162"/>
     </row>
     <row r="228" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A228" s="160"/>
+      <c r="A228" s="162"/>
       <c r="B228" s="19"/>
       <c r="C228" s="20"/>
       <c r="D228" s="20"/>
       <c r="E228" s="20"/>
       <c r="F228" s="20"/>
-      <c r="G228" s="160"/>
+      <c r="G228" s="162"/>
     </row>
     <row r="229" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A229" s="160"/>
+      <c r="A229" s="162"/>
       <c r="B229" s="19"/>
       <c r="C229" s="20"/>
       <c r="D229" s="20"/>
       <c r="E229" s="20"/>
       <c r="F229" s="20"/>
-      <c r="G229" s="160"/>
+      <c r="G229" s="162"/>
     </row>
     <row r="230" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A230" s="160"/>
+      <c r="A230" s="162"/>
       <c r="B230" s="19"/>
       <c r="C230" s="20"/>
       <c r="D230" s="20"/>
       <c r="E230" s="20"/>
       <c r="F230" s="20"/>
-      <c r="G230" s="160"/>
+      <c r="G230" s="162"/>
     </row>
     <row r="231" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A231" s="160"/>
+      <c r="A231" s="162"/>
       <c r="B231" s="19"/>
       <c r="C231" s="20"/>
       <c r="D231" s="20"/>
       <c r="E231" s="20"/>
       <c r="F231" s="20"/>
-      <c r="G231" s="160"/>
+      <c r="G231" s="162"/>
     </row>
     <row r="232" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A232" s="160"/>
+      <c r="A232" s="162"/>
       <c r="B232" s="19"/>
       <c r="C232" s="20"/>
       <c r="D232" s="20"/>
       <c r="E232" s="20"/>
       <c r="F232" s="20"/>
-      <c r="G232" s="160"/>
+      <c r="G232" s="162"/>
     </row>
     <row r="233" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A233" s="160"/>
+      <c r="A233" s="162"/>
       <c r="B233" s="19"/>
       <c r="C233" s="20"/>
       <c r="D233" s="20"/>
       <c r="E233" s="20"/>
       <c r="F233" s="20"/>
-      <c r="G233" s="160"/>
+      <c r="G233" s="162"/>
     </row>
     <row r="234" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A234" s="160"/>
+      <c r="A234" s="162"/>
       <c r="B234" s="19"/>
       <c r="C234" s="20"/>
       <c r="D234" s="20"/>
       <c r="E234" s="20"/>
       <c r="F234" s="20"/>
-      <c r="G234" s="160"/>
+      <c r="G234" s="162"/>
     </row>
     <row r="235" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A235" s="160"/>
+      <c r="A235" s="162"/>
       <c r="B235" s="19"/>
       <c r="C235" s="20"/>
       <c r="D235" s="20"/>
       <c r="E235" s="20"/>
       <c r="F235" s="20"/>
-      <c r="G235" s="160"/>
+      <c r="G235" s="162"/>
     </row>
     <row r="236" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A236" s="160"/>
+      <c r="A236" s="162"/>
       <c r="B236" s="19"/>
       <c r="C236" s="20"/>
       <c r="D236" s="20"/>
       <c r="E236" s="20"/>
       <c r="F236" s="20"/>
-      <c r="G236" s="160"/>
+      <c r="G236" s="162"/>
     </row>
     <row r="237" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A237" s="160"/>
+      <c r="A237" s="162"/>
       <c r="B237" s="19"/>
       <c r="C237" s="20"/>
       <c r="D237" s="20"/>
       <c r="E237" s="20"/>
       <c r="F237" s="20"/>
-      <c r="G237" s="160"/>
+      <c r="G237" s="162"/>
     </row>
     <row r="238" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A238" s="160"/>
+      <c r="A238" s="162"/>
       <c r="B238" s="19"/>
       <c r="C238" s="20"/>
       <c r="D238" s="20"/>
       <c r="E238" s="20"/>
       <c r="F238" s="20"/>
-      <c r="G238" s="160"/>
+      <c r="G238" s="162"/>
     </row>
     <row r="239" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A239" s="160"/>
+      <c r="A239" s="162"/>
       <c r="B239" s="19"/>
       <c r="C239" s="20"/>
       <c r="D239" s="20"/>
       <c r="E239" s="20"/>
       <c r="F239" s="20"/>
-      <c r="G239" s="160"/>
+      <c r="G239" s="162"/>
     </row>
     <row r="240" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A240" s="160"/>
+      <c r="A240" s="162"/>
       <c r="B240" s="19"/>
       <c r="C240" s="20"/>
       <c r="D240" s="20"/>
       <c r="E240" s="20"/>
       <c r="F240" s="20"/>
-      <c r="G240" s="160"/>
+      <c r="G240" s="162"/>
     </row>
     <row r="241" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A241" s="160"/>
+      <c r="A241" s="162"/>
       <c r="B241" s="19"/>
       <c r="C241" s="20"/>
       <c r="D241" s="20"/>
       <c r="E241" s="20"/>
       <c r="F241" s="20"/>
-      <c r="G241" s="160"/>
+      <c r="G241" s="162"/>
     </row>
     <row r="242" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A242" s="160"/>
+      <c r="A242" s="162"/>
       <c r="B242" s="19"/>
       <c r="C242" s="20"/>
       <c r="D242" s="20"/>
       <c r="E242" s="20"/>
       <c r="F242" s="20"/>
-      <c r="G242" s="160"/>
+      <c r="G242" s="162"/>
     </row>
     <row r="243" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A243" s="160"/>
+      <c r="A243" s="162"/>
       <c r="B243" s="19"/>
       <c r="C243" s="20"/>
       <c r="D243" s="20"/>
       <c r="E243" s="20"/>
       <c r="F243" s="20"/>
-      <c r="G243" s="160"/>
+      <c r="G243" s="162"/>
     </row>
     <row r="244" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A244" s="160"/>
+      <c r="A244" s="162"/>
       <c r="B244" s="19"/>
       <c r="C244" s="20"/>
       <c r="D244" s="20"/>
       <c r="E244" s="20"/>
       <c r="F244" s="20"/>
-      <c r="G244" s="160"/>
+      <c r="G244" s="162"/>
     </row>
     <row r="245" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A245" s="160"/>
+      <c r="A245" s="162"/>
       <c r="B245" s="19"/>
       <c r="C245" s="20"/>
       <c r="D245" s="20"/>
       <c r="E245" s="20"/>
       <c r="F245" s="20"/>
-      <c r="G245" s="160"/>
+      <c r="G245" s="162"/>
     </row>
     <row r="246" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A246" s="160"/>
+      <c r="A246" s="162"/>
       <c r="B246" s="19"/>
       <c r="C246" s="20"/>
       <c r="D246" s="20"/>
       <c r="E246" s="20"/>
       <c r="F246" s="20"/>
-      <c r="G246" s="160"/>
+      <c r="G246" s="162"/>
     </row>
     <row r="247" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A247" s="160"/>
+      <c r="A247" s="162"/>
       <c r="B247" s="19"/>
       <c r="C247" s="20"/>
       <c r="D247" s="20"/>
       <c r="E247" s="20"/>
       <c r="F247" s="20"/>
-      <c r="G247" s="160"/>
+      <c r="G247" s="162"/>
     </row>
     <row r="248" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A248" s="160"/>
+      <c r="A248" s="162"/>
       <c r="B248" s="19"/>
       <c r="C248" s="20"/>
       <c r="D248" s="20"/>
       <c r="E248" s="20"/>
       <c r="F248" s="20"/>
-      <c r="G248" s="160"/>
+      <c r="G248" s="162"/>
     </row>
     <row r="249" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A249" s="160"/>
+      <c r="A249" s="162"/>
       <c r="B249" s="19"/>
       <c r="C249" s="20"/>
       <c r="D249" s="20"/>
       <c r="E249" s="20"/>
       <c r="F249" s="20"/>
-      <c r="G249" s="160"/>
+      <c r="G249" s="162"/>
     </row>
     <row r="250" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A250" s="160"/>
+      <c r="A250" s="162"/>
       <c r="B250" s="19"/>
       <c r="C250" s="20"/>
       <c r="D250" s="20"/>
       <c r="E250" s="20"/>
       <c r="F250" s="20"/>
-      <c r="G250" s="160"/>
+      <c r="G250" s="162"/>
     </row>
     <row r="251" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A251" s="160"/>
+      <c r="A251" s="162"/>
       <c r="B251" s="19"/>
       <c r="C251" s="20"/>
       <c r="D251" s="20"/>
       <c r="E251" s="20"/>
       <c r="F251" s="20"/>
-      <c r="G251" s="160"/>
+      <c r="G251" s="162"/>
     </row>
     <row r="252" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A252" s="160"/>
+      <c r="A252" s="162"/>
       <c r="B252" s="19"/>
       <c r="C252" s="20"/>
       <c r="D252" s="20"/>
       <c r="E252" s="20"/>
       <c r="F252" s="20"/>
-      <c r="G252" s="160"/>
+      <c r="G252" s="162"/>
     </row>
     <row r="253" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A253" s="160"/>
+      <c r="A253" s="162"/>
       <c r="B253" s="19"/>
       <c r="C253" s="20"/>
       <c r="D253" s="20"/>
       <c r="E253" s="20"/>
       <c r="F253" s="20"/>
-      <c r="G253" s="160"/>
+      <c r="G253" s="162"/>
     </row>
     <row r="254" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A254" s="160"/>
+      <c r="A254" s="162"/>
       <c r="B254" s="19"/>
       <c r="C254" s="20"/>
       <c r="D254" s="20"/>
       <c r="E254" s="20"/>
       <c r="F254" s="20"/>
-      <c r="G254" s="160"/>
+      <c r="G254" s="162"/>
     </row>
     <row r="255" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A255" s="160"/>
+      <c r="A255" s="162"/>
       <c r="B255" s="19"/>
       <c r="C255" s="20"/>
       <c r="D255" s="20"/>
       <c r="E255" s="20"/>
       <c r="F255" s="20"/>
-      <c r="G255" s="160"/>
+      <c r="G255" s="162"/>
     </row>
     <row r="256" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A256" s="160"/>
+      <c r="A256" s="162"/>
       <c r="B256" s="19"/>
       <c r="C256" s="20"/>
       <c r="D256" s="20"/>
       <c r="E256" s="20"/>
       <c r="F256" s="20"/>
-      <c r="G256" s="160"/>
+      <c r="G256" s="162"/>
     </row>
     <row r="257" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A257" s="160"/>
+      <c r="A257" s="162"/>
       <c r="B257" s="19"/>
       <c r="C257" s="20"/>
       <c r="D257" s="20"/>
       <c r="E257" s="20"/>
       <c r="F257" s="20"/>
-      <c r="G257" s="160"/>
+      <c r="G257" s="162"/>
     </row>
     <row r="258" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A258" s="160"/>
+      <c r="A258" s="162"/>
       <c r="B258" s="19"/>
       <c r="C258" s="20"/>
       <c r="D258" s="20"/>
       <c r="E258" s="20"/>
       <c r="F258" s="20"/>
-      <c r="G258" s="160"/>
+      <c r="G258" s="162"/>
     </row>
     <row r="259" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A259" s="160"/>
+      <c r="A259" s="162"/>
       <c r="B259" s="19"/>
       <c r="C259" s="20"/>
       <c r="D259" s="20"/>
       <c r="E259" s="20"/>
       <c r="F259" s="20"/>
-      <c r="G259" s="160"/>
+      <c r="G259" s="162"/>
     </row>
     <row r="260" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A260" s="160"/>
+      <c r="A260" s="162"/>
       <c r="B260" s="19"/>
       <c r="C260" s="20"/>
       <c r="D260" s="20"/>
       <c r="E260" s="20"/>
       <c r="F260" s="20"/>
-      <c r="G260" s="160"/>
+      <c r="G260" s="162"/>
     </row>
     <row r="261" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A261" s="160"/>
+      <c r="A261" s="162"/>
       <c r="B261" s="19"/>
       <c r="C261" s="20"/>
       <c r="D261" s="20"/>
       <c r="E261" s="20"/>
       <c r="F261" s="20"/>
-      <c r="G261" s="160"/>
+      <c r="G261" s="162"/>
     </row>
     <row r="262" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A262" s="160"/>
+      <c r="A262" s="162"/>
       <c r="B262" s="19"/>
       <c r="C262" s="20"/>
       <c r="D262" s="20"/>
       <c r="E262" s="20"/>
       <c r="F262" s="20"/>
-      <c r="G262" s="160"/>
+      <c r="G262" s="162"/>
     </row>
     <row r="263" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A263" s="160"/>
+      <c r="A263" s="162"/>
       <c r="B263" s="19"/>
       <c r="C263" s="20"/>
       <c r="D263" s="20"/>
       <c r="E263" s="20"/>
       <c r="F263" s="20"/>
-      <c r="G263" s="160"/>
+      <c r="G263" s="162"/>
     </row>
     <row r="264" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A264" s="160"/>
+      <c r="A264" s="162"/>
       <c r="B264" s="19"/>
       <c r="C264" s="20"/>
       <c r="D264" s="20"/>
       <c r="E264" s="20"/>
       <c r="F264" s="20"/>
-      <c r="G264" s="160"/>
+      <c r="G264" s="162"/>
     </row>
     <row r="265" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A265" s="160"/>
+      <c r="A265" s="162"/>
       <c r="B265" s="19"/>
       <c r="C265" s="20"/>
       <c r="D265" s="20"/>
       <c r="E265" s="20"/>
       <c r="F265" s="20"/>
-      <c r="G265" s="160"/>
+      <c r="G265" s="162"/>
     </row>
     <row r="266" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A266" s="160"/>
+      <c r="A266" s="162"/>
       <c r="B266" s="19"/>
       <c r="C266" s="20"/>
       <c r="D266" s="20"/>
       <c r="E266" s="20"/>
       <c r="F266" s="20"/>
-      <c r="G266" s="160"/>
+      <c r="G266" s="162"/>
     </row>
     <row r="267" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A267" s="160"/>
+      <c r="A267" s="162"/>
       <c r="B267" s="19"/>
       <c r="C267" s="20"/>
       <c r="D267" s="20"/>
       <c r="E267" s="20"/>
       <c r="F267" s="20"/>
-      <c r="G267" s="160"/>
+      <c r="G267" s="162"/>
     </row>
     <row r="268" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A268" s="160"/>
+      <c r="A268" s="162"/>
       <c r="B268" s="19"/>
       <c r="C268" s="20"/>
       <c r="D268" s="20"/>
       <c r="E268" s="20"/>
       <c r="F268" s="20"/>
-      <c r="G268" s="160"/>
+      <c r="G268" s="162"/>
     </row>
     <row r="269" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A269" s="160"/>
+      <c r="A269" s="162"/>
       <c r="B269" s="19"/>
       <c r="C269" s="20"/>
       <c r="D269" s="20"/>
       <c r="E269" s="20"/>
       <c r="F269" s="20"/>
-      <c r="G269" s="160"/>
+      <c r="G269" s="162"/>
     </row>
     <row r="270" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A270" s="160"/>
+      <c r="A270" s="162"/>
       <c r="B270" s="19"/>
       <c r="C270" s="20"/>
       <c r="D270" s="20"/>
       <c r="E270" s="20"/>
       <c r="F270" s="20"/>
-      <c r="G270" s="160"/>
+      <c r="G270" s="162"/>
     </row>
     <row r="271" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A271" s="160"/>
+      <c r="A271" s="162"/>
       <c r="B271" s="19"/>
       <c r="C271" s="20"/>
       <c r="D271" s="20"/>
       <c r="E271" s="20"/>
       <c r="F271" s="20"/>
-      <c r="G271" s="160"/>
+      <c r="G271" s="162"/>
     </row>
     <row r="272" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A272" s="160"/>
+      <c r="A272" s="162"/>
       <c r="B272" s="19"/>
       <c r="C272" s="20"/>
       <c r="D272" s="20"/>
       <c r="E272" s="20"/>
       <c r="F272" s="20"/>
-      <c r="G272" s="160"/>
+      <c r="G272" s="162"/>
     </row>
     <row r="273" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A273" s="160"/>
+      <c r="A273" s="162"/>
       <c r="B273" s="19"/>
       <c r="C273" s="20"/>
       <c r="D273" s="20"/>
       <c r="E273" s="20"/>
       <c r="F273" s="20"/>
-      <c r="G273" s="160"/>
+      <c r="G273" s="162"/>
     </row>
     <row r="274" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A274" s="160"/>
+      <c r="A274" s="162"/>
       <c r="B274" s="19"/>
       <c r="C274" s="20"/>
       <c r="D274" s="20"/>
       <c r="E274" s="20"/>
       <c r="F274" s="20"/>
-      <c r="G274" s="160"/>
+      <c r="G274" s="162"/>
     </row>
     <row r="275" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A275" s="160"/>
+      <c r="A275" s="162"/>
       <c r="B275" s="19"/>
       <c r="C275" s="20"/>
       <c r="D275" s="20"/>
       <c r="E275" s="20"/>
       <c r="F275" s="20"/>
-      <c r="G275" s="160"/>
+      <c r="G275" s="162"/>
     </row>
     <row r="276" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A276" s="160"/>
+      <c r="A276" s="162"/>
       <c r="B276" s="19"/>
       <c r="C276" s="20"/>
       <c r="D276" s="20"/>
       <c r="E276" s="20"/>
       <c r="F276" s="20"/>
-      <c r="G276" s="160"/>
+      <c r="G276" s="162"/>
     </row>
     <row r="277" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A277" s="160"/>
+      <c r="A277" s="162"/>
       <c r="B277" s="19"/>
       <c r="C277" s="20"/>
       <c r="D277" s="20"/>
       <c r="E277" s="20"/>
       <c r="F277" s="20"/>
-      <c r="G277" s="160"/>
+      <c r="G277" s="162"/>
     </row>
     <row r="278" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A278" s="160"/>
+      <c r="A278" s="162"/>
       <c r="B278" s="19"/>
       <c r="C278" s="20"/>
       <c r="D278" s="20"/>
       <c r="E278" s="20"/>
       <c r="F278" s="20"/>
-      <c r="G278" s="160"/>
+      <c r="G278" s="162"/>
     </row>
     <row r="279" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A279" s="160"/>
+      <c r="A279" s="162"/>
       <c r="B279" s="19"/>
       <c r="C279" s="20"/>
       <c r="D279" s="20"/>
       <c r="E279" s="20"/>
       <c r="F279" s="20"/>
-      <c r="G279" s="160"/>
+      <c r="G279" s="162"/>
     </row>
     <row r="280" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A280" s="160"/>
+      <c r="A280" s="162"/>
       <c r="B280" s="19"/>
       <c r="C280" s="20"/>
       <c r="D280" s="20"/>
       <c r="E280" s="20"/>
       <c r="F280" s="20"/>
-      <c r="G280" s="160"/>
+      <c r="G280" s="162"/>
     </row>
     <row r="281" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A281" s="160"/>
+      <c r="A281" s="162"/>
       <c r="B281" s="19"/>
       <c r="C281" s="20"/>
       <c r="D281" s="20"/>
       <c r="E281" s="20"/>
       <c r="F281" s="20"/>
-      <c r="G281" s="160"/>
+      <c r="G281" s="162"/>
     </row>
     <row r="282" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A282" s="160"/>
+      <c r="A282" s="162"/>
       <c r="B282" s="19"/>
       <c r="C282" s="20"/>
       <c r="D282" s="20"/>
       <c r="E282" s="20"/>
       <c r="F282" s="20"/>
-      <c r="G282" s="160"/>
+      <c r="G282" s="162"/>
     </row>
     <row r="283" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A283" s="160"/>
+      <c r="A283" s="162"/>
       <c r="B283" s="19"/>
       <c r="C283" s="20"/>
       <c r="D283" s="20"/>
       <c r="E283" s="20"/>
       <c r="F283" s="20"/>
-      <c r="G283" s="160"/>
+      <c r="G283" s="162"/>
     </row>
     <row r="284" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A284" s="160"/>
+      <c r="A284" s="162"/>
       <c r="B284" s="19"/>
       <c r="C284" s="20"/>
       <c r="D284" s="20"/>
       <c r="E284" s="20"/>
       <c r="F284" s="20"/>
-      <c r="G284" s="160"/>
+      <c r="G284" s="162"/>
     </row>
     <row r="285" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A285" s="160"/>
+      <c r="A285" s="162"/>
       <c r="B285" s="19"/>
       <c r="C285" s="20"/>
       <c r="D285" s="20"/>
       <c r="E285" s="20"/>
       <c r="F285" s="20"/>
-      <c r="G285" s="160"/>
+      <c r="G285" s="162"/>
     </row>
     <row r="286" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A286" s="160"/>
+      <c r="A286" s="162"/>
       <c r="B286" s="19"/>
       <c r="C286" s="20"/>
       <c r="D286" s="20"/>
       <c r="E286" s="20"/>
       <c r="F286" s="20"/>
-      <c r="G286" s="160"/>
+      <c r="G286" s="162"/>
     </row>
     <row r="287" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A287" s="160"/>
+      <c r="A287" s="162"/>
       <c r="B287" s="19"/>
       <c r="C287" s="20"/>
       <c r="D287" s="20"/>
       <c r="E287" s="20"/>
       <c r="F287" s="20"/>
-      <c r="G287" s="160"/>
+      <c r="G287" s="162"/>
     </row>
     <row r="288" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A288" s="160"/>
+      <c r="A288" s="162"/>
       <c r="B288" s="19"/>
       <c r="C288" s="20"/>
       <c r="D288" s="20"/>
       <c r="E288" s="20"/>
       <c r="F288" s="20"/>
-      <c r="G288" s="160"/>
+      <c r="G288" s="162"/>
     </row>
     <row r="289" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A289" s="160"/>
+      <c r="A289" s="162"/>
       <c r="B289" s="19"/>
       <c r="C289" s="20"/>
       <c r="D289" s="20"/>
       <c r="E289" s="20"/>
       <c r="F289" s="20"/>
-      <c r="G289" s="160"/>
+      <c r="G289" s="162"/>
     </row>
     <row r="290" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A290" s="160"/>
+      <c r="A290" s="162"/>
       <c r="B290" s="19"/>
       <c r="C290" s="20"/>
       <c r="D290" s="20"/>
       <c r="E290" s="20"/>
       <c r="F290" s="20"/>
-      <c r="G290" s="160"/>
+      <c r="G290" s="162"/>
     </row>
     <row r="291" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A291" s="160"/>
+      <c r="A291" s="162"/>
       <c r="B291" s="19"/>
       <c r="C291" s="20"/>
       <c r="D291" s="20"/>
       <c r="E291" s="20"/>
       <c r="F291" s="20"/>
-      <c r="G291" s="160"/>
+      <c r="G291" s="162"/>
     </row>
     <row r="292" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A292" s="160"/>
+      <c r="A292" s="162"/>
       <c r="B292" s="19"/>
       <c r="C292" s="20"/>
       <c r="D292" s="20"/>
       <c r="E292" s="20"/>
       <c r="F292" s="20"/>
-      <c r="G292" s="160"/>
+      <c r="G292" s="162"/>
     </row>
     <row r="293" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A293" s="160"/>
+      <c r="A293" s="162"/>
       <c r="B293" s="19"/>
       <c r="C293" s="20"/>
       <c r="D293" s="20"/>
       <c r="E293" s="20"/>
       <c r="F293" s="20"/>
-      <c r="G293" s="160"/>
+      <c r="G293" s="162"/>
     </row>
     <row r="294" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A294" s="160"/>
+      <c r="A294" s="162"/>
       <c r="B294" s="19"/>
       <c r="C294" s="20"/>
       <c r="D294" s="20"/>
       <c r="E294" s="20"/>
       <c r="F294" s="20"/>
-      <c r="G294" s="160"/>
+      <c r="G294" s="162"/>
     </row>
     <row r="295" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A295" s="160"/>
+      <c r="A295" s="162"/>
       <c r="B295" s="19"/>
       <c r="C295" s="20"/>
       <c r="D295" s="20"/>
       <c r="E295" s="20"/>
       <c r="F295" s="20"/>
-      <c r="G295" s="160"/>
+      <c r="G295" s="162"/>
     </row>
     <row r="296" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A296" s="160"/>
+      <c r="A296" s="162"/>
       <c r="B296" s="19"/>
       <c r="C296" s="20"/>
       <c r="D296" s="20"/>
       <c r="E296" s="20"/>
       <c r="F296" s="20"/>
-      <c r="G296" s="160"/>
+      <c r="G296" s="162"/>
     </row>
     <row r="297" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A297" s="160"/>
+      <c r="A297" s="162"/>
       <c r="B297" s="19"/>
       <c r="C297" s="20"/>
       <c r="D297" s="20"/>
       <c r="E297" s="20"/>
       <c r="F297" s="20"/>
-      <c r="G297" s="160"/>
+      <c r="G297" s="162"/>
     </row>
     <row r="298" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A298" s="160"/>
+      <c r="A298" s="162"/>
       <c r="B298" s="19"/>
       <c r="C298" s="20"/>
       <c r="D298" s="20"/>
       <c r="E298" s="20"/>
       <c r="F298" s="20"/>
-      <c r="G298" s="160"/>
+      <c r="G298" s="162"/>
     </row>
     <row r="299" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A299" s="160"/>
+      <c r="A299" s="162"/>
       <c r="B299" s="19"/>
       <c r="C299" s="20"/>
       <c r="D299" s="20"/>
       <c r="E299" s="20"/>
       <c r="F299" s="20"/>
-      <c r="G299" s="160"/>
+      <c r="G299" s="162"/>
     </row>
     <row r="300" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A300" s="160"/>
+      <c r="A300" s="162"/>
       <c r="B300" s="19"/>
       <c r="C300" s="20"/>
       <c r="D300" s="20"/>
       <c r="E300" s="20"/>
       <c r="F300" s="20"/>
-      <c r="G300" s="160"/>
+      <c r="G300" s="162"/>
     </row>
     <row r="301" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A301" s="160"/>
+      <c r="A301" s="162"/>
       <c r="B301" s="19"/>
       <c r="C301" s="20"/>
       <c r="D301" s="20"/>
       <c r="E301" s="20"/>
       <c r="F301" s="20"/>
-      <c r="G301" s="160"/>
+      <c r="G301" s="162"/>
     </row>
     <row r="302" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A302" s="160"/>
+      <c r="A302" s="162"/>
       <c r="B302" s="19"/>
       <c r="C302" s="20"/>
       <c r="D302" s="20"/>
       <c r="E302" s="20"/>
       <c r="F302" s="20"/>
-      <c r="G302" s="160"/>
+      <c r="G302" s="162"/>
     </row>
     <row r="303" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A303" s="160"/>
+      <c r="A303" s="162"/>
       <c r="B303" s="19"/>
       <c r="C303" s="20"/>
       <c r="D303" s="20"/>
       <c r="E303" s="20"/>
       <c r="F303" s="20"/>
-      <c r="G303" s="160"/>
+      <c r="G303" s="162"/>
     </row>
     <row r="304" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A304" s="160"/>
+      <c r="A304" s="162"/>
       <c r="B304" s="19"/>
       <c r="C304" s="20"/>
       <c r="D304" s="20"/>
       <c r="E304" s="20"/>
       <c r="F304" s="20"/>
-      <c r="G304" s="160"/>
+      <c r="G304" s="162"/>
     </row>
     <row r="305" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A305" s="160"/>
+      <c r="A305" s="162"/>
       <c r="B305" s="19"/>
       <c r="C305" s="20"/>
       <c r="D305" s="20"/>
       <c r="E305" s="20"/>
       <c r="F305" s="20"/>
-      <c r="G305" s="160"/>
+      <c r="G305" s="162"/>
     </row>
     <row r="306" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A306" s="160"/>
+      <c r="A306" s="162"/>
       <c r="B306" s="19"/>
       <c r="C306" s="20"/>
       <c r="D306" s="20"/>
       <c r="E306" s="20"/>
       <c r="F306" s="20"/>
-      <c r="G306" s="160"/>
+      <c r="G306" s="162"/>
     </row>
     <row r="307" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A307" s="160"/>
+      <c r="A307" s="162"/>
       <c r="B307" s="19"/>
       <c r="C307" s="20"/>
       <c r="D307" s="20"/>
       <c r="E307" s="20"/>
       <c r="F307" s="20"/>
-      <c r="G307" s="160"/>
+      <c r="G307" s="162"/>
     </row>
     <row r="308" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A308" s="160"/>
+      <c r="A308" s="162"/>
       <c r="B308" s="19"/>
       <c r="C308" s="20"/>
       <c r="D308" s="20"/>
       <c r="E308" s="20"/>
       <c r="F308" s="20"/>
-      <c r="G308" s="160"/>
+      <c r="G308" s="162"/>
     </row>
     <row r="309" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A309" s="160"/>
+      <c r="A309" s="162"/>
       <c r="B309" s="19"/>
       <c r="C309" s="20"/>
       <c r="D309" s="20"/>
       <c r="E309" s="20"/>
       <c r="F309" s="20"/>
-      <c r="G309" s="160"/>
+      <c r="G309" s="162"/>
     </row>
     <row r="310" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A310" s="160"/>
+      <c r="A310" s="162"/>
       <c r="B310" s="19"/>
       <c r="C310" s="20"/>
       <c r="D310" s="20"/>
       <c r="E310" s="20"/>
       <c r="F310" s="20"/>
-      <c r="G310" s="160"/>
+      <c r="G310" s="162"/>
     </row>
     <row r="311" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A311" s="160"/>
+      <c r="A311" s="162"/>
       <c r="B311" s="19"/>
       <c r="C311" s="20"/>
       <c r="D311" s="20"/>
       <c r="E311" s="20"/>
       <c r="F311" s="20"/>
-      <c r="G311" s="160"/>
+      <c r="G311" s="162"/>
     </row>
     <row r="312" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A312" s="160"/>
+      <c r="A312" s="162"/>
       <c r="B312" s="19"/>
       <c r="C312" s="20"/>
       <c r="D312" s="20"/>
       <c r="E312" s="20"/>
       <c r="F312" s="20"/>
-      <c r="G312" s="160"/>
+      <c r="G312" s="162"/>
     </row>
     <row r="313" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A313" s="160"/>
+      <c r="A313" s="162"/>
       <c r="B313" s="19"/>
       <c r="C313" s="20"/>
       <c r="D313" s="20"/>
       <c r="E313" s="20"/>
       <c r="F313" s="20"/>
-      <c r="G313" s="160"/>
+      <c r="G313" s="162"/>
     </row>
     <row r="314" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A314" s="160"/>
+      <c r="A314" s="162"/>
       <c r="B314" s="19"/>
       <c r="C314" s="20"/>
       <c r="D314" s="20"/>
       <c r="E314" s="20"/>
       <c r="F314" s="20"/>
-      <c r="G314" s="160"/>
+      <c r="G314" s="162"/>
     </row>
     <row r="315" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A315" s="160"/>
+      <c r="A315" s="162"/>
       <c r="B315" s="19"/>
       <c r="C315" s="20"/>
       <c r="D315" s="20"/>
       <c r="E315" s="20"/>
       <c r="F315" s="20"/>
-      <c r="G315" s="160"/>
+      <c r="G315" s="162"/>
     </row>
     <row r="316" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A316" s="160"/>
+      <c r="A316" s="162"/>
       <c r="B316" s="19"/>
       <c r="C316" s="20"/>
       <c r="D316" s="20"/>
       <c r="E316" s="20"/>
       <c r="F316" s="20"/>
-      <c r="G316" s="160"/>
+      <c r="G316" s="162"/>
     </row>
     <row r="317" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A317" s="160"/>
+      <c r="A317" s="162"/>
       <c r="B317" s="19"/>
       <c r="C317" s="20"/>
       <c r="D317" s="20"/>
       <c r="E317" s="20"/>
       <c r="F317" s="20"/>
-      <c r="G317" s="160"/>
+      <c r="G317" s="162"/>
     </row>
     <row r="318" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A318" s="160"/>
+      <c r="A318" s="162"/>
       <c r="B318" s="19"/>
       <c r="C318" s="20"/>
       <c r="D318" s="20"/>
       <c r="E318" s="20"/>
       <c r="F318" s="20"/>
-      <c r="G318" s="160"/>
+      <c r="G318" s="162"/>
     </row>
     <row r="319" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A319" s="160"/>
+      <c r="A319" s="162"/>
       <c r="B319" s="19"/>
       <c r="C319" s="20"/>
       <c r="D319" s="20"/>
       <c r="E319" s="20"/>
       <c r="F319" s="20"/>
-      <c r="G319" s="160"/>
+      <c r="G319" s="162"/>
     </row>
     <row r="320" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A320" s="160"/>
+      <c r="A320" s="162"/>
       <c r="B320" s="19"/>
       <c r="C320" s="20"/>
       <c r="D320" s="20"/>
       <c r="E320" s="20"/>
       <c r="F320" s="20"/>
-      <c r="G320" s="160"/>
+      <c r="G320" s="162"/>
     </row>
     <row r="321" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A321" s="160"/>
+      <c r="A321" s="162"/>
       <c r="B321" s="19"/>
       <c r="C321" s="20"/>
       <c r="D321" s="20"/>
       <c r="E321" s="20"/>
       <c r="F321" s="20"/>
-      <c r="G321" s="160"/>
+      <c r="G321" s="162"/>
     </row>
     <row r="322" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A322" s="160"/>
+      <c r="A322" s="162"/>
       <c r="B322" s="19"/>
       <c r="C322" s="20"/>
       <c r="D322" s="20"/>
       <c r="E322" s="20"/>
       <c r="F322" s="20"/>
-      <c r="G322" s="160"/>
+      <c r="G322" s="162"/>
     </row>
     <row r="323" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A323" s="160"/>
+      <c r="A323" s="162"/>
       <c r="B323" s="19"/>
       <c r="C323" s="20"/>
       <c r="D323" s="20"/>
       <c r="E323" s="20"/>
       <c r="F323" s="20"/>
-      <c r="G323" s="160"/>
+      <c r="G323" s="162"/>
     </row>
     <row r="324" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A324" s="160"/>
+      <c r="A324" s="162"/>
       <c r="B324" s="19"/>
       <c r="C324" s="20"/>
       <c r="D324" s="20"/>
       <c r="E324" s="20"/>
       <c r="F324" s="20"/>
-      <c r="G324" s="160"/>
+      <c r="G324" s="162"/>
     </row>
     <row r="325" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A325" s="160"/>
+      <c r="A325" s="162"/>
       <c r="B325" s="19"/>
       <c r="C325" s="20"/>
       <c r="D325" s="20"/>
       <c r="E325" s="20"/>
       <c r="F325" s="20"/>
-      <c r="G325" s="160"/>
+      <c r="G325" s="162"/>
     </row>
     <row r="326" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A326" s="160"/>
+      <c r="A326" s="162"/>
       <c r="B326" s="19"/>
       <c r="C326" s="20"/>
       <c r="D326" s="20"/>
       <c r="E326" s="20"/>
       <c r="F326" s="20"/>
-      <c r="G326" s="160"/>
+      <c r="G326" s="162"/>
     </row>
     <row r="327" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A327" s="160"/>
+      <c r="A327" s="162"/>
       <c r="B327" s="19"/>
       <c r="C327" s="20"/>
       <c r="D327" s="20"/>
       <c r="E327" s="20"/>
       <c r="F327" s="20"/>
-      <c r="G327" s="160"/>
+      <c r="G327" s="162"/>
     </row>
     <row r="328" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A328" s="160"/>
+      <c r="A328" s="162"/>
       <c r="B328" s="19"/>
       <c r="C328" s="20"/>
       <c r="D328" s="20"/>
       <c r="E328" s="20"/>
       <c r="F328" s="20"/>
-      <c r="G328" s="160"/>
+      <c r="G328" s="162"/>
     </row>
     <row r="329" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A329" s="160"/>
+      <c r="A329" s="162"/>
       <c r="B329" s="19"/>
       <c r="C329" s="20"/>
       <c r="D329" s="20"/>
       <c r="E329" s="20"/>
       <c r="F329" s="20"/>
-      <c r="G329" s="160"/>
+      <c r="G329" s="162"/>
     </row>
     <row r="330" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A330" s="160"/>
+      <c r="A330" s="162"/>
       <c r="B330" s="19"/>
       <c r="C330" s="20"/>
       <c r="D330" s="20"/>
       <c r="E330" s="20"/>
       <c r="F330" s="20"/>
-      <c r="G330" s="160"/>
+      <c r="G330" s="162"/>
     </row>
     <row r="331" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A331" s="160"/>
+      <c r="A331" s="162"/>
       <c r="B331" s="19"/>
       <c r="C331" s="20"/>
       <c r="D331" s="20"/>
       <c r="E331" s="20"/>
       <c r="F331" s="20"/>
-      <c r="G331" s="160"/>
+      <c r="G331" s="162"/>
     </row>
     <row r="332" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A332" s="160"/>
+      <c r="A332" s="162"/>
       <c r="B332" s="19"/>
       <c r="C332" s="20"/>
       <c r="D332" s="20"/>
       <c r="E332" s="20"/>
       <c r="F332" s="20"/>
-      <c r="G332" s="160"/>
+      <c r="G332" s="162"/>
     </row>
     <row r="333" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A333" s="160"/>
+      <c r="A333" s="162"/>
       <c r="B333" s="19"/>
       <c r="C333" s="20"/>
       <c r="D333" s="20"/>
       <c r="E333" s="20"/>
       <c r="F333" s="20"/>
-      <c r="G333" s="160"/>
+      <c r="G333" s="162"/>
     </row>
     <row r="334" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A334" s="160"/>
+      <c r="A334" s="162"/>
       <c r="B334" s="19"/>
       <c r="C334" s="20"/>
       <c r="D334" s="20"/>
       <c r="E334" s="20"/>
       <c r="F334" s="20"/>
-      <c r="G334" s="160"/>
+      <c r="G334" s="162"/>
     </row>
     <row r="335" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A335" s="160"/>
+      <c r="A335" s="162"/>
       <c r="B335" s="19"/>
       <c r="C335" s="20"/>
       <c r="D335" s="20"/>
       <c r="E335" s="20"/>
       <c r="F335" s="20"/>
-      <c r="G335" s="160"/>
+      <c r="G335" s="162"/>
     </row>
     <row r="336" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A336" s="160"/>
+      <c r="A336" s="162"/>
       <c r="B336" s="19"/>
       <c r="C336" s="20"/>
       <c r="D336" s="20"/>
       <c r="E336" s="20"/>
       <c r="F336" s="20"/>
-      <c r="G336" s="160"/>
+      <c r="G336" s="162"/>
     </row>
     <row r="337" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A337" s="160"/>
+      <c r="A337" s="162"/>
       <c r="B337" s="19"/>
       <c r="C337" s="20"/>
       <c r="D337" s="20"/>
       <c r="E337" s="20"/>
       <c r="F337" s="20"/>
-      <c r="G337" s="160"/>
+      <c r="G337" s="162"/>
     </row>
     <row r="338" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A338" s="160"/>
+      <c r="A338" s="162"/>
       <c r="B338" s="19"/>
       <c r="C338" s="20"/>
       <c r="D338" s="20"/>
       <c r="E338" s="20"/>
       <c r="F338" s="20"/>
-      <c r="G338" s="160"/>
+      <c r="G338" s="162"/>
     </row>
     <row r="339" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A339" s="160"/>
+      <c r="A339" s="162"/>
       <c r="B339" s="19"/>
       <c r="C339" s="20"/>
       <c r="D339" s="20"/>
       <c r="E339" s="20"/>
       <c r="F339" s="20"/>
-      <c r="G339" s="160"/>
+      <c r="G339" s="162"/>
     </row>
     <row r="340" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A340" s="160"/>
+      <c r="A340" s="162"/>
       <c r="B340" s="19"/>
       <c r="C340" s="20"/>
       <c r="D340" s="20"/>
       <c r="E340" s="20"/>
       <c r="F340" s="20"/>
-      <c r="G340" s="160"/>
+      <c r="G340" s="162"/>
     </row>
     <row r="341" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A341" s="160"/>
+      <c r="A341" s="162"/>
       <c r="B341" s="19"/>
       <c r="C341" s="20"/>
       <c r="D341" s="20"/>
       <c r="E341" s="20"/>
       <c r="F341" s="20"/>
-      <c r="G341" s="160"/>
+      <c r="G341" s="162"/>
     </row>
     <row r="342" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A342" s="160"/>
+      <c r="A342" s="162"/>
       <c r="B342" s="19"/>
       <c r="C342" s="20"/>
       <c r="D342" s="20"/>
       <c r="E342" s="20"/>
       <c r="F342" s="20"/>
-      <c r="G342" s="160"/>
+      <c r="G342" s="162"/>
     </row>
     <row r="343" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A343" s="160"/>
+      <c r="A343" s="162"/>
       <c r="B343" s="19"/>
       <c r="C343" s="20"/>
       <c r="D343" s="20"/>
       <c r="E343" s="20"/>
       <c r="F343" s="20"/>
-      <c r="G343" s="160"/>
+      <c r="G343" s="162"/>
     </row>
     <row r="344" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A344" s="160"/>
+      <c r="A344" s="162"/>
       <c r="B344" s="19"/>
       <c r="C344" s="20"/>
       <c r="D344" s="20"/>
       <c r="E344" s="20"/>
       <c r="F344" s="20"/>
-      <c r="G344" s="160"/>
+      <c r="G344" s="162"/>
     </row>
     <row r="345" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A345" s="160"/>
+      <c r="A345" s="162"/>
       <c r="B345" s="19"/>
       <c r="C345" s="20"/>
       <c r="D345" s="20"/>
       <c r="E345" s="20"/>
       <c r="F345" s="20"/>
-      <c r="G345" s="160"/>
+      <c r="G345" s="162"/>
     </row>
     <row r="346" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A346" s="160"/>
+      <c r="A346" s="162"/>
       <c r="B346" s="19"/>
       <c r="C346" s="20"/>
       <c r="D346" s="20"/>
       <c r="E346" s="20"/>
       <c r="F346" s="20"/>
-      <c r="G346" s="160"/>
+      <c r="G346" s="162"/>
     </row>
     <row r="347" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A347" s="160"/>
+      <c r="A347" s="162"/>
       <c r="B347" s="19"/>
       <c r="C347" s="20"/>
       <c r="D347" s="20"/>
       <c r="E347" s="20"/>
       <c r="F347" s="20"/>
-      <c r="G347" s="160"/>
+      <c r="G347" s="162"/>
     </row>
     <row r="348" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A348" s="160"/>
+      <c r="A348" s="162"/>
       <c r="B348" s="19"/>
       <c r="C348" s="20"/>
       <c r="D348" s="20"/>
       <c r="E348" s="20"/>
       <c r="F348" s="20"/>
-      <c r="G348" s="160"/>
+      <c r="G348" s="162"/>
     </row>
     <row r="349" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A349" s="160"/>
+      <c r="A349" s="162"/>
       <c r="B349" s="19"/>
       <c r="C349" s="20"/>
       <c r="D349" s="20"/>
       <c r="E349" s="20"/>
       <c r="F349" s="20"/>
-      <c r="G349" s="160"/>
+      <c r="G349" s="162"/>
     </row>
     <row r="350" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A350" s="160"/>
+      <c r="A350" s="162"/>
       <c r="B350" s="19"/>
       <c r="C350" s="20"/>
       <c r="D350" s="20"/>
       <c r="E350" s="20"/>
       <c r="F350" s="20"/>
-      <c r="G350" s="160"/>
+      <c r="G350" s="162"/>
     </row>
     <row r="351" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A351" s="160"/>
+      <c r="A351" s="162"/>
       <c r="B351" s="19"/>
       <c r="C351" s="20"/>
       <c r="D351" s="20"/>
       <c r="E351" s="20"/>
       <c r="F351" s="20"/>
-      <c r="G351" s="160"/>
+      <c r="G351" s="162"/>
     </row>
     <row r="352" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A352" s="160"/>
+      <c r="A352" s="162"/>
       <c r="B352" s="19"/>
       <c r="C352" s="20"/>
       <c r="D352" s="20"/>
       <c r="E352" s="20"/>
       <c r="F352" s="20"/>
-      <c r="G352" s="160"/>
+      <c r="G352" s="162"/>
     </row>
     <row r="353" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A353" s="160"/>
+      <c r="A353" s="162"/>
       <c r="B353" s="19"/>
       <c r="C353" s="20"/>
       <c r="D353" s="20"/>
       <c r="E353" s="20"/>
       <c r="F353" s="20"/>
-      <c r="G353" s="160"/>
+      <c r="G353" s="162"/>
     </row>
     <row r="354" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A354" s="160"/>
+      <c r="A354" s="162"/>
       <c r="B354" s="19"/>
       <c r="C354" s="20"/>
       <c r="D354" s="20"/>
       <c r="E354" s="20"/>
       <c r="F354" s="20"/>
-      <c r="G354" s="160"/>
+      <c r="G354" s="162"/>
     </row>
     <row r="355" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A355" s="160"/>
+      <c r="A355" s="162"/>
       <c r="B355" s="19"/>
       <c r="C355" s="20"/>
       <c r="D355" s="20"/>
       <c r="E355" s="20"/>
       <c r="F355" s="20"/>
-      <c r="G355" s="160"/>
+      <c r="G355" s="162"/>
     </row>
     <row r="356" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A356" s="160"/>
+      <c r="A356" s="162"/>
       <c r="B356" s="19"/>
       <c r="C356" s="20"/>
       <c r="D356" s="20"/>
       <c r="E356" s="20"/>
       <c r="F356" s="20"/>
-      <c r="G356" s="160"/>
+      <c r="G356" s="162"/>
     </row>
     <row r="357" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A357" s="160"/>
+      <c r="A357" s="162"/>
       <c r="B357" s="19"/>
       <c r="C357" s="20"/>
       <c r="D357" s="20"/>
       <c r="E357" s="20"/>
       <c r="F357" s="20"/>
-      <c r="G357" s="160"/>
+      <c r="G357" s="162"/>
     </row>
     <row r="358" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A358" s="160"/>
+      <c r="A358" s="162"/>
       <c r="B358" s="19"/>
       <c r="C358" s="20"/>
       <c r="D358" s="20"/>
       <c r="E358" s="20"/>
       <c r="F358" s="20"/>
-      <c r="G358" s="160"/>
+      <c r="G358" s="162"/>
     </row>
     <row r="359" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A359" s="160"/>
+      <c r="A359" s="162"/>
       <c r="B359" s="19"/>
       <c r="C359" s="20"/>
       <c r="D359" s="20"/>
       <c r="E359" s="20"/>
       <c r="F359" s="20"/>
-      <c r="G359" s="160"/>
+      <c r="G359" s="162"/>
     </row>
     <row r="360" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A360" s="160"/>
+      <c r="A360" s="162"/>
       <c r="B360" s="19"/>
       <c r="C360" s="20"/>
       <c r="D360" s="20"/>
       <c r="E360" s="20"/>
       <c r="F360" s="20"/>
-      <c r="G360" s="160"/>
+      <c r="G360" s="162"/>
     </row>
     <row r="361" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A361" s="160"/>
+      <c r="A361" s="162"/>
       <c r="B361" s="19"/>
       <c r="C361" s="20"/>
       <c r="D361" s="20"/>
       <c r="E361" s="20"/>
       <c r="F361" s="20"/>
-      <c r="G361" s="160"/>
+      <c r="G361" s="162"/>
     </row>
     <row r="362" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A362" s="160"/>
+      <c r="A362" s="162"/>
       <c r="B362" s="19"/>
       <c r="C362" s="20"/>
       <c r="D362" s="20"/>
       <c r="E362" s="20"/>
       <c r="F362" s="20"/>
-      <c r="G362" s="160"/>
+      <c r="G362" s="162"/>
     </row>
     <row r="363" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A363" s="160"/>
+      <c r="A363" s="162"/>
       <c r="B363" s="19"/>
       <c r="C363" s="20"/>
       <c r="D363" s="20"/>
       <c r="E363" s="20"/>
       <c r="F363" s="20"/>
-      <c r="G363" s="160"/>
+      <c r="G363" s="162"/>
     </row>
     <row r="364" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A364" s="160"/>
+      <c r="A364" s="162"/>
       <c r="B364" s="19"/>
       <c r="C364" s="20"/>
       <c r="D364" s="20"/>
       <c r="E364" s="20"/>
       <c r="F364" s="20"/>
-      <c r="G364" s="160"/>
+      <c r="G364" s="162"/>
     </row>
     <row r="365" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A365" s="160"/>
+      <c r="A365" s="162"/>
       <c r="B365" s="19"/>
       <c r="C365" s="20"/>
       <c r="D365" s="20"/>
       <c r="E365" s="20"/>
       <c r="F365" s="20"/>
-      <c r="G365" s="160"/>
+      <c r="G365" s="162"/>
     </row>
     <row r="366" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A366" s="160"/>
+      <c r="A366" s="162"/>
       <c r="B366" s="19"/>
       <c r="C366" s="20"/>
       <c r="D366" s="20"/>
       <c r="E366" s="20"/>
       <c r="F366" s="20"/>
-      <c r="G366" s="160"/>
+      <c r="G366" s="162"/>
     </row>
     <row r="367" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A367" s="160"/>
+      <c r="A367" s="162"/>
       <c r="B367" s="19"/>
       <c r="C367" s="20"/>
       <c r="D367" s="20"/>
       <c r="E367" s="20"/>
       <c r="F367" s="20"/>
-      <c r="G367" s="160"/>
+      <c r="G367" s="162"/>
     </row>
     <row r="368" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A368" s="160"/>
+      <c r="A368" s="162"/>
       <c r="B368" s="19"/>
       <c r="C368" s="20"/>
       <c r="D368" s="20"/>
       <c r="E368" s="20"/>
       <c r="F368" s="20"/>
-      <c r="G368" s="160"/>
+      <c r="G368" s="162"/>
     </row>
     <row r="369" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A369" s="160"/>
+      <c r="A369" s="162"/>
       <c r="B369" s="19"/>
       <c r="C369" s="20"/>
       <c r="D369" s="20"/>
       <c r="E369" s="20"/>
       <c r="F369" s="20"/>
-      <c r="G369" s="160"/>
+      <c r="G369" s="162"/>
     </row>
     <row r="370" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A370" s="160"/>
+      <c r="A370" s="162"/>
       <c r="B370" s="19"/>
       <c r="C370" s="20"/>
       <c r="D370" s="20"/>
       <c r="E370" s="20"/>
       <c r="F370" s="20"/>
-      <c r="G370" s="160"/>
+      <c r="G370" s="162"/>
     </row>
     <row r="371" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A371" s="160"/>
+      <c r="A371" s="162"/>
       <c r="B371" s="19"/>
       <c r="C371" s="20"/>
       <c r="D371" s="20"/>
       <c r="E371" s="20"/>
       <c r="F371" s="20"/>
-      <c r="G371" s="160"/>
+      <c r="G371" s="162"/>
     </row>
     <row r="372" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A372" s="160"/>
+      <c r="A372" s="162"/>
       <c r="B372" s="19"/>
       <c r="C372" s="20"/>
       <c r="D372" s="20"/>
       <c r="E372" s="20"/>
       <c r="F372" s="20"/>
-      <c r="G372" s="160"/>
+      <c r="G372" s="162"/>
     </row>
     <row r="373" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A373" s="160"/>
+      <c r="A373" s="162"/>
       <c r="B373" s="19"/>
       <c r="C373" s="20"/>
       <c r="D373" s="20"/>
       <c r="E373" s="20"/>
       <c r="F373" s="20"/>
-      <c r="G373" s="160"/>
+      <c r="G373" s="162"/>
     </row>
     <row r="374" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A374" s="160"/>
+      <c r="A374" s="162"/>
       <c r="B374" s="19"/>
       <c r="C374" s="20"/>
       <c r="D374" s="20"/>
       <c r="E374" s="20"/>
       <c r="F374" s="20"/>
-      <c r="G374" s="160"/>
+      <c r="G374" s="162"/>
     </row>
     <row r="375" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A375" s="160"/>
+      <c r="A375" s="162"/>
       <c r="B375" s="19"/>
       <c r="C375" s="20"/>
       <c r="D375" s="20"/>
       <c r="E375" s="20"/>
       <c r="F375" s="20"/>
-      <c r="G375" s="160"/>
+      <c r="G375" s="162"/>
     </row>
     <row r="376" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A376" s="160"/>
+      <c r="A376" s="162"/>
       <c r="B376" s="19"/>
       <c r="C376" s="20"/>
       <c r="D376" s="20"/>
       <c r="E376" s="20"/>
       <c r="F376" s="20"/>
-      <c r="G376" s="160"/>
+      <c r="G376" s="162"/>
     </row>
     <row r="377" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A377" s="160"/>
+      <c r="A377" s="162"/>
       <c r="B377" s="19"/>
       <c r="C377" s="20"/>
       <c r="D377" s="20"/>
       <c r="E377" s="20"/>
       <c r="F377" s="20"/>
-      <c r="G377" s="160"/>
+      <c r="G377" s="162"/>
     </row>
     <row r="378" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A378" s="160"/>
+      <c r="A378" s="162"/>
       <c r="B378" s="19"/>
       <c r="C378" s="20"/>
       <c r="D378" s="20"/>
       <c r="E378" s="20"/>
       <c r="F378" s="20"/>
-      <c r="G378" s="160"/>
+      <c r="G378" s="162"/>
     </row>
     <row r="379" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A379" s="160"/>
+      <c r="A379" s="162"/>
       <c r="B379" s="19"/>
       <c r="C379" s="20"/>
       <c r="D379" s="20"/>
       <c r="E379" s="20"/>
       <c r="F379" s="20"/>
-      <c r="G379" s="160"/>
+      <c r="G379" s="162"/>
     </row>
     <row r="380" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A380" s="160"/>
+      <c r="A380" s="162"/>
       <c r="B380" s="19"/>
       <c r="C380" s="20"/>
       <c r="D380" s="20"/>
       <c r="E380" s="20"/>
       <c r="F380" s="20"/>
-      <c r="G380" s="160"/>
+      <c r="G380" s="162"/>
     </row>
     <row r="381" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A381" s="160"/>
+      <c r="A381" s="162"/>
       <c r="B381" s="19"/>
       <c r="C381" s="20"/>
       <c r="D381" s="20"/>
       <c r="E381" s="20"/>
       <c r="F381" s="20"/>
-      <c r="G381" s="160"/>
+      <c r="G381" s="162"/>
     </row>
     <row r="382" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A382" s="160"/>
+      <c r="A382" s="162"/>
       <c r="B382" s="19"/>
       <c r="C382" s="20"/>
       <c r="D382" s="20"/>
       <c r="E382" s="20"/>
       <c r="F382" s="20"/>
-      <c r="G382" s="160"/>
+      <c r="G382" s="162"/>
     </row>
     <row r="383" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A383" s="160"/>
+      <c r="A383" s="162"/>
       <c r="B383" s="19"/>
       <c r="C383" s="20"/>
       <c r="D383" s="20"/>
       <c r="E383" s="20"/>
       <c r="F383" s="20"/>
-      <c r="G383" s="160"/>
+      <c r="G383" s="162"/>
     </row>
     <row r="384" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A384" s="160"/>
+      <c r="A384" s="162"/>
       <c r="B384" s="19"/>
       <c r="C384" s="20"/>
       <c r="D384" s="20"/>
       <c r="E384" s="20"/>
       <c r="F384" s="20"/>
-      <c r="G384" s="160"/>
+      <c r="G384" s="162"/>
     </row>
     <row r="385" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A385" s="160"/>
+      <c r="A385" s="162"/>
       <c r="B385" s="19"/>
       <c r="C385" s="20"/>
       <c r="D385" s="20"/>
       <c r="E385" s="20"/>
       <c r="F385" s="20"/>
-      <c r="G385" s="160"/>
+      <c r="G385" s="162"/>
     </row>
     <row r="386" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A386" s="160"/>
+      <c r="A386" s="162"/>
       <c r="B386" s="19"/>
       <c r="C386" s="20"/>
       <c r="D386" s="20"/>
       <c r="E386" s="20"/>
       <c r="F386" s="20"/>
-      <c r="G386" s="160"/>
+      <c r="G386" s="162"/>
     </row>
     <row r="387" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A387" s="160"/>
+      <c r="A387" s="162"/>
       <c r="B387" s="19"/>
       <c r="C387" s="20"/>
       <c r="D387" s="20"/>
       <c r="E387" s="20"/>
       <c r="F387" s="20"/>
-      <c r="G387" s="160"/>
+      <c r="G387" s="162"/>
     </row>
     <row r="388" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A388" s="160"/>
+      <c r="A388" s="162"/>
       <c r="B388" s="19"/>
       <c r="C388" s="20"/>
       <c r="D388" s="20"/>
       <c r="E388" s="20"/>
       <c r="F388" s="20"/>
-      <c r="G388" s="160"/>
+      <c r="G388" s="162"/>
     </row>
     <row r="389" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A389" s="160"/>
+      <c r="A389" s="162"/>
       <c r="B389" s="19"/>
       <c r="C389" s="20"/>
       <c r="D389" s="20"/>
       <c r="E389" s="20"/>
       <c r="F389" s="20"/>
-      <c r="G389" s="160"/>
+      <c r="G389" s="162"/>
     </row>
     <row r="390" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A390" s="160"/>
+      <c r="A390" s="162"/>
       <c r="B390" s="19"/>
       <c r="C390" s="20"/>
       <c r="D390" s="20"/>
       <c r="E390" s="20"/>
       <c r="F390" s="20"/>
-      <c r="G390" s="160"/>
+      <c r="G390" s="162"/>
     </row>
     <row r="391" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A391" s="160"/>
+      <c r="A391" s="162"/>
       <c r="B391" s="19"/>
       <c r="C391" s="20"/>
       <c r="D391" s="20"/>
       <c r="E391" s="20"/>
       <c r="F391" s="20"/>
-      <c r="G391" s="160"/>
+      <c r="G391" s="162"/>
     </row>
     <row r="392" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A392" s="160"/>
+      <c r="A392" s="162"/>
       <c r="B392" s="19"/>
       <c r="C392" s="20"/>
       <c r="D392" s="20"/>
       <c r="E392" s="20"/>
       <c r="F392" s="20"/>
-      <c r="G392" s="160"/>
+      <c r="G392" s="162"/>
     </row>
     <row r="393" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A393" s="160"/>
+      <c r="A393" s="162"/>
       <c r="B393" s="19"/>
       <c r="C393" s="20"/>
       <c r="D393" s="20"/>
       <c r="E393" s="20"/>
       <c r="F393" s="20"/>
-      <c r="G393" s="160"/>
+      <c r="G393" s="162"/>
     </row>
     <row r="394" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A394" s="160"/>
+      <c r="A394" s="162"/>
       <c r="B394" s="19"/>
       <c r="C394" s="20"/>
       <c r="D394" s="20"/>
       <c r="E394" s="20"/>
       <c r="F394" s="20"/>
-      <c r="G394" s="160"/>
+      <c r="G394" s="162"/>
     </row>
     <row r="395" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A395" s="160"/>
+      <c r="A395" s="162"/>
       <c r="B395" s="19"/>
       <c r="C395" s="20"/>
       <c r="D395" s="20"/>
       <c r="E395" s="20"/>
       <c r="F395" s="20"/>
-      <c r="G395" s="160"/>
+      <c r="G395" s="162"/>
     </row>
     <row r="396" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A396" s="160"/>
+      <c r="A396" s="162"/>
       <c r="B396" s="19"/>
       <c r="C396" s="20"/>
       <c r="D396" s="20"/>
       <c r="E396" s="20"/>
       <c r="F396" s="20"/>
-      <c r="G396" s="160"/>
+      <c r="G396" s="162"/>
     </row>
     <row r="397" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A397" s="160"/>
+      <c r="A397" s="162"/>
       <c r="B397" s="19"/>
       <c r="C397" s="20"/>
       <c r="D397" s="20"/>
       <c r="E397" s="20"/>
       <c r="F397" s="20"/>
-      <c r="G397" s="160"/>
+      <c r="G397" s="162"/>
     </row>
     <row r="398" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A398" s="160"/>
+      <c r="A398" s="162"/>
       <c r="B398" s="19"/>
       <c r="C398" s="20"/>
       <c r="D398" s="20"/>
       <c r="E398" s="20"/>
       <c r="F398" s="20"/>
-      <c r="G398" s="160"/>
+      <c r="G398" s="162"/>
     </row>
     <row r="399" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A399" s="160"/>
+      <c r="A399" s="162"/>
       <c r="B399" s="19"/>
       <c r="C399" s="20"/>
       <c r="D399" s="20"/>
       <c r="E399" s="20"/>
       <c r="F399" s="20"/>
-      <c r="G399" s="160"/>
+      <c r="G399" s="162"/>
     </row>
     <row r="400" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A400" s="160"/>
+      <c r="A400" s="162"/>
       <c r="B400" s="19"/>
       <c r="C400" s="20"/>
       <c r="D400" s="20"/>
       <c r="E400" s="20"/>
       <c r="F400" s="20"/>
-      <c r="G400" s="160"/>
+      <c r="G400" s="162"/>
     </row>
     <row r="401" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A401" s="160"/>
+      <c r="A401" s="162"/>
       <c r="B401" s="19"/>
       <c r="C401" s="20"/>
       <c r="D401" s="20"/>
       <c r="E401" s="20"/>
       <c r="F401" s="20"/>
-      <c r="G401" s="160"/>
+      <c r="G401" s="162"/>
     </row>
     <row r="402" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A402" s="160"/>
+      <c r="A402" s="162"/>
       <c r="B402" s="19"/>
       <c r="C402" s="20"/>
       <c r="D402" s="20"/>
       <c r="E402" s="20"/>
       <c r="F402" s="20"/>
-      <c r="G402" s="160"/>
+      <c r="G402" s="162"/>
     </row>
     <row r="403" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A403" s="160"/>
+      <c r="A403" s="162"/>
       <c r="B403" s="19"/>
       <c r="C403" s="20"/>
       <c r="D403" s="20"/>
       <c r="E403" s="20"/>
       <c r="F403" s="20"/>
-      <c r="G403" s="160"/>
+      <c r="G403" s="162"/>
     </row>
     <row r="404" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A404" s="160"/>
+      <c r="A404" s="162"/>
       <c r="B404" s="19"/>
       <c r="C404" s="20"/>
       <c r="D404" s="20"/>
       <c r="E404" s="20"/>
       <c r="F404" s="20"/>
-      <c r="G404" s="160"/>
+      <c r="G404" s="162"/>
     </row>
     <row r="405" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A405" s="160"/>
+      <c r="A405" s="162"/>
       <c r="B405" s="19"/>
       <c r="C405" s="20"/>
       <c r="D405" s="20"/>
       <c r="E405" s="20"/>
       <c r="F405" s="20"/>
-      <c r="G405" s="160"/>
+      <c r="G405" s="162"/>
     </row>
     <row r="406" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A406" s="160"/>
+      <c r="A406" s="162"/>
       <c r="B406" s="19"/>
       <c r="C406" s="20"/>
       <c r="D406" s="20"/>
       <c r="E406" s="20"/>
       <c r="F406" s="20"/>
-      <c r="G406" s="160"/>
+      <c r="G406" s="162"/>
     </row>
     <row r="407" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A407" s="160"/>
+      <c r="A407" s="162"/>
       <c r="B407" s="19"/>
       <c r="C407" s="20"/>
       <c r="D407" s="20"/>
       <c r="E407" s="20"/>
       <c r="F407" s="20"/>
-      <c r="G407" s="160"/>
+      <c r="G407" s="162"/>
     </row>
     <row r="408" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A408" s="160"/>
+      <c r="A408" s="162"/>
       <c r="B408" s="19"/>
       <c r="C408" s="20"/>
       <c r="D408" s="20"/>
       <c r="E408" s="20"/>
       <c r="F408" s="20"/>
-      <c r="G408" s="160"/>
+      <c r="G408" s="162"/>
     </row>
     <row r="409" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A409" s="160"/>
+      <c r="A409" s="162"/>
       <c r="B409" s="19"/>
       <c r="C409" s="20"/>
       <c r="D409" s="20"/>
       <c r="E409" s="20"/>
       <c r="F409" s="20"/>
-      <c r="G409" s="160"/>
+      <c r="G409" s="162"/>
     </row>
     <row r="410" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A410" s="160"/>
+      <c r="A410" s="162"/>
       <c r="B410" s="19"/>
       <c r="C410" s="20"/>
       <c r="D410" s="20"/>
       <c r="E410" s="20"/>
       <c r="F410" s="20"/>
-      <c r="G410" s="160"/>
+      <c r="G410" s="162"/>
     </row>
     <row r="411" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A411" s="160"/>
+      <c r="A411" s="162"/>
       <c r="B411" s="19"/>
       <c r="C411" s="20"/>
       <c r="D411" s="20"/>
       <c r="E411" s="20"/>
       <c r="F411" s="20"/>
-      <c r="G411" s="160"/>
+      <c r="G411" s="162"/>
     </row>
     <row r="412" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A412" s="160"/>
+      <c r="A412" s="162"/>
       <c r="B412" s="19"/>
       <c r="C412" s="20"/>
       <c r="D412" s="20"/>
       <c r="E412" s="20"/>
       <c r="F412" s="20"/>
-      <c r="G412" s="160"/>
+      <c r="G412" s="162"/>
     </row>
     <row r="413" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A413" s="160"/>
+      <c r="A413" s="162"/>
       <c r="B413" s="19"/>
       <c r="C413" s="20"/>
       <c r="D413" s="20"/>
       <c r="E413" s="20"/>
       <c r="F413" s="20"/>
-      <c r="G413" s="160"/>
+      <c r="G413" s="162"/>
     </row>
     <row r="414" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A414" s="160"/>
+      <c r="A414" s="162"/>
       <c r="B414" s="19"/>
       <c r="C414" s="20"/>
       <c r="D414" s="20"/>
       <c r="E414" s="20"/>
       <c r="F414" s="20"/>
-      <c r="G414" s="160"/>
+      <c r="G414" s="162"/>
     </row>
     <row r="415" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A415" s="160"/>
+      <c r="A415" s="162"/>
       <c r="B415" s="19"/>
       <c r="C415" s="20"/>
       <c r="D415" s="20"/>
       <c r="E415" s="20"/>
       <c r="F415" s="20"/>
-      <c r="G415" s="160"/>
+      <c r="G415" s="162"/>
     </row>
     <row r="416" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A416" s="160"/>
+      <c r="A416" s="162"/>
       <c r="B416" s="19"/>
       <c r="C416" s="20"/>
       <c r="D416" s="20"/>
       <c r="E416" s="20"/>
       <c r="F416" s="20"/>
-      <c r="G416" s="160"/>
+      <c r="G416" s="162"/>
     </row>
     <row r="417" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A417" s="160"/>
+      <c r="A417" s="162"/>
       <c r="B417" s="19"/>
       <c r="C417" s="20"/>
       <c r="D417" s="20"/>
       <c r="E417" s="20"/>
       <c r="F417" s="20"/>
-      <c r="G417" s="160"/>
+      <c r="G417" s="162"/>
     </row>
     <row r="418" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A418" s="160"/>
+      <c r="A418" s="162"/>
       <c r="B418" s="19"/>
       <c r="C418" s="20"/>
       <c r="D418" s="20"/>
       <c r="E418" s="20"/>
       <c r="F418" s="20"/>
-      <c r="G418" s="160"/>
+      <c r="G418" s="162"/>
     </row>
     <row r="419" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A419" s="160"/>
+      <c r="A419" s="162"/>
       <c r="B419" s="19"/>
       <c r="C419" s="20"/>
       <c r="D419" s="20"/>
       <c r="E419" s="20"/>
       <c r="F419" s="20"/>
-      <c r="G419" s="160"/>
+      <c r="G419" s="162"/>
     </row>
     <row r="420" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A420" s="160"/>
+      <c r="A420" s="162"/>
       <c r="B420" s="19"/>
       <c r="C420" s="20"/>
       <c r="D420" s="20"/>
       <c r="E420" s="20"/>
       <c r="F420" s="20"/>
-      <c r="G420" s="160"/>
+      <c r="G420" s="162"/>
     </row>
     <row r="421" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A421" s="160"/>
+      <c r="A421" s="162"/>
       <c r="B421" s="19"/>
       <c r="C421" s="20"/>
       <c r="D421" s="20"/>
       <c r="E421" s="20"/>
       <c r="F421" s="20"/>
-      <c r="G421" s="160"/>
+      <c r="G421" s="162"/>
     </row>
     <row r="422" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A422" s="160"/>
+      <c r="A422" s="162"/>
       <c r="B422" s="19"/>
       <c r="C422" s="20"/>
       <c r="D422" s="20"/>
       <c r="E422" s="20"/>
       <c r="F422" s="20"/>
-      <c r="G422" s="160"/>
+      <c r="G422" s="162"/>
     </row>
     <row r="423" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A423" s="160"/>
+      <c r="A423" s="162"/>
       <c r="B423" s="19"/>
       <c r="C423" s="20"/>
       <c r="D423" s="20"/>
       <c r="E423" s="20"/>
       <c r="F423" s="20"/>
-      <c r="G423" s="160"/>
+      <c r="G423" s="162"/>
     </row>
     <row r="424" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A424" s="160"/>
+      <c r="A424" s="162"/>
       <c r="B424" s="19"/>
       <c r="C424" s="20"/>
       <c r="D424" s="20"/>
       <c r="E424" s="20"/>
       <c r="F424" s="20"/>
-      <c r="G424" s="160"/>
+      <c r="G424" s="162"/>
     </row>
     <row r="425" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A425" s="160"/>
+      <c r="A425" s="162"/>
       <c r="B425" s="19"/>
       <c r="C425" s="20"/>
       <c r="D425" s="20"/>
       <c r="E425" s="20"/>
       <c r="F425" s="20"/>
-      <c r="G425" s="160"/>
+      <c r="G425" s="162"/>
     </row>
     <row r="426" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A426" s="160"/>
+      <c r="A426" s="162"/>
       <c r="B426" s="19"/>
       <c r="C426" s="20"/>
       <c r="D426" s="20"/>
       <c r="E426" s="20"/>
       <c r="F426" s="20"/>
-      <c r="G426" s="160"/>
+      <c r="G426" s="162"/>
     </row>
     <row r="427" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A427" s="160"/>
+      <c r="A427" s="162"/>
       <c r="B427" s="19"/>
       <c r="C427" s="20"/>
       <c r="D427" s="20"/>
       <c r="E427" s="20"/>
       <c r="F427" s="20"/>
-      <c r="G427" s="160"/>
+      <c r="G427" s="162"/>
     </row>
     <row r="428" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A428" s="160"/>
+      <c r="A428" s="162"/>
       <c r="B428" s="19"/>
       <c r="C428" s="20"/>
       <c r="D428" s="20"/>
       <c r="E428" s="20"/>
       <c r="F428" s="20"/>
-      <c r="G428" s="160"/>
+      <c r="G428" s="162"/>
     </row>
     <row r="429" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A429" s="160"/>
+      <c r="A429" s="162"/>
       <c r="B429" s="19"/>
       <c r="C429" s="20"/>
       <c r="D429" s="20"/>
       <c r="E429" s="20"/>
       <c r="F429" s="20"/>
-      <c r="G429" s="160"/>
+      <c r="G429" s="162"/>
     </row>
     <row r="430" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A430" s="160"/>
+      <c r="A430" s="162"/>
       <c r="B430" s="19"/>
       <c r="C430" s="20"/>
       <c r="D430" s="20"/>
       <c r="E430" s="20"/>
       <c r="F430" s="20"/>
-      <c r="G430" s="160"/>
+      <c r="G430" s="162"/>
     </row>
     <row r="431" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A431" s="160"/>
+      <c r="A431" s="162"/>
       <c r="B431" s="19"/>
       <c r="C431" s="20"/>
       <c r="D431" s="20"/>
       <c r="E431" s="20"/>
       <c r="F431" s="20"/>
-      <c r="G431" s="160"/>
+      <c r="G431" s="162"/>
     </row>
     <row r="432" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A432" s="160"/>
+      <c r="A432" s="162"/>
       <c r="B432" s="19"/>
       <c r="C432" s="20"/>
       <c r="D432" s="20"/>
       <c r="E432" s="20"/>
       <c r="F432" s="20"/>
-      <c r="G432" s="160"/>
+      <c r="G432" s="162"/>
     </row>
     <row r="433" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A433" s="160"/>
+      <c r="A433" s="162"/>
       <c r="B433" s="19"/>
       <c r="C433" s="20"/>
       <c r="D433" s="20"/>
       <c r="E433" s="20"/>
       <c r="F433" s="20"/>
-      <c r="G433" s="160"/>
+      <c r="G433" s="162"/>
     </row>
     <row r="434" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A434" s="160"/>
+      <c r="A434" s="162"/>
       <c r="B434" s="19"/>
       <c r="C434" s="20"/>
       <c r="D434" s="20"/>
       <c r="E434" s="20"/>
       <c r="F434" s="20"/>
-      <c r="G434" s="160"/>
+      <c r="G434" s="162"/>
     </row>
     <row r="435" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A435" s="160"/>
+      <c r="A435" s="162"/>
       <c r="B435" s="19"/>
       <c r="C435" s="20"/>
       <c r="D435" s="20"/>
       <c r="E435" s="20"/>
       <c r="F435" s="20"/>
-      <c r="G435" s="160"/>
+      <c r="G435" s="162"/>
     </row>
     <row r="436" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A436" s="160"/>
+      <c r="A436" s="162"/>
       <c r="B436" s="19"/>
       <c r="C436" s="20"/>
       <c r="D436" s="20"/>
       <c r="E436" s="20"/>
       <c r="F436" s="20"/>
-      <c r="G436" s="160"/>
+      <c r="G436" s="162"/>
     </row>
     <row r="437" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A437" s="160"/>
+      <c r="A437" s="162"/>
       <c r="B437" s="19"/>
       <c r="C437" s="20"/>
       <c r="D437" s="20"/>
       <c r="E437" s="20"/>
       <c r="F437" s="20"/>
-      <c r="G437" s="160"/>
+      <c r="G437" s="162"/>
     </row>
     <row r="438" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A438" s="160"/>
+      <c r="A438" s="162"/>
       <c r="B438" s="19"/>
       <c r="C438" s="20"/>
       <c r="D438" s="20"/>
       <c r="E438" s="20"/>
       <c r="F438" s="20"/>
-      <c r="G438" s="160"/>
+      <c r="G438" s="162"/>
     </row>
     <row r="439" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A439" s="160"/>
+      <c r="A439" s="162"/>
       <c r="B439" s="19"/>
       <c r="C439" s="20"/>
       <c r="D439" s="20"/>
       <c r="E439" s="20"/>
       <c r="F439" s="20"/>
-      <c r="G439" s="160"/>
+      <c r="G439" s="162"/>
     </row>
     <row r="440" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A440" s="160"/>
+      <c r="A440" s="162"/>
       <c r="B440" s="19"/>
       <c r="C440" s="20"/>
       <c r="D440" s="20"/>
       <c r="E440" s="20"/>
       <c r="F440" s="20"/>
-      <c r="G440" s="160"/>
+      <c r="G440" s="162"/>
     </row>
     <row r="441" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A441" s="160"/>
+      <c r="A441" s="162"/>
       <c r="B441" s="19"/>
       <c r="C441" s="20"/>
       <c r="D441" s="20"/>
       <c r="E441" s="20"/>
       <c r="F441" s="20"/>
-      <c r="G441" s="160"/>
+      <c r="G441" s="162"/>
     </row>
     <row r="442" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A442" s="160"/>
+      <c r="A442" s="162"/>
       <c r="B442" s="19"/>
       <c r="C442" s="20"/>
       <c r="D442" s="20"/>
       <c r="E442" s="20"/>
       <c r="F442" s="20"/>
-      <c r="G442" s="160"/>
+      <c r="G442" s="162"/>
     </row>
     <row r="443" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A443" s="160"/>
+      <c r="A443" s="162"/>
       <c r="B443" s="19"/>
       <c r="C443" s="20"/>
       <c r="D443" s="20"/>
       <c r="E443" s="20"/>
       <c r="F443" s="20"/>
-      <c r="G443" s="160"/>
+      <c r="G443" s="162"/>
     </row>
     <row r="444" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A444" s="160"/>
+      <c r="A444" s="162"/>
       <c r="B444" s="19"/>
       <c r="C444" s="20"/>
       <c r="D444" s="20"/>
       <c r="E444" s="20"/>
       <c r="F444" s="20"/>
-      <c r="G444" s="160"/>
+      <c r="G444" s="162"/>
     </row>
     <row r="445" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A445" s="160"/>
+      <c r="A445" s="162"/>
       <c r="B445" s="19"/>
       <c r="C445" s="20"/>
       <c r="D445" s="20"/>
       <c r="E445" s="20"/>
       <c r="F445" s="20"/>
-      <c r="G445" s="160"/>
+      <c r="G445" s="162"/>
     </row>
     <row r="446" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A446" s="160"/>
+      <c r="A446" s="162"/>
       <c r="B446" s="19"/>
       <c r="C446" s="20"/>
       <c r="D446" s="20"/>
       <c r="E446" s="20"/>
       <c r="F446" s="20"/>
-      <c r="G446" s="160"/>
+      <c r="G446" s="162"/>
     </row>
     <row r="447" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A447" s="160"/>
+      <c r="A447" s="162"/>
       <c r="B447" s="19"/>
       <c r="C447" s="20"/>
       <c r="D447" s="20"/>
       <c r="E447" s="20"/>
       <c r="F447" s="20"/>
-      <c r="G447" s="160"/>
+      <c r="G447" s="162"/>
     </row>
     <row r="448" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A448" s="160"/>
+      <c r="A448" s="162"/>
       <c r="B448" s="19"/>
       <c r="C448" s="20"/>
       <c r="D448" s="20"/>
       <c r="E448" s="20"/>
       <c r="F448" s="20"/>
-      <c r="G448" s="160"/>
+      <c r="G448" s="162"/>
     </row>
     <row r="449" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A449" s="160"/>
+      <c r="A449" s="162"/>
       <c r="B449" s="19"/>
       <c r="C449" s="20"/>
       <c r="D449" s="20"/>
       <c r="E449" s="20"/>
       <c r="F449" s="20"/>
-      <c r="G449" s="160"/>
+      <c r="G449" s="162"/>
     </row>
     <row r="450" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A450" s="160"/>
+      <c r="A450" s="162"/>
       <c r="B450" s="19"/>
       <c r="C450" s="20"/>
       <c r="D450" s="20"/>
       <c r="E450" s="20"/>
       <c r="F450" s="20"/>
-      <c r="G450" s="160"/>
+      <c r="G450" s="162"/>
     </row>
     <row r="451" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A451" s="160"/>
+      <c r="A451" s="162"/>
       <c r="B451" s="19"/>
       <c r="C451" s="20"/>
       <c r="D451" s="20"/>
       <c r="E451" s="20"/>
       <c r="F451" s="20"/>
-      <c r="G451" s="160"/>
+      <c r="G451" s="162"/>
     </row>
     <row r="452" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A452" s="160"/>
+      <c r="A452" s="162"/>
       <c r="B452" s="19"/>
       <c r="C452" s="20"/>
       <c r="D452" s="20"/>
       <c r="E452" s="20"/>
       <c r="F452" s="20"/>
-      <c r="G452" s="160"/>
+      <c r="G452" s="162"/>
     </row>
     <row r="453" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A453" s="160"/>
+      <c r="A453" s="162"/>
       <c r="B453" s="19"/>
       <c r="C453" s="20"/>
       <c r="D453" s="20"/>
       <c r="E453" s="20"/>
       <c r="F453" s="20"/>
-      <c r="G453" s="160"/>
+      <c r="G453" s="162"/>
     </row>
     <row r="454" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A454" s="160"/>
+      <c r="A454" s="162"/>
       <c r="B454" s="19"/>
       <c r="C454" s="20"/>
       <c r="D454" s="20"/>
       <c r="E454" s="20"/>
       <c r="F454" s="20"/>
-      <c r="G454" s="160"/>
+      <c r="G454" s="162"/>
     </row>
     <row r="455" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A455" s="160"/>
+      <c r="A455" s="162"/>
       <c r="B455" s="19"/>
       <c r="C455" s="20"/>
       <c r="D455" s="20"/>
       <c r="E455" s="20"/>
       <c r="F455" s="20"/>
-      <c r="G455" s="160"/>
+      <c r="G455" s="162"/>
     </row>
     <row r="456" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A456" s="160"/>
+      <c r="A456" s="162"/>
       <c r="B456" s="19"/>
       <c r="C456" s="20"/>
       <c r="D456" s="20"/>
       <c r="E456" s="20"/>
       <c r="F456" s="20"/>
-      <c r="G456" s="160"/>
+      <c r="G456" s="162"/>
     </row>
     <row r="457" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A457" s="160"/>
+      <c r="A457" s="162"/>
       <c r="B457" s="19"/>
       <c r="C457" s="20"/>
       <c r="D457" s="20"/>
       <c r="E457" s="20"/>
       <c r="F457" s="20"/>
-      <c r="G457" s="160"/>
+      <c r="G457" s="162"/>
     </row>
     <row r="458" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A458" s="160"/>
+      <c r="A458" s="162"/>
       <c r="B458" s="19"/>
       <c r="C458" s="20"/>
       <c r="D458" s="20"/>
       <c r="E458" s="20"/>
       <c r="F458" s="20"/>
-      <c r="G458" s="160"/>
+      <c r="G458" s="162"/>
     </row>
     <row r="459" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A459" s="160"/>
+      <c r="A459" s="162"/>
       <c r="B459" s="19"/>
       <c r="C459" s="20"/>
       <c r="D459" s="20"/>
       <c r="E459" s="20"/>
       <c r="F459" s="20"/>
-      <c r="G459" s="160"/>
+      <c r="G459" s="162"/>
     </row>
     <row r="460" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A460" s="160"/>
+      <c r="A460" s="162"/>
       <c r="B460" s="19"/>
       <c r="C460" s="20"/>
       <c r="D460" s="20"/>
       <c r="E460" s="20"/>
       <c r="F460" s="20"/>
-      <c r="G460" s="160"/>
+      <c r="G460" s="162"/>
     </row>
     <row r="461" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A461" s="160"/>
+      <c r="A461" s="162"/>
       <c r="B461" s="19"/>
       <c r="C461" s="20"/>
       <c r="D461" s="20"/>
       <c r="E461" s="20"/>
       <c r="F461" s="20"/>
-      <c r="G461" s="160"/>
+      <c r="G461" s="162"/>
     </row>
     <row r="462" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A462" s="160"/>
+      <c r="A462" s="162"/>
       <c r="B462" s="19"/>
       <c r="C462" s="20"/>
       <c r="D462" s="20"/>
       <c r="E462" s="20"/>
       <c r="F462" s="20"/>
-      <c r="G462" s="160"/>
+      <c r="G462" s="162"/>
     </row>
     <row r="463" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A463" s="160"/>
+      <c r="A463" s="162"/>
       <c r="B463" s="19"/>
       <c r="C463" s="20"/>
       <c r="D463" s="20"/>
       <c r="E463" s="20"/>
       <c r="F463" s="20"/>
-      <c r="G463" s="160"/>
+      <c r="G463" s="162"/>
     </row>
     <row r="464" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A464" s="160"/>
+      <c r="A464" s="162"/>
       <c r="B464" s="19"/>
       <c r="C464" s="20"/>
       <c r="D464" s="20"/>
       <c r="E464" s="20"/>
       <c r="F464" s="20"/>
-      <c r="G464" s="160"/>
+      <c r="G464" s="162"/>
     </row>
     <row r="465" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A465" s="160"/>
+      <c r="A465" s="162"/>
       <c r="B465" s="19"/>
       <c r="C465" s="20"/>
       <c r="D465" s="20"/>
       <c r="E465" s="20"/>
       <c r="F465" s="20"/>
-      <c r="G465" s="160"/>
+      <c r="G465" s="162"/>
     </row>
     <row r="466" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A466" s="160"/>
+      <c r="A466" s="162"/>
       <c r="B466" s="19"/>
       <c r="C466" s="20"/>
       <c r="D466" s="20"/>
       <c r="E466" s="20"/>
       <c r="F466" s="20"/>
-      <c r="G466" s="160"/>
+      <c r="G466" s="162"/>
     </row>
     <row r="467" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A467" s="160"/>
+      <c r="A467" s="162"/>
       <c r="B467" s="19"/>
       <c r="C467" s="20"/>
       <c r="D467" s="20"/>
       <c r="E467" s="20"/>
       <c r="F467" s="20"/>
-      <c r="G467" s="160"/>
+      <c r="G467" s="162"/>
     </row>
     <row r="468" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A468" s="160"/>
+      <c r="A468" s="162"/>
       <c r="B468" s="19"/>
       <c r="C468" s="20"/>
       <c r="D468" s="20"/>
       <c r="E468" s="20"/>
       <c r="F468" s="20"/>
-      <c r="G468" s="160"/>
+      <c r="G468" s="162"/>
     </row>
     <row r="469" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A469" s="160"/>
+      <c r="A469" s="162"/>
       <c r="B469" s="19"/>
       <c r="C469" s="20"/>
       <c r="D469" s="20"/>
       <c r="E469" s="20"/>
       <c r="F469" s="20"/>
-      <c r="G469" s="160"/>
+      <c r="G469" s="162"/>
     </row>
     <row r="470" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A470" s="160"/>
+      <c r="A470" s="162"/>
       <c r="B470" s="19"/>
       <c r="C470" s="20"/>
       <c r="D470" s="20"/>
       <c r="E470" s="20"/>
       <c r="F470" s="20"/>
-      <c r="G470" s="160"/>
+      <c r="G470" s="162"/>
     </row>
     <row r="471" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A471" s="160"/>
+      <c r="A471" s="162"/>
       <c r="B471" s="19"/>
       <c r="C471" s="20"/>
       <c r="D471" s="20"/>
       <c r="E471" s="20"/>
       <c r="F471" s="20"/>
-      <c r="G471" s="160"/>
+      <c r="G471" s="162"/>
     </row>
     <row r="472" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A472" s="160"/>
+      <c r="A472" s="162"/>
       <c r="B472" s="19"/>
       <c r="C472" s="20"/>
       <c r="D472" s="20"/>
       <c r="E472" s="20"/>
       <c r="F472" s="20"/>
-      <c r="G472" s="160"/>
+      <c r="G472" s="162"/>
     </row>
     <row r="473" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A473" s="160"/>
+      <c r="A473" s="162"/>
       <c r="B473" s="19"/>
       <c r="C473" s="20"/>
       <c r="D473" s="20"/>
       <c r="E473" s="20"/>
       <c r="F473" s="20"/>
-      <c r="G473" s="160"/>
+      <c r="G473" s="162"/>
     </row>
     <row r="474" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A474" s="160"/>
+      <c r="A474" s="162"/>
       <c r="B474" s="19"/>
       <c r="C474" s="20"/>
       <c r="D474" s="20"/>
       <c r="E474" s="20"/>
       <c r="F474" s="20"/>
-      <c r="G474" s="160"/>
+      <c r="G474" s="162"/>
     </row>
     <row r="475" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A475" s="160"/>
+      <c r="A475" s="162"/>
       <c r="B475" s="19"/>
       <c r="C475" s="20"/>
       <c r="D475" s="20"/>
       <c r="E475" s="20"/>
       <c r="F475" s="20"/>
-      <c r="G475" s="160"/>
+      <c r="G475" s="162"/>
     </row>
     <row r="476" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A476" s="160"/>
+      <c r="A476" s="162"/>
       <c r="B476" s="19"/>
       <c r="C476" s="20"/>
       <c r="D476" s="20"/>
       <c r="E476" s="20"/>
       <c r="F476" s="20"/>
-      <c r="G476" s="160"/>
+      <c r="G476" s="162"/>
     </row>
     <row r="477" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A477" s="160"/>
+      <c r="A477" s="162"/>
       <c r="B477" s="19"/>
       <c r="C477" s="20"/>
       <c r="D477" s="20"/>
       <c r="E477" s="20"/>
       <c r="F477" s="20"/>
-      <c r="G477" s="160"/>
+      <c r="G477" s="162"/>
     </row>
     <row r="478" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A478" s="160"/>
+      <c r="A478" s="162"/>
       <c r="B478" s="19"/>
       <c r="C478" s="20"/>
       <c r="D478" s="20"/>
       <c r="E478" s="20"/>
       <c r="F478" s="20"/>
-      <c r="G478" s="160"/>
+      <c r="G478" s="162"/>
     </row>
     <row r="479" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A479" s="160"/>
+      <c r="A479" s="162"/>
       <c r="B479" s="19"/>
       <c r="C479" s="20"/>
       <c r="D479" s="20"/>
       <c r="E479" s="20"/>
       <c r="F479" s="20"/>
-      <c r="G479" s="160"/>
+      <c r="G479" s="162"/>
     </row>
     <row r="480" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A480" s="160"/>
+      <c r="A480" s="162"/>
       <c r="B480" s="19"/>
       <c r="C480" s="20"/>
       <c r="D480" s="20"/>
       <c r="E480" s="20"/>
       <c r="F480" s="20"/>
-      <c r="G480" s="160"/>
+      <c r="G480" s="162"/>
     </row>
     <row r="481" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A481" s="160"/>
+      <c r="A481" s="162"/>
       <c r="B481" s="19"/>
       <c r="C481" s="20"/>
       <c r="D481" s="20"/>
       <c r="E481" s="20"/>
       <c r="F481" s="20"/>
-      <c r="G481" s="160"/>
+      <c r="G481" s="162"/>
     </row>
     <row r="482" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A482" s="160"/>
+      <c r="A482" s="162"/>
       <c r="B482" s="19"/>
       <c r="C482" s="20"/>
       <c r="D482" s="20"/>
       <c r="E482" s="20"/>
       <c r="F482" s="20"/>
-      <c r="G482" s="160"/>
+      <c r="G482" s="162"/>
     </row>
     <row r="483" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A483" s="160"/>
+      <c r="A483" s="162"/>
       <c r="B483" s="19"/>
       <c r="C483" s="20"/>
       <c r="D483" s="20"/>
       <c r="E483" s="20"/>
       <c r="F483" s="20"/>
-      <c r="G483" s="160"/>
+      <c r="G483" s="162"/>
     </row>
     <row r="484" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A484" s="160"/>
+      <c r="A484" s="162"/>
       <c r="B484" s="19"/>
       <c r="C484" s="20"/>
       <c r="D484" s="20"/>
       <c r="E484" s="20"/>
       <c r="F484" s="20"/>
-      <c r="G484" s="160"/>
+      <c r="G484" s="162"/>
     </row>
     <row r="485" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A485" s="160"/>
+      <c r="A485" s="162"/>
       <c r="B485" s="19"/>
       <c r="C485" s="20"/>
       <c r="D485" s="20"/>
       <c r="E485" s="20"/>
       <c r="F485" s="20"/>
-      <c r="G485" s="160"/>
+      <c r="G485" s="162"/>
     </row>
     <row r="486" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A486" s="160"/>
+      <c r="A486" s="162"/>
       <c r="B486" s="19"/>
       <c r="C486" s="20"/>
       <c r="D486" s="20"/>
       <c r="E486" s="20"/>
       <c r="F486" s="20"/>
-      <c r="G486" s="160"/>
+      <c r="G486" s="162"/>
     </row>
     <row r="487" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A487" s="160"/>
+      <c r="A487" s="162"/>
       <c r="B487" s="19"/>
       <c r="C487" s="20"/>
       <c r="D487" s="20"/>
       <c r="E487" s="20"/>
       <c r="F487" s="20"/>
-      <c r="G487" s="160"/>
+      <c r="G487" s="162"/>
     </row>
     <row r="488" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A488" s="160"/>
+      <c r="A488" s="162"/>
       <c r="B488" s="19"/>
       <c r="C488" s="20"/>
       <c r="D488" s="20"/>
       <c r="E488" s="20"/>
       <c r="F488" s="20"/>
-      <c r="G488" s="160"/>
+      <c r="G488" s="162"/>
     </row>
     <row r="489" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A489" s="160"/>
+      <c r="A489" s="162"/>
       <c r="B489" s="19"/>
       <c r="C489" s="20"/>
       <c r="D489" s="20"/>
       <c r="E489" s="20"/>
       <c r="F489" s="20"/>
-      <c r="G489" s="160"/>
+      <c r="G489" s="162"/>
     </row>
     <row r="490" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A490" s="160"/>
+      <c r="A490" s="162"/>
       <c r="B490" s="19"/>
       <c r="C490" s="20"/>
       <c r="D490" s="20"/>
       <c r="E490" s="20"/>
       <c r="F490" s="20"/>
-      <c r="G490" s="160"/>
+      <c r="G490" s="162"/>
     </row>
     <row r="491" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A491" s="160"/>
+      <c r="A491" s="162"/>
       <c r="B491" s="19"/>
       <c r="C491" s="20"/>
       <c r="D491" s="20"/>
       <c r="E491" s="20"/>
       <c r="F491" s="20"/>
-      <c r="G491" s="160"/>
+      <c r="G491" s="162"/>
     </row>
     <row r="492" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A492" s="160"/>
+      <c r="A492" s="162"/>
       <c r="B492" s="19"/>
       <c r="C492" s="20"/>
       <c r="D492" s="20"/>
       <c r="E492" s="20"/>
       <c r="F492" s="20"/>
-      <c r="G492" s="160"/>
+      <c r="G492" s="162"/>
     </row>
     <row r="493" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A493" s="160"/>
+      <c r="A493" s="162"/>
       <c r="B493" s="19"/>
       <c r="C493" s="20"/>
       <c r="D493" s="20"/>
       <c r="E493" s="20"/>
       <c r="F493" s="20"/>
-      <c r="G493" s="160"/>
+      <c r="G493" s="162"/>
     </row>
     <row r="494" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A494" s="160"/>
+      <c r="A494" s="162"/>
       <c r="B494" s="19"/>
       <c r="C494" s="20"/>
       <c r="D494" s="20"/>
       <c r="E494" s="20"/>
       <c r="F494" s="20"/>
-      <c r="G494" s="160"/>
+      <c r="G494" s="162"/>
     </row>
     <row r="495" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A495" s="160"/>
+      <c r="A495" s="162"/>
       <c r="B495" s="19"/>
       <c r="C495" s="20"/>
       <c r="D495" s="20"/>
       <c r="E495" s="20"/>
       <c r="F495" s="20"/>
-      <c r="G495" s="160"/>
+      <c r="G495" s="162"/>
     </row>
     <row r="496" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A496" s="160"/>
+      <c r="A496" s="162"/>
       <c r="B496" s="19"/>
       <c r="C496" s="20"/>
       <c r="D496" s="20"/>
       <c r="E496" s="20"/>
       <c r="F496" s="20"/>
-      <c r="G496" s="160"/>
+      <c r="G496" s="162"/>
     </row>
     <row r="497" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A497" s="160"/>
+      <c r="A497" s="162"/>
       <c r="B497" s="19"/>
       <c r="C497" s="20"/>
       <c r="D497" s="20"/>
       <c r="E497" s="20"/>
       <c r="F497" s="20"/>
-      <c r="G497" s="160"/>
+      <c r="G497" s="162"/>
     </row>
     <row r="498" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A498" s="160"/>
+      <c r="A498" s="162"/>
       <c r="B498" s="19"/>
       <c r="C498" s="20"/>
       <c r="D498" s="20"/>
       <c r="E498" s="20"/>
       <c r="F498" s="20"/>
-      <c r="G498" s="160"/>
+      <c r="G498" s="162"/>
     </row>
     <row r="499" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A499" s="160"/>
+      <c r="A499" s="162"/>
       <c r="B499" s="19"/>
       <c r="C499" s="20"/>
       <c r="D499" s="20"/>
       <c r="E499" s="20"/>
       <c r="F499" s="20"/>
-      <c r="G499" s="160"/>
+      <c r="G499" s="162"/>
     </row>
     <row r="500" spans="1:7" ht="21.75" customHeight="1">
       <c r="A500" s="21"/>
@@ -8587,7 +8596,7 @@
     <mergeCell ref="A2:A499"/>
     <mergeCell ref="G2:G499"/>
   </mergeCells>
-  <phoneticPr fontId="26" type="noConversion"/>
+  <phoneticPr fontId="25" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>

--- a/분석_설계/사내 커뮤니티 요구사항 정의서(Rotto).xlsx
+++ b/분석_설계/사내 커뮤니티 요구사항 정의서(Rotto).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BALLBAT\Documents\lotto_board_project\분석_설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25A278D-D2B1-4B5F-8B5F-03D6CE16FC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B872F1A-81E1-49C1-8A3F-16A09C66542E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4290" yWindow="390" windowWidth="22170" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항 정의서 탬플릿_01" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="127">
   <si>
     <t>ex) 번개장터 홈화면 카테고리
 https://m.bunjang.co.kr/</t>
@@ -793,6 +793,10 @@
   <si>
     <t>김의현
 김동주</t>
+  </si>
+  <si>
+    <t>userId로 유저 식별해서 글 작성자에게는 페이지가 다른 형태로 보이도록 만들기</t>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1909,7 +1913,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1981,9 +1985,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2083,20 +2084,17 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2105,7 +2103,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2213,16 +2211,28 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="66" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="66" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2240,7 +2250,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2365,6 +2375,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2394,13 +2407,13 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2721,8 +2734,8 @@
   </sheetPr>
   <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C36" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2743,7 +2756,7 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A2" s="120"/>
+      <c r="A2" s="122"/>
       <c r="B2" s="2" t="s">
         <v>41</v>
       </c>
@@ -2754,657 +2767,659 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A3" s="120"/>
-      <c r="B3" s="121" t="s">
+      <c r="A3" s="122"/>
+      <c r="B3" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="123"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="125"/>
     </row>
     <row r="4" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A4" s="120"/>
-      <c r="B4" s="124" t="s">
+      <c r="A4" s="122"/>
+      <c r="B4" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="125"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="126"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="128"/>
     </row>
     <row r="5" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A5" s="120"/>
-      <c r="B5" s="127" t="s">
+      <c r="A5" s="122"/>
+      <c r="B5" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="129"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="131"/>
     </row>
     <row r="6" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A6" s="120"/>
-      <c r="B6" s="130"/>
-      <c r="C6" s="130"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="130"/>
+      <c r="A6" s="122"/>
+      <c r="B6" s="132"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
     </row>
     <row r="7" spans="1:8" ht="28.5" customHeight="1">
-      <c r="A7" s="120"/>
-      <c r="B7" s="131" t="s">
+      <c r="A7" s="122"/>
+      <c r="B7" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="133"/>
+      <c r="C7" s="134"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="135"/>
     </row>
     <row r="8" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A8" s="120"/>
+      <c r="A8" s="122"/>
       <c r="B8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="135" t="s">
+      <c r="C8" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="137"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="139"/>
     </row>
     <row r="9" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A9" s="120"/>
+      <c r="A9" s="122"/>
       <c r="B9" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="138" t="s">
+      <c r="C9" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="139"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="140"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="142"/>
     </row>
     <row r="10" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A10" s="120"/>
+      <c r="A10" s="122"/>
       <c r="B10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="120" t="s">
+      <c r="C10" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="141"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="142"/>
+      <c r="D10" s="143"/>
+      <c r="E10" s="143"/>
+      <c r="F10" s="144"/>
     </row>
     <row r="11" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A11" s="120"/>
+      <c r="A11" s="122"/>
       <c r="B11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="120"/>
-      <c r="D11" s="141"/>
-      <c r="E11" s="141"/>
-      <c r="F11" s="142"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="143"/>
+      <c r="E11" s="143"/>
+      <c r="F11" s="144"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A12" s="120"/>
+      <c r="A12" s="122"/>
       <c r="B12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="120" t="s">
+      <c r="C12" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="141"/>
-      <c r="E12" s="141"/>
-      <c r="F12" s="142"/>
+      <c r="D12" s="143"/>
+      <c r="E12" s="143"/>
+      <c r="F12" s="144"/>
     </row>
     <row r="13" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A13" s="120"/>
+      <c r="A13" s="122"/>
       <c r="B13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="151" t="s">
+      <c r="C13" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="152"/>
-      <c r="E13" s="152"/>
-      <c r="F13" s="153"/>
+      <c r="D13" s="154"/>
+      <c r="E13" s="154"/>
+      <c r="F13" s="155"/>
     </row>
     <row r="14" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A14" s="120"/>
-      <c r="B14" s="134"/>
-      <c r="C14" s="134"/>
-      <c r="D14" s="134"/>
-      <c r="E14" s="134"/>
-      <c r="F14" s="134"/>
+      <c r="A14" s="122"/>
+      <c r="B14" s="136"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="136"/>
     </row>
     <row r="15" spans="1:8" ht="28.5" customHeight="1">
-      <c r="A15" s="120"/>
-      <c r="B15" s="158" t="s">
+      <c r="A15" s="122"/>
+      <c r="B15" s="161" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="159"/>
-      <c r="D15" s="159"/>
-      <c r="E15" s="159"/>
-      <c r="F15" s="159"/>
-      <c r="G15" s="159"/>
-      <c r="H15" s="159"/>
+      <c r="C15" s="162"/>
+      <c r="D15" s="162"/>
+      <c r="E15" s="162"/>
+      <c r="F15" s="162"/>
+      <c r="G15" s="162"/>
+      <c r="H15" s="162"/>
     </row>
     <row r="16" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A16" s="120"/>
+      <c r="A16" s="122"/>
       <c r="B16" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="104" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="25" t="s">
         <v>71</v>
       </c>
       <c r="F16" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="G16" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="H16" s="25" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="32.25" customHeight="1">
-      <c r="A17" s="120"/>
-      <c r="B17" s="143" t="s">
+      <c r="A17" s="122"/>
+      <c r="B17" s="145" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="156" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="81" t="s">
+      <c r="D17" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="82" t="s">
+      <c r="E17" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="82" t="s">
+      <c r="F17" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="83" t="s">
+      <c r="G17" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="143" t="s">
+      <c r="H17" s="145" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="30" customHeight="1" thickBot="1">
-      <c r="A18" s="120"/>
-      <c r="B18" s="144"/>
-      <c r="C18" s="154"/>
-      <c r="D18" s="58" t="s">
+      <c r="A18" s="122"/>
+      <c r="B18" s="146"/>
+      <c r="C18" s="157"/>
+      <c r="D18" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="84" t="s">
+      <c r="F18" s="26"/>
+      <c r="G18" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="H18" s="145"/>
+      <c r="H18" s="147"/>
     </row>
     <row r="19" spans="1:8" ht="30" customHeight="1">
-      <c r="A19" s="120"/>
-      <c r="B19" s="144"/>
-      <c r="C19" s="116" t="s">
+      <c r="A19" s="122"/>
+      <c r="B19" s="146"/>
+      <c r="C19" s="118" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="85" t="s">
+      <c r="D19" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="E19" s="86" t="s">
+      <c r="E19" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="86"/>
-      <c r="G19" s="87" t="s">
+      <c r="F19" s="84"/>
+      <c r="G19" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="H19" s="160" t="s">
+      <c r="H19" s="163" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" customHeight="1" thickBot="1">
-      <c r="A20" s="120"/>
-      <c r="B20" s="144"/>
-      <c r="C20" s="111"/>
-      <c r="D20" s="164" t="s">
+      <c r="A20" s="122"/>
+      <c r="B20" s="146"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="165" t="s">
+      <c r="E20" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="165"/>
-      <c r="G20" s="166" t="s">
+      <c r="F20" s="102"/>
+      <c r="G20" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="H20" s="161"/>
+      <c r="H20" s="164"/>
     </row>
     <row r="21" spans="1:8" ht="97.5" customHeight="1">
-      <c r="A21" s="120"/>
-      <c r="B21" s="144"/>
-      <c r="C21" s="155" t="s">
+      <c r="A21" s="122"/>
+      <c r="B21" s="146"/>
+      <c r="C21" s="158" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="70" t="s">
+      <c r="D21" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="47" t="s">
+      <c r="E21" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="46"/>
-      <c r="G21" s="48" t="s">
+      <c r="F21" s="45"/>
+      <c r="G21" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="113"/>
+      <c r="H21" s="115"/>
     </row>
     <row r="22" spans="1:8" ht="30" customHeight="1">
-      <c r="A22" s="120"/>
-      <c r="B22" s="144"/>
-      <c r="C22" s="156"/>
-      <c r="D22" s="71" t="s">
+      <c r="A22" s="122"/>
+      <c r="B22" s="146"/>
+      <c r="C22" s="159"/>
+      <c r="D22" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="50" t="s">
+      <c r="E22" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="49"/>
-      <c r="G22" s="51" t="s">
+      <c r="F22" s="48"/>
+      <c r="G22" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="H22" s="114"/>
+      <c r="H22" s="116"/>
     </row>
     <row r="23" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A23" s="120"/>
-      <c r="B23" s="144"/>
-      <c r="C23" s="156"/>
-      <c r="D23" s="72" t="s">
+      <c r="A23" s="122"/>
+      <c r="B23" s="146"/>
+      <c r="C23" s="159"/>
+      <c r="D23" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="52" t="s">
+      <c r="E23" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="49" t="s">
+      <c r="F23" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="G23" s="51" t="s">
+      <c r="G23" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="H23" s="114"/>
+      <c r="H23" s="116"/>
     </row>
     <row r="24" spans="1:8" ht="30" customHeight="1">
-      <c r="A24" s="120"/>
-      <c r="B24" s="144"/>
-      <c r="C24" s="156"/>
-      <c r="D24" s="71" t="s">
+      <c r="A24" s="122"/>
+      <c r="B24" s="146"/>
+      <c r="C24" s="159"/>
+      <c r="D24" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="50" t="s">
+      <c r="E24" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="49" t="s">
+      <c r="F24" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="G24" s="51" t="s">
+      <c r="G24" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="H24" s="114"/>
+      <c r="H24" s="116"/>
     </row>
     <row r="25" spans="1:8" ht="51.75" customHeight="1">
-      <c r="A25" s="120"/>
-      <c r="B25" s="144"/>
-      <c r="C25" s="156"/>
-      <c r="D25" s="71" t="s">
+      <c r="A25" s="122"/>
+      <c r="B25" s="146"/>
+      <c r="C25" s="159"/>
+      <c r="D25" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="E25" s="52" t="s">
+      <c r="E25" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="53" t="s">
+      <c r="F25" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="G25" s="51" t="s">
+      <c r="G25" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="H25" s="114"/>
+      <c r="H25" s="116"/>
     </row>
     <row r="26" spans="1:8" ht="292.5" customHeight="1">
-      <c r="A26" s="120"/>
-      <c r="B26" s="144"/>
-      <c r="C26" s="156"/>
-      <c r="D26" s="73" t="s">
+      <c r="A26" s="122"/>
+      <c r="B26" s="146"/>
+      <c r="C26" s="159"/>
+      <c r="D26" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="54" t="s">
+      <c r="E26" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="54" t="s">
+      <c r="F26" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="G26" s="55" t="s">
+      <c r="G26" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="H26" s="114"/>
+      <c r="H26" s="116"/>
     </row>
     <row r="27" spans="1:8" ht="30" customHeight="1" thickBot="1">
-      <c r="A27" s="120"/>
-      <c r="B27" s="144"/>
-      <c r="C27" s="157"/>
-      <c r="D27" s="74" t="s">
+      <c r="A27" s="122"/>
+      <c r="B27" s="146"/>
+      <c r="C27" s="160"/>
+      <c r="D27" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="E27" s="56" t="s">
+      <c r="E27" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="F27" s="56" t="s">
+      <c r="F27" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="57" t="s">
+      <c r="G27" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="H27" s="115"/>
+      <c r="H27" s="117"/>
     </row>
     <row r="28" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A28" s="120"/>
-      <c r="B28" s="144"/>
-      <c r="C28" s="116" t="s">
+      <c r="A28" s="122"/>
+      <c r="B28" s="146"/>
+      <c r="C28" s="118" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="88" t="s">
+      <c r="D28" s="86" t="s">
         <v>84</v>
       </c>
-      <c r="E28" s="89" t="s">
+      <c r="E28" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="86"/>
-      <c r="G28" s="90" t="s">
+      <c r="F28" s="84"/>
+      <c r="G28" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="H28" s="112" t="s">
+      <c r="H28" s="114" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="45" customHeight="1">
-      <c r="A29" s="120"/>
-      <c r="B29" s="144"/>
-      <c r="C29" s="110"/>
-      <c r="D29" s="91" t="s">
+      <c r="A29" s="122"/>
+      <c r="B29" s="146"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="E29" s="92" t="s">
+      <c r="E29" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="F29" s="92" t="s">
+      <c r="F29" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="G29" s="41" t="s">
+      <c r="G29" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="H29" s="106"/>
+      <c r="H29" s="108"/>
     </row>
     <row r="30" spans="1:8" ht="142.5" customHeight="1">
-      <c r="A30" s="120"/>
-      <c r="B30" s="144"/>
-      <c r="C30" s="110"/>
-      <c r="D30" s="75" t="s">
+      <c r="A30" s="122"/>
+      <c r="B30" s="146"/>
+      <c r="C30" s="112"/>
+      <c r="D30" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="28" t="s">
+      <c r="E30" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F30" s="28" t="s">
+      <c r="F30" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="G30" s="33" t="s">
+      <c r="G30" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="H30" s="65" t="s">
+      <c r="H30" s="63" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="30" customHeight="1">
-      <c r="A31" s="120"/>
-      <c r="B31" s="144"/>
-      <c r="C31" s="110"/>
-      <c r="D31" s="75" t="s">
+      <c r="A31" s="122"/>
+      <c r="B31" s="146"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="E31" s="28" t="s">
+      <c r="E31" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="F31" s="28"/>
-      <c r="G31" s="93" t="s">
+      <c r="F31" s="27"/>
+      <c r="G31" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="H31" s="67" t="s">
+      <c r="H31" s="65" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A32" s="120"/>
-      <c r="B32" s="144"/>
-      <c r="C32" s="110"/>
-      <c r="D32" s="75" t="s">
+      <c r="A32" s="122"/>
+      <c r="B32" s="146"/>
+      <c r="C32" s="112"/>
+      <c r="D32" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="E32" s="32" t="s">
+      <c r="E32" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="94"/>
-      <c r="G32" s="95" t="s">
+      <c r="F32" s="92"/>
+      <c r="G32" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="H32" s="65" t="s">
+      <c r="H32" s="63" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="30" customHeight="1">
-      <c r="A33" s="120"/>
-      <c r="B33" s="144"/>
-      <c r="C33" s="110"/>
-      <c r="D33" s="96" t="s">
+      <c r="A33" s="122"/>
+      <c r="B33" s="146"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="E33" s="32" t="s">
+      <c r="E33" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="F33" s="94"/>
-      <c r="G33" s="97" t="s">
+      <c r="F33" s="92"/>
+      <c r="G33" s="95" t="s">
         <v>96</v>
       </c>
-      <c r="H33" s="65" t="s">
+      <c r="H33" s="63" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="30" customHeight="1" thickBot="1">
-      <c r="A34" s="120"/>
-      <c r="B34" s="144"/>
-      <c r="C34" s="111"/>
-      <c r="D34" s="80" t="s">
+      <c r="A34" s="122"/>
+      <c r="B34" s="146"/>
+      <c r="C34" s="113"/>
+      <c r="D34" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="E34" s="39" t="s">
+      <c r="E34" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="F34" s="35"/>
-      <c r="G34" s="36" t="s">
+      <c r="F34" s="34"/>
+      <c r="G34" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="H34" s="67" t="s">
+      <c r="H34" s="169" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="182.25" customHeight="1">
-      <c r="A35" s="120"/>
-      <c r="B35" s="144"/>
-      <c r="C35" s="116" t="s">
+      <c r="A35" s="122"/>
+      <c r="B35" s="146"/>
+      <c r="C35" s="118" t="s">
         <v>111</v>
       </c>
-      <c r="D35" s="117" t="s">
+      <c r="D35" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="30" t="s">
+      <c r="E35" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F35" s="30" t="s">
+      <c r="F35" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="G35" s="42" t="s">
+      <c r="G35" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="H35" s="105" t="s">
+      <c r="H35" s="168" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="176.25" customHeight="1">
-      <c r="A36" s="120"/>
-      <c r="B36" s="144"/>
-      <c r="C36" s="110"/>
-      <c r="D36" s="118"/>
-      <c r="E36" s="28" t="s">
+      <c r="A36" s="122"/>
+      <c r="B36" s="146"/>
+      <c r="C36" s="112"/>
+      <c r="D36" s="120"/>
+      <c r="E36" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="F36" s="98" t="s">
+      <c r="F36" s="96" t="s">
         <v>124</v>
       </c>
-      <c r="G36" s="43" t="s">
+      <c r="G36" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="H36" s="106"/>
+      <c r="H36" s="108"/>
     </row>
     <row r="37" spans="1:8" ht="30" customHeight="1">
-      <c r="A37" s="120"/>
-      <c r="B37" s="144"/>
-      <c r="C37" s="110"/>
-      <c r="D37" s="118"/>
-      <c r="E37" s="28" t="s">
+      <c r="A37" s="122"/>
+      <c r="B37" s="146"/>
+      <c r="C37" s="112"/>
+      <c r="D37" s="120"/>
+      <c r="E37" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F37" s="40" t="s">
+      <c r="F37" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="G37" s="45" t="s">
+      <c r="G37" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="H37" s="67" t="s">
+      <c r="H37" s="65" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="30" customHeight="1">
-      <c r="A38" s="120"/>
-      <c r="B38" s="144"/>
-      <c r="C38" s="110"/>
-      <c r="D38" s="118"/>
-      <c r="E38" s="99" t="s">
+      <c r="A38" s="122"/>
+      <c r="B38" s="146"/>
+      <c r="C38" s="112"/>
+      <c r="D38" s="120"/>
+      <c r="E38" s="97" t="s">
         <v>121</v>
       </c>
-      <c r="F38" s="100" t="s">
+      <c r="F38" s="98" t="s">
         <v>122</v>
       </c>
-      <c r="G38" s="101" t="s">
+      <c r="G38" s="99" t="s">
         <v>123</v>
       </c>
-      <c r="H38" s="67" t="s">
+      <c r="H38" s="65" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="48" customHeight="1" thickBot="1">
-      <c r="A39" s="120"/>
-      <c r="B39" s="145"/>
-      <c r="C39" s="111"/>
-      <c r="D39" s="119"/>
-      <c r="E39" s="38" t="s">
+      <c r="A39" s="122"/>
+      <c r="B39" s="147"/>
+      <c r="C39" s="113"/>
+      <c r="D39" s="121"/>
+      <c r="E39" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="F39" s="61"/>
-      <c r="G39" s="44" t="s">
+      <c r="F39" s="167" t="s">
+        <v>126</v>
+      </c>
+      <c r="G39" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="H39" s="59" t="s">
+      <c r="H39" s="58" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A40" s="120"/>
-      <c r="B40" s="148" t="s">
+      <c r="A40" s="122"/>
+      <c r="B40" s="150" t="s">
         <v>110</v>
       </c>
-      <c r="C40" s="76" t="s">
+      <c r="C40" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="D40" s="77" t="s">
+      <c r="D40" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="E40" s="30" t="s">
+      <c r="E40" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F40" s="63"/>
-      <c r="G40" s="42" t="s">
+      <c r="F40" s="61"/>
+      <c r="G40" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="H40" s="68" t="s">
+      <c r="H40" s="66" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="30" customHeight="1">
-      <c r="A41" s="120"/>
-      <c r="B41" s="149"/>
-      <c r="C41" s="107" t="s">
+      <c r="A41" s="122"/>
+      <c r="B41" s="151"/>
+      <c r="C41" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="D41" s="78" t="s">
+      <c r="D41" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="29" t="s">
+      <c r="E41" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="F41" s="62"/>
-      <c r="G41" s="37" t="s">
+      <c r="F41" s="60"/>
+      <c r="G41" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="H41" s="105" t="s">
+      <c r="H41" s="107" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="30" customHeight="1">
-      <c r="A42" s="120"/>
-      <c r="B42" s="149"/>
-      <c r="C42" s="108"/>
-      <c r="D42" s="79" t="s">
+      <c r="A42" s="122"/>
+      <c r="B42" s="151"/>
+      <c r="C42" s="110"/>
+      <c r="D42" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="31" t="s">
+      <c r="E42" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="F42" s="31"/>
-      <c r="G42" s="34" t="s">
+      <c r="F42" s="30"/>
+      <c r="G42" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="H42" s="106"/>
+      <c r="H42" s="108"/>
     </row>
     <row r="43" spans="1:8" ht="30" customHeight="1">
-      <c r="A43" s="120"/>
-      <c r="B43" s="149"/>
-      <c r="C43" s="108"/>
-      <c r="D43" s="79" t="s">
+      <c r="A43" s="122"/>
+      <c r="B43" s="151"/>
+      <c r="C43" s="110"/>
+      <c r="D43" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="E43" s="31" t="s">
+      <c r="E43" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="F43" s="31"/>
-      <c r="G43" s="102" t="s">
+      <c r="F43" s="30"/>
+      <c r="G43" s="100" t="s">
         <v>96</v>
       </c>
       <c r="H43" s="1" t="s">
@@ -3412,75 +3427,75 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="30" customHeight="1">
-      <c r="A44" s="120"/>
-      <c r="B44" s="149"/>
-      <c r="C44" s="108"/>
-      <c r="D44" s="79" t="s">
+      <c r="A44" s="122"/>
+      <c r="B44" s="151"/>
+      <c r="C44" s="110"/>
+      <c r="D44" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="E44" s="31" t="s">
+      <c r="E44" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="F44" s="31"/>
-      <c r="G44" s="102" t="s">
+      <c r="F44" s="30"/>
+      <c r="G44" s="100" t="s">
         <v>96</v>
       </c>
-      <c r="H44" s="103"/>
+      <c r="H44" s="105"/>
     </row>
     <row r="45" spans="1:8" ht="30" customHeight="1">
-      <c r="A45" s="120"/>
-      <c r="B45" s="149"/>
-      <c r="C45" s="109"/>
-      <c r="D45" s="79" t="s">
+      <c r="A45" s="122"/>
+      <c r="B45" s="151"/>
+      <c r="C45" s="111"/>
+      <c r="D45" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="E45" s="32" t="s">
+      <c r="E45" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="F45" s="31"/>
-      <c r="G45" s="102" t="s">
+      <c r="F45" s="30"/>
+      <c r="G45" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="H45" s="104"/>
+      <c r="H45" s="106"/>
     </row>
     <row r="46" spans="1:8" ht="30" customHeight="1">
-      <c r="A46" s="120"/>
-      <c r="B46" s="149"/>
-      <c r="C46" s="110" t="s">
+      <c r="A46" s="122"/>
+      <c r="B46" s="151"/>
+      <c r="C46" s="112" t="s">
         <v>118</v>
       </c>
-      <c r="D46" s="146" t="s">
+      <c r="D46" s="148" t="s">
         <v>102</v>
       </c>
-      <c r="E46" s="60" t="s">
+      <c r="E46" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="F46" s="29"/>
-      <c r="G46" s="41" t="s">
+      <c r="F46" s="28"/>
+      <c r="G46" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="H46" s="64" t="s">
+      <c r="H46" s="62" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="A47" s="120"/>
-      <c r="B47" s="150"/>
-      <c r="C47" s="111"/>
-      <c r="D47" s="147"/>
-      <c r="E47" s="66" t="s">
+      <c r="A47" s="122"/>
+      <c r="B47" s="152"/>
+      <c r="C47" s="113"/>
+      <c r="D47" s="149"/>
+      <c r="E47" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="F47" s="27"/>
-      <c r="G47" s="44" t="s">
+      <c r="F47" s="26"/>
+      <c r="G47" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="H47" s="69" t="s">
+      <c r="H47" s="67" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A48" s="120"/>
+      <c r="A48" s="122"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -3488,7 +3503,7 @@
       <c r="F48" s="1"/>
     </row>
     <row r="49" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A49" s="120"/>
+      <c r="A49" s="122"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -3496,7 +3511,7 @@
       <c r="F49" s="1"/>
     </row>
     <row r="50" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A50" s="120"/>
+      <c r="A50" s="122"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -3504,7 +3519,7 @@
       <c r="F50" s="1"/>
     </row>
     <row r="51" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A51" s="120"/>
+      <c r="A51" s="122"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -3512,7 +3527,7 @@
       <c r="F51" s="1"/>
     </row>
     <row r="52" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A52" s="120"/>
+      <c r="A52" s="122"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -3520,7 +3535,7 @@
       <c r="F52" s="1"/>
     </row>
     <row r="53" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A53" s="120"/>
+      <c r="A53" s="122"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -3528,7 +3543,7 @@
       <c r="F53" s="1"/>
     </row>
     <row r="54" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A54" s="120"/>
+      <c r="A54" s="122"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -3536,7 +3551,7 @@
       <c r="F54" s="1"/>
     </row>
     <row r="55" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A55" s="120"/>
+      <c r="A55" s="122"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -3544,7 +3559,7 @@
       <c r="F55" s="1"/>
     </row>
     <row r="56" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A56" s="120"/>
+      <c r="A56" s="122"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -3552,7 +3567,7 @@
       <c r="F56" s="1"/>
     </row>
     <row r="57" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A57" s="120"/>
+      <c r="A57" s="122"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -3560,7 +3575,7 @@
       <c r="F57" s="1"/>
     </row>
     <row r="58" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A58" s="120"/>
+      <c r="A58" s="122"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -3568,7 +3583,7 @@
       <c r="F58" s="1"/>
     </row>
     <row r="59" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A59" s="120"/>
+      <c r="A59" s="122"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -3576,7 +3591,7 @@
       <c r="F59" s="1"/>
     </row>
     <row r="60" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A60" s="120"/>
+      <c r="A60" s="122"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -3584,7 +3599,7 @@
       <c r="F60" s="1"/>
     </row>
     <row r="61" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A61" s="120"/>
+      <c r="A61" s="122"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -3592,7 +3607,7 @@
       <c r="F61" s="1"/>
     </row>
     <row r="62" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A62" s="120"/>
+      <c r="A62" s="122"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -3600,7 +3615,7 @@
       <c r="F62" s="1"/>
     </row>
     <row r="63" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A63" s="120"/>
+      <c r="A63" s="122"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -3608,7 +3623,7 @@
       <c r="F63" s="1"/>
     </row>
     <row r="64" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A64" s="120"/>
+      <c r="A64" s="122"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -3616,7 +3631,7 @@
       <c r="F64" s="1"/>
     </row>
     <row r="65" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A65" s="120"/>
+      <c r="A65" s="122"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -3624,7 +3639,7 @@
       <c r="F65" s="1"/>
     </row>
     <row r="66" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A66" s="120"/>
+      <c r="A66" s="122"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -3632,7 +3647,7 @@
       <c r="F66" s="1"/>
     </row>
     <row r="67" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A67" s="120"/>
+      <c r="A67" s="122"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -3640,7 +3655,7 @@
       <c r="F67" s="1"/>
     </row>
     <row r="68" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A68" s="120"/>
+      <c r="A68" s="122"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -3648,7 +3663,7 @@
       <c r="F68" s="1"/>
     </row>
     <row r="69" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A69" s="120"/>
+      <c r="A69" s="122"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -3656,7 +3671,7 @@
       <c r="F69" s="1"/>
     </row>
     <row r="70" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A70" s="120"/>
+      <c r="A70" s="122"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -3664,7 +3679,7 @@
       <c r="F70" s="1"/>
     </row>
     <row r="71" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A71" s="120"/>
+      <c r="A71" s="122"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -3672,7 +3687,7 @@
       <c r="F71" s="1"/>
     </row>
     <row r="72" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A72" s="120"/>
+      <c r="A72" s="122"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -3680,7 +3695,7 @@
       <c r="F72" s="1"/>
     </row>
     <row r="73" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A73" s="120"/>
+      <c r="A73" s="122"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -3688,7 +3703,7 @@
       <c r="F73" s="1"/>
     </row>
     <row r="74" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A74" s="120"/>
+      <c r="A74" s="122"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -3696,7 +3711,7 @@
       <c r="F74" s="1"/>
     </row>
     <row r="75" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A75" s="120"/>
+      <c r="A75" s="122"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -3704,7 +3719,7 @@
       <c r="F75" s="1"/>
     </row>
     <row r="76" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A76" s="120"/>
+      <c r="A76" s="122"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -3712,7 +3727,7 @@
       <c r="F76" s="1"/>
     </row>
     <row r="77" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A77" s="120"/>
+      <c r="A77" s="122"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -3720,7 +3735,7 @@
       <c r="F77" s="1"/>
     </row>
     <row r="78" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A78" s="120"/>
+      <c r="A78" s="122"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -3728,7 +3743,7 @@
       <c r="F78" s="1"/>
     </row>
     <row r="79" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A79" s="120"/>
+      <c r="A79" s="122"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -3736,7 +3751,7 @@
       <c r="F79" s="1"/>
     </row>
     <row r="80" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A80" s="120"/>
+      <c r="A80" s="122"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -3744,7 +3759,7 @@
       <c r="F80" s="1"/>
     </row>
     <row r="81" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A81" s="120"/>
+      <c r="A81" s="122"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -3752,7 +3767,7 @@
       <c r="F81" s="1"/>
     </row>
     <row r="82" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A82" s="120"/>
+      <c r="A82" s="122"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -3760,7 +3775,7 @@
       <c r="F82" s="1"/>
     </row>
     <row r="83" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A83" s="120"/>
+      <c r="A83" s="122"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -3768,7 +3783,7 @@
       <c r="F83" s="1"/>
     </row>
     <row r="84" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A84" s="120"/>
+      <c r="A84" s="122"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -3776,7 +3791,7 @@
       <c r="F84" s="1"/>
     </row>
     <row r="85" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A85" s="120"/>
+      <c r="A85" s="122"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -3784,7 +3799,7 @@
       <c r="F85" s="1"/>
     </row>
     <row r="86" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A86" s="120"/>
+      <c r="A86" s="122"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -3792,7 +3807,7 @@
       <c r="F86" s="1"/>
     </row>
     <row r="87" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A87" s="120"/>
+      <c r="A87" s="122"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -3800,7 +3815,7 @@
       <c r="F87" s="1"/>
     </row>
     <row r="88" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A88" s="120"/>
+      <c r="A88" s="122"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3808,7 +3823,7 @@
       <c r="F88" s="1"/>
     </row>
     <row r="89" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A89" s="120"/>
+      <c r="A89" s="122"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3816,7 +3831,7 @@
       <c r="F89" s="1"/>
     </row>
     <row r="90" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A90" s="120"/>
+      <c r="A90" s="122"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3824,7 +3839,7 @@
       <c r="F90" s="1"/>
     </row>
     <row r="91" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A91" s="120"/>
+      <c r="A91" s="122"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3832,7 +3847,7 @@
       <c r="F91" s="1"/>
     </row>
     <row r="92" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A92" s="120"/>
+      <c r="A92" s="122"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3840,7 +3855,7 @@
       <c r="F92" s="1"/>
     </row>
     <row r="93" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A93" s="120"/>
+      <c r="A93" s="122"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -3848,7 +3863,7 @@
       <c r="F93" s="1"/>
     </row>
     <row r="94" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A94" s="120"/>
+      <c r="A94" s="122"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3856,7 +3871,7 @@
       <c r="F94" s="1"/>
     </row>
     <row r="95" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A95" s="120"/>
+      <c r="A95" s="122"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -3864,7 +3879,7 @@
       <c r="F95" s="1"/>
     </row>
     <row r="96" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A96" s="120"/>
+      <c r="A96" s="122"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3872,7 +3887,7 @@
       <c r="F96" s="1"/>
     </row>
     <row r="97" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A97" s="120"/>
+      <c r="A97" s="122"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -3880,7 +3895,7 @@
       <c r="F97" s="1"/>
     </row>
     <row r="98" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A98" s="120"/>
+      <c r="A98" s="122"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -3888,7 +3903,7 @@
       <c r="F98" s="1"/>
     </row>
     <row r="99" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A99" s="120"/>
+      <c r="A99" s="122"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -3896,7 +3911,7 @@
       <c r="F99" s="1"/>
     </row>
     <row r="100" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A100" s="120"/>
+      <c r="A100" s="122"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -3904,7 +3919,7 @@
       <c r="F100" s="1"/>
     </row>
     <row r="101" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A101" s="120"/>
+      <c r="A101" s="122"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -3912,7 +3927,7 @@
       <c r="F101" s="1"/>
     </row>
     <row r="102" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A102" s="120"/>
+      <c r="A102" s="122"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -3920,7 +3935,7 @@
       <c r="F102" s="1"/>
     </row>
     <row r="103" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A103" s="120"/>
+      <c r="A103" s="122"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -3928,7 +3943,7 @@
       <c r="F103" s="1"/>
     </row>
     <row r="104" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A104" s="120"/>
+      <c r="A104" s="122"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -3936,7 +3951,7 @@
       <c r="F104" s="1"/>
     </row>
     <row r="105" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A105" s="120"/>
+      <c r="A105" s="122"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -3944,7 +3959,7 @@
       <c r="F105" s="1"/>
     </row>
     <row r="106" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A106" s="120"/>
+      <c r="A106" s="122"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -4036,15 +4051,15 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1">
       <c r="A1" s="7"/>
-      <c r="B1" s="120"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A2" s="163"/>
+      <c r="A2" s="166"/>
       <c r="B2" s="8" t="s">
         <v>62</v>
       </c>
@@ -4060,10 +4075,10 @@
       <c r="F2" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="163"/>
+      <c r="G2" s="166"/>
     </row>
     <row r="3" spans="1:7" ht="176.25" customHeight="1">
-      <c r="A3" s="162"/>
+      <c r="A3" s="165"/>
       <c r="B3" s="9">
         <v>1</v>
       </c>
@@ -4077,10 +4092,10 @@
       <c r="F3" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="162"/>
+      <c r="G3" s="165"/>
     </row>
     <row r="4" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A4" s="162"/>
+      <c r="A4" s="165"/>
       <c r="B4" s="9">
         <v>2</v>
       </c>
@@ -4088,10 +4103,10 @@
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="162"/>
+      <c r="G4" s="165"/>
     </row>
     <row r="5" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A5" s="162"/>
+      <c r="A5" s="165"/>
       <c r="B5" s="9">
         <v>3</v>
       </c>
@@ -4099,10 +4114,10 @@
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="162"/>
+      <c r="G5" s="165"/>
     </row>
     <row r="6" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A6" s="162"/>
+      <c r="A6" s="165"/>
       <c r="B6" s="9">
         <v>4</v>
       </c>
@@ -4110,10 +4125,10 @@
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="162"/>
+      <c r="G6" s="165"/>
     </row>
     <row r="7" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A7" s="162"/>
+      <c r="A7" s="165"/>
       <c r="B7" s="9">
         <v>5</v>
       </c>
@@ -4121,10 +4136,10 @@
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
-      <c r="G7" s="162"/>
+      <c r="G7" s="165"/>
     </row>
     <row r="8" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A8" s="162"/>
+      <c r="A8" s="165"/>
       <c r="B8" s="9">
         <v>6</v>
       </c>
@@ -4132,10 +4147,10 @@
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
-      <c r="G8" s="162"/>
+      <c r="G8" s="165"/>
     </row>
     <row r="9" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A9" s="162"/>
+      <c r="A9" s="165"/>
       <c r="B9" s="9">
         <v>7</v>
       </c>
@@ -4143,10 +4158,10 @@
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
-      <c r="G9" s="162"/>
+      <c r="G9" s="165"/>
     </row>
     <row r="10" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A10" s="162"/>
+      <c r="A10" s="165"/>
       <c r="B10" s="9">
         <v>8</v>
       </c>
@@ -4154,10 +4169,10 @@
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
-      <c r="G10" s="162"/>
+      <c r="G10" s="165"/>
     </row>
     <row r="11" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A11" s="162"/>
+      <c r="A11" s="165"/>
       <c r="B11" s="9">
         <v>9</v>
       </c>
@@ -4165,10 +4180,10 @@
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
-      <c r="G11" s="162"/>
+      <c r="G11" s="165"/>
     </row>
     <row r="12" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A12" s="162"/>
+      <c r="A12" s="165"/>
       <c r="B12" s="9">
         <v>10</v>
       </c>
@@ -4176,10 +4191,10 @@
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
-      <c r="G12" s="162"/>
+      <c r="G12" s="165"/>
     </row>
     <row r="13" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A13" s="162"/>
+      <c r="A13" s="165"/>
       <c r="B13" s="9">
         <v>11</v>
       </c>
@@ -4187,10 +4202,10 @@
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
-      <c r="G13" s="162"/>
+      <c r="G13" s="165"/>
     </row>
     <row r="14" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A14" s="162"/>
+      <c r="A14" s="165"/>
       <c r="B14" s="9">
         <v>12</v>
       </c>
@@ -4198,10 +4213,10 @@
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
-      <c r="G14" s="162"/>
+      <c r="G14" s="165"/>
     </row>
     <row r="15" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A15" s="162"/>
+      <c r="A15" s="165"/>
       <c r="B15" s="9">
         <v>13</v>
       </c>
@@ -4209,10 +4224,10 @@
       <c r="D15" s="17"/>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="162"/>
+      <c r="G15" s="165"/>
     </row>
     <row r="16" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A16" s="162"/>
+      <c r="A16" s="165"/>
       <c r="B16" s="9">
         <v>14</v>
       </c>
@@ -4220,10 +4235,10 @@
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
       <c r="F16" s="18"/>
-      <c r="G16" s="162"/>
+      <c r="G16" s="165"/>
     </row>
     <row r="17" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A17" s="162"/>
+      <c r="A17" s="165"/>
       <c r="B17" s="9">
         <v>15</v>
       </c>
@@ -4231,10 +4246,10 @@
       <c r="D17" s="18"/>
       <c r="E17" s="15"/>
       <c r="F17" s="18"/>
-      <c r="G17" s="162"/>
+      <c r="G17" s="165"/>
     </row>
     <row r="18" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A18" s="162"/>
+      <c r="A18" s="165"/>
       <c r="B18" s="9">
         <v>16</v>
       </c>
@@ -4242,10 +4257,10 @@
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
-      <c r="G18" s="162"/>
+      <c r="G18" s="165"/>
     </row>
     <row r="19" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A19" s="162"/>
+      <c r="A19" s="165"/>
       <c r="B19" s="9">
         <v>17</v>
       </c>
@@ -4253,10 +4268,10 @@
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
-      <c r="G19" s="162"/>
+      <c r="G19" s="165"/>
     </row>
     <row r="20" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A20" s="162"/>
+      <c r="A20" s="165"/>
       <c r="B20" s="9">
         <v>18</v>
       </c>
@@ -4264,10 +4279,10 @@
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
-      <c r="G20" s="162"/>
+      <c r="G20" s="165"/>
     </row>
     <row r="21" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A21" s="162"/>
+      <c r="A21" s="165"/>
       <c r="B21" s="9">
         <v>19</v>
       </c>
@@ -4275,10 +4290,10 @@
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="18"/>
-      <c r="G21" s="162"/>
+      <c r="G21" s="165"/>
     </row>
     <row r="22" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A22" s="162"/>
+      <c r="A22" s="165"/>
       <c r="B22" s="9">
         <v>20</v>
       </c>
@@ -4286,4300 +4301,4300 @@
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
-      <c r="G22" s="162"/>
+      <c r="G22" s="165"/>
     </row>
     <row r="23" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A23" s="162"/>
+      <c r="A23" s="165"/>
       <c r="B23" s="9"/>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
-      <c r="G23" s="162"/>
+      <c r="G23" s="165"/>
     </row>
     <row r="24" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A24" s="162"/>
+      <c r="A24" s="165"/>
       <c r="B24" s="9"/>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
-      <c r="G24" s="162"/>
+      <c r="G24" s="165"/>
     </row>
     <row r="25" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A25" s="162"/>
+      <c r="A25" s="165"/>
       <c r="B25" s="9"/>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
-      <c r="G25" s="162"/>
+      <c r="G25" s="165"/>
     </row>
     <row r="26" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A26" s="162"/>
+      <c r="A26" s="165"/>
       <c r="B26" s="9"/>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
-      <c r="G26" s="162"/>
+      <c r="G26" s="165"/>
     </row>
     <row r="27" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A27" s="162"/>
+      <c r="A27" s="165"/>
       <c r="B27" s="9"/>
       <c r="C27" s="18"/>
       <c r="D27" s="15"/>
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
-      <c r="G27" s="162"/>
+      <c r="G27" s="165"/>
     </row>
     <row r="28" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A28" s="162"/>
+      <c r="A28" s="165"/>
       <c r="B28" s="9"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
       <c r="F28" s="18"/>
-      <c r="G28" s="162"/>
+      <c r="G28" s="165"/>
     </row>
     <row r="29" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A29" s="162"/>
+      <c r="A29" s="165"/>
       <c r="B29" s="9"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
-      <c r="G29" s="162"/>
+      <c r="G29" s="165"/>
     </row>
     <row r="30" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A30" s="162"/>
+      <c r="A30" s="165"/>
       <c r="B30" s="19"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="F30" s="13"/>
-      <c r="G30" s="162"/>
+      <c r="G30" s="165"/>
     </row>
     <row r="31" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A31" s="162"/>
+      <c r="A31" s="165"/>
       <c r="B31" s="19"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
       <c r="F31" s="13"/>
-      <c r="G31" s="162"/>
+      <c r="G31" s="165"/>
     </row>
     <row r="32" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A32" s="162"/>
+      <c r="A32" s="165"/>
       <c r="B32" s="19"/>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
       <c r="E32" s="18"/>
       <c r="F32" s="13"/>
-      <c r="G32" s="162"/>
+      <c r="G32" s="165"/>
     </row>
     <row r="33" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A33" s="162"/>
+      <c r="A33" s="165"/>
       <c r="B33" s="19"/>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
       <c r="F33" s="13"/>
-      <c r="G33" s="162"/>
+      <c r="G33" s="165"/>
     </row>
     <row r="34" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A34" s="162"/>
+      <c r="A34" s="165"/>
       <c r="B34" s="19"/>
       <c r="C34" s="18"/>
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
       <c r="F34" s="13"/>
-      <c r="G34" s="162"/>
+      <c r="G34" s="165"/>
     </row>
     <row r="35" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A35" s="162"/>
+      <c r="A35" s="165"/>
       <c r="B35" s="19"/>
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
       <c r="E35" s="18"/>
       <c r="F35" s="13"/>
-      <c r="G35" s="162"/>
+      <c r="G35" s="165"/>
     </row>
     <row r="36" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A36" s="162"/>
+      <c r="A36" s="165"/>
       <c r="B36" s="19"/>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
       <c r="E36" s="18"/>
       <c r="F36" s="13"/>
-      <c r="G36" s="162"/>
+      <c r="G36" s="165"/>
     </row>
     <row r="37" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A37" s="162"/>
+      <c r="A37" s="165"/>
       <c r="B37" s="19"/>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
-      <c r="G37" s="162"/>
+      <c r="G37" s="165"/>
     </row>
     <row r="38" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A38" s="162"/>
+      <c r="A38" s="165"/>
       <c r="B38" s="19"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
-      <c r="G38" s="162"/>
+      <c r="G38" s="165"/>
     </row>
     <row r="39" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A39" s="162"/>
+      <c r="A39" s="165"/>
       <c r="B39" s="19"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
-      <c r="G39" s="162"/>
+      <c r="G39" s="165"/>
     </row>
     <row r="40" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A40" s="162"/>
+      <c r="A40" s="165"/>
       <c r="B40" s="19"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
-      <c r="G40" s="162"/>
+      <c r="G40" s="165"/>
     </row>
     <row r="41" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A41" s="162"/>
+      <c r="A41" s="165"/>
       <c r="B41" s="19"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
-      <c r="G41" s="162"/>
+      <c r="G41" s="165"/>
     </row>
     <row r="42" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A42" s="162"/>
+      <c r="A42" s="165"/>
       <c r="B42" s="19"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
-      <c r="G42" s="162"/>
+      <c r="G42" s="165"/>
     </row>
     <row r="43" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A43" s="162"/>
+      <c r="A43" s="165"/>
       <c r="B43" s="19"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
-      <c r="G43" s="162"/>
+      <c r="G43" s="165"/>
     </row>
     <row r="44" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A44" s="162"/>
+      <c r="A44" s="165"/>
       <c r="B44" s="19"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
-      <c r="G44" s="162"/>
+      <c r="G44" s="165"/>
     </row>
     <row r="45" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A45" s="162"/>
+      <c r="A45" s="165"/>
       <c r="B45" s="19"/>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
-      <c r="G45" s="162"/>
+      <c r="G45" s="165"/>
     </row>
     <row r="46" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A46" s="162"/>
+      <c r="A46" s="165"/>
       <c r="B46" s="19"/>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
-      <c r="G46" s="162"/>
+      <c r="G46" s="165"/>
     </row>
     <row r="47" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A47" s="162"/>
+      <c r="A47" s="165"/>
       <c r="B47" s="19"/>
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
       <c r="E47" s="13"/>
       <c r="F47" s="13"/>
-      <c r="G47" s="162"/>
+      <c r="G47" s="165"/>
     </row>
     <row r="48" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A48" s="162"/>
+      <c r="A48" s="165"/>
       <c r="B48" s="19"/>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
       <c r="E48" s="13"/>
       <c r="F48" s="13"/>
-      <c r="G48" s="162"/>
+      <c r="G48" s="165"/>
     </row>
     <row r="49" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A49" s="162"/>
+      <c r="A49" s="165"/>
       <c r="B49" s="19"/>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
-      <c r="G49" s="162"/>
+      <c r="G49" s="165"/>
     </row>
     <row r="50" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A50" s="162"/>
+      <c r="A50" s="165"/>
       <c r="B50" s="19"/>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
-      <c r="G50" s="162"/>
+      <c r="G50" s="165"/>
     </row>
     <row r="51" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A51" s="162"/>
+      <c r="A51" s="165"/>
       <c r="B51" s="19"/>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="13"/>
       <c r="F51" s="13"/>
-      <c r="G51" s="162"/>
+      <c r="G51" s="165"/>
     </row>
     <row r="52" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A52" s="162"/>
+      <c r="A52" s="165"/>
       <c r="B52" s="19"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
       <c r="E52" s="13"/>
       <c r="F52" s="13"/>
-      <c r="G52" s="162"/>
+      <c r="G52" s="165"/>
     </row>
     <row r="53" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A53" s="162"/>
+      <c r="A53" s="165"/>
       <c r="B53" s="19"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
       <c r="F53" s="13"/>
-      <c r="G53" s="162"/>
+      <c r="G53" s="165"/>
     </row>
     <row r="54" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A54" s="162"/>
+      <c r="A54" s="165"/>
       <c r="B54" s="19"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
       <c r="F54" s="13"/>
-      <c r="G54" s="162"/>
+      <c r="G54" s="165"/>
     </row>
     <row r="55" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A55" s="162"/>
+      <c r="A55" s="165"/>
       <c r="B55" s="19"/>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
       <c r="E55" s="13"/>
       <c r="F55" s="13"/>
-      <c r="G55" s="162"/>
+      <c r="G55" s="165"/>
     </row>
     <row r="56" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A56" s="162"/>
+      <c r="A56" s="165"/>
       <c r="B56" s="19"/>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
       <c r="E56" s="13"/>
       <c r="F56" s="13"/>
-      <c r="G56" s="162"/>
+      <c r="G56" s="165"/>
     </row>
     <row r="57" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A57" s="162"/>
+      <c r="A57" s="165"/>
       <c r="B57" s="19"/>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
       <c r="E57" s="13"/>
       <c r="F57" s="13"/>
-      <c r="G57" s="162"/>
+      <c r="G57" s="165"/>
     </row>
     <row r="58" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A58" s="162"/>
+      <c r="A58" s="165"/>
       <c r="B58" s="19"/>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
       <c r="E58" s="13"/>
       <c r="F58" s="13"/>
-      <c r="G58" s="162"/>
+      <c r="G58" s="165"/>
     </row>
     <row r="59" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A59" s="162"/>
+      <c r="A59" s="165"/>
       <c r="B59" s="19"/>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
-      <c r="G59" s="162"/>
+      <c r="G59" s="165"/>
     </row>
     <row r="60" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A60" s="162"/>
+      <c r="A60" s="165"/>
       <c r="B60" s="19"/>
       <c r="C60" s="13"/>
       <c r="D60" s="13"/>
       <c r="E60" s="13"/>
       <c r="F60" s="13"/>
-      <c r="G60" s="162"/>
+      <c r="G60" s="165"/>
     </row>
     <row r="61" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A61" s="162"/>
+      <c r="A61" s="165"/>
       <c r="B61" s="19"/>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
       <c r="E61" s="13"/>
       <c r="F61" s="13"/>
-      <c r="G61" s="162"/>
+      <c r="G61" s="165"/>
     </row>
     <row r="62" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A62" s="162"/>
+      <c r="A62" s="165"/>
       <c r="B62" s="19"/>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
       <c r="E62" s="13"/>
       <c r="F62" s="13"/>
-      <c r="G62" s="162"/>
+      <c r="G62" s="165"/>
     </row>
     <row r="63" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A63" s="162"/>
+      <c r="A63" s="165"/>
       <c r="B63" s="19"/>
       <c r="C63" s="13"/>
       <c r="D63" s="13"/>
       <c r="E63" s="13"/>
       <c r="F63" s="13"/>
-      <c r="G63" s="162"/>
+      <c r="G63" s="165"/>
     </row>
     <row r="64" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A64" s="162"/>
+      <c r="A64" s="165"/>
       <c r="B64" s="19"/>
       <c r="C64" s="13"/>
       <c r="D64" s="13"/>
       <c r="E64" s="13"/>
       <c r="F64" s="13"/>
-      <c r="G64" s="162"/>
+      <c r="G64" s="165"/>
     </row>
     <row r="65" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A65" s="162"/>
+      <c r="A65" s="165"/>
       <c r="B65" s="19"/>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
       <c r="E65" s="13"/>
       <c r="F65" s="13"/>
-      <c r="G65" s="162"/>
+      <c r="G65" s="165"/>
     </row>
     <row r="66" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A66" s="162"/>
+      <c r="A66" s="165"/>
       <c r="B66" s="19"/>
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
       <c r="E66" s="13"/>
       <c r="F66" s="13"/>
-      <c r="G66" s="162"/>
+      <c r="G66" s="165"/>
     </row>
     <row r="67" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A67" s="162"/>
+      <c r="A67" s="165"/>
       <c r="B67" s="19"/>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
       <c r="E67" s="13"/>
       <c r="F67" s="13"/>
-      <c r="G67" s="162"/>
+      <c r="G67" s="165"/>
     </row>
     <row r="68" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A68" s="162"/>
+      <c r="A68" s="165"/>
       <c r="B68" s="19"/>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
       <c r="E68" s="13"/>
       <c r="F68" s="13"/>
-      <c r="G68" s="162"/>
+      <c r="G68" s="165"/>
     </row>
     <row r="69" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A69" s="162"/>
+      <c r="A69" s="165"/>
       <c r="B69" s="19"/>
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
       <c r="E69" s="13"/>
       <c r="F69" s="13"/>
-      <c r="G69" s="162"/>
+      <c r="G69" s="165"/>
     </row>
     <row r="70" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A70" s="162"/>
+      <c r="A70" s="165"/>
       <c r="B70" s="19"/>
       <c r="C70" s="13"/>
       <c r="D70" s="13"/>
       <c r="E70" s="13"/>
       <c r="F70" s="13"/>
-      <c r="G70" s="162"/>
+      <c r="G70" s="165"/>
     </row>
     <row r="71" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A71" s="162"/>
+      <c r="A71" s="165"/>
       <c r="B71" s="19"/>
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
       <c r="E71" s="13"/>
       <c r="F71" s="13"/>
-      <c r="G71" s="162"/>
+      <c r="G71" s="165"/>
     </row>
     <row r="72" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A72" s="162"/>
+      <c r="A72" s="165"/>
       <c r="B72" s="19"/>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
       <c r="E72" s="13"/>
       <c r="F72" s="13"/>
-      <c r="G72" s="162"/>
+      <c r="G72" s="165"/>
     </row>
     <row r="73" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A73" s="162"/>
+      <c r="A73" s="165"/>
       <c r="B73" s="19"/>
       <c r="C73" s="13"/>
       <c r="D73" s="13"/>
       <c r="E73" s="13"/>
       <c r="F73" s="13"/>
-      <c r="G73" s="162"/>
+      <c r="G73" s="165"/>
     </row>
     <row r="74" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A74" s="162"/>
+      <c r="A74" s="165"/>
       <c r="B74" s="19"/>
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
       <c r="E74" s="13"/>
       <c r="F74" s="13"/>
-      <c r="G74" s="162"/>
+      <c r="G74" s="165"/>
     </row>
     <row r="75" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A75" s="162"/>
+      <c r="A75" s="165"/>
       <c r="B75" s="19"/>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
       <c r="E75" s="13"/>
       <c r="F75" s="13"/>
-      <c r="G75" s="162"/>
+      <c r="G75" s="165"/>
     </row>
     <row r="76" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A76" s="162"/>
+      <c r="A76" s="165"/>
       <c r="B76" s="19"/>
       <c r="C76" s="13"/>
       <c r="D76" s="13"/>
       <c r="E76" s="13"/>
       <c r="F76" s="13"/>
-      <c r="G76" s="162"/>
+      <c r="G76" s="165"/>
     </row>
     <row r="77" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A77" s="162"/>
+      <c r="A77" s="165"/>
       <c r="B77" s="19"/>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
       <c r="E77" s="13"/>
       <c r="F77" s="13"/>
-      <c r="G77" s="162"/>
+      <c r="G77" s="165"/>
     </row>
     <row r="78" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A78" s="162"/>
+      <c r="A78" s="165"/>
       <c r="B78" s="19"/>
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
       <c r="E78" s="13"/>
       <c r="F78" s="13"/>
-      <c r="G78" s="162"/>
+      <c r="G78" s="165"/>
     </row>
     <row r="79" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A79" s="162"/>
+      <c r="A79" s="165"/>
       <c r="B79" s="19"/>
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
       <c r="E79" s="13"/>
       <c r="F79" s="13"/>
-      <c r="G79" s="162"/>
+      <c r="G79" s="165"/>
     </row>
     <row r="80" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A80" s="162"/>
+      <c r="A80" s="165"/>
       <c r="B80" s="19"/>
       <c r="C80" s="13"/>
       <c r="D80" s="13"/>
       <c r="E80" s="13"/>
       <c r="F80" s="13"/>
-      <c r="G80" s="162"/>
+      <c r="G80" s="165"/>
     </row>
     <row r="81" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A81" s="162"/>
+      <c r="A81" s="165"/>
       <c r="B81" s="19"/>
       <c r="C81" s="13"/>
       <c r="D81" s="13"/>
       <c r="E81" s="13"/>
       <c r="F81" s="13"/>
-      <c r="G81" s="162"/>
+      <c r="G81" s="165"/>
     </row>
     <row r="82" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A82" s="162"/>
+      <c r="A82" s="165"/>
       <c r="B82" s="19"/>
       <c r="C82" s="13"/>
       <c r="D82" s="13"/>
       <c r="E82" s="13"/>
       <c r="F82" s="13"/>
-      <c r="G82" s="162"/>
+      <c r="G82" s="165"/>
     </row>
     <row r="83" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A83" s="162"/>
+      <c r="A83" s="165"/>
       <c r="B83" s="19"/>
       <c r="C83" s="13"/>
       <c r="D83" s="13"/>
       <c r="E83" s="13"/>
       <c r="F83" s="13"/>
-      <c r="G83" s="162"/>
+      <c r="G83" s="165"/>
     </row>
     <row r="84" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A84" s="162"/>
+      <c r="A84" s="165"/>
       <c r="B84" s="19"/>
       <c r="C84" s="13"/>
       <c r="D84" s="13"/>
       <c r="E84" s="13"/>
       <c r="F84" s="13"/>
-      <c r="G84" s="162"/>
+      <c r="G84" s="165"/>
     </row>
     <row r="85" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A85" s="162"/>
+      <c r="A85" s="165"/>
       <c r="B85" s="19"/>
       <c r="C85" s="13"/>
       <c r="D85" s="13"/>
       <c r="E85" s="13"/>
       <c r="F85" s="13"/>
-      <c r="G85" s="162"/>
+      <c r="G85" s="165"/>
     </row>
     <row r="86" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A86" s="162"/>
+      <c r="A86" s="165"/>
       <c r="B86" s="19"/>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
       <c r="E86" s="13"/>
       <c r="F86" s="13"/>
-      <c r="G86" s="162"/>
+      <c r="G86" s="165"/>
     </row>
     <row r="87" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A87" s="162"/>
+      <c r="A87" s="165"/>
       <c r="B87" s="19"/>
       <c r="C87" s="13"/>
       <c r="D87" s="13"/>
       <c r="E87" s="13"/>
       <c r="F87" s="13"/>
-      <c r="G87" s="162"/>
+      <c r="G87" s="165"/>
     </row>
     <row r="88" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A88" s="162"/>
+      <c r="A88" s="165"/>
       <c r="B88" s="19"/>
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
       <c r="E88" s="13"/>
       <c r="F88" s="13"/>
-      <c r="G88" s="162"/>
+      <c r="G88" s="165"/>
     </row>
     <row r="89" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A89" s="162"/>
+      <c r="A89" s="165"/>
       <c r="B89" s="19"/>
       <c r="C89" s="13"/>
       <c r="D89" s="13"/>
       <c r="E89" s="13"/>
       <c r="F89" s="13"/>
-      <c r="G89" s="162"/>
+      <c r="G89" s="165"/>
     </row>
     <row r="90" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A90" s="162"/>
+      <c r="A90" s="165"/>
       <c r="B90" s="19"/>
       <c r="C90" s="13"/>
       <c r="D90" s="13"/>
       <c r="E90" s="13"/>
       <c r="F90" s="13"/>
-      <c r="G90" s="162"/>
+      <c r="G90" s="165"/>
     </row>
     <row r="91" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A91" s="162"/>
+      <c r="A91" s="165"/>
       <c r="B91" s="19"/>
       <c r="C91" s="13"/>
       <c r="D91" s="13"/>
       <c r="E91" s="13"/>
       <c r="F91" s="13"/>
-      <c r="G91" s="162"/>
+      <c r="G91" s="165"/>
     </row>
     <row r="92" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A92" s="162"/>
+      <c r="A92" s="165"/>
       <c r="B92" s="19"/>
       <c r="C92" s="13"/>
       <c r="D92" s="13"/>
       <c r="E92" s="13"/>
       <c r="F92" s="13"/>
-      <c r="G92" s="162"/>
+      <c r="G92" s="165"/>
     </row>
     <row r="93" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A93" s="162"/>
+      <c r="A93" s="165"/>
       <c r="B93" s="19"/>
       <c r="C93" s="13"/>
       <c r="D93" s="13"/>
       <c r="E93" s="13"/>
       <c r="F93" s="13"/>
-      <c r="G93" s="162"/>
+      <c r="G93" s="165"/>
     </row>
     <row r="94" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A94" s="162"/>
+      <c r="A94" s="165"/>
       <c r="B94" s="19"/>
       <c r="C94" s="13"/>
       <c r="D94" s="13"/>
       <c r="E94" s="13"/>
       <c r="F94" s="13"/>
-      <c r="G94" s="162"/>
+      <c r="G94" s="165"/>
     </row>
     <row r="95" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A95" s="162"/>
+      <c r="A95" s="165"/>
       <c r="B95" s="19"/>
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
       <c r="E95" s="13"/>
       <c r="F95" s="13"/>
-      <c r="G95" s="162"/>
+      <c r="G95" s="165"/>
     </row>
     <row r="96" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A96" s="162"/>
+      <c r="A96" s="165"/>
       <c r="B96" s="19"/>
       <c r="C96" s="13"/>
       <c r="D96" s="13"/>
       <c r="E96" s="13"/>
       <c r="F96" s="13"/>
-      <c r="G96" s="162"/>
+      <c r="G96" s="165"/>
     </row>
     <row r="97" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A97" s="162"/>
+      <c r="A97" s="165"/>
       <c r="B97" s="19"/>
       <c r="C97" s="13"/>
       <c r="D97" s="13"/>
       <c r="E97" s="13"/>
       <c r="F97" s="13"/>
-      <c r="G97" s="162"/>
+      <c r="G97" s="165"/>
     </row>
     <row r="98" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A98" s="162"/>
+      <c r="A98" s="165"/>
       <c r="B98" s="19"/>
       <c r="C98" s="13"/>
       <c r="D98" s="13"/>
       <c r="E98" s="13"/>
       <c r="F98" s="13"/>
-      <c r="G98" s="162"/>
+      <c r="G98" s="165"/>
     </row>
     <row r="99" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A99" s="162"/>
+      <c r="A99" s="165"/>
       <c r="B99" s="19"/>
       <c r="C99" s="13"/>
       <c r="D99" s="13"/>
       <c r="E99" s="13"/>
       <c r="F99" s="13"/>
-      <c r="G99" s="162"/>
+      <c r="G99" s="165"/>
     </row>
     <row r="100" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A100" s="162"/>
+      <c r="A100" s="165"/>
       <c r="B100" s="19"/>
       <c r="C100" s="13"/>
       <c r="D100" s="13"/>
       <c r="E100" s="13"/>
       <c r="F100" s="13"/>
-      <c r="G100" s="162"/>
+      <c r="G100" s="165"/>
     </row>
     <row r="101" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A101" s="162"/>
+      <c r="A101" s="165"/>
       <c r="B101" s="19"/>
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
       <c r="E101" s="13"/>
       <c r="F101" s="13"/>
-      <c r="G101" s="162"/>
+      <c r="G101" s="165"/>
     </row>
     <row r="102" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A102" s="162"/>
+      <c r="A102" s="165"/>
       <c r="B102" s="19"/>
       <c r="C102" s="13"/>
       <c r="D102" s="13"/>
       <c r="E102" s="13"/>
       <c r="F102" s="13"/>
-      <c r="G102" s="162"/>
+      <c r="G102" s="165"/>
     </row>
     <row r="103" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A103" s="162"/>
+      <c r="A103" s="165"/>
       <c r="B103" s="19"/>
       <c r="C103" s="13"/>
       <c r="D103" s="13"/>
       <c r="E103" s="13"/>
       <c r="F103" s="13"/>
-      <c r="G103" s="162"/>
+      <c r="G103" s="165"/>
     </row>
     <row r="104" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A104" s="162"/>
+      <c r="A104" s="165"/>
       <c r="B104" s="19"/>
       <c r="C104" s="13"/>
       <c r="D104" s="13"/>
       <c r="E104" s="13"/>
       <c r="F104" s="13"/>
-      <c r="G104" s="162"/>
+      <c r="G104" s="165"/>
     </row>
     <row r="105" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A105" s="162"/>
+      <c r="A105" s="165"/>
       <c r="B105" s="19"/>
       <c r="C105" s="13"/>
       <c r="D105" s="13"/>
       <c r="E105" s="13"/>
       <c r="F105" s="13"/>
-      <c r="G105" s="162"/>
+      <c r="G105" s="165"/>
     </row>
     <row r="106" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A106" s="162"/>
+      <c r="A106" s="165"/>
       <c r="B106" s="19"/>
       <c r="C106" s="13"/>
       <c r="D106" s="13"/>
       <c r="E106" s="13"/>
       <c r="F106" s="13"/>
-      <c r="G106" s="162"/>
+      <c r="G106" s="165"/>
     </row>
     <row r="107" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A107" s="162"/>
+      <c r="A107" s="165"/>
       <c r="B107" s="19"/>
       <c r="C107" s="13"/>
       <c r="D107" s="13"/>
       <c r="E107" s="13"/>
       <c r="F107" s="13"/>
-      <c r="G107" s="162"/>
+      <c r="G107" s="165"/>
     </row>
     <row r="108" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A108" s="162"/>
+      <c r="A108" s="165"/>
       <c r="B108" s="19"/>
       <c r="C108" s="13"/>
       <c r="D108" s="13"/>
       <c r="E108" s="13"/>
       <c r="F108" s="13"/>
-      <c r="G108" s="162"/>
+      <c r="G108" s="165"/>
     </row>
     <row r="109" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A109" s="162"/>
+      <c r="A109" s="165"/>
       <c r="B109" s="19"/>
       <c r="C109" s="13"/>
       <c r="D109" s="13"/>
       <c r="E109" s="13"/>
       <c r="F109" s="13"/>
-      <c r="G109" s="162"/>
+      <c r="G109" s="165"/>
     </row>
     <row r="110" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A110" s="162"/>
+      <c r="A110" s="165"/>
       <c r="B110" s="19"/>
       <c r="C110" s="13"/>
       <c r="D110" s="13"/>
       <c r="E110" s="13"/>
       <c r="F110" s="13"/>
-      <c r="G110" s="162"/>
+      <c r="G110" s="165"/>
     </row>
     <row r="111" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A111" s="162"/>
+      <c r="A111" s="165"/>
       <c r="B111" s="19"/>
       <c r="C111" s="13"/>
       <c r="D111" s="13"/>
       <c r="E111" s="13"/>
       <c r="F111" s="13"/>
-      <c r="G111" s="162"/>
+      <c r="G111" s="165"/>
     </row>
     <row r="112" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A112" s="162"/>
+      <c r="A112" s="165"/>
       <c r="B112" s="19"/>
       <c r="C112" s="13"/>
       <c r="D112" s="13"/>
       <c r="E112" s="13"/>
       <c r="F112" s="13"/>
-      <c r="G112" s="162"/>
+      <c r="G112" s="165"/>
     </row>
     <row r="113" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A113" s="162"/>
+      <c r="A113" s="165"/>
       <c r="B113" s="19"/>
       <c r="C113" s="13"/>
       <c r="D113" s="13"/>
       <c r="E113" s="13"/>
       <c r="F113" s="13"/>
-      <c r="G113" s="162"/>
+      <c r="G113" s="165"/>
     </row>
     <row r="114" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A114" s="162"/>
+      <c r="A114" s="165"/>
       <c r="B114" s="19"/>
       <c r="C114" s="13"/>
       <c r="D114" s="13"/>
       <c r="E114" s="13"/>
       <c r="F114" s="13"/>
-      <c r="G114" s="162"/>
+      <c r="G114" s="165"/>
     </row>
     <row r="115" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A115" s="162"/>
+      <c r="A115" s="165"/>
       <c r="B115" s="19"/>
       <c r="C115" s="13"/>
       <c r="D115" s="13"/>
       <c r="E115" s="13"/>
       <c r="F115" s="13"/>
-      <c r="G115" s="162"/>
+      <c r="G115" s="165"/>
     </row>
     <row r="116" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A116" s="162"/>
+      <c r="A116" s="165"/>
       <c r="B116" s="19"/>
       <c r="C116" s="13"/>
       <c r="D116" s="13"/>
       <c r="E116" s="13"/>
       <c r="F116" s="13"/>
-      <c r="G116" s="162"/>
+      <c r="G116" s="165"/>
     </row>
     <row r="117" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A117" s="162"/>
+      <c r="A117" s="165"/>
       <c r="B117" s="19"/>
       <c r="C117" s="13"/>
       <c r="D117" s="13"/>
       <c r="E117" s="13"/>
       <c r="F117" s="13"/>
-      <c r="G117" s="162"/>
+      <c r="G117" s="165"/>
     </row>
     <row r="118" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A118" s="162"/>
+      <c r="A118" s="165"/>
       <c r="B118" s="19"/>
       <c r="C118" s="13"/>
       <c r="D118" s="13"/>
       <c r="E118" s="13"/>
       <c r="F118" s="13"/>
-      <c r="G118" s="162"/>
+      <c r="G118" s="165"/>
     </row>
     <row r="119" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A119" s="162"/>
+      <c r="A119" s="165"/>
       <c r="B119" s="19"/>
       <c r="C119" s="13"/>
       <c r="D119" s="13"/>
       <c r="E119" s="13"/>
       <c r="F119" s="13"/>
-      <c r="G119" s="162"/>
+      <c r="G119" s="165"/>
     </row>
     <row r="120" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A120" s="162"/>
+      <c r="A120" s="165"/>
       <c r="B120" s="19"/>
       <c r="C120" s="13"/>
       <c r="D120" s="13"/>
       <c r="E120" s="13"/>
       <c r="F120" s="13"/>
-      <c r="G120" s="162"/>
+      <c r="G120" s="165"/>
     </row>
     <row r="121" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A121" s="162"/>
+      <c r="A121" s="165"/>
       <c r="B121" s="19"/>
       <c r="C121" s="13"/>
       <c r="D121" s="13"/>
       <c r="E121" s="13"/>
       <c r="F121" s="13"/>
-      <c r="G121" s="162"/>
+      <c r="G121" s="165"/>
     </row>
     <row r="122" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A122" s="162"/>
+      <c r="A122" s="165"/>
       <c r="B122" s="19"/>
       <c r="C122" s="13"/>
       <c r="D122" s="13"/>
       <c r="E122" s="13"/>
       <c r="F122" s="13"/>
-      <c r="G122" s="162"/>
+      <c r="G122" s="165"/>
     </row>
     <row r="123" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A123" s="162"/>
+      <c r="A123" s="165"/>
       <c r="B123" s="19"/>
       <c r="C123" s="13"/>
       <c r="D123" s="13"/>
       <c r="E123" s="13"/>
       <c r="F123" s="13"/>
-      <c r="G123" s="162"/>
+      <c r="G123" s="165"/>
     </row>
     <row r="124" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A124" s="162"/>
+      <c r="A124" s="165"/>
       <c r="B124" s="19"/>
       <c r="C124" s="13"/>
       <c r="D124" s="13"/>
       <c r="E124" s="13"/>
       <c r="F124" s="13"/>
-      <c r="G124" s="162"/>
+      <c r="G124" s="165"/>
     </row>
     <row r="125" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A125" s="162"/>
+      <c r="A125" s="165"/>
       <c r="B125" s="19"/>
       <c r="C125" s="13"/>
       <c r="D125" s="13"/>
       <c r="E125" s="13"/>
       <c r="F125" s="13"/>
-      <c r="G125" s="162"/>
+      <c r="G125" s="165"/>
     </row>
     <row r="126" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A126" s="162"/>
+      <c r="A126" s="165"/>
       <c r="B126" s="19"/>
       <c r="C126" s="13"/>
       <c r="D126" s="13"/>
       <c r="E126" s="13"/>
       <c r="F126" s="13"/>
-      <c r="G126" s="162"/>
+      <c r="G126" s="165"/>
     </row>
     <row r="127" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A127" s="162"/>
+      <c r="A127" s="165"/>
       <c r="B127" s="19"/>
       <c r="C127" s="13"/>
       <c r="D127" s="13"/>
       <c r="E127" s="13"/>
       <c r="F127" s="13"/>
-      <c r="G127" s="162"/>
+      <c r="G127" s="165"/>
     </row>
     <row r="128" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A128" s="162"/>
+      <c r="A128" s="165"/>
       <c r="B128" s="19"/>
       <c r="C128" s="13"/>
       <c r="D128" s="13"/>
       <c r="E128" s="13"/>
       <c r="F128" s="13"/>
-      <c r="G128" s="162"/>
+      <c r="G128" s="165"/>
     </row>
     <row r="129" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A129" s="162"/>
+      <c r="A129" s="165"/>
       <c r="B129" s="19"/>
       <c r="C129" s="13"/>
       <c r="D129" s="13"/>
       <c r="E129" s="13"/>
       <c r="F129" s="13"/>
-      <c r="G129" s="162"/>
+      <c r="G129" s="165"/>
     </row>
     <row r="130" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A130" s="162"/>
+      <c r="A130" s="165"/>
       <c r="B130" s="19"/>
       <c r="C130" s="13"/>
       <c r="D130" s="13"/>
       <c r="E130" s="13"/>
       <c r="F130" s="13"/>
-      <c r="G130" s="162"/>
+      <c r="G130" s="165"/>
     </row>
     <row r="131" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A131" s="162"/>
+      <c r="A131" s="165"/>
       <c r="B131" s="19"/>
       <c r="C131" s="13"/>
       <c r="D131" s="13"/>
       <c r="E131" s="13"/>
       <c r="F131" s="13"/>
-      <c r="G131" s="162"/>
+      <c r="G131" s="165"/>
     </row>
     <row r="132" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A132" s="162"/>
+      <c r="A132" s="165"/>
       <c r="B132" s="19"/>
       <c r="C132" s="13"/>
       <c r="D132" s="13"/>
       <c r="E132" s="13"/>
       <c r="F132" s="13"/>
-      <c r="G132" s="162"/>
+      <c r="G132" s="165"/>
     </row>
     <row r="133" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A133" s="162"/>
+      <c r="A133" s="165"/>
       <c r="B133" s="19"/>
       <c r="C133" s="13"/>
       <c r="D133" s="13"/>
       <c r="E133" s="13"/>
       <c r="F133" s="13"/>
-      <c r="G133" s="162"/>
+      <c r="G133" s="165"/>
     </row>
     <row r="134" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A134" s="162"/>
+      <c r="A134" s="165"/>
       <c r="B134" s="19"/>
       <c r="C134" s="13"/>
       <c r="D134" s="13"/>
       <c r="E134" s="13"/>
       <c r="F134" s="13"/>
-      <c r="G134" s="162"/>
+      <c r="G134" s="165"/>
     </row>
     <row r="135" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A135" s="162"/>
+      <c r="A135" s="165"/>
       <c r="B135" s="19"/>
       <c r="C135" s="13"/>
       <c r="D135" s="13"/>
       <c r="E135" s="13"/>
       <c r="F135" s="13"/>
-      <c r="G135" s="162"/>
+      <c r="G135" s="165"/>
     </row>
     <row r="136" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A136" s="162"/>
+      <c r="A136" s="165"/>
       <c r="B136" s="19"/>
       <c r="C136" s="13"/>
       <c r="D136" s="13"/>
       <c r="E136" s="13"/>
       <c r="F136" s="13"/>
-      <c r="G136" s="162"/>
+      <c r="G136" s="165"/>
     </row>
     <row r="137" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A137" s="162"/>
+      <c r="A137" s="165"/>
       <c r="B137" s="19"/>
       <c r="C137" s="13"/>
       <c r="D137" s="13"/>
       <c r="E137" s="13"/>
       <c r="F137" s="13"/>
-      <c r="G137" s="162"/>
+      <c r="G137" s="165"/>
     </row>
     <row r="138" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A138" s="162"/>
+      <c r="A138" s="165"/>
       <c r="B138" s="19"/>
       <c r="C138" s="13"/>
       <c r="D138" s="13"/>
       <c r="E138" s="13"/>
       <c r="F138" s="13"/>
-      <c r="G138" s="162"/>
+      <c r="G138" s="165"/>
     </row>
     <row r="139" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A139" s="162"/>
+      <c r="A139" s="165"/>
       <c r="B139" s="19"/>
       <c r="C139" s="13"/>
       <c r="D139" s="13"/>
       <c r="E139" s="13"/>
       <c r="F139" s="13"/>
-      <c r="G139" s="162"/>
+      <c r="G139" s="165"/>
     </row>
     <row r="140" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A140" s="162"/>
+      <c r="A140" s="165"/>
       <c r="B140" s="19"/>
       <c r="C140" s="13"/>
       <c r="D140" s="13"/>
       <c r="E140" s="13"/>
       <c r="F140" s="13"/>
-      <c r="G140" s="162"/>
+      <c r="G140" s="165"/>
     </row>
     <row r="141" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A141" s="162"/>
+      <c r="A141" s="165"/>
       <c r="B141" s="19"/>
       <c r="C141" s="13"/>
       <c r="D141" s="13"/>
       <c r="E141" s="13"/>
       <c r="F141" s="13"/>
-      <c r="G141" s="162"/>
+      <c r="G141" s="165"/>
     </row>
     <row r="142" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A142" s="162"/>
+      <c r="A142" s="165"/>
       <c r="B142" s="19"/>
       <c r="C142" s="13"/>
       <c r="D142" s="13"/>
       <c r="E142" s="13"/>
       <c r="F142" s="13"/>
-      <c r="G142" s="162"/>
+      <c r="G142" s="165"/>
     </row>
     <row r="143" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A143" s="162"/>
+      <c r="A143" s="165"/>
       <c r="B143" s="19"/>
       <c r="C143" s="13"/>
       <c r="D143" s="13"/>
       <c r="E143" s="13"/>
       <c r="F143" s="13"/>
-      <c r="G143" s="162"/>
+      <c r="G143" s="165"/>
     </row>
     <row r="144" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A144" s="162"/>
+      <c r="A144" s="165"/>
       <c r="B144" s="19"/>
       <c r="C144" s="13"/>
       <c r="D144" s="13"/>
       <c r="E144" s="13"/>
       <c r="F144" s="13"/>
-      <c r="G144" s="162"/>
+      <c r="G144" s="165"/>
     </row>
     <row r="145" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A145" s="162"/>
+      <c r="A145" s="165"/>
       <c r="B145" s="19"/>
       <c r="C145" s="13"/>
       <c r="D145" s="13"/>
       <c r="E145" s="13"/>
       <c r="F145" s="13"/>
-      <c r="G145" s="162"/>
+      <c r="G145" s="165"/>
     </row>
     <row r="146" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A146" s="162"/>
+      <c r="A146" s="165"/>
       <c r="B146" s="19"/>
       <c r="C146" s="13"/>
       <c r="D146" s="13"/>
       <c r="E146" s="13"/>
       <c r="F146" s="13"/>
-      <c r="G146" s="162"/>
+      <c r="G146" s="165"/>
     </row>
     <row r="147" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A147" s="162"/>
+      <c r="A147" s="165"/>
       <c r="B147" s="19"/>
       <c r="C147" s="13"/>
       <c r="D147" s="13"/>
       <c r="E147" s="13"/>
       <c r="F147" s="13"/>
-      <c r="G147" s="162"/>
+      <c r="G147" s="165"/>
     </row>
     <row r="148" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A148" s="162"/>
+      <c r="A148" s="165"/>
       <c r="B148" s="19"/>
       <c r="C148" s="13"/>
       <c r="D148" s="13"/>
       <c r="E148" s="13"/>
       <c r="F148" s="13"/>
-      <c r="G148" s="162"/>
+      <c r="G148" s="165"/>
     </row>
     <row r="149" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A149" s="162"/>
+      <c r="A149" s="165"/>
       <c r="B149" s="19"/>
       <c r="C149" s="13"/>
       <c r="D149" s="13"/>
       <c r="E149" s="13"/>
       <c r="F149" s="13"/>
-      <c r="G149" s="162"/>
+      <c r="G149" s="165"/>
     </row>
     <row r="150" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A150" s="162"/>
+      <c r="A150" s="165"/>
       <c r="B150" s="19"/>
       <c r="C150" s="13"/>
       <c r="D150" s="13"/>
       <c r="E150" s="13"/>
       <c r="F150" s="13"/>
-      <c r="G150" s="162"/>
+      <c r="G150" s="165"/>
     </row>
     <row r="151" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A151" s="162"/>
+      <c r="A151" s="165"/>
       <c r="B151" s="19"/>
       <c r="C151" s="13"/>
       <c r="D151" s="13"/>
       <c r="E151" s="13"/>
       <c r="F151" s="13"/>
-      <c r="G151" s="162"/>
+      <c r="G151" s="165"/>
     </row>
     <row r="152" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A152" s="162"/>
+      <c r="A152" s="165"/>
       <c r="B152" s="19"/>
       <c r="C152" s="13"/>
       <c r="D152" s="13"/>
       <c r="E152" s="13"/>
       <c r="F152" s="13"/>
-      <c r="G152" s="162"/>
+      <c r="G152" s="165"/>
     </row>
     <row r="153" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A153" s="162"/>
+      <c r="A153" s="165"/>
       <c r="B153" s="19"/>
       <c r="C153" s="13"/>
       <c r="D153" s="13"/>
       <c r="E153" s="13"/>
       <c r="F153" s="13"/>
-      <c r="G153" s="162"/>
+      <c r="G153" s="165"/>
     </row>
     <row r="154" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A154" s="162"/>
+      <c r="A154" s="165"/>
       <c r="B154" s="19"/>
       <c r="C154" s="13"/>
       <c r="D154" s="13"/>
       <c r="E154" s="13"/>
       <c r="F154" s="13"/>
-      <c r="G154" s="162"/>
+      <c r="G154" s="165"/>
     </row>
     <row r="155" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A155" s="162"/>
+      <c r="A155" s="165"/>
       <c r="B155" s="19"/>
       <c r="C155" s="13"/>
       <c r="D155" s="13"/>
       <c r="E155" s="13"/>
       <c r="F155" s="13"/>
-      <c r="G155" s="162"/>
+      <c r="G155" s="165"/>
     </row>
     <row r="156" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A156" s="162"/>
+      <c r="A156" s="165"/>
       <c r="B156" s="19"/>
       <c r="C156" s="13"/>
       <c r="D156" s="13"/>
       <c r="E156" s="13"/>
       <c r="F156" s="13"/>
-      <c r="G156" s="162"/>
+      <c r="G156" s="165"/>
     </row>
     <row r="157" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A157" s="162"/>
+      <c r="A157" s="165"/>
       <c r="B157" s="19"/>
       <c r="C157" s="13"/>
       <c r="D157" s="13"/>
       <c r="E157" s="13"/>
       <c r="F157" s="13"/>
-      <c r="G157" s="162"/>
+      <c r="G157" s="165"/>
     </row>
     <row r="158" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A158" s="162"/>
+      <c r="A158" s="165"/>
       <c r="B158" s="19"/>
       <c r="C158" s="13"/>
       <c r="D158" s="13"/>
       <c r="E158" s="13"/>
       <c r="F158" s="13"/>
-      <c r="G158" s="162"/>
+      <c r="G158" s="165"/>
     </row>
     <row r="159" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A159" s="162"/>
+      <c r="A159" s="165"/>
       <c r="B159" s="19"/>
       <c r="C159" s="13"/>
       <c r="D159" s="13"/>
       <c r="E159" s="13"/>
       <c r="F159" s="13"/>
-      <c r="G159" s="162"/>
+      <c r="G159" s="165"/>
     </row>
     <row r="160" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A160" s="162"/>
+      <c r="A160" s="165"/>
       <c r="B160" s="19"/>
       <c r="C160" s="13"/>
       <c r="D160" s="13"/>
       <c r="E160" s="13"/>
       <c r="F160" s="13"/>
-      <c r="G160" s="162"/>
+      <c r="G160" s="165"/>
     </row>
     <row r="161" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A161" s="162"/>
+      <c r="A161" s="165"/>
       <c r="B161" s="19"/>
       <c r="C161" s="13"/>
       <c r="D161" s="13"/>
       <c r="E161" s="13"/>
       <c r="F161" s="13"/>
-      <c r="G161" s="162"/>
+      <c r="G161" s="165"/>
     </row>
     <row r="162" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A162" s="162"/>
+      <c r="A162" s="165"/>
       <c r="B162" s="19"/>
       <c r="C162" s="13"/>
       <c r="D162" s="13"/>
       <c r="E162" s="13"/>
       <c r="F162" s="13"/>
-      <c r="G162" s="162"/>
+      <c r="G162" s="165"/>
     </row>
     <row r="163" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A163" s="162"/>
+      <c r="A163" s="165"/>
       <c r="B163" s="19"/>
       <c r="C163" s="13"/>
       <c r="D163" s="13"/>
       <c r="E163" s="13"/>
       <c r="F163" s="13"/>
-      <c r="G163" s="162"/>
+      <c r="G163" s="165"/>
     </row>
     <row r="164" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A164" s="162"/>
+      <c r="A164" s="165"/>
       <c r="B164" s="19"/>
       <c r="C164" s="13"/>
       <c r="D164" s="13"/>
       <c r="E164" s="13"/>
       <c r="F164" s="13"/>
-      <c r="G164" s="162"/>
+      <c r="G164" s="165"/>
     </row>
     <row r="165" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A165" s="162"/>
+      <c r="A165" s="165"/>
       <c r="B165" s="19"/>
       <c r="C165" s="13"/>
       <c r="D165" s="13"/>
       <c r="E165" s="13"/>
       <c r="F165" s="13"/>
-      <c r="G165" s="162"/>
+      <c r="G165" s="165"/>
     </row>
     <row r="166" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A166" s="162"/>
+      <c r="A166" s="165"/>
       <c r="B166" s="19"/>
       <c r="C166" s="13"/>
       <c r="D166" s="13"/>
       <c r="E166" s="13"/>
       <c r="F166" s="13"/>
-      <c r="G166" s="162"/>
+      <c r="G166" s="165"/>
     </row>
     <row r="167" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A167" s="162"/>
+      <c r="A167" s="165"/>
       <c r="B167" s="19"/>
       <c r="C167" s="13"/>
       <c r="D167" s="13"/>
       <c r="E167" s="13"/>
       <c r="F167" s="13"/>
-      <c r="G167" s="162"/>
+      <c r="G167" s="165"/>
     </row>
     <row r="168" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A168" s="162"/>
+      <c r="A168" s="165"/>
       <c r="B168" s="19"/>
       <c r="C168" s="13"/>
       <c r="D168" s="13"/>
       <c r="E168" s="13"/>
       <c r="F168" s="13"/>
-      <c r="G168" s="162"/>
+      <c r="G168" s="165"/>
     </row>
     <row r="169" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A169" s="162"/>
+      <c r="A169" s="165"/>
       <c r="B169" s="19"/>
       <c r="C169" s="13"/>
       <c r="D169" s="13"/>
       <c r="E169" s="13"/>
       <c r="F169" s="13"/>
-      <c r="G169" s="162"/>
+      <c r="G169" s="165"/>
     </row>
     <row r="170" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A170" s="162"/>
+      <c r="A170" s="165"/>
       <c r="B170" s="19"/>
       <c r="C170" s="13"/>
       <c r="D170" s="13"/>
       <c r="E170" s="13"/>
       <c r="F170" s="13"/>
-      <c r="G170" s="162"/>
+      <c r="G170" s="165"/>
     </row>
     <row r="171" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A171" s="162"/>
+      <c r="A171" s="165"/>
       <c r="B171" s="19"/>
       <c r="C171" s="13"/>
       <c r="D171" s="13"/>
       <c r="E171" s="13"/>
       <c r="F171" s="13"/>
-      <c r="G171" s="162"/>
+      <c r="G171" s="165"/>
     </row>
     <row r="172" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A172" s="162"/>
+      <c r="A172" s="165"/>
       <c r="B172" s="19"/>
       <c r="C172" s="13"/>
       <c r="D172" s="13"/>
       <c r="E172" s="13"/>
       <c r="F172" s="13"/>
-      <c r="G172" s="162"/>
+      <c r="G172" s="165"/>
     </row>
     <row r="173" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A173" s="162"/>
+      <c r="A173" s="165"/>
       <c r="B173" s="19"/>
       <c r="C173" s="13"/>
       <c r="D173" s="13"/>
       <c r="E173" s="13"/>
       <c r="F173" s="13"/>
-      <c r="G173" s="162"/>
+      <c r="G173" s="165"/>
     </row>
     <row r="174" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A174" s="162"/>
+      <c r="A174" s="165"/>
       <c r="B174" s="19"/>
       <c r="C174" s="13"/>
       <c r="D174" s="13"/>
       <c r="E174" s="13"/>
       <c r="F174" s="13"/>
-      <c r="G174" s="162"/>
+      <c r="G174" s="165"/>
     </row>
     <row r="175" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A175" s="162"/>
+      <c r="A175" s="165"/>
       <c r="B175" s="19"/>
       <c r="C175" s="13"/>
       <c r="D175" s="13"/>
       <c r="E175" s="13"/>
       <c r="F175" s="13"/>
-      <c r="G175" s="162"/>
+      <c r="G175" s="165"/>
     </row>
     <row r="176" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A176" s="162"/>
+      <c r="A176" s="165"/>
       <c r="B176" s="19"/>
       <c r="C176" s="13"/>
       <c r="D176" s="13"/>
       <c r="E176" s="13"/>
       <c r="F176" s="13"/>
-      <c r="G176" s="162"/>
+      <c r="G176" s="165"/>
     </row>
     <row r="177" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A177" s="162"/>
+      <c r="A177" s="165"/>
       <c r="B177" s="19"/>
       <c r="C177" s="13"/>
       <c r="D177" s="13"/>
       <c r="E177" s="13"/>
       <c r="F177" s="13"/>
-      <c r="G177" s="162"/>
+      <c r="G177" s="165"/>
     </row>
     <row r="178" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A178" s="162"/>
+      <c r="A178" s="165"/>
       <c r="B178" s="19"/>
       <c r="C178" s="13"/>
       <c r="D178" s="13"/>
       <c r="E178" s="13"/>
       <c r="F178" s="13"/>
-      <c r="G178" s="162"/>
+      <c r="G178" s="165"/>
     </row>
     <row r="179" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A179" s="162"/>
+      <c r="A179" s="165"/>
       <c r="B179" s="19"/>
       <c r="C179" s="13"/>
       <c r="D179" s="13"/>
       <c r="E179" s="13"/>
       <c r="F179" s="13"/>
-      <c r="G179" s="162"/>
+      <c r="G179" s="165"/>
     </row>
     <row r="180" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A180" s="162"/>
+      <c r="A180" s="165"/>
       <c r="B180" s="19"/>
       <c r="C180" s="13"/>
       <c r="D180" s="13"/>
       <c r="E180" s="13"/>
       <c r="F180" s="13"/>
-      <c r="G180" s="162"/>
+      <c r="G180" s="165"/>
     </row>
     <row r="181" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A181" s="162"/>
+      <c r="A181" s="165"/>
       <c r="B181" s="19"/>
       <c r="C181" s="13"/>
       <c r="D181" s="13"/>
       <c r="E181" s="13"/>
       <c r="F181" s="13"/>
-      <c r="G181" s="162"/>
+      <c r="G181" s="165"/>
     </row>
     <row r="182" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A182" s="162"/>
+      <c r="A182" s="165"/>
       <c r="B182" s="19"/>
       <c r="C182" s="13"/>
       <c r="D182" s="13"/>
       <c r="E182" s="13"/>
       <c r="F182" s="13"/>
-      <c r="G182" s="162"/>
+      <c r="G182" s="165"/>
     </row>
     <row r="183" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A183" s="162"/>
+      <c r="A183" s="165"/>
       <c r="B183" s="19"/>
       <c r="C183" s="13"/>
       <c r="D183" s="13"/>
       <c r="E183" s="13"/>
       <c r="F183" s="13"/>
-      <c r="G183" s="162"/>
+      <c r="G183" s="165"/>
     </row>
     <row r="184" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A184" s="162"/>
+      <c r="A184" s="165"/>
       <c r="B184" s="19"/>
       <c r="C184" s="13"/>
       <c r="D184" s="13"/>
       <c r="E184" s="13"/>
       <c r="F184" s="13"/>
-      <c r="G184" s="162"/>
+      <c r="G184" s="165"/>
     </row>
     <row r="185" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A185" s="162"/>
+      <c r="A185" s="165"/>
       <c r="B185" s="19"/>
       <c r="C185" s="13"/>
       <c r="D185" s="13"/>
       <c r="E185" s="13"/>
       <c r="F185" s="13"/>
-      <c r="G185" s="162"/>
+      <c r="G185" s="165"/>
     </row>
     <row r="186" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A186" s="162"/>
+      <c r="A186" s="165"/>
       <c r="B186" s="19"/>
       <c r="C186" s="13"/>
       <c r="D186" s="13"/>
       <c r="E186" s="13"/>
       <c r="F186" s="13"/>
-      <c r="G186" s="162"/>
+      <c r="G186" s="165"/>
     </row>
     <row r="187" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A187" s="162"/>
+      <c r="A187" s="165"/>
       <c r="B187" s="19"/>
       <c r="C187" s="13"/>
       <c r="D187" s="13"/>
       <c r="E187" s="13"/>
       <c r="F187" s="13"/>
-      <c r="G187" s="162"/>
+      <c r="G187" s="165"/>
     </row>
     <row r="188" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A188" s="162"/>
+      <c r="A188" s="165"/>
       <c r="B188" s="19"/>
       <c r="C188" s="13"/>
       <c r="D188" s="13"/>
       <c r="E188" s="13"/>
       <c r="F188" s="13"/>
-      <c r="G188" s="162"/>
+      <c r="G188" s="165"/>
     </row>
     <row r="189" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A189" s="162"/>
+      <c r="A189" s="165"/>
       <c r="B189" s="19"/>
       <c r="C189" s="13"/>
       <c r="D189" s="13"/>
       <c r="E189" s="13"/>
       <c r="F189" s="13"/>
-      <c r="G189" s="162"/>
+      <c r="G189" s="165"/>
     </row>
     <row r="190" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A190" s="162"/>
+      <c r="A190" s="165"/>
       <c r="B190" s="19"/>
       <c r="C190" s="13"/>
       <c r="D190" s="13"/>
       <c r="E190" s="13"/>
       <c r="F190" s="13"/>
-      <c r="G190" s="162"/>
+      <c r="G190" s="165"/>
     </row>
     <row r="191" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A191" s="162"/>
+      <c r="A191" s="165"/>
       <c r="B191" s="19"/>
       <c r="C191" s="13"/>
       <c r="D191" s="13"/>
       <c r="E191" s="13"/>
       <c r="F191" s="13"/>
-      <c r="G191" s="162"/>
+      <c r="G191" s="165"/>
     </row>
     <row r="192" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A192" s="162"/>
+      <c r="A192" s="165"/>
       <c r="B192" s="19"/>
       <c r="C192" s="13"/>
       <c r="D192" s="13"/>
       <c r="E192" s="13"/>
       <c r="F192" s="13"/>
-      <c r="G192" s="162"/>
+      <c r="G192" s="165"/>
     </row>
     <row r="193" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A193" s="162"/>
+      <c r="A193" s="165"/>
       <c r="B193" s="19"/>
       <c r="C193" s="13"/>
       <c r="D193" s="13"/>
       <c r="E193" s="13"/>
       <c r="F193" s="13"/>
-      <c r="G193" s="162"/>
+      <c r="G193" s="165"/>
     </row>
     <row r="194" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A194" s="162"/>
+      <c r="A194" s="165"/>
       <c r="B194" s="19"/>
       <c r="C194" s="13"/>
       <c r="D194" s="13"/>
       <c r="E194" s="13"/>
       <c r="F194" s="13"/>
-      <c r="G194" s="162"/>
+      <c r="G194" s="165"/>
     </row>
     <row r="195" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A195" s="162"/>
+      <c r="A195" s="165"/>
       <c r="B195" s="19"/>
       <c r="C195" s="13"/>
       <c r="D195" s="13"/>
       <c r="E195" s="13"/>
       <c r="F195" s="13"/>
-      <c r="G195" s="162"/>
+      <c r="G195" s="165"/>
     </row>
     <row r="196" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A196" s="162"/>
+      <c r="A196" s="165"/>
       <c r="B196" s="19"/>
       <c r="C196" s="13"/>
       <c r="D196" s="13"/>
       <c r="E196" s="13"/>
       <c r="F196" s="13"/>
-      <c r="G196" s="162"/>
+      <c r="G196" s="165"/>
     </row>
     <row r="197" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A197" s="162"/>
+      <c r="A197" s="165"/>
       <c r="B197" s="19"/>
       <c r="C197" s="13"/>
       <c r="D197" s="13"/>
       <c r="E197" s="13"/>
       <c r="F197" s="13"/>
-      <c r="G197" s="162"/>
+      <c r="G197" s="165"/>
     </row>
     <row r="198" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A198" s="162"/>
+      <c r="A198" s="165"/>
       <c r="B198" s="19"/>
       <c r="C198" s="13"/>
       <c r="D198" s="13"/>
       <c r="E198" s="13"/>
       <c r="F198" s="13"/>
-      <c r="G198" s="162"/>
+      <c r="G198" s="165"/>
     </row>
     <row r="199" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A199" s="162"/>
+      <c r="A199" s="165"/>
       <c r="B199" s="19"/>
       <c r="C199" s="13"/>
       <c r="D199" s="13"/>
       <c r="E199" s="13"/>
       <c r="F199" s="13"/>
-      <c r="G199" s="162"/>
+      <c r="G199" s="165"/>
     </row>
     <row r="200" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A200" s="162"/>
+      <c r="A200" s="165"/>
       <c r="B200" s="19"/>
       <c r="C200" s="13"/>
       <c r="D200" s="13"/>
       <c r="E200" s="13"/>
       <c r="F200" s="13"/>
-      <c r="G200" s="162"/>
+      <c r="G200" s="165"/>
     </row>
     <row r="201" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A201" s="162"/>
+      <c r="A201" s="165"/>
       <c r="B201" s="19"/>
       <c r="C201" s="13"/>
       <c r="D201" s="13"/>
       <c r="E201" s="13"/>
       <c r="F201" s="13"/>
-      <c r="G201" s="162"/>
+      <c r="G201" s="165"/>
     </row>
     <row r="202" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A202" s="162"/>
+      <c r="A202" s="165"/>
       <c r="B202" s="19"/>
       <c r="C202" s="20"/>
       <c r="D202" s="20"/>
       <c r="E202" s="20"/>
       <c r="F202" s="20"/>
-      <c r="G202" s="162"/>
+      <c r="G202" s="165"/>
     </row>
     <row r="203" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A203" s="162"/>
+      <c r="A203" s="165"/>
       <c r="B203" s="19"/>
       <c r="C203" s="20"/>
       <c r="D203" s="20"/>
       <c r="E203" s="20"/>
       <c r="F203" s="20"/>
-      <c r="G203" s="162"/>
+      <c r="G203" s="165"/>
     </row>
     <row r="204" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A204" s="162"/>
+      <c r="A204" s="165"/>
       <c r="B204" s="19"/>
       <c r="C204" s="20"/>
       <c r="D204" s="20"/>
       <c r="E204" s="20"/>
       <c r="F204" s="20"/>
-      <c r="G204" s="162"/>
+      <c r="G204" s="165"/>
     </row>
     <row r="205" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A205" s="162"/>
+      <c r="A205" s="165"/>
       <c r="B205" s="19"/>
       <c r="C205" s="20"/>
       <c r="D205" s="20"/>
       <c r="E205" s="20"/>
       <c r="F205" s="20"/>
-      <c r="G205" s="162"/>
+      <c r="G205" s="165"/>
     </row>
     <row r="206" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A206" s="162"/>
+      <c r="A206" s="165"/>
       <c r="B206" s="19"/>
       <c r="C206" s="20"/>
       <c r="D206" s="20"/>
       <c r="E206" s="20"/>
       <c r="F206" s="20"/>
-      <c r="G206" s="162"/>
+      <c r="G206" s="165"/>
     </row>
     <row r="207" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A207" s="162"/>
+      <c r="A207" s="165"/>
       <c r="B207" s="19"/>
       <c r="C207" s="20"/>
       <c r="D207" s="20"/>
       <c r="E207" s="20"/>
       <c r="F207" s="20"/>
-      <c r="G207" s="162"/>
+      <c r="G207" s="165"/>
     </row>
     <row r="208" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A208" s="162"/>
+      <c r="A208" s="165"/>
       <c r="B208" s="19"/>
       <c r="C208" s="20"/>
       <c r="D208" s="20"/>
       <c r="E208" s="20"/>
       <c r="F208" s="20"/>
-      <c r="G208" s="162"/>
+      <c r="G208" s="165"/>
     </row>
     <row r="209" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A209" s="162"/>
+      <c r="A209" s="165"/>
       <c r="B209" s="19"/>
       <c r="C209" s="20"/>
       <c r="D209" s="20"/>
       <c r="E209" s="20"/>
       <c r="F209" s="20"/>
-      <c r="G209" s="162"/>
+      <c r="G209" s="165"/>
     </row>
     <row r="210" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A210" s="162"/>
+      <c r="A210" s="165"/>
       <c r="B210" s="19"/>
       <c r="C210" s="20"/>
       <c r="D210" s="20"/>
       <c r="E210" s="20"/>
       <c r="F210" s="20"/>
-      <c r="G210" s="162"/>
+      <c r="G210" s="165"/>
     </row>
     <row r="211" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A211" s="162"/>
+      <c r="A211" s="165"/>
       <c r="B211" s="19"/>
       <c r="C211" s="20"/>
       <c r="D211" s="20"/>
       <c r="E211" s="20"/>
       <c r="F211" s="20"/>
-      <c r="G211" s="162"/>
+      <c r="G211" s="165"/>
     </row>
     <row r="212" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A212" s="162"/>
+      <c r="A212" s="165"/>
       <c r="B212" s="19"/>
       <c r="C212" s="20"/>
       <c r="D212" s="20"/>
       <c r="E212" s="20"/>
       <c r="F212" s="20"/>
-      <c r="G212" s="162"/>
+      <c r="G212" s="165"/>
     </row>
     <row r="213" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A213" s="162"/>
+      <c r="A213" s="165"/>
       <c r="B213" s="19"/>
       <c r="C213" s="20"/>
       <c r="D213" s="20"/>
       <c r="E213" s="20"/>
       <c r="F213" s="20"/>
-      <c r="G213" s="162"/>
+      <c r="G213" s="165"/>
     </row>
     <row r="214" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A214" s="162"/>
+      <c r="A214" s="165"/>
       <c r="B214" s="19"/>
       <c r="C214" s="20"/>
       <c r="D214" s="20"/>
       <c r="E214" s="20"/>
       <c r="F214" s="20"/>
-      <c r="G214" s="162"/>
+      <c r="G214" s="165"/>
     </row>
     <row r="215" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A215" s="162"/>
+      <c r="A215" s="165"/>
       <c r="B215" s="19"/>
       <c r="C215" s="20"/>
       <c r="D215" s="20"/>
       <c r="E215" s="20"/>
       <c r="F215" s="20"/>
-      <c r="G215" s="162"/>
+      <c r="G215" s="165"/>
     </row>
     <row r="216" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A216" s="162"/>
+      <c r="A216" s="165"/>
       <c r="B216" s="19"/>
       <c r="C216" s="20"/>
       <c r="D216" s="20"/>
       <c r="E216" s="20"/>
       <c r="F216" s="20"/>
-      <c r="G216" s="162"/>
+      <c r="G216" s="165"/>
     </row>
     <row r="217" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A217" s="162"/>
+      <c r="A217" s="165"/>
       <c r="B217" s="19"/>
       <c r="C217" s="20"/>
       <c r="D217" s="20"/>
       <c r="E217" s="20"/>
       <c r="F217" s="20"/>
-      <c r="G217" s="162"/>
+      <c r="G217" s="165"/>
     </row>
     <row r="218" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A218" s="162"/>
+      <c r="A218" s="165"/>
       <c r="B218" s="19"/>
       <c r="C218" s="20"/>
       <c r="D218" s="20"/>
       <c r="E218" s="20"/>
       <c r="F218" s="20"/>
-      <c r="G218" s="162"/>
+      <c r="G218" s="165"/>
     </row>
     <row r="219" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A219" s="162"/>
+      <c r="A219" s="165"/>
       <c r="B219" s="19"/>
       <c r="C219" s="20"/>
       <c r="D219" s="20"/>
       <c r="E219" s="20"/>
       <c r="F219" s="20"/>
-      <c r="G219" s="162"/>
+      <c r="G219" s="165"/>
     </row>
     <row r="220" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A220" s="162"/>
+      <c r="A220" s="165"/>
       <c r="B220" s="19"/>
       <c r="C220" s="20"/>
       <c r="D220" s="20"/>
       <c r="E220" s="20"/>
       <c r="F220" s="20"/>
-      <c r="G220" s="162"/>
+      <c r="G220" s="165"/>
     </row>
     <row r="221" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A221" s="162"/>
+      <c r="A221" s="165"/>
       <c r="B221" s="19"/>
       <c r="C221" s="20"/>
       <c r="D221" s="20"/>
       <c r="E221" s="20"/>
       <c r="F221" s="20"/>
-      <c r="G221" s="162"/>
+      <c r="G221" s="165"/>
     </row>
     <row r="222" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A222" s="162"/>
+      <c r="A222" s="165"/>
       <c r="B222" s="19"/>
       <c r="C222" s="20"/>
       <c r="D222" s="20"/>
       <c r="E222" s="20"/>
       <c r="F222" s="20"/>
-      <c r="G222" s="162"/>
+      <c r="G222" s="165"/>
     </row>
     <row r="223" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A223" s="162"/>
+      <c r="A223" s="165"/>
       <c r="B223" s="19"/>
       <c r="C223" s="20"/>
       <c r="D223" s="20"/>
       <c r="E223" s="20"/>
       <c r="F223" s="20"/>
-      <c r="G223" s="162"/>
+      <c r="G223" s="165"/>
     </row>
     <row r="224" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A224" s="162"/>
+      <c r="A224" s="165"/>
       <c r="B224" s="19"/>
       <c r="C224" s="20"/>
       <c r="D224" s="20"/>
       <c r="E224" s="20"/>
       <c r="F224" s="20"/>
-      <c r="G224" s="162"/>
+      <c r="G224" s="165"/>
     </row>
     <row r="225" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A225" s="162"/>
+      <c r="A225" s="165"/>
       <c r="B225" s="19"/>
       <c r="C225" s="20"/>
       <c r="D225" s="20"/>
       <c r="E225" s="20"/>
       <c r="F225" s="20"/>
-      <c r="G225" s="162"/>
+      <c r="G225" s="165"/>
     </row>
     <row r="226" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A226" s="162"/>
+      <c r="A226" s="165"/>
       <c r="B226" s="19"/>
       <c r="C226" s="20"/>
       <c r="D226" s="20"/>
       <c r="E226" s="20"/>
       <c r="F226" s="20"/>
-      <c r="G226" s="162"/>
+      <c r="G226" s="165"/>
     </row>
     <row r="227" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A227" s="162"/>
+      <c r="A227" s="165"/>
       <c r="B227" s="19"/>
       <c r="C227" s="20"/>
       <c r="D227" s="20"/>
       <c r="E227" s="20"/>
       <c r="F227" s="20"/>
-      <c r="G227" s="162"/>
+      <c r="G227" s="165"/>
     </row>
     <row r="228" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A228" s="162"/>
+      <c r="A228" s="165"/>
       <c r="B228" s="19"/>
       <c r="C228" s="20"/>
       <c r="D228" s="20"/>
       <c r="E228" s="20"/>
       <c r="F228" s="20"/>
-      <c r="G228" s="162"/>
+      <c r="G228" s="165"/>
     </row>
     <row r="229" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A229" s="162"/>
+      <c r="A229" s="165"/>
       <c r="B229" s="19"/>
       <c r="C229" s="20"/>
       <c r="D229" s="20"/>
       <c r="E229" s="20"/>
       <c r="F229" s="20"/>
-      <c r="G229" s="162"/>
+      <c r="G229" s="165"/>
     </row>
     <row r="230" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A230" s="162"/>
+      <c r="A230" s="165"/>
       <c r="B230" s="19"/>
       <c r="C230" s="20"/>
       <c r="D230" s="20"/>
       <c r="E230" s="20"/>
       <c r="F230" s="20"/>
-      <c r="G230" s="162"/>
+      <c r="G230" s="165"/>
     </row>
     <row r="231" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A231" s="162"/>
+      <c r="A231" s="165"/>
       <c r="B231" s="19"/>
       <c r="C231" s="20"/>
       <c r="D231" s="20"/>
       <c r="E231" s="20"/>
       <c r="F231" s="20"/>
-      <c r="G231" s="162"/>
+      <c r="G231" s="165"/>
     </row>
     <row r="232" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A232" s="162"/>
+      <c r="A232" s="165"/>
       <c r="B232" s="19"/>
       <c r="C232" s="20"/>
       <c r="D232" s="20"/>
       <c r="E232" s="20"/>
       <c r="F232" s="20"/>
-      <c r="G232" s="162"/>
+      <c r="G232" s="165"/>
     </row>
     <row r="233" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A233" s="162"/>
+      <c r="A233" s="165"/>
       <c r="B233" s="19"/>
       <c r="C233" s="20"/>
       <c r="D233" s="20"/>
       <c r="E233" s="20"/>
       <c r="F233" s="20"/>
-      <c r="G233" s="162"/>
+      <c r="G233" s="165"/>
     </row>
     <row r="234" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A234" s="162"/>
+      <c r="A234" s="165"/>
       <c r="B234" s="19"/>
       <c r="C234" s="20"/>
       <c r="D234" s="20"/>
       <c r="E234" s="20"/>
       <c r="F234" s="20"/>
-      <c r="G234" s="162"/>
+      <c r="G234" s="165"/>
     </row>
     <row r="235" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A235" s="162"/>
+      <c r="A235" s="165"/>
       <c r="B235" s="19"/>
       <c r="C235" s="20"/>
       <c r="D235" s="20"/>
       <c r="E235" s="20"/>
       <c r="F235" s="20"/>
-      <c r="G235" s="162"/>
+      <c r="G235" s="165"/>
     </row>
     <row r="236" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A236" s="162"/>
+      <c r="A236" s="165"/>
       <c r="B236" s="19"/>
       <c r="C236" s="20"/>
       <c r="D236" s="20"/>
       <c r="E236" s="20"/>
       <c r="F236" s="20"/>
-      <c r="G236" s="162"/>
+      <c r="G236" s="165"/>
     </row>
     <row r="237" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A237" s="162"/>
+      <c r="A237" s="165"/>
       <c r="B237" s="19"/>
       <c r="C237" s="20"/>
       <c r="D237" s="20"/>
       <c r="E237" s="20"/>
       <c r="F237" s="20"/>
-      <c r="G237" s="162"/>
+      <c r="G237" s="165"/>
     </row>
     <row r="238" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A238" s="162"/>
+      <c r="A238" s="165"/>
       <c r="B238" s="19"/>
       <c r="C238" s="20"/>
       <c r="D238" s="20"/>
       <c r="E238" s="20"/>
       <c r="F238" s="20"/>
-      <c r="G238" s="162"/>
+      <c r="G238" s="165"/>
     </row>
     <row r="239" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A239" s="162"/>
+      <c r="A239" s="165"/>
       <c r="B239" s="19"/>
       <c r="C239" s="20"/>
       <c r="D239" s="20"/>
       <c r="E239" s="20"/>
       <c r="F239" s="20"/>
-      <c r="G239" s="162"/>
+      <c r="G239" s="165"/>
     </row>
     <row r="240" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A240" s="162"/>
+      <c r="A240" s="165"/>
       <c r="B240" s="19"/>
       <c r="C240" s="20"/>
       <c r="D240" s="20"/>
       <c r="E240" s="20"/>
       <c r="F240" s="20"/>
-      <c r="G240" s="162"/>
+      <c r="G240" s="165"/>
     </row>
     <row r="241" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A241" s="162"/>
+      <c r="A241" s="165"/>
       <c r="B241" s="19"/>
       <c r="C241" s="20"/>
       <c r="D241" s="20"/>
       <c r="E241" s="20"/>
       <c r="F241" s="20"/>
-      <c r="G241" s="162"/>
+      <c r="G241" s="165"/>
     </row>
     <row r="242" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A242" s="162"/>
+      <c r="A242" s="165"/>
       <c r="B242" s="19"/>
       <c r="C242" s="20"/>
       <c r="D242" s="20"/>
       <c r="E242" s="20"/>
       <c r="F242" s="20"/>
-      <c r="G242" s="162"/>
+      <c r="G242" s="165"/>
     </row>
     <row r="243" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A243" s="162"/>
+      <c r="A243" s="165"/>
       <c r="B243" s="19"/>
       <c r="C243" s="20"/>
       <c r="D243" s="20"/>
       <c r="E243" s="20"/>
       <c r="F243" s="20"/>
-      <c r="G243" s="162"/>
+      <c r="G243" s="165"/>
     </row>
     <row r="244" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A244" s="162"/>
+      <c r="A244" s="165"/>
       <c r="B244" s="19"/>
       <c r="C244" s="20"/>
       <c r="D244" s="20"/>
       <c r="E244" s="20"/>
       <c r="F244" s="20"/>
-      <c r="G244" s="162"/>
+      <c r="G244" s="165"/>
     </row>
     <row r="245" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A245" s="162"/>
+      <c r="A245" s="165"/>
       <c r="B245" s="19"/>
       <c r="C245" s="20"/>
       <c r="D245" s="20"/>
       <c r="E245" s="20"/>
       <c r="F245" s="20"/>
-      <c r="G245" s="162"/>
+      <c r="G245" s="165"/>
     </row>
     <row r="246" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A246" s="162"/>
+      <c r="A246" s="165"/>
       <c r="B246" s="19"/>
       <c r="C246" s="20"/>
       <c r="D246" s="20"/>
       <c r="E246" s="20"/>
       <c r="F246" s="20"/>
-      <c r="G246" s="162"/>
+      <c r="G246" s="165"/>
     </row>
     <row r="247" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A247" s="162"/>
+      <c r="A247" s="165"/>
       <c r="B247" s="19"/>
       <c r="C247" s="20"/>
       <c r="D247" s="20"/>
       <c r="E247" s="20"/>
       <c r="F247" s="20"/>
-      <c r="G247" s="162"/>
+      <c r="G247" s="165"/>
     </row>
     <row r="248" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A248" s="162"/>
+      <c r="A248" s="165"/>
       <c r="B248" s="19"/>
       <c r="C248" s="20"/>
       <c r="D248" s="20"/>
       <c r="E248" s="20"/>
       <c r="F248" s="20"/>
-      <c r="G248" s="162"/>
+      <c r="G248" s="165"/>
     </row>
     <row r="249" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A249" s="162"/>
+      <c r="A249" s="165"/>
       <c r="B249" s="19"/>
       <c r="C249" s="20"/>
       <c r="D249" s="20"/>
       <c r="E249" s="20"/>
       <c r="F249" s="20"/>
-      <c r="G249" s="162"/>
+      <c r="G249" s="165"/>
     </row>
     <row r="250" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A250" s="162"/>
+      <c r="A250" s="165"/>
       <c r="B250" s="19"/>
       <c r="C250" s="20"/>
       <c r="D250" s="20"/>
       <c r="E250" s="20"/>
       <c r="F250" s="20"/>
-      <c r="G250" s="162"/>
+      <c r="G250" s="165"/>
     </row>
     <row r="251" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A251" s="162"/>
+      <c r="A251" s="165"/>
       <c r="B251" s="19"/>
       <c r="C251" s="20"/>
       <c r="D251" s="20"/>
       <c r="E251" s="20"/>
       <c r="F251" s="20"/>
-      <c r="G251" s="162"/>
+      <c r="G251" s="165"/>
     </row>
     <row r="252" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A252" s="162"/>
+      <c r="A252" s="165"/>
       <c r="B252" s="19"/>
       <c r="C252" s="20"/>
       <c r="D252" s="20"/>
       <c r="E252" s="20"/>
       <c r="F252" s="20"/>
-      <c r="G252" s="162"/>
+      <c r="G252" s="165"/>
     </row>
     <row r="253" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A253" s="162"/>
+      <c r="A253" s="165"/>
       <c r="B253" s="19"/>
       <c r="C253" s="20"/>
       <c r="D253" s="20"/>
       <c r="E253" s="20"/>
       <c r="F253" s="20"/>
-      <c r="G253" s="162"/>
+      <c r="G253" s="165"/>
     </row>
     <row r="254" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A254" s="162"/>
+      <c r="A254" s="165"/>
       <c r="B254" s="19"/>
       <c r="C254" s="20"/>
       <c r="D254" s="20"/>
       <c r="E254" s="20"/>
       <c r="F254" s="20"/>
-      <c r="G254" s="162"/>
+      <c r="G254" s="165"/>
     </row>
     <row r="255" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A255" s="162"/>
+      <c r="A255" s="165"/>
       <c r="B255" s="19"/>
       <c r="C255" s="20"/>
       <c r="D255" s="20"/>
       <c r="E255" s="20"/>
       <c r="F255" s="20"/>
-      <c r="G255" s="162"/>
+      <c r="G255" s="165"/>
     </row>
     <row r="256" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A256" s="162"/>
+      <c r="A256" s="165"/>
       <c r="B256" s="19"/>
       <c r="C256" s="20"/>
       <c r="D256" s="20"/>
       <c r="E256" s="20"/>
       <c r="F256" s="20"/>
-      <c r="G256" s="162"/>
+      <c r="G256" s="165"/>
     </row>
     <row r="257" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A257" s="162"/>
+      <c r="A257" s="165"/>
       <c r="B257" s="19"/>
       <c r="C257" s="20"/>
       <c r="D257" s="20"/>
       <c r="E257" s="20"/>
       <c r="F257" s="20"/>
-      <c r="G257" s="162"/>
+      <c r="G257" s="165"/>
     </row>
     <row r="258" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A258" s="162"/>
+      <c r="A258" s="165"/>
       <c r="B258" s="19"/>
       <c r="C258" s="20"/>
       <c r="D258" s="20"/>
       <c r="E258" s="20"/>
       <c r="F258" s="20"/>
-      <c r="G258" s="162"/>
+      <c r="G258" s="165"/>
     </row>
     <row r="259" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A259" s="162"/>
+      <c r="A259" s="165"/>
       <c r="B259" s="19"/>
       <c r="C259" s="20"/>
       <c r="D259" s="20"/>
       <c r="E259" s="20"/>
       <c r="F259" s="20"/>
-      <c r="G259" s="162"/>
+      <c r="G259" s="165"/>
     </row>
     <row r="260" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A260" s="162"/>
+      <c r="A260" s="165"/>
       <c r="B260" s="19"/>
       <c r="C260" s="20"/>
       <c r="D260" s="20"/>
       <c r="E260" s="20"/>
       <c r="F260" s="20"/>
-      <c r="G260" s="162"/>
+      <c r="G260" s="165"/>
     </row>
     <row r="261" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A261" s="162"/>
+      <c r="A261" s="165"/>
       <c r="B261" s="19"/>
       <c r="C261" s="20"/>
       <c r="D261" s="20"/>
       <c r="E261" s="20"/>
       <c r="F261" s="20"/>
-      <c r="G261" s="162"/>
+      <c r="G261" s="165"/>
     </row>
     <row r="262" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A262" s="162"/>
+      <c r="A262" s="165"/>
       <c r="B262" s="19"/>
       <c r="C262" s="20"/>
       <c r="D262" s="20"/>
       <c r="E262" s="20"/>
       <c r="F262" s="20"/>
-      <c r="G262" s="162"/>
+      <c r="G262" s="165"/>
     </row>
     <row r="263" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A263" s="162"/>
+      <c r="A263" s="165"/>
       <c r="B263" s="19"/>
       <c r="C263" s="20"/>
       <c r="D263" s="20"/>
       <c r="E263" s="20"/>
       <c r="F263" s="20"/>
-      <c r="G263" s="162"/>
+      <c r="G263" s="165"/>
     </row>
     <row r="264" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A264" s="162"/>
+      <c r="A264" s="165"/>
       <c r="B264" s="19"/>
       <c r="C264" s="20"/>
       <c r="D264" s="20"/>
       <c r="E264" s="20"/>
       <c r="F264" s="20"/>
-      <c r="G264" s="162"/>
+      <c r="G264" s="165"/>
     </row>
     <row r="265" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A265" s="162"/>
+      <c r="A265" s="165"/>
       <c r="B265" s="19"/>
       <c r="C265" s="20"/>
       <c r="D265" s="20"/>
       <c r="E265" s="20"/>
       <c r="F265" s="20"/>
-      <c r="G265" s="162"/>
+      <c r="G265" s="165"/>
     </row>
     <row r="266" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A266" s="162"/>
+      <c r="A266" s="165"/>
       <c r="B266" s="19"/>
       <c r="C266" s="20"/>
       <c r="D266" s="20"/>
       <c r="E266" s="20"/>
       <c r="F266" s="20"/>
-      <c r="G266" s="162"/>
+      <c r="G266" s="165"/>
     </row>
     <row r="267" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A267" s="162"/>
+      <c r="A267" s="165"/>
       <c r="B267" s="19"/>
       <c r="C267" s="20"/>
       <c r="D267" s="20"/>
       <c r="E267" s="20"/>
       <c r="F267" s="20"/>
-      <c r="G267" s="162"/>
+      <c r="G267" s="165"/>
     </row>
     <row r="268" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A268" s="162"/>
+      <c r="A268" s="165"/>
       <c r="B268" s="19"/>
       <c r="C268" s="20"/>
       <c r="D268" s="20"/>
       <c r="E268" s="20"/>
       <c r="F268" s="20"/>
-      <c r="G268" s="162"/>
+      <c r="G268" s="165"/>
     </row>
     <row r="269" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A269" s="162"/>
+      <c r="A269" s="165"/>
       <c r="B269" s="19"/>
       <c r="C269" s="20"/>
       <c r="D269" s="20"/>
       <c r="E269" s="20"/>
       <c r="F269" s="20"/>
-      <c r="G269" s="162"/>
+      <c r="G269" s="165"/>
     </row>
     <row r="270" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A270" s="162"/>
+      <c r="A270" s="165"/>
       <c r="B270" s="19"/>
       <c r="C270" s="20"/>
       <c r="D270" s="20"/>
       <c r="E270" s="20"/>
       <c r="F270" s="20"/>
-      <c r="G270" s="162"/>
+      <c r="G270" s="165"/>
     </row>
     <row r="271" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A271" s="162"/>
+      <c r="A271" s="165"/>
       <c r="B271" s="19"/>
       <c r="C271" s="20"/>
       <c r="D271" s="20"/>
       <c r="E271" s="20"/>
       <c r="F271" s="20"/>
-      <c r="G271" s="162"/>
+      <c r="G271" s="165"/>
     </row>
     <row r="272" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A272" s="162"/>
+      <c r="A272" s="165"/>
       <c r="B272" s="19"/>
       <c r="C272" s="20"/>
       <c r="D272" s="20"/>
       <c r="E272" s="20"/>
       <c r="F272" s="20"/>
-      <c r="G272" s="162"/>
+      <c r="G272" s="165"/>
     </row>
     <row r="273" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A273" s="162"/>
+      <c r="A273" s="165"/>
       <c r="B273" s="19"/>
       <c r="C273" s="20"/>
       <c r="D273" s="20"/>
       <c r="E273" s="20"/>
       <c r="F273" s="20"/>
-      <c r="G273" s="162"/>
+      <c r="G273" s="165"/>
     </row>
     <row r="274" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A274" s="162"/>
+      <c r="A274" s="165"/>
       <c r="B274" s="19"/>
       <c r="C274" s="20"/>
       <c r="D274" s="20"/>
       <c r="E274" s="20"/>
       <c r="F274" s="20"/>
-      <c r="G274" s="162"/>
+      <c r="G274" s="165"/>
     </row>
     <row r="275" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A275" s="162"/>
+      <c r="A275" s="165"/>
       <c r="B275" s="19"/>
       <c r="C275" s="20"/>
       <c r="D275" s="20"/>
       <c r="E275" s="20"/>
       <c r="F275" s="20"/>
-      <c r="G275" s="162"/>
+      <c r="G275" s="165"/>
     </row>
     <row r="276" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A276" s="162"/>
+      <c r="A276" s="165"/>
       <c r="B276" s="19"/>
       <c r="C276" s="20"/>
       <c r="D276" s="20"/>
       <c r="E276" s="20"/>
       <c r="F276" s="20"/>
-      <c r="G276" s="162"/>
+      <c r="G276" s="165"/>
     </row>
     <row r="277" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A277" s="162"/>
+      <c r="A277" s="165"/>
       <c r="B277" s="19"/>
       <c r="C277" s="20"/>
       <c r="D277" s="20"/>
       <c r="E277" s="20"/>
       <c r="F277" s="20"/>
-      <c r="G277" s="162"/>
+      <c r="G277" s="165"/>
     </row>
     <row r="278" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A278" s="162"/>
+      <c r="A278" s="165"/>
       <c r="B278" s="19"/>
       <c r="C278" s="20"/>
       <c r="D278" s="20"/>
       <c r="E278" s="20"/>
       <c r="F278" s="20"/>
-      <c r="G278" s="162"/>
+      <c r="G278" s="165"/>
     </row>
     <row r="279" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A279" s="162"/>
+      <c r="A279" s="165"/>
       <c r="B279" s="19"/>
       <c r="C279" s="20"/>
       <c r="D279" s="20"/>
       <c r="E279" s="20"/>
       <c r="F279" s="20"/>
-      <c r="G279" s="162"/>
+      <c r="G279" s="165"/>
     </row>
     <row r="280" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A280" s="162"/>
+      <c r="A280" s="165"/>
       <c r="B280" s="19"/>
       <c r="C280" s="20"/>
       <c r="D280" s="20"/>
       <c r="E280" s="20"/>
       <c r="F280" s="20"/>
-      <c r="G280" s="162"/>
+      <c r="G280" s="165"/>
     </row>
     <row r="281" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A281" s="162"/>
+      <c r="A281" s="165"/>
       <c r="B281" s="19"/>
       <c r="C281" s="20"/>
       <c r="D281" s="20"/>
       <c r="E281" s="20"/>
       <c r="F281" s="20"/>
-      <c r="G281" s="162"/>
+      <c r="G281" s="165"/>
     </row>
     <row r="282" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A282" s="162"/>
+      <c r="A282" s="165"/>
       <c r="B282" s="19"/>
       <c r="C282" s="20"/>
       <c r="D282" s="20"/>
       <c r="E282" s="20"/>
       <c r="F282" s="20"/>
-      <c r="G282" s="162"/>
+      <c r="G282" s="165"/>
     </row>
     <row r="283" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A283" s="162"/>
+      <c r="A283" s="165"/>
       <c r="B283" s="19"/>
       <c r="C283" s="20"/>
       <c r="D283" s="20"/>
       <c r="E283" s="20"/>
       <c r="F283" s="20"/>
-      <c r="G283" s="162"/>
+      <c r="G283" s="165"/>
     </row>
     <row r="284" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A284" s="162"/>
+      <c r="A284" s="165"/>
       <c r="B284" s="19"/>
       <c r="C284" s="20"/>
       <c r="D284" s="20"/>
       <c r="E284" s="20"/>
       <c r="F284" s="20"/>
-      <c r="G284" s="162"/>
+      <c r="G284" s="165"/>
     </row>
     <row r="285" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A285" s="162"/>
+      <c r="A285" s="165"/>
       <c r="B285" s="19"/>
       <c r="C285" s="20"/>
       <c r="D285" s="20"/>
       <c r="E285" s="20"/>
       <c r="F285" s="20"/>
-      <c r="G285" s="162"/>
+      <c r="G285" s="165"/>
     </row>
     <row r="286" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A286" s="162"/>
+      <c r="A286" s="165"/>
       <c r="B286" s="19"/>
       <c r="C286" s="20"/>
       <c r="D286" s="20"/>
       <c r="E286" s="20"/>
       <c r="F286" s="20"/>
-      <c r="G286" s="162"/>
+      <c r="G286" s="165"/>
     </row>
     <row r="287" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A287" s="162"/>
+      <c r="A287" s="165"/>
       <c r="B287" s="19"/>
       <c r="C287" s="20"/>
       <c r="D287" s="20"/>
       <c r="E287" s="20"/>
       <c r="F287" s="20"/>
-      <c r="G287" s="162"/>
+      <c r="G287" s="165"/>
     </row>
     <row r="288" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A288" s="162"/>
+      <c r="A288" s="165"/>
       <c r="B288" s="19"/>
       <c r="C288" s="20"/>
       <c r="D288" s="20"/>
       <c r="E288" s="20"/>
       <c r="F288" s="20"/>
-      <c r="G288" s="162"/>
+      <c r="G288" s="165"/>
     </row>
     <row r="289" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A289" s="162"/>
+      <c r="A289" s="165"/>
       <c r="B289" s="19"/>
       <c r="C289" s="20"/>
       <c r="D289" s="20"/>
       <c r="E289" s="20"/>
       <c r="F289" s="20"/>
-      <c r="G289" s="162"/>
+      <c r="G289" s="165"/>
     </row>
     <row r="290" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A290" s="162"/>
+      <c r="A290" s="165"/>
       <c r="B290" s="19"/>
       <c r="C290" s="20"/>
       <c r="D290" s="20"/>
       <c r="E290" s="20"/>
       <c r="F290" s="20"/>
-      <c r="G290" s="162"/>
+      <c r="G290" s="165"/>
     </row>
     <row r="291" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A291" s="162"/>
+      <c r="A291" s="165"/>
       <c r="B291" s="19"/>
       <c r="C291" s="20"/>
       <c r="D291" s="20"/>
       <c r="E291" s="20"/>
       <c r="F291" s="20"/>
-      <c r="G291" s="162"/>
+      <c r="G291" s="165"/>
     </row>
     <row r="292" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A292" s="162"/>
+      <c r="A292" s="165"/>
       <c r="B292" s="19"/>
       <c r="C292" s="20"/>
       <c r="D292" s="20"/>
       <c r="E292" s="20"/>
       <c r="F292" s="20"/>
-      <c r="G292" s="162"/>
+      <c r="G292" s="165"/>
     </row>
     <row r="293" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A293" s="162"/>
+      <c r="A293" s="165"/>
       <c r="B293" s="19"/>
       <c r="C293" s="20"/>
       <c r="D293" s="20"/>
       <c r="E293" s="20"/>
       <c r="F293" s="20"/>
-      <c r="G293" s="162"/>
+      <c r="G293" s="165"/>
     </row>
     <row r="294" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A294" s="162"/>
+      <c r="A294" s="165"/>
       <c r="B294" s="19"/>
       <c r="C294" s="20"/>
       <c r="D294" s="20"/>
       <c r="E294" s="20"/>
       <c r="F294" s="20"/>
-      <c r="G294" s="162"/>
+      <c r="G294" s="165"/>
     </row>
     <row r="295" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A295" s="162"/>
+      <c r="A295" s="165"/>
       <c r="B295" s="19"/>
       <c r="C295" s="20"/>
       <c r="D295" s="20"/>
       <c r="E295" s="20"/>
       <c r="F295" s="20"/>
-      <c r="G295" s="162"/>
+      <c r="G295" s="165"/>
     </row>
     <row r="296" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A296" s="162"/>
+      <c r="A296" s="165"/>
       <c r="B296" s="19"/>
       <c r="C296" s="20"/>
       <c r="D296" s="20"/>
       <c r="E296" s="20"/>
       <c r="F296" s="20"/>
-      <c r="G296" s="162"/>
+      <c r="G296" s="165"/>
     </row>
     <row r="297" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A297" s="162"/>
+      <c r="A297" s="165"/>
       <c r="B297" s="19"/>
       <c r="C297" s="20"/>
       <c r="D297" s="20"/>
       <c r="E297" s="20"/>
       <c r="F297" s="20"/>
-      <c r="G297" s="162"/>
+      <c r="G297" s="165"/>
     </row>
     <row r="298" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A298" s="162"/>
+      <c r="A298" s="165"/>
       <c r="B298" s="19"/>
       <c r="C298" s="20"/>
       <c r="D298" s="20"/>
       <c r="E298" s="20"/>
       <c r="F298" s="20"/>
-      <c r="G298" s="162"/>
+      <c r="G298" s="165"/>
     </row>
     <row r="299" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A299" s="162"/>
+      <c r="A299" s="165"/>
       <c r="B299" s="19"/>
       <c r="C299" s="20"/>
       <c r="D299" s="20"/>
       <c r="E299" s="20"/>
       <c r="F299" s="20"/>
-      <c r="G299" s="162"/>
+      <c r="G299" s="165"/>
     </row>
     <row r="300" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A300" s="162"/>
+      <c r="A300" s="165"/>
       <c r="B300" s="19"/>
       <c r="C300" s="20"/>
       <c r="D300" s="20"/>
       <c r="E300" s="20"/>
       <c r="F300" s="20"/>
-      <c r="G300" s="162"/>
+      <c r="G300" s="165"/>
     </row>
     <row r="301" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A301" s="162"/>
+      <c r="A301" s="165"/>
       <c r="B301" s="19"/>
       <c r="C301" s="20"/>
       <c r="D301" s="20"/>
       <c r="E301" s="20"/>
       <c r="F301" s="20"/>
-      <c r="G301" s="162"/>
+      <c r="G301" s="165"/>
     </row>
     <row r="302" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A302" s="162"/>
+      <c r="A302" s="165"/>
       <c r="B302" s="19"/>
       <c r="C302" s="20"/>
       <c r="D302" s="20"/>
       <c r="E302" s="20"/>
       <c r="F302" s="20"/>
-      <c r="G302" s="162"/>
+      <c r="G302" s="165"/>
     </row>
     <row r="303" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A303" s="162"/>
+      <c r="A303" s="165"/>
       <c r="B303" s="19"/>
       <c r="C303" s="20"/>
       <c r="D303" s="20"/>
       <c r="E303" s="20"/>
       <c r="F303" s="20"/>
-      <c r="G303" s="162"/>
+      <c r="G303" s="165"/>
     </row>
     <row r="304" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A304" s="162"/>
+      <c r="A304" s="165"/>
       <c r="B304" s="19"/>
       <c r="C304" s="20"/>
       <c r="D304" s="20"/>
       <c r="E304" s="20"/>
       <c r="F304" s="20"/>
-      <c r="G304" s="162"/>
+      <c r="G304" s="165"/>
     </row>
     <row r="305" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A305" s="162"/>
+      <c r="A305" s="165"/>
       <c r="B305" s="19"/>
       <c r="C305" s="20"/>
       <c r="D305" s="20"/>
       <c r="E305" s="20"/>
       <c r="F305" s="20"/>
-      <c r="G305" s="162"/>
+      <c r="G305" s="165"/>
     </row>
     <row r="306" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A306" s="162"/>
+      <c r="A306" s="165"/>
       <c r="B306" s="19"/>
       <c r="C306" s="20"/>
       <c r="D306" s="20"/>
       <c r="E306" s="20"/>
       <c r="F306" s="20"/>
-      <c r="G306" s="162"/>
+      <c r="G306" s="165"/>
     </row>
     <row r="307" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A307" s="162"/>
+      <c r="A307" s="165"/>
       <c r="B307" s="19"/>
       <c r="C307" s="20"/>
       <c r="D307" s="20"/>
       <c r="E307" s="20"/>
       <c r="F307" s="20"/>
-      <c r="G307" s="162"/>
+      <c r="G307" s="165"/>
     </row>
     <row r="308" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A308" s="162"/>
+      <c r="A308" s="165"/>
       <c r="B308" s="19"/>
       <c r="C308" s="20"/>
       <c r="D308" s="20"/>
       <c r="E308" s="20"/>
       <c r="F308" s="20"/>
-      <c r="G308" s="162"/>
+      <c r="G308" s="165"/>
     </row>
     <row r="309" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A309" s="162"/>
+      <c r="A309" s="165"/>
       <c r="B309" s="19"/>
       <c r="C309" s="20"/>
       <c r="D309" s="20"/>
       <c r="E309" s="20"/>
       <c r="F309" s="20"/>
-      <c r="G309" s="162"/>
+      <c r="G309" s="165"/>
     </row>
     <row r="310" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A310" s="162"/>
+      <c r="A310" s="165"/>
       <c r="B310" s="19"/>
       <c r="C310" s="20"/>
       <c r="D310" s="20"/>
       <c r="E310" s="20"/>
       <c r="F310" s="20"/>
-      <c r="G310" s="162"/>
+      <c r="G310" s="165"/>
     </row>
     <row r="311" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A311" s="162"/>
+      <c r="A311" s="165"/>
       <c r="B311" s="19"/>
       <c r="C311" s="20"/>
       <c r="D311" s="20"/>
       <c r="E311" s="20"/>
       <c r="F311" s="20"/>
-      <c r="G311" s="162"/>
+      <c r="G311" s="165"/>
     </row>
     <row r="312" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A312" s="162"/>
+      <c r="A312" s="165"/>
       <c r="B312" s="19"/>
       <c r="C312" s="20"/>
       <c r="D312" s="20"/>
       <c r="E312" s="20"/>
       <c r="F312" s="20"/>
-      <c r="G312" s="162"/>
+      <c r="G312" s="165"/>
     </row>
     <row r="313" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A313" s="162"/>
+      <c r="A313" s="165"/>
       <c r="B313" s="19"/>
       <c r="C313" s="20"/>
       <c r="D313" s="20"/>
       <c r="E313" s="20"/>
       <c r="F313" s="20"/>
-      <c r="G313" s="162"/>
+      <c r="G313" s="165"/>
     </row>
     <row r="314" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A314" s="162"/>
+      <c r="A314" s="165"/>
       <c r="B314" s="19"/>
       <c r="C314" s="20"/>
       <c r="D314" s="20"/>
       <c r="E314" s="20"/>
       <c r="F314" s="20"/>
-      <c r="G314" s="162"/>
+      <c r="G314" s="165"/>
     </row>
     <row r="315" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A315" s="162"/>
+      <c r="A315" s="165"/>
       <c r="B315" s="19"/>
       <c r="C315" s="20"/>
       <c r="D315" s="20"/>
       <c r="E315" s="20"/>
       <c r="F315" s="20"/>
-      <c r="G315" s="162"/>
+      <c r="G315" s="165"/>
     </row>
     <row r="316" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A316" s="162"/>
+      <c r="A316" s="165"/>
       <c r="B316" s="19"/>
       <c r="C316" s="20"/>
       <c r="D316" s="20"/>
       <c r="E316" s="20"/>
       <c r="F316" s="20"/>
-      <c r="G316" s="162"/>
+      <c r="G316" s="165"/>
     </row>
     <row r="317" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A317" s="162"/>
+      <c r="A317" s="165"/>
       <c r="B317" s="19"/>
       <c r="C317" s="20"/>
       <c r="D317" s="20"/>
       <c r="E317" s="20"/>
       <c r="F317" s="20"/>
-      <c r="G317" s="162"/>
+      <c r="G317" s="165"/>
     </row>
     <row r="318" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A318" s="162"/>
+      <c r="A318" s="165"/>
       <c r="B318" s="19"/>
       <c r="C318" s="20"/>
       <c r="D318" s="20"/>
       <c r="E318" s="20"/>
       <c r="F318" s="20"/>
-      <c r="G318" s="162"/>
+      <c r="G318" s="165"/>
     </row>
     <row r="319" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A319" s="162"/>
+      <c r="A319" s="165"/>
       <c r="B319" s="19"/>
       <c r="C319" s="20"/>
       <c r="D319" s="20"/>
       <c r="E319" s="20"/>
       <c r="F319" s="20"/>
-      <c r="G319" s="162"/>
+      <c r="G319" s="165"/>
     </row>
     <row r="320" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A320" s="162"/>
+      <c r="A320" s="165"/>
       <c r="B320" s="19"/>
       <c r="C320" s="20"/>
       <c r="D320" s="20"/>
       <c r="E320" s="20"/>
       <c r="F320" s="20"/>
-      <c r="G320" s="162"/>
+      <c r="G320" s="165"/>
     </row>
     <row r="321" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A321" s="162"/>
+      <c r="A321" s="165"/>
       <c r="B321" s="19"/>
       <c r="C321" s="20"/>
       <c r="D321" s="20"/>
       <c r="E321" s="20"/>
       <c r="F321" s="20"/>
-      <c r="G321" s="162"/>
+      <c r="G321" s="165"/>
     </row>
     <row r="322" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A322" s="162"/>
+      <c r="A322" s="165"/>
       <c r="B322" s="19"/>
       <c r="C322" s="20"/>
       <c r="D322" s="20"/>
       <c r="E322" s="20"/>
       <c r="F322" s="20"/>
-      <c r="G322" s="162"/>
+      <c r="G322" s="165"/>
     </row>
     <row r="323" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A323" s="162"/>
+      <c r="A323" s="165"/>
       <c r="B323" s="19"/>
       <c r="C323" s="20"/>
       <c r="D323" s="20"/>
       <c r="E323" s="20"/>
       <c r="F323" s="20"/>
-      <c r="G323" s="162"/>
+      <c r="G323" s="165"/>
     </row>
     <row r="324" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A324" s="162"/>
+      <c r="A324" s="165"/>
       <c r="B324" s="19"/>
       <c r="C324" s="20"/>
       <c r="D324" s="20"/>
       <c r="E324" s="20"/>
       <c r="F324" s="20"/>
-      <c r="G324" s="162"/>
+      <c r="G324" s="165"/>
     </row>
     <row r="325" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A325" s="162"/>
+      <c r="A325" s="165"/>
       <c r="B325" s="19"/>
       <c r="C325" s="20"/>
       <c r="D325" s="20"/>
       <c r="E325" s="20"/>
       <c r="F325" s="20"/>
-      <c r="G325" s="162"/>
+      <c r="G325" s="165"/>
     </row>
     <row r="326" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A326" s="162"/>
+      <c r="A326" s="165"/>
       <c r="B326" s="19"/>
       <c r="C326" s="20"/>
       <c r="D326" s="20"/>
       <c r="E326" s="20"/>
       <c r="F326" s="20"/>
-      <c r="G326" s="162"/>
+      <c r="G326" s="165"/>
     </row>
     <row r="327" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A327" s="162"/>
+      <c r="A327" s="165"/>
       <c r="B327" s="19"/>
       <c r="C327" s="20"/>
       <c r="D327" s="20"/>
       <c r="E327" s="20"/>
       <c r="F327" s="20"/>
-      <c r="G327" s="162"/>
+      <c r="G327" s="165"/>
     </row>
     <row r="328" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A328" s="162"/>
+      <c r="A328" s="165"/>
       <c r="B328" s="19"/>
       <c r="C328" s="20"/>
       <c r="D328" s="20"/>
       <c r="E328" s="20"/>
       <c r="F328" s="20"/>
-      <c r="G328" s="162"/>
+      <c r="G328" s="165"/>
     </row>
     <row r="329" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A329" s="162"/>
+      <c r="A329" s="165"/>
       <c r="B329" s="19"/>
       <c r="C329" s="20"/>
       <c r="D329" s="20"/>
       <c r="E329" s="20"/>
       <c r="F329" s="20"/>
-      <c r="G329" s="162"/>
+      <c r="G329" s="165"/>
     </row>
     <row r="330" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A330" s="162"/>
+      <c r="A330" s="165"/>
       <c r="B330" s="19"/>
       <c r="C330" s="20"/>
       <c r="D330" s="20"/>
       <c r="E330" s="20"/>
       <c r="F330" s="20"/>
-      <c r="G330" s="162"/>
+      <c r="G330" s="165"/>
     </row>
     <row r="331" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A331" s="162"/>
+      <c r="A331" s="165"/>
       <c r="B331" s="19"/>
       <c r="C331" s="20"/>
       <c r="D331" s="20"/>
       <c r="E331" s="20"/>
       <c r="F331" s="20"/>
-      <c r="G331" s="162"/>
+      <c r="G331" s="165"/>
     </row>
     <row r="332" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A332" s="162"/>
+      <c r="A332" s="165"/>
       <c r="B332" s="19"/>
       <c r="C332" s="20"/>
       <c r="D332" s="20"/>
       <c r="E332" s="20"/>
       <c r="F332" s="20"/>
-      <c r="G332" s="162"/>
+      <c r="G332" s="165"/>
     </row>
     <row r="333" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A333" s="162"/>
+      <c r="A333" s="165"/>
       <c r="B333" s="19"/>
       <c r="C333" s="20"/>
       <c r="D333" s="20"/>
       <c r="E333" s="20"/>
       <c r="F333" s="20"/>
-      <c r="G333" s="162"/>
+      <c r="G333" s="165"/>
     </row>
     <row r="334" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A334" s="162"/>
+      <c r="A334" s="165"/>
       <c r="B334" s="19"/>
       <c r="C334" s="20"/>
       <c r="D334" s="20"/>
       <c r="E334" s="20"/>
       <c r="F334" s="20"/>
-      <c r="G334" s="162"/>
+      <c r="G334" s="165"/>
     </row>
     <row r="335" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A335" s="162"/>
+      <c r="A335" s="165"/>
       <c r="B335" s="19"/>
       <c r="C335" s="20"/>
       <c r="D335" s="20"/>
       <c r="E335" s="20"/>
       <c r="F335" s="20"/>
-      <c r="G335" s="162"/>
+      <c r="G335" s="165"/>
     </row>
     <row r="336" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A336" s="162"/>
+      <c r="A336" s="165"/>
       <c r="B336" s="19"/>
       <c r="C336" s="20"/>
       <c r="D336" s="20"/>
       <c r="E336" s="20"/>
       <c r="F336" s="20"/>
-      <c r="G336" s="162"/>
+      <c r="G336" s="165"/>
     </row>
     <row r="337" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A337" s="162"/>
+      <c r="A337" s="165"/>
       <c r="B337" s="19"/>
       <c r="C337" s="20"/>
       <c r="D337" s="20"/>
       <c r="E337" s="20"/>
       <c r="F337" s="20"/>
-      <c r="G337" s="162"/>
+      <c r="G337" s="165"/>
     </row>
     <row r="338" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A338" s="162"/>
+      <c r="A338" s="165"/>
       <c r="B338" s="19"/>
       <c r="C338" s="20"/>
       <c r="D338" s="20"/>
       <c r="E338" s="20"/>
       <c r="F338" s="20"/>
-      <c r="G338" s="162"/>
+      <c r="G338" s="165"/>
     </row>
     <row r="339" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A339" s="162"/>
+      <c r="A339" s="165"/>
       <c r="B339" s="19"/>
       <c r="C339" s="20"/>
       <c r="D339" s="20"/>
       <c r="E339" s="20"/>
       <c r="F339" s="20"/>
-      <c r="G339" s="162"/>
+      <c r="G339" s="165"/>
     </row>
     <row r="340" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A340" s="162"/>
+      <c r="A340" s="165"/>
       <c r="B340" s="19"/>
       <c r="C340" s="20"/>
       <c r="D340" s="20"/>
       <c r="E340" s="20"/>
       <c r="F340" s="20"/>
-      <c r="G340" s="162"/>
+      <c r="G340" s="165"/>
     </row>
     <row r="341" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A341" s="162"/>
+      <c r="A341" s="165"/>
       <c r="B341" s="19"/>
       <c r="C341" s="20"/>
       <c r="D341" s="20"/>
       <c r="E341" s="20"/>
       <c r="F341" s="20"/>
-      <c r="G341" s="162"/>
+      <c r="G341" s="165"/>
     </row>
     <row r="342" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A342" s="162"/>
+      <c r="A342" s="165"/>
       <c r="B342" s="19"/>
       <c r="C342" s="20"/>
       <c r="D342" s="20"/>
       <c r="E342" s="20"/>
       <c r="F342" s="20"/>
-      <c r="G342" s="162"/>
+      <c r="G342" s="165"/>
     </row>
     <row r="343" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A343" s="162"/>
+      <c r="A343" s="165"/>
       <c r="B343" s="19"/>
       <c r="C343" s="20"/>
       <c r="D343" s="20"/>
       <c r="E343" s="20"/>
       <c r="F343" s="20"/>
-      <c r="G343" s="162"/>
+      <c r="G343" s="165"/>
     </row>
     <row r="344" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A344" s="162"/>
+      <c r="A344" s="165"/>
       <c r="B344" s="19"/>
       <c r="C344" s="20"/>
       <c r="D344" s="20"/>
       <c r="E344" s="20"/>
       <c r="F344" s="20"/>
-      <c r="G344" s="162"/>
+      <c r="G344" s="165"/>
     </row>
     <row r="345" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A345" s="162"/>
+      <c r="A345" s="165"/>
       <c r="B345" s="19"/>
       <c r="C345" s="20"/>
       <c r="D345" s="20"/>
       <c r="E345" s="20"/>
       <c r="F345" s="20"/>
-      <c r="G345" s="162"/>
+      <c r="G345" s="165"/>
     </row>
     <row r="346" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A346" s="162"/>
+      <c r="A346" s="165"/>
       <c r="B346" s="19"/>
       <c r="C346" s="20"/>
       <c r="D346" s="20"/>
       <c r="E346" s="20"/>
       <c r="F346" s="20"/>
-      <c r="G346" s="162"/>
+      <c r="G346" s="165"/>
     </row>
     <row r="347" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A347" s="162"/>
+      <c r="A347" s="165"/>
       <c r="B347" s="19"/>
       <c r="C347" s="20"/>
       <c r="D347" s="20"/>
       <c r="E347" s="20"/>
       <c r="F347" s="20"/>
-      <c r="G347" s="162"/>
+      <c r="G347" s="165"/>
     </row>
     <row r="348" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A348" s="162"/>
+      <c r="A348" s="165"/>
       <c r="B348" s="19"/>
       <c r="C348" s="20"/>
       <c r="D348" s="20"/>
       <c r="E348" s="20"/>
       <c r="F348" s="20"/>
-      <c r="G348" s="162"/>
+      <c r="G348" s="165"/>
     </row>
     <row r="349" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A349" s="162"/>
+      <c r="A349" s="165"/>
       <c r="B349" s="19"/>
       <c r="C349" s="20"/>
       <c r="D349" s="20"/>
       <c r="E349" s="20"/>
       <c r="F349" s="20"/>
-      <c r="G349" s="162"/>
+      <c r="G349" s="165"/>
     </row>
     <row r="350" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A350" s="162"/>
+      <c r="A350" s="165"/>
       <c r="B350" s="19"/>
       <c r="C350" s="20"/>
       <c r="D350" s="20"/>
       <c r="E350" s="20"/>
       <c r="F350" s="20"/>
-      <c r="G350" s="162"/>
+      <c r="G350" s="165"/>
     </row>
     <row r="351" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A351" s="162"/>
+      <c r="A351" s="165"/>
       <c r="B351" s="19"/>
       <c r="C351" s="20"/>
       <c r="D351" s="20"/>
       <c r="E351" s="20"/>
       <c r="F351" s="20"/>
-      <c r="G351" s="162"/>
+      <c r="G351" s="165"/>
     </row>
     <row r="352" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A352" s="162"/>
+      <c r="A352" s="165"/>
       <c r="B352" s="19"/>
       <c r="C352" s="20"/>
       <c r="D352" s="20"/>
       <c r="E352" s="20"/>
       <c r="F352" s="20"/>
-      <c r="G352" s="162"/>
+      <c r="G352" s="165"/>
     </row>
     <row r="353" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A353" s="162"/>
+      <c r="A353" s="165"/>
       <c r="B353" s="19"/>
       <c r="C353" s="20"/>
       <c r="D353" s="20"/>
       <c r="E353" s="20"/>
       <c r="F353" s="20"/>
-      <c r="G353" s="162"/>
+      <c r="G353" s="165"/>
     </row>
     <row r="354" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A354" s="162"/>
+      <c r="A354" s="165"/>
       <c r="B354" s="19"/>
       <c r="C354" s="20"/>
       <c r="D354" s="20"/>
       <c r="E354" s="20"/>
       <c r="F354" s="20"/>
-      <c r="G354" s="162"/>
+      <c r="G354" s="165"/>
     </row>
     <row r="355" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A355" s="162"/>
+      <c r="A355" s="165"/>
       <c r="B355" s="19"/>
       <c r="C355" s="20"/>
       <c r="D355" s="20"/>
       <c r="E355" s="20"/>
       <c r="F355" s="20"/>
-      <c r="G355" s="162"/>
+      <c r="G355" s="165"/>
     </row>
     <row r="356" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A356" s="162"/>
+      <c r="A356" s="165"/>
       <c r="B356" s="19"/>
       <c r="C356" s="20"/>
       <c r="D356" s="20"/>
       <c r="E356" s="20"/>
       <c r="F356" s="20"/>
-      <c r="G356" s="162"/>
+      <c r="G356" s="165"/>
     </row>
     <row r="357" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A357" s="162"/>
+      <c r="A357" s="165"/>
       <c r="B357" s="19"/>
       <c r="C357" s="20"/>
       <c r="D357" s="20"/>
       <c r="E357" s="20"/>
       <c r="F357" s="20"/>
-      <c r="G357" s="162"/>
+      <c r="G357" s="165"/>
     </row>
     <row r="358" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A358" s="162"/>
+      <c r="A358" s="165"/>
       <c r="B358" s="19"/>
       <c r="C358" s="20"/>
       <c r="D358" s="20"/>
       <c r="E358" s="20"/>
       <c r="F358" s="20"/>
-      <c r="G358" s="162"/>
+      <c r="G358" s="165"/>
     </row>
     <row r="359" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A359" s="162"/>
+      <c r="A359" s="165"/>
       <c r="B359" s="19"/>
       <c r="C359" s="20"/>
       <c r="D359" s="20"/>
       <c r="E359" s="20"/>
       <c r="F359" s="20"/>
-      <c r="G359" s="162"/>
+      <c r="G359" s="165"/>
     </row>
     <row r="360" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A360" s="162"/>
+      <c r="A360" s="165"/>
       <c r="B360" s="19"/>
       <c r="C360" s="20"/>
       <c r="D360" s="20"/>
       <c r="E360" s="20"/>
       <c r="F360" s="20"/>
-      <c r="G360" s="162"/>
+      <c r="G360" s="165"/>
     </row>
     <row r="361" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A361" s="162"/>
+      <c r="A361" s="165"/>
       <c r="B361" s="19"/>
       <c r="C361" s="20"/>
       <c r="D361" s="20"/>
       <c r="E361" s="20"/>
       <c r="F361" s="20"/>
-      <c r="G361" s="162"/>
+      <c r="G361" s="165"/>
     </row>
     <row r="362" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A362" s="162"/>
+      <c r="A362" s="165"/>
       <c r="B362" s="19"/>
       <c r="C362" s="20"/>
       <c r="D362" s="20"/>
       <c r="E362" s="20"/>
       <c r="F362" s="20"/>
-      <c r="G362" s="162"/>
+      <c r="G362" s="165"/>
     </row>
     <row r="363" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A363" s="162"/>
+      <c r="A363" s="165"/>
       <c r="B363" s="19"/>
       <c r="C363" s="20"/>
       <c r="D363" s="20"/>
       <c r="E363" s="20"/>
       <c r="F363" s="20"/>
-      <c r="G363" s="162"/>
+      <c r="G363" s="165"/>
     </row>
     <row r="364" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A364" s="162"/>
+      <c r="A364" s="165"/>
       <c r="B364" s="19"/>
       <c r="C364" s="20"/>
       <c r="D364" s="20"/>
       <c r="E364" s="20"/>
       <c r="F364" s="20"/>
-      <c r="G364" s="162"/>
+      <c r="G364" s="165"/>
     </row>
     <row r="365" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A365" s="162"/>
+      <c r="A365" s="165"/>
       <c r="B365" s="19"/>
       <c r="C365" s="20"/>
       <c r="D365" s="20"/>
       <c r="E365" s="20"/>
       <c r="F365" s="20"/>
-      <c r="G365" s="162"/>
+      <c r="G365" s="165"/>
     </row>
     <row r="366" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A366" s="162"/>
+      <c r="A366" s="165"/>
       <c r="B366" s="19"/>
       <c r="C366" s="20"/>
       <c r="D366" s="20"/>
       <c r="E366" s="20"/>
       <c r="F366" s="20"/>
-      <c r="G366" s="162"/>
+      <c r="G366" s="165"/>
     </row>
     <row r="367" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A367" s="162"/>
+      <c r="A367" s="165"/>
       <c r="B367" s="19"/>
       <c r="C367" s="20"/>
       <c r="D367" s="20"/>
       <c r="E367" s="20"/>
       <c r="F367" s="20"/>
-      <c r="G367" s="162"/>
+      <c r="G367" s="165"/>
     </row>
     <row r="368" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A368" s="162"/>
+      <c r="A368" s="165"/>
       <c r="B368" s="19"/>
       <c r="C368" s="20"/>
       <c r="D368" s="20"/>
       <c r="E368" s="20"/>
       <c r="F368" s="20"/>
-      <c r="G368" s="162"/>
+      <c r="G368" s="165"/>
     </row>
     <row r="369" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A369" s="162"/>
+      <c r="A369" s="165"/>
       <c r="B369" s="19"/>
       <c r="C369" s="20"/>
       <c r="D369" s="20"/>
       <c r="E369" s="20"/>
       <c r="F369" s="20"/>
-      <c r="G369" s="162"/>
+      <c r="G369" s="165"/>
     </row>
     <row r="370" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A370" s="162"/>
+      <c r="A370" s="165"/>
       <c r="B370" s="19"/>
       <c r="C370" s="20"/>
       <c r="D370" s="20"/>
       <c r="E370" s="20"/>
       <c r="F370" s="20"/>
-      <c r="G370" s="162"/>
+      <c r="G370" s="165"/>
     </row>
     <row r="371" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A371" s="162"/>
+      <c r="A371" s="165"/>
       <c r="B371" s="19"/>
       <c r="C371" s="20"/>
       <c r="D371" s="20"/>
       <c r="E371" s="20"/>
       <c r="F371" s="20"/>
-      <c r="G371" s="162"/>
+      <c r="G371" s="165"/>
     </row>
     <row r="372" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A372" s="162"/>
+      <c r="A372" s="165"/>
       <c r="B372" s="19"/>
       <c r="C372" s="20"/>
       <c r="D372" s="20"/>
       <c r="E372" s="20"/>
       <c r="F372" s="20"/>
-      <c r="G372" s="162"/>
+      <c r="G372" s="165"/>
     </row>
     <row r="373" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A373" s="162"/>
+      <c r="A373" s="165"/>
       <c r="B373" s="19"/>
       <c r="C373" s="20"/>
       <c r="D373" s="20"/>
       <c r="E373" s="20"/>
       <c r="F373" s="20"/>
-      <c r="G373" s="162"/>
+      <c r="G373" s="165"/>
     </row>
     <row r="374" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A374" s="162"/>
+      <c r="A374" s="165"/>
       <c r="B374" s="19"/>
       <c r="C374" s="20"/>
       <c r="D374" s="20"/>
       <c r="E374" s="20"/>
       <c r="F374" s="20"/>
-      <c r="G374" s="162"/>
+      <c r="G374" s="165"/>
     </row>
     <row r="375" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A375" s="162"/>
+      <c r="A375" s="165"/>
       <c r="B375" s="19"/>
       <c r="C375" s="20"/>
       <c r="D375" s="20"/>
       <c r="E375" s="20"/>
       <c r="F375" s="20"/>
-      <c r="G375" s="162"/>
+      <c r="G375" s="165"/>
     </row>
     <row r="376" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A376" s="162"/>
+      <c r="A376" s="165"/>
       <c r="B376" s="19"/>
       <c r="C376" s="20"/>
       <c r="D376" s="20"/>
       <c r="E376" s="20"/>
       <c r="F376" s="20"/>
-      <c r="G376" s="162"/>
+      <c r="G376" s="165"/>
     </row>
     <row r="377" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A377" s="162"/>
+      <c r="A377" s="165"/>
       <c r="B377" s="19"/>
       <c r="C377" s="20"/>
       <c r="D377" s="20"/>
       <c r="E377" s="20"/>
       <c r="F377" s="20"/>
-      <c r="G377" s="162"/>
+      <c r="G377" s="165"/>
     </row>
     <row r="378" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A378" s="162"/>
+      <c r="A378" s="165"/>
       <c r="B378" s="19"/>
       <c r="C378" s="20"/>
       <c r="D378" s="20"/>
       <c r="E378" s="20"/>
       <c r="F378" s="20"/>
-      <c r="G378" s="162"/>
+      <c r="G378" s="165"/>
     </row>
     <row r="379" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A379" s="162"/>
+      <c r="A379" s="165"/>
       <c r="B379" s="19"/>
       <c r="C379" s="20"/>
       <c r="D379" s="20"/>
       <c r="E379" s="20"/>
       <c r="F379" s="20"/>
-      <c r="G379" s="162"/>
+      <c r="G379" s="165"/>
     </row>
     <row r="380" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A380" s="162"/>
+      <c r="A380" s="165"/>
       <c r="B380" s="19"/>
       <c r="C380" s="20"/>
       <c r="D380" s="20"/>
       <c r="E380" s="20"/>
       <c r="F380" s="20"/>
-      <c r="G380" s="162"/>
+      <c r="G380" s="165"/>
     </row>
     <row r="381" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A381" s="162"/>
+      <c r="A381" s="165"/>
       <c r="B381" s="19"/>
       <c r="C381" s="20"/>
       <c r="D381" s="20"/>
       <c r="E381" s="20"/>
       <c r="F381" s="20"/>
-      <c r="G381" s="162"/>
+      <c r="G381" s="165"/>
     </row>
     <row r="382" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A382" s="162"/>
+      <c r="A382" s="165"/>
       <c r="B382" s="19"/>
       <c r="C382" s="20"/>
       <c r="D382" s="20"/>
       <c r="E382" s="20"/>
       <c r="F382" s="20"/>
-      <c r="G382" s="162"/>
+      <c r="G382" s="165"/>
     </row>
     <row r="383" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A383" s="162"/>
+      <c r="A383" s="165"/>
       <c r="B383" s="19"/>
       <c r="C383" s="20"/>
       <c r="D383" s="20"/>
       <c r="E383" s="20"/>
       <c r="F383" s="20"/>
-      <c r="G383" s="162"/>
+      <c r="G383" s="165"/>
     </row>
     <row r="384" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A384" s="162"/>
+      <c r="A384" s="165"/>
       <c r="B384" s="19"/>
       <c r="C384" s="20"/>
       <c r="D384" s="20"/>
       <c r="E384" s="20"/>
       <c r="F384" s="20"/>
-      <c r="G384" s="162"/>
+      <c r="G384" s="165"/>
     </row>
     <row r="385" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A385" s="162"/>
+      <c r="A385" s="165"/>
       <c r="B385" s="19"/>
       <c r="C385" s="20"/>
       <c r="D385" s="20"/>
       <c r="E385" s="20"/>
       <c r="F385" s="20"/>
-      <c r="G385" s="162"/>
+      <c r="G385" s="165"/>
     </row>
     <row r="386" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A386" s="162"/>
+      <c r="A386" s="165"/>
       <c r="B386" s="19"/>
       <c r="C386" s="20"/>
       <c r="D386" s="20"/>
       <c r="E386" s="20"/>
       <c r="F386" s="20"/>
-      <c r="G386" s="162"/>
+      <c r="G386" s="165"/>
     </row>
     <row r="387" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A387" s="162"/>
+      <c r="A387" s="165"/>
       <c r="B387" s="19"/>
       <c r="C387" s="20"/>
       <c r="D387" s="20"/>
       <c r="E387" s="20"/>
       <c r="F387" s="20"/>
-      <c r="G387" s="162"/>
+      <c r="G387" s="165"/>
     </row>
     <row r="388" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A388" s="162"/>
+      <c r="A388" s="165"/>
       <c r="B388" s="19"/>
       <c r="C388" s="20"/>
       <c r="D388" s="20"/>
       <c r="E388" s="20"/>
       <c r="F388" s="20"/>
-      <c r="G388" s="162"/>
+      <c r="G388" s="165"/>
     </row>
     <row r="389" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A389" s="162"/>
+      <c r="A389" s="165"/>
       <c r="B389" s="19"/>
       <c r="C389" s="20"/>
       <c r="D389" s="20"/>
       <c r="E389" s="20"/>
       <c r="F389" s="20"/>
-      <c r="G389" s="162"/>
+      <c r="G389" s="165"/>
     </row>
     <row r="390" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A390" s="162"/>
+      <c r="A390" s="165"/>
       <c r="B390" s="19"/>
       <c r="C390" s="20"/>
       <c r="D390" s="20"/>
       <c r="E390" s="20"/>
       <c r="F390" s="20"/>
-      <c r="G390" s="162"/>
+      <c r="G390" s="165"/>
     </row>
     <row r="391" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A391" s="162"/>
+      <c r="A391" s="165"/>
       <c r="B391" s="19"/>
       <c r="C391" s="20"/>
       <c r="D391" s="20"/>
       <c r="E391" s="20"/>
       <c r="F391" s="20"/>
-      <c r="G391" s="162"/>
+      <c r="G391" s="165"/>
     </row>
     <row r="392" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A392" s="162"/>
+      <c r="A392" s="165"/>
       <c r="B392" s="19"/>
       <c r="C392" s="20"/>
       <c r="D392" s="20"/>
       <c r="E392" s="20"/>
       <c r="F392" s="20"/>
-      <c r="G392" s="162"/>
+      <c r="G392" s="165"/>
     </row>
     <row r="393" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A393" s="162"/>
+      <c r="A393" s="165"/>
       <c r="B393" s="19"/>
       <c r="C393" s="20"/>
       <c r="D393" s="20"/>
       <c r="E393" s="20"/>
       <c r="F393" s="20"/>
-      <c r="G393" s="162"/>
+      <c r="G393" s="165"/>
     </row>
     <row r="394" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A394" s="162"/>
+      <c r="A394" s="165"/>
       <c r="B394" s="19"/>
       <c r="C394" s="20"/>
       <c r="D394" s="20"/>
       <c r="E394" s="20"/>
       <c r="F394" s="20"/>
-      <c r="G394" s="162"/>
+      <c r="G394" s="165"/>
     </row>
     <row r="395" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A395" s="162"/>
+      <c r="A395" s="165"/>
       <c r="B395" s="19"/>
       <c r="C395" s="20"/>
       <c r="D395" s="20"/>
       <c r="E395" s="20"/>
       <c r="F395" s="20"/>
-      <c r="G395" s="162"/>
+      <c r="G395" s="165"/>
     </row>
     <row r="396" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A396" s="162"/>
+      <c r="A396" s="165"/>
       <c r="B396" s="19"/>
       <c r="C396" s="20"/>
       <c r="D396" s="20"/>
       <c r="E396" s="20"/>
       <c r="F396" s="20"/>
-      <c r="G396" s="162"/>
+      <c r="G396" s="165"/>
     </row>
     <row r="397" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A397" s="162"/>
+      <c r="A397" s="165"/>
       <c r="B397" s="19"/>
       <c r="C397" s="20"/>
       <c r="D397" s="20"/>
       <c r="E397" s="20"/>
       <c r="F397" s="20"/>
-      <c r="G397" s="162"/>
+      <c r="G397" s="165"/>
     </row>
     <row r="398" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A398" s="162"/>
+      <c r="A398" s="165"/>
       <c r="B398" s="19"/>
       <c r="C398" s="20"/>
       <c r="D398" s="20"/>
       <c r="E398" s="20"/>
       <c r="F398" s="20"/>
-      <c r="G398" s="162"/>
+      <c r="G398" s="165"/>
     </row>
     <row r="399" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A399" s="162"/>
+      <c r="A399" s="165"/>
       <c r="B399" s="19"/>
       <c r="C399" s="20"/>
       <c r="D399" s="20"/>
       <c r="E399" s="20"/>
       <c r="F399" s="20"/>
-      <c r="G399" s="162"/>
+      <c r="G399" s="165"/>
     </row>
     <row r="400" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A400" s="162"/>
+      <c r="A400" s="165"/>
       <c r="B400" s="19"/>
       <c r="C400" s="20"/>
       <c r="D400" s="20"/>
       <c r="E400" s="20"/>
       <c r="F400" s="20"/>
-      <c r="G400" s="162"/>
+      <c r="G400" s="165"/>
     </row>
     <row r="401" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A401" s="162"/>
+      <c r="A401" s="165"/>
       <c r="B401" s="19"/>
       <c r="C401" s="20"/>
       <c r="D401" s="20"/>
       <c r="E401" s="20"/>
       <c r="F401" s="20"/>
-      <c r="G401" s="162"/>
+      <c r="G401" s="165"/>
     </row>
     <row r="402" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A402" s="162"/>
+      <c r="A402" s="165"/>
       <c r="B402" s="19"/>
       <c r="C402" s="20"/>
       <c r="D402" s="20"/>
       <c r="E402" s="20"/>
       <c r="F402" s="20"/>
-      <c r="G402" s="162"/>
+      <c r="G402" s="165"/>
     </row>
     <row r="403" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A403" s="162"/>
+      <c r="A403" s="165"/>
       <c r="B403" s="19"/>
       <c r="C403" s="20"/>
       <c r="D403" s="20"/>
       <c r="E403" s="20"/>
       <c r="F403" s="20"/>
-      <c r="G403" s="162"/>
+      <c r="G403" s="165"/>
     </row>
     <row r="404" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A404" s="162"/>
+      <c r="A404" s="165"/>
       <c r="B404" s="19"/>
       <c r="C404" s="20"/>
       <c r="D404" s="20"/>
       <c r="E404" s="20"/>
       <c r="F404" s="20"/>
-      <c r="G404" s="162"/>
+      <c r="G404" s="165"/>
     </row>
     <row r="405" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A405" s="162"/>
+      <c r="A405" s="165"/>
       <c r="B405" s="19"/>
       <c r="C405" s="20"/>
       <c r="D405" s="20"/>
       <c r="E405" s="20"/>
       <c r="F405" s="20"/>
-      <c r="G405" s="162"/>
+      <c r="G405" s="165"/>
     </row>
     <row r="406" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A406" s="162"/>
+      <c r="A406" s="165"/>
       <c r="B406" s="19"/>
       <c r="C406" s="20"/>
       <c r="D406" s="20"/>
       <c r="E406" s="20"/>
       <c r="F406" s="20"/>
-      <c r="G406" s="162"/>
+      <c r="G406" s="165"/>
     </row>
     <row r="407" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A407" s="162"/>
+      <c r="A407" s="165"/>
       <c r="B407" s="19"/>
       <c r="C407" s="20"/>
       <c r="D407" s="20"/>
       <c r="E407" s="20"/>
       <c r="F407" s="20"/>
-      <c r="G407" s="162"/>
+      <c r="G407" s="165"/>
     </row>
     <row r="408" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A408" s="162"/>
+      <c r="A408" s="165"/>
       <c r="B408" s="19"/>
       <c r="C408" s="20"/>
       <c r="D408" s="20"/>
       <c r="E408" s="20"/>
       <c r="F408" s="20"/>
-      <c r="G408" s="162"/>
+      <c r="G408" s="165"/>
     </row>
     <row r="409" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A409" s="162"/>
+      <c r="A409" s="165"/>
       <c r="B409" s="19"/>
       <c r="C409" s="20"/>
       <c r="D409" s="20"/>
       <c r="E409" s="20"/>
       <c r="F409" s="20"/>
-      <c r="G409" s="162"/>
+      <c r="G409" s="165"/>
     </row>
     <row r="410" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A410" s="162"/>
+      <c r="A410" s="165"/>
       <c r="B410" s="19"/>
       <c r="C410" s="20"/>
       <c r="D410" s="20"/>
       <c r="E410" s="20"/>
       <c r="F410" s="20"/>
-      <c r="G410" s="162"/>
+      <c r="G410" s="165"/>
     </row>
     <row r="411" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A411" s="162"/>
+      <c r="A411" s="165"/>
       <c r="B411" s="19"/>
       <c r="C411" s="20"/>
       <c r="D411" s="20"/>
       <c r="E411" s="20"/>
       <c r="F411" s="20"/>
-      <c r="G411" s="162"/>
+      <c r="G411" s="165"/>
     </row>
     <row r="412" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A412" s="162"/>
+      <c r="A412" s="165"/>
       <c r="B412" s="19"/>
       <c r="C412" s="20"/>
       <c r="D412" s="20"/>
       <c r="E412" s="20"/>
       <c r="F412" s="20"/>
-      <c r="G412" s="162"/>
+      <c r="G412" s="165"/>
     </row>
     <row r="413" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A413" s="162"/>
+      <c r="A413" s="165"/>
       <c r="B413" s="19"/>
       <c r="C413" s="20"/>
       <c r="D413" s="20"/>
       <c r="E413" s="20"/>
       <c r="F413" s="20"/>
-      <c r="G413" s="162"/>
+      <c r="G413" s="165"/>
     </row>
     <row r="414" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A414" s="162"/>
+      <c r="A414" s="165"/>
       <c r="B414" s="19"/>
       <c r="C414" s="20"/>
       <c r="D414" s="20"/>
       <c r="E414" s="20"/>
       <c r="F414" s="20"/>
-      <c r="G414" s="162"/>
+      <c r="G414" s="165"/>
     </row>
     <row r="415" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A415" s="162"/>
+      <c r="A415" s="165"/>
       <c r="B415" s="19"/>
       <c r="C415" s="20"/>
       <c r="D415" s="20"/>
       <c r="E415" s="20"/>
       <c r="F415" s="20"/>
-      <c r="G415" s="162"/>
+      <c r="G415" s="165"/>
     </row>
     <row r="416" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A416" s="162"/>
+      <c r="A416" s="165"/>
       <c r="B416" s="19"/>
       <c r="C416" s="20"/>
       <c r="D416" s="20"/>
       <c r="E416" s="20"/>
       <c r="F416" s="20"/>
-      <c r="G416" s="162"/>
+      <c r="G416" s="165"/>
     </row>
     <row r="417" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A417" s="162"/>
+      <c r="A417" s="165"/>
       <c r="B417" s="19"/>
       <c r="C417" s="20"/>
       <c r="D417" s="20"/>
       <c r="E417" s="20"/>
       <c r="F417" s="20"/>
-      <c r="G417" s="162"/>
+      <c r="G417" s="165"/>
     </row>
     <row r="418" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A418" s="162"/>
+      <c r="A418" s="165"/>
       <c r="B418" s="19"/>
       <c r="C418" s="20"/>
       <c r="D418" s="20"/>
       <c r="E418" s="20"/>
       <c r="F418" s="20"/>
-      <c r="G418" s="162"/>
+      <c r="G418" s="165"/>
     </row>
     <row r="419" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A419" s="162"/>
+      <c r="A419" s="165"/>
       <c r="B419" s="19"/>
       <c r="C419" s="20"/>
       <c r="D419" s="20"/>
       <c r="E419" s="20"/>
       <c r="F419" s="20"/>
-      <c r="G419" s="162"/>
+      <c r="G419" s="165"/>
     </row>
     <row r="420" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A420" s="162"/>
+      <c r="A420" s="165"/>
       <c r="B420" s="19"/>
       <c r="C420" s="20"/>
       <c r="D420" s="20"/>
       <c r="E420" s="20"/>
       <c r="F420" s="20"/>
-      <c r="G420" s="162"/>
+      <c r="G420" s="165"/>
     </row>
     <row r="421" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A421" s="162"/>
+      <c r="A421" s="165"/>
       <c r="B421" s="19"/>
       <c r="C421" s="20"/>
       <c r="D421" s="20"/>
       <c r="E421" s="20"/>
       <c r="F421" s="20"/>
-      <c r="G421" s="162"/>
+      <c r="G421" s="165"/>
     </row>
     <row r="422" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A422" s="162"/>
+      <c r="A422" s="165"/>
       <c r="B422" s="19"/>
       <c r="C422" s="20"/>
       <c r="D422" s="20"/>
       <c r="E422" s="20"/>
       <c r="F422" s="20"/>
-      <c r="G422" s="162"/>
+      <c r="G422" s="165"/>
     </row>
     <row r="423" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A423" s="162"/>
+      <c r="A423" s="165"/>
       <c r="B423" s="19"/>
       <c r="C423" s="20"/>
       <c r="D423" s="20"/>
       <c r="E423" s="20"/>
       <c r="F423" s="20"/>
-      <c r="G423" s="162"/>
+      <c r="G423" s="165"/>
     </row>
     <row r="424" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A424" s="162"/>
+      <c r="A424" s="165"/>
       <c r="B424" s="19"/>
       <c r="C424" s="20"/>
       <c r="D424" s="20"/>
       <c r="E424" s="20"/>
       <c r="F424" s="20"/>
-      <c r="G424" s="162"/>
+      <c r="G424" s="165"/>
     </row>
     <row r="425" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A425" s="162"/>
+      <c r="A425" s="165"/>
       <c r="B425" s="19"/>
       <c r="C425" s="20"/>
       <c r="D425" s="20"/>
       <c r="E425" s="20"/>
       <c r="F425" s="20"/>
-      <c r="G425" s="162"/>
+      <c r="G425" s="165"/>
     </row>
     <row r="426" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A426" s="162"/>
+      <c r="A426" s="165"/>
       <c r="B426" s="19"/>
       <c r="C426" s="20"/>
       <c r="D426" s="20"/>
       <c r="E426" s="20"/>
       <c r="F426" s="20"/>
-      <c r="G426" s="162"/>
+      <c r="G426" s="165"/>
     </row>
     <row r="427" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A427" s="162"/>
+      <c r="A427" s="165"/>
       <c r="B427" s="19"/>
       <c r="C427" s="20"/>
       <c r="D427" s="20"/>
       <c r="E427" s="20"/>
       <c r="F427" s="20"/>
-      <c r="G427" s="162"/>
+      <c r="G427" s="165"/>
     </row>
     <row r="428" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A428" s="162"/>
+      <c r="A428" s="165"/>
       <c r="B428" s="19"/>
       <c r="C428" s="20"/>
       <c r="D428" s="20"/>
       <c r="E428" s="20"/>
       <c r="F428" s="20"/>
-      <c r="G428" s="162"/>
+      <c r="G428" s="165"/>
     </row>
     <row r="429" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A429" s="162"/>
+      <c r="A429" s="165"/>
       <c r="B429" s="19"/>
       <c r="C429" s="20"/>
       <c r="D429" s="20"/>
       <c r="E429" s="20"/>
       <c r="F429" s="20"/>
-      <c r="G429" s="162"/>
+      <c r="G429" s="165"/>
     </row>
     <row r="430" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A430" s="162"/>
+      <c r="A430" s="165"/>
       <c r="B430" s="19"/>
       <c r="C430" s="20"/>
       <c r="D430" s="20"/>
       <c r="E430" s="20"/>
       <c r="F430" s="20"/>
-      <c r="G430" s="162"/>
+      <c r="G430" s="165"/>
     </row>
     <row r="431" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A431" s="162"/>
+      <c r="A431" s="165"/>
       <c r="B431" s="19"/>
       <c r="C431" s="20"/>
       <c r="D431" s="20"/>
       <c r="E431" s="20"/>
       <c r="F431" s="20"/>
-      <c r="G431" s="162"/>
+      <c r="G431" s="165"/>
     </row>
     <row r="432" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A432" s="162"/>
+      <c r="A432" s="165"/>
       <c r="B432" s="19"/>
       <c r="C432" s="20"/>
       <c r="D432" s="20"/>
       <c r="E432" s="20"/>
       <c r="F432" s="20"/>
-      <c r="G432" s="162"/>
+      <c r="G432" s="165"/>
     </row>
     <row r="433" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A433" s="162"/>
+      <c r="A433" s="165"/>
       <c r="B433" s="19"/>
       <c r="C433" s="20"/>
       <c r="D433" s="20"/>
       <c r="E433" s="20"/>
       <c r="F433" s="20"/>
-      <c r="G433" s="162"/>
+      <c r="G433" s="165"/>
     </row>
     <row r="434" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A434" s="162"/>
+      <c r="A434" s="165"/>
       <c r="B434" s="19"/>
       <c r="C434" s="20"/>
       <c r="D434" s="20"/>
       <c r="E434" s="20"/>
       <c r="F434" s="20"/>
-      <c r="G434" s="162"/>
+      <c r="G434" s="165"/>
     </row>
     <row r="435" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A435" s="162"/>
+      <c r="A435" s="165"/>
       <c r="B435" s="19"/>
       <c r="C435" s="20"/>
       <c r="D435" s="20"/>
       <c r="E435" s="20"/>
       <c r="F435" s="20"/>
-      <c r="G435" s="162"/>
+      <c r="G435" s="165"/>
     </row>
     <row r="436" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A436" s="162"/>
+      <c r="A436" s="165"/>
       <c r="B436" s="19"/>
       <c r="C436" s="20"/>
       <c r="D436" s="20"/>
       <c r="E436" s="20"/>
       <c r="F436" s="20"/>
-      <c r="G436" s="162"/>
+      <c r="G436" s="165"/>
     </row>
     <row r="437" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A437" s="162"/>
+      <c r="A437" s="165"/>
       <c r="B437" s="19"/>
       <c r="C437" s="20"/>
       <c r="D437" s="20"/>
       <c r="E437" s="20"/>
       <c r="F437" s="20"/>
-      <c r="G437" s="162"/>
+      <c r="G437" s="165"/>
     </row>
     <row r="438" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A438" s="162"/>
+      <c r="A438" s="165"/>
       <c r="B438" s="19"/>
       <c r="C438" s="20"/>
       <c r="D438" s="20"/>
       <c r="E438" s="20"/>
       <c r="F438" s="20"/>
-      <c r="G438" s="162"/>
+      <c r="G438" s="165"/>
     </row>
     <row r="439" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A439" s="162"/>
+      <c r="A439" s="165"/>
       <c r="B439" s="19"/>
       <c r="C439" s="20"/>
       <c r="D439" s="20"/>
       <c r="E439" s="20"/>
       <c r="F439" s="20"/>
-      <c r="G439" s="162"/>
+      <c r="G439" s="165"/>
     </row>
     <row r="440" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A440" s="162"/>
+      <c r="A440" s="165"/>
       <c r="B440" s="19"/>
       <c r="C440" s="20"/>
       <c r="D440" s="20"/>
       <c r="E440" s="20"/>
       <c r="F440" s="20"/>
-      <c r="G440" s="162"/>
+      <c r="G440" s="165"/>
     </row>
     <row r="441" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A441" s="162"/>
+      <c r="A441" s="165"/>
       <c r="B441" s="19"/>
       <c r="C441" s="20"/>
       <c r="D441" s="20"/>
       <c r="E441" s="20"/>
       <c r="F441" s="20"/>
-      <c r="G441" s="162"/>
+      <c r="G441" s="165"/>
     </row>
     <row r="442" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A442" s="162"/>
+      <c r="A442" s="165"/>
       <c r="B442" s="19"/>
       <c r="C442" s="20"/>
       <c r="D442" s="20"/>
       <c r="E442" s="20"/>
       <c r="F442" s="20"/>
-      <c r="G442" s="162"/>
+      <c r="G442" s="165"/>
     </row>
     <row r="443" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A443" s="162"/>
+      <c r="A443" s="165"/>
       <c r="B443" s="19"/>
       <c r="C443" s="20"/>
       <c r="D443" s="20"/>
       <c r="E443" s="20"/>
       <c r="F443" s="20"/>
-      <c r="G443" s="162"/>
+      <c r="G443" s="165"/>
     </row>
     <row r="444" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A444" s="162"/>
+      <c r="A444" s="165"/>
       <c r="B444" s="19"/>
       <c r="C444" s="20"/>
       <c r="D444" s="20"/>
       <c r="E444" s="20"/>
       <c r="F444" s="20"/>
-      <c r="G444" s="162"/>
+      <c r="G444" s="165"/>
     </row>
     <row r="445" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A445" s="162"/>
+      <c r="A445" s="165"/>
       <c r="B445" s="19"/>
       <c r="C445" s="20"/>
       <c r="D445" s="20"/>
       <c r="E445" s="20"/>
       <c r="F445" s="20"/>
-      <c r="G445" s="162"/>
+      <c r="G445" s="165"/>
     </row>
     <row r="446" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A446" s="162"/>
+      <c r="A446" s="165"/>
       <c r="B446" s="19"/>
       <c r="C446" s="20"/>
       <c r="D446" s="20"/>
       <c r="E446" s="20"/>
       <c r="F446" s="20"/>
-      <c r="G446" s="162"/>
+      <c r="G446" s="165"/>
     </row>
     <row r="447" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A447" s="162"/>
+      <c r="A447" s="165"/>
       <c r="B447" s="19"/>
       <c r="C447" s="20"/>
       <c r="D447" s="20"/>
       <c r="E447" s="20"/>
       <c r="F447" s="20"/>
-      <c r="G447" s="162"/>
+      <c r="G447" s="165"/>
     </row>
     <row r="448" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A448" s="162"/>
+      <c r="A448" s="165"/>
       <c r="B448" s="19"/>
       <c r="C448" s="20"/>
       <c r="D448" s="20"/>
       <c r="E448" s="20"/>
       <c r="F448" s="20"/>
-      <c r="G448" s="162"/>
+      <c r="G448" s="165"/>
     </row>
     <row r="449" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A449" s="162"/>
+      <c r="A449" s="165"/>
       <c r="B449" s="19"/>
       <c r="C449" s="20"/>
       <c r="D449" s="20"/>
       <c r="E449" s="20"/>
       <c r="F449" s="20"/>
-      <c r="G449" s="162"/>
+      <c r="G449" s="165"/>
     </row>
     <row r="450" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A450" s="162"/>
+      <c r="A450" s="165"/>
       <c r="B450" s="19"/>
       <c r="C450" s="20"/>
       <c r="D450" s="20"/>
       <c r="E450" s="20"/>
       <c r="F450" s="20"/>
-      <c r="G450" s="162"/>
+      <c r="G450" s="165"/>
     </row>
     <row r="451" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A451" s="162"/>
+      <c r="A451" s="165"/>
       <c r="B451" s="19"/>
       <c r="C451" s="20"/>
       <c r="D451" s="20"/>
       <c r="E451" s="20"/>
       <c r="F451" s="20"/>
-      <c r="G451" s="162"/>
+      <c r="G451" s="165"/>
     </row>
     <row r="452" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A452" s="162"/>
+      <c r="A452" s="165"/>
       <c r="B452" s="19"/>
       <c r="C452" s="20"/>
       <c r="D452" s="20"/>
       <c r="E452" s="20"/>
       <c r="F452" s="20"/>
-      <c r="G452" s="162"/>
+      <c r="G452" s="165"/>
     </row>
     <row r="453" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A453" s="162"/>
+      <c r="A453" s="165"/>
       <c r="B453" s="19"/>
       <c r="C453" s="20"/>
       <c r="D453" s="20"/>
       <c r="E453" s="20"/>
       <c r="F453" s="20"/>
-      <c r="G453" s="162"/>
+      <c r="G453" s="165"/>
     </row>
     <row r="454" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A454" s="162"/>
+      <c r="A454" s="165"/>
       <c r="B454" s="19"/>
       <c r="C454" s="20"/>
       <c r="D454" s="20"/>
       <c r="E454" s="20"/>
       <c r="F454" s="20"/>
-      <c r="G454" s="162"/>
+      <c r="G454" s="165"/>
     </row>
     <row r="455" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A455" s="162"/>
+      <c r="A455" s="165"/>
       <c r="B455" s="19"/>
       <c r="C455" s="20"/>
       <c r="D455" s="20"/>
       <c r="E455" s="20"/>
       <c r="F455" s="20"/>
-      <c r="G455" s="162"/>
+      <c r="G455" s="165"/>
     </row>
     <row r="456" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A456" s="162"/>
+      <c r="A456" s="165"/>
       <c r="B456" s="19"/>
       <c r="C456" s="20"/>
       <c r="D456" s="20"/>
       <c r="E456" s="20"/>
       <c r="F456" s="20"/>
-      <c r="G456" s="162"/>
+      <c r="G456" s="165"/>
     </row>
     <row r="457" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A457" s="162"/>
+      <c r="A457" s="165"/>
       <c r="B457" s="19"/>
       <c r="C457" s="20"/>
       <c r="D457" s="20"/>
       <c r="E457" s="20"/>
       <c r="F457" s="20"/>
-      <c r="G457" s="162"/>
+      <c r="G457" s="165"/>
     </row>
     <row r="458" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A458" s="162"/>
+      <c r="A458" s="165"/>
       <c r="B458" s="19"/>
       <c r="C458" s="20"/>
       <c r="D458" s="20"/>
       <c r="E458" s="20"/>
       <c r="F458" s="20"/>
-      <c r="G458" s="162"/>
+      <c r="G458" s="165"/>
     </row>
     <row r="459" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A459" s="162"/>
+      <c r="A459" s="165"/>
       <c r="B459" s="19"/>
       <c r="C459" s="20"/>
       <c r="D459" s="20"/>
       <c r="E459" s="20"/>
       <c r="F459" s="20"/>
-      <c r="G459" s="162"/>
+      <c r="G459" s="165"/>
     </row>
     <row r="460" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A460" s="162"/>
+      <c r="A460" s="165"/>
       <c r="B460" s="19"/>
       <c r="C460" s="20"/>
       <c r="D460" s="20"/>
       <c r="E460" s="20"/>
       <c r="F460" s="20"/>
-      <c r="G460" s="162"/>
+      <c r="G460" s="165"/>
     </row>
     <row r="461" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A461" s="162"/>
+      <c r="A461" s="165"/>
       <c r="B461" s="19"/>
       <c r="C461" s="20"/>
       <c r="D461" s="20"/>
       <c r="E461" s="20"/>
       <c r="F461" s="20"/>
-      <c r="G461" s="162"/>
+      <c r="G461" s="165"/>
     </row>
     <row r="462" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A462" s="162"/>
+      <c r="A462" s="165"/>
       <c r="B462" s="19"/>
       <c r="C462" s="20"/>
       <c r="D462" s="20"/>
       <c r="E462" s="20"/>
       <c r="F462" s="20"/>
-      <c r="G462" s="162"/>
+      <c r="G462" s="165"/>
     </row>
     <row r="463" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A463" s="162"/>
+      <c r="A463" s="165"/>
       <c r="B463" s="19"/>
       <c r="C463" s="20"/>
       <c r="D463" s="20"/>
       <c r="E463" s="20"/>
       <c r="F463" s="20"/>
-      <c r="G463" s="162"/>
+      <c r="G463" s="165"/>
     </row>
     <row r="464" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A464" s="162"/>
+      <c r="A464" s="165"/>
       <c r="B464" s="19"/>
       <c r="C464" s="20"/>
       <c r="D464" s="20"/>
       <c r="E464" s="20"/>
       <c r="F464" s="20"/>
-      <c r="G464" s="162"/>
+      <c r="G464" s="165"/>
     </row>
     <row r="465" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A465" s="162"/>
+      <c r="A465" s="165"/>
       <c r="B465" s="19"/>
       <c r="C465" s="20"/>
       <c r="D465" s="20"/>
       <c r="E465" s="20"/>
       <c r="F465" s="20"/>
-      <c r="G465" s="162"/>
+      <c r="G465" s="165"/>
     </row>
     <row r="466" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A466" s="162"/>
+      <c r="A466" s="165"/>
       <c r="B466" s="19"/>
       <c r="C466" s="20"/>
       <c r="D466" s="20"/>
       <c r="E466" s="20"/>
       <c r="F466" s="20"/>
-      <c r="G466" s="162"/>
+      <c r="G466" s="165"/>
     </row>
     <row r="467" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A467" s="162"/>
+      <c r="A467" s="165"/>
       <c r="B467" s="19"/>
       <c r="C467" s="20"/>
       <c r="D467" s="20"/>
       <c r="E467" s="20"/>
       <c r="F467" s="20"/>
-      <c r="G467" s="162"/>
+      <c r="G467" s="165"/>
     </row>
     <row r="468" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A468" s="162"/>
+      <c r="A468" s="165"/>
       <c r="B468" s="19"/>
       <c r="C468" s="20"/>
       <c r="D468" s="20"/>
       <c r="E468" s="20"/>
       <c r="F468" s="20"/>
-      <c r="G468" s="162"/>
+      <c r="G468" s="165"/>
     </row>
     <row r="469" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A469" s="162"/>
+      <c r="A469" s="165"/>
       <c r="B469" s="19"/>
       <c r="C469" s="20"/>
       <c r="D469" s="20"/>
       <c r="E469" s="20"/>
       <c r="F469" s="20"/>
-      <c r="G469" s="162"/>
+      <c r="G469" s="165"/>
     </row>
     <row r="470" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A470" s="162"/>
+      <c r="A470" s="165"/>
       <c r="B470" s="19"/>
       <c r="C470" s="20"/>
       <c r="D470" s="20"/>
       <c r="E470" s="20"/>
       <c r="F470" s="20"/>
-      <c r="G470" s="162"/>
+      <c r="G470" s="165"/>
     </row>
     <row r="471" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A471" s="162"/>
+      <c r="A471" s="165"/>
       <c r="B471" s="19"/>
       <c r="C471" s="20"/>
       <c r="D471" s="20"/>
       <c r="E471" s="20"/>
       <c r="F471" s="20"/>
-      <c r="G471" s="162"/>
+      <c r="G471" s="165"/>
     </row>
     <row r="472" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A472" s="162"/>
+      <c r="A472" s="165"/>
       <c r="B472" s="19"/>
       <c r="C472" s="20"/>
       <c r="D472" s="20"/>
       <c r="E472" s="20"/>
       <c r="F472" s="20"/>
-      <c r="G472" s="162"/>
+      <c r="G472" s="165"/>
     </row>
     <row r="473" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A473" s="162"/>
+      <c r="A473" s="165"/>
       <c r="B473" s="19"/>
       <c r="C473" s="20"/>
       <c r="D473" s="20"/>
       <c r="E473" s="20"/>
       <c r="F473" s="20"/>
-      <c r="G473" s="162"/>
+      <c r="G473" s="165"/>
     </row>
     <row r="474" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A474" s="162"/>
+      <c r="A474" s="165"/>
       <c r="B474" s="19"/>
       <c r="C474" s="20"/>
       <c r="D474" s="20"/>
       <c r="E474" s="20"/>
       <c r="F474" s="20"/>
-      <c r="G474" s="162"/>
+      <c r="G474" s="165"/>
     </row>
     <row r="475" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A475" s="162"/>
+      <c r="A475" s="165"/>
       <c r="B475" s="19"/>
       <c r="C475" s="20"/>
       <c r="D475" s="20"/>
       <c r="E475" s="20"/>
       <c r="F475" s="20"/>
-      <c r="G475" s="162"/>
+      <c r="G475" s="165"/>
     </row>
     <row r="476" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A476" s="162"/>
+      <c r="A476" s="165"/>
       <c r="B476" s="19"/>
       <c r="C476" s="20"/>
       <c r="D476" s="20"/>
       <c r="E476" s="20"/>
       <c r="F476" s="20"/>
-      <c r="G476" s="162"/>
+      <c r="G476" s="165"/>
     </row>
     <row r="477" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A477" s="162"/>
+      <c r="A477" s="165"/>
       <c r="B477" s="19"/>
       <c r="C477" s="20"/>
       <c r="D477" s="20"/>
       <c r="E477" s="20"/>
       <c r="F477" s="20"/>
-      <c r="G477" s="162"/>
+      <c r="G477" s="165"/>
     </row>
     <row r="478" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A478" s="162"/>
+      <c r="A478" s="165"/>
       <c r="B478" s="19"/>
       <c r="C478" s="20"/>
       <c r="D478" s="20"/>
       <c r="E478" s="20"/>
       <c r="F478" s="20"/>
-      <c r="G478" s="162"/>
+      <c r="G478" s="165"/>
     </row>
     <row r="479" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A479" s="162"/>
+      <c r="A479" s="165"/>
       <c r="B479" s="19"/>
       <c r="C479" s="20"/>
       <c r="D479" s="20"/>
       <c r="E479" s="20"/>
       <c r="F479" s="20"/>
-      <c r="G479" s="162"/>
+      <c r="G479" s="165"/>
     </row>
     <row r="480" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A480" s="162"/>
+      <c r="A480" s="165"/>
       <c r="B480" s="19"/>
       <c r="C480" s="20"/>
       <c r="D480" s="20"/>
       <c r="E480" s="20"/>
       <c r="F480" s="20"/>
-      <c r="G480" s="162"/>
+      <c r="G480" s="165"/>
     </row>
     <row r="481" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A481" s="162"/>
+      <c r="A481" s="165"/>
       <c r="B481" s="19"/>
       <c r="C481" s="20"/>
       <c r="D481" s="20"/>
       <c r="E481" s="20"/>
       <c r="F481" s="20"/>
-      <c r="G481" s="162"/>
+      <c r="G481" s="165"/>
     </row>
     <row r="482" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A482" s="162"/>
+      <c r="A482" s="165"/>
       <c r="B482" s="19"/>
       <c r="C482" s="20"/>
       <c r="D482" s="20"/>
       <c r="E482" s="20"/>
       <c r="F482" s="20"/>
-      <c r="G482" s="162"/>
+      <c r="G482" s="165"/>
     </row>
     <row r="483" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A483" s="162"/>
+      <c r="A483" s="165"/>
       <c r="B483" s="19"/>
       <c r="C483" s="20"/>
       <c r="D483" s="20"/>
       <c r="E483" s="20"/>
       <c r="F483" s="20"/>
-      <c r="G483" s="162"/>
+      <c r="G483" s="165"/>
     </row>
     <row r="484" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A484" s="162"/>
+      <c r="A484" s="165"/>
       <c r="B484" s="19"/>
       <c r="C484" s="20"/>
       <c r="D484" s="20"/>
       <c r="E484" s="20"/>
       <c r="F484" s="20"/>
-      <c r="G484" s="162"/>
+      <c r="G484" s="165"/>
     </row>
     <row r="485" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A485" s="162"/>
+      <c r="A485" s="165"/>
       <c r="B485" s="19"/>
       <c r="C485" s="20"/>
       <c r="D485" s="20"/>
       <c r="E485" s="20"/>
       <c r="F485" s="20"/>
-      <c r="G485" s="162"/>
+      <c r="G485" s="165"/>
     </row>
     <row r="486" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A486" s="162"/>
+      <c r="A486" s="165"/>
       <c r="B486" s="19"/>
       <c r="C486" s="20"/>
       <c r="D486" s="20"/>
       <c r="E486" s="20"/>
       <c r="F486" s="20"/>
-      <c r="G486" s="162"/>
+      <c r="G486" s="165"/>
     </row>
     <row r="487" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A487" s="162"/>
+      <c r="A487" s="165"/>
       <c r="B487" s="19"/>
       <c r="C487" s="20"/>
       <c r="D487" s="20"/>
       <c r="E487" s="20"/>
       <c r="F487" s="20"/>
-      <c r="G487" s="162"/>
+      <c r="G487" s="165"/>
     </row>
     <row r="488" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A488" s="162"/>
+      <c r="A488" s="165"/>
       <c r="B488" s="19"/>
       <c r="C488" s="20"/>
       <c r="D488" s="20"/>
       <c r="E488" s="20"/>
       <c r="F488" s="20"/>
-      <c r="G488" s="162"/>
+      <c r="G488" s="165"/>
     </row>
     <row r="489" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A489" s="162"/>
+      <c r="A489" s="165"/>
       <c r="B489" s="19"/>
       <c r="C489" s="20"/>
       <c r="D489" s="20"/>
       <c r="E489" s="20"/>
       <c r="F489" s="20"/>
-      <c r="G489" s="162"/>
+      <c r="G489" s="165"/>
     </row>
     <row r="490" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A490" s="162"/>
+      <c r="A490" s="165"/>
       <c r="B490" s="19"/>
       <c r="C490" s="20"/>
       <c r="D490" s="20"/>
       <c r="E490" s="20"/>
       <c r="F490" s="20"/>
-      <c r="G490" s="162"/>
+      <c r="G490" s="165"/>
     </row>
     <row r="491" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A491" s="162"/>
+      <c r="A491" s="165"/>
       <c r="B491" s="19"/>
       <c r="C491" s="20"/>
       <c r="D491" s="20"/>
       <c r="E491" s="20"/>
       <c r="F491" s="20"/>
-      <c r="G491" s="162"/>
+      <c r="G491" s="165"/>
     </row>
     <row r="492" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A492" s="162"/>
+      <c r="A492" s="165"/>
       <c r="B492" s="19"/>
       <c r="C492" s="20"/>
       <c r="D492" s="20"/>
       <c r="E492" s="20"/>
       <c r="F492" s="20"/>
-      <c r="G492" s="162"/>
+      <c r="G492" s="165"/>
     </row>
     <row r="493" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A493" s="162"/>
+      <c r="A493" s="165"/>
       <c r="B493" s="19"/>
       <c r="C493" s="20"/>
       <c r="D493" s="20"/>
       <c r="E493" s="20"/>
       <c r="F493" s="20"/>
-      <c r="G493" s="162"/>
+      <c r="G493" s="165"/>
     </row>
     <row r="494" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A494" s="162"/>
+      <c r="A494" s="165"/>
       <c r="B494" s="19"/>
       <c r="C494" s="20"/>
       <c r="D494" s="20"/>
       <c r="E494" s="20"/>
       <c r="F494" s="20"/>
-      <c r="G494" s="162"/>
+      <c r="G494" s="165"/>
     </row>
     <row r="495" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A495" s="162"/>
+      <c r="A495" s="165"/>
       <c r="B495" s="19"/>
       <c r="C495" s="20"/>
       <c r="D495" s="20"/>
       <c r="E495" s="20"/>
       <c r="F495" s="20"/>
-      <c r="G495" s="162"/>
+      <c r="G495" s="165"/>
     </row>
     <row r="496" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A496" s="162"/>
+      <c r="A496" s="165"/>
       <c r="B496" s="19"/>
       <c r="C496" s="20"/>
       <c r="D496" s="20"/>
       <c r="E496" s="20"/>
       <c r="F496" s="20"/>
-      <c r="G496" s="162"/>
+      <c r="G496" s="165"/>
     </row>
     <row r="497" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A497" s="162"/>
+      <c r="A497" s="165"/>
       <c r="B497" s="19"/>
       <c r="C497" s="20"/>
       <c r="D497" s="20"/>
       <c r="E497" s="20"/>
       <c r="F497" s="20"/>
-      <c r="G497" s="162"/>
+      <c r="G497" s="165"/>
     </row>
     <row r="498" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A498" s="162"/>
+      <c r="A498" s="165"/>
       <c r="B498" s="19"/>
       <c r="C498" s="20"/>
       <c r="D498" s="20"/>
       <c r="E498" s="20"/>
       <c r="F498" s="20"/>
-      <c r="G498" s="162"/>
+      <c r="G498" s="165"/>
     </row>
     <row r="499" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A499" s="162"/>
+      <c r="A499" s="165"/>
       <c r="B499" s="19"/>
       <c r="C499" s="20"/>
       <c r="D499" s="20"/>
       <c r="E499" s="20"/>
       <c r="F499" s="20"/>
-      <c r="G499" s="162"/>
+      <c r="G499" s="165"/>
     </row>
     <row r="500" spans="1:7" ht="21.75" customHeight="1">
       <c r="A500" s="21"/>
